--- a/SuppXLS/Scen_TRA_ActiveModes.xlsx
+++ b/SuppXLS/Scen_TRA_ActiveModes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB37CFA8-A474-46B3-9252-4FA6BB67C1B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7645335-58F1-43C0-A524-C1FF54084D1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="142">
   <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
@@ -622,17 +622,33 @@
   <si>
     <t xml:space="preserve"> Replacing short car journeys with active modes</t>
   </si>
+  <si>
+    <t>walking</t>
+  </si>
+  <si>
+    <t>cycling</t>
+  </si>
+  <si>
+    <t>TCAR</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,6 +763,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -890,11 +913,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -962,22 +986,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1079,13 +1109,13 @@
       <sheetName val="AF"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7">
         <row r="8">
           <cell r="K8" t="str">
@@ -1128,7 +1158,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8"/>
+      <sheetData sheetId="8" refreshError="1"/>
       <sheetData sheetId="9">
         <row r="4">
           <cell r="C4">
@@ -3396,10 +3426,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5114,8 +5144,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:AQ86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5132,99 +5162,86 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="2:43" ht="25.8" customHeight="1">
-      <c r="C3" s="51" t="s">
+    <row r="3" spans="2:43" s="51" customFormat="1" ht="25.8" customHeight="1">
+      <c r="C3" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="15"/>
-      <c r="AO3" s="15"/>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
-    </row>
-    <row r="4" spans="2:43" ht="24" customHeight="1">
-      <c r="C4" s="50" t="s">
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+    </row>
+    <row r="4" spans="2:43" s="51" customFormat="1" ht="24" customHeight="1">
+      <c r="C4" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50" t="s">
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="15"/>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="15"/>
-      <c r="AO4" s="15"/>
-      <c r="AP4" s="15"/>
-      <c r="AQ4" s="15"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="U4" s="51">
+        <v>2018</v>
+      </c>
+      <c r="V4" s="51">
+        <v>2019</v>
+      </c>
+      <c r="W4" s="51">
+        <v>2020</v>
+      </c>
+      <c r="X4" s="51">
+        <v>2021</v>
+      </c>
+      <c r="Y4" s="51">
+        <v>2022</v>
+      </c>
+      <c r="Z4" s="51">
+        <v>2023</v>
+      </c>
+      <c r="AA4" s="51">
+        <v>2024</v>
+      </c>
+      <c r="AB4" s="51">
+        <v>2025</v>
+      </c>
+      <c r="AC4" s="51">
+        <v>2026</v>
+      </c>
+      <c r="AD4" s="51">
+        <v>2027</v>
+      </c>
+      <c r="AE4" s="51">
+        <v>2028</v>
+      </c>
+      <c r="AF4" s="51">
+        <v>2029</v>
+      </c>
+      <c r="AG4" s="51">
+        <v>2030</v>
+      </c>
     </row>
     <row r="5" spans="2:43">
       <c r="C5" s="15"/>
@@ -5244,20 +5261,61 @@
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
+      <c r="T5" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="U5" s="52">
+        <f>N12</f>
+        <v>0.32377983784854231</v>
+      </c>
+      <c r="V5" s="52">
+        <f>U5+(($AG$5-$U$5)/12)</f>
+        <v>0.34070859991938141</v>
+      </c>
+      <c r="W5" s="52">
+        <f t="shared" ref="W5:AF5" si="0">V5+(($AG$5-$U$5)/12)</f>
+        <v>0.3576373619902205</v>
+      </c>
+      <c r="X5" s="52">
+        <f t="shared" si="0"/>
+        <v>0.3745661240610596</v>
+      </c>
+      <c r="Y5" s="52">
+        <f t="shared" si="0"/>
+        <v>0.3914948861318987</v>
+      </c>
+      <c r="Z5" s="52">
+        <f t="shared" si="0"/>
+        <v>0.4084236482027378</v>
+      </c>
+      <c r="AA5" s="52">
+        <f t="shared" si="0"/>
+        <v>0.4253524102735769</v>
+      </c>
+      <c r="AB5" s="52">
+        <f t="shared" si="0"/>
+        <v>0.442281172344416</v>
+      </c>
+      <c r="AC5" s="52">
+        <f t="shared" si="0"/>
+        <v>0.45920993441525509</v>
+      </c>
+      <c r="AD5" s="52">
+        <f t="shared" si="0"/>
+        <v>0.47613869648609419</v>
+      </c>
+      <c r="AE5" s="52">
+        <f t="shared" si="0"/>
+        <v>0.49306745855693329</v>
+      </c>
+      <c r="AF5" s="52">
+        <f t="shared" si="0"/>
+        <v>0.50999622062777239</v>
+      </c>
+      <c r="AG5" s="52">
+        <f>N13</f>
+        <v>0.52692498269861132</v>
+      </c>
       <c r="AH5" s="15"/>
       <c r="AI5" s="15"/>
       <c r="AJ5" s="15"/>
@@ -5269,7 +5327,63 @@
       <c r="AP5" s="15"/>
       <c r="AQ5" s="15"/>
     </row>
-    <row r="6" spans="2:43" s="15" customFormat="1"/>
+    <row r="6" spans="2:43" s="15" customFormat="1">
+      <c r="T6" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="U6" s="52">
+        <f>N15</f>
+        <v>5.3963306308090382E-2</v>
+      </c>
+      <c r="V6" s="52">
+        <f>U6+(($AG$6-$U$6)/12)</f>
+        <v>5.8460248500431244E-2</v>
+      </c>
+      <c r="W6" s="52">
+        <f t="shared" ref="W6:AF6" si="1">V6+(($AG$6-$U$6)/12)</f>
+        <v>6.2957190692772114E-2</v>
+      </c>
+      <c r="X6" s="52">
+        <f t="shared" si="1"/>
+        <v>6.7454132885112983E-2</v>
+      </c>
+      <c r="Y6" s="52">
+        <f t="shared" si="1"/>
+        <v>7.1951075077453852E-2</v>
+      </c>
+      <c r="Z6" s="52">
+        <f t="shared" si="1"/>
+        <v>7.6448017269794721E-2</v>
+      </c>
+      <c r="AA6" s="52">
+        <f t="shared" si="1"/>
+        <v>8.0944959462135591E-2</v>
+      </c>
+      <c r="AB6" s="52">
+        <f t="shared" si="1"/>
+        <v>8.544190165447646E-2</v>
+      </c>
+      <c r="AC6" s="52">
+        <f t="shared" si="1"/>
+        <v>8.9938843846817329E-2</v>
+      </c>
+      <c r="AD6" s="52">
+        <f t="shared" si="1"/>
+        <v>9.4435786039158198E-2</v>
+      </c>
+      <c r="AE6" s="52">
+        <f t="shared" si="1"/>
+        <v>9.8932728231499067E-2</v>
+      </c>
+      <c r="AF6" s="52">
+        <f t="shared" si="1"/>
+        <v>0.10342967042383994</v>
+      </c>
+      <c r="AG6" s="52">
+        <f>N16</f>
+        <v>0.10792661261618076</v>
+      </c>
+    </row>
     <row r="7" spans="2:43">
       <c r="B7" s="15" t="s">
         <v>25</v>
@@ -5285,26 +5399,67 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
+      <c r="N7" s="50"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
+      <c r="T7" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="U7" s="52">
+        <f>N21</f>
+        <v>0.51421690231633799</v>
+      </c>
+      <c r="V7" s="52">
+        <f>U7+(($AG$7-$U$7)/12)</f>
+        <v>0.49279119805315724</v>
+      </c>
+      <c r="W7" s="52">
+        <f t="shared" ref="W7:AF7" si="2">V7+(($AG$7-$U$7)/12)</f>
+        <v>0.4713654937899765</v>
+      </c>
+      <c r="X7" s="52">
+        <f t="shared" si="2"/>
+        <v>0.44993978952679575</v>
+      </c>
+      <c r="Y7" s="52">
+        <f t="shared" si="2"/>
+        <v>0.42851408526361501</v>
+      </c>
+      <c r="Z7" s="52">
+        <f t="shared" si="2"/>
+        <v>0.40708838100043426</v>
+      </c>
+      <c r="AA7" s="52">
+        <f t="shared" si="2"/>
+        <v>0.38566267673725352</v>
+      </c>
+      <c r="AB7" s="52">
+        <f t="shared" si="2"/>
+        <v>0.36423697247407277</v>
+      </c>
+      <c r="AC7" s="52">
+        <f t="shared" si="2"/>
+        <v>0.34281126821089203</v>
+      </c>
+      <c r="AD7" s="52">
+        <f t="shared" si="2"/>
+        <v>0.32138556394771128</v>
+      </c>
+      <c r="AE7" s="52">
+        <f t="shared" si="2"/>
+        <v>0.29995985968453054</v>
+      </c>
+      <c r="AF7" s="52">
+        <f t="shared" si="2"/>
+        <v>0.27853415542134979</v>
+      </c>
+      <c r="AG7" s="52">
+        <f>N22</f>
+        <v>0.25710845115816899</v>
+      </c>
       <c r="AH7" s="15"/>
       <c r="AI7" s="15"/>
       <c r="AJ7" s="15"/>
@@ -5331,7 +5486,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
+      <c r="O8" s="50"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
@@ -5768,112 +5923,112 @@
         <v>Walk</v>
       </c>
       <c r="N13" s="29">
-        <f>N12*1.5</f>
-        <v>0.48566975677281343</v>
+        <f>N12*1.627417526057</f>
+        <v>0.52692498269861132</v>
       </c>
       <c r="O13" s="29">
-        <f>O12*1.5</f>
-        <v>0.44309423550077776</v>
+        <f t="shared" ref="O13:AN13" si="3">O12*1.627417526057</f>
+        <v>0.48073288303252903</v>
       </c>
       <c r="P13" s="29">
-        <f>P12*1.5</f>
-        <v>0.52449384659468212</v>
+        <f t="shared" si="3"/>
+        <v>0.56904698550482491</v>
       </c>
       <c r="Q13" s="29">
-        <f>Q12*1.5</f>
-        <v>0.46967039555187051</v>
+        <f t="shared" si="3"/>
+        <v>0.50956655546082519</v>
       </c>
       <c r="R13" s="29">
-        <f>R12*1.5</f>
-        <v>0.45149146286227548</v>
+        <f t="shared" si="3"/>
+        <v>0.48984341301812018</v>
       </c>
       <c r="S13" s="29">
-        <f>S12*1.5</f>
-        <v>0.48878676640595237</v>
+        <f t="shared" si="3"/>
+        <v>0.53030676676918387</v>
       </c>
       <c r="T13" s="29">
-        <f>T12*1.5</f>
-        <v>0.46944134539771509</v>
+        <f t="shared" si="3"/>
+        <v>0.50931804863734609</v>
       </c>
       <c r="U13" s="29">
-        <f>U12*1.5</f>
-        <v>0.5162243990136739</v>
+        <f t="shared" si="3"/>
+        <v>0.56007508955539653</v>
       </c>
       <c r="V13" s="29">
-        <f>V12*1.5</f>
-        <v>0.47460851807783078</v>
+        <f t="shared" si="3"/>
+        <v>0.5149241468905349</v>
       </c>
       <c r="W13" s="29">
-        <f>W12*1.5</f>
-        <v>0.45827846316908699</v>
+        <f t="shared" si="3"/>
+        <v>0.49720693518389303</v>
       </c>
       <c r="X13" s="29">
-        <f>X12*1.5</f>
-        <v>0.46036350190463882</v>
+        <f t="shared" si="3"/>
+        <v>0.49946908757105624</v>
       </c>
       <c r="Y13" s="29">
-        <f>Y12*1.5</f>
-        <v>0.44613036837251807</v>
+        <f t="shared" si="3"/>
+        <v>0.48402692026380101</v>
       </c>
       <c r="Z13" s="29">
-        <f>Z12*1.5</f>
-        <v>0.47977619979092306</v>
+        <f t="shared" si="3"/>
+        <v>0.52053079741651531</v>
       </c>
       <c r="AA13" s="29">
-        <f>AA12*1.5</f>
-        <v>0.45476610507138121</v>
+        <f t="shared" si="3"/>
+        <v>0.49339621976656328</v>
       </c>
       <c r="AB13" s="29">
-        <f>AB12*1.5</f>
-        <v>0.49133729177902113</v>
+        <f t="shared" si="3"/>
+        <v>0.53307394656437401</v>
       </c>
       <c r="AC13" s="29">
-        <f>AC12*1.5</f>
-        <v>0.43663100237891705</v>
+        <f t="shared" si="3"/>
+        <v>0.47372063046085683</v>
       </c>
       <c r="AD13" s="29">
-        <f>AD12*1.5</f>
-        <v>0.48316361222486004</v>
+        <f t="shared" si="3"/>
+        <v>0.52420595365849698</v>
       </c>
       <c r="AE13" s="29">
-        <f>AE12*1.5</f>
-        <v>0.4338622447452814</v>
+        <f t="shared" si="3"/>
+        <v>0.47071668066193501</v>
       </c>
       <c r="AF13" s="29">
-        <f>AF12*1.5</f>
-        <v>0.47574498288192812</v>
+        <f t="shared" si="3"/>
+        <v>0.51615714871715823</v>
       </c>
       <c r="AG13" s="29">
-        <f>AG12*1.5</f>
-        <v>0.47280772521198933</v>
+        <f t="shared" si="3"/>
+        <v>0.51297038564342234</v>
       </c>
       <c r="AH13" s="29">
-        <f>AH12*1.5</f>
-        <v>0.45815741156456141</v>
+        <f t="shared" si="3"/>
+        <v>0.49707560084871821</v>
       </c>
       <c r="AI13" s="29">
-        <f>AI12*1.5</f>
-        <v>0.44648013243648693</v>
+        <f t="shared" si="3"/>
+        <v>0.48440639504225952</v>
       </c>
       <c r="AJ13" s="29">
-        <f>AJ12*1.5</f>
-        <v>0.42211536796751919</v>
+        <f t="shared" si="3"/>
+        <v>0.45797196523222689</v>
       </c>
       <c r="AK13" s="29">
-        <f>AK12*1.5</f>
-        <v>0.48613068014982797</v>
+        <f t="shared" si="3"/>
+        <v>0.52742505921989324</v>
       </c>
       <c r="AL13" s="29">
-        <f>AL12*1.5</f>
-        <v>0.50660267733089259</v>
+        <f t="shared" si="3"/>
+        <v>0.54963605055712927</v>
       </c>
       <c r="AM13" s="29">
-        <f>AM12*1.5</f>
-        <v>0.54576721487657598</v>
+        <f t="shared" si="3"/>
+        <v>0.59212742042497091</v>
       </c>
       <c r="AN13" s="29">
-        <f>AN12*1.5</f>
-        <v>0.43879692647112001</v>
+        <f t="shared" si="3"/>
+        <v>0.47607053901269697</v>
       </c>
       <c r="AO13" s="20">
         <v>0</v>
@@ -6106,103 +6261,103 @@
         <v>9.8465385666839517E-2</v>
       </c>
       <c r="P16" s="29">
-        <f t="shared" ref="P16:AN16" si="0">P15*2</f>
+        <f t="shared" ref="P16:AN16" si="4">P15*2</f>
         <v>0.11655418813215158</v>
       </c>
       <c r="Q16" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.10437119901152681</v>
       </c>
       <c r="R16" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.10033143619161676</v>
       </c>
       <c r="S16" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.10861928142354497</v>
       </c>
       <c r="T16" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.10432029897727002</v>
       </c>
       <c r="U16" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.11471653311414978</v>
       </c>
       <c r="V16" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.1054685595728513</v>
       </c>
       <c r="W16" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.10183965848201933</v>
       </c>
       <c r="X16" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.10230300042325308</v>
       </c>
       <c r="Y16" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9.9140081860559601E-2</v>
       </c>
       <c r="Z16" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.10661693328687179</v>
       </c>
       <c r="AA16" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.10105913446030694</v>
       </c>
       <c r="AB16" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.10918606483978248</v>
       </c>
       <c r="AC16" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9.7029111639759344E-2</v>
       </c>
       <c r="AD16" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.10736969160552445</v>
       </c>
       <c r="AE16" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9.6413832165618094E-2</v>
       </c>
       <c r="AF16" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.10572110730709515</v>
       </c>
       <c r="AG16" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.10506838338044208</v>
       </c>
       <c r="AH16" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.10181275812545809</v>
       </c>
       <c r="AI16" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9.9217807208108202E-2</v>
       </c>
       <c r="AJ16" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9.3803415103893159E-2</v>
       </c>
       <c r="AK16" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.10802904003329514</v>
       </c>
       <c r="AL16" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.11257837274019833</v>
       </c>
       <c r="AM16" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.12128160330590576</v>
       </c>
       <c r="AN16" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9.7510428104693334E-2</v>
       </c>
       <c r="AO16" s="29">
@@ -6279,7 +6434,7 @@
         <v>2018</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="L18" s="15">
         <v>-1</v>
@@ -6418,7 +6573,7 @@
         <v>2030</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="L19" s="15">
         <v>-1</v>
@@ -6432,111 +6587,111 @@
         <v>1.2024577456126329E-3</v>
       </c>
       <c r="O19" s="29">
-        <f t="shared" ref="O19:AO19" si="1">O18</f>
+        <f t="shared" ref="O19:AO19" si="5">O18</f>
         <v>8.4181954391599476E-4</v>
       </c>
       <c r="P19" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.4736843073167786E-3</v>
       </c>
       <c r="Q19" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.3698908311171865E-3</v>
       </c>
       <c r="R19" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>9.8425388735709995E-4</v>
       </c>
       <c r="S19" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>6.2421004942624992E-4</v>
       </c>
       <c r="T19" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.2422933671109623E-3</v>
       </c>
       <c r="U19" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>8.6646068484003841E-4</v>
       </c>
       <c r="V19" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.3159890714686659E-3</v>
       </c>
       <c r="W19" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.2716318220191991E-3</v>
       </c>
       <c r="X19" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.1218737998245681E-3</v>
       </c>
       <c r="Y19" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.2891857705150252E-3</v>
       </c>
       <c r="Z19" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.4574437703184118E-3</v>
       </c>
       <c r="AA19" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.2419671387040388E-3</v>
       </c>
       <c r="AB19" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.4684396048311016E-3</v>
       </c>
       <c r="AC19" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>9.5921086863546602E-4</v>
       </c>
       <c r="AD19" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0725657999581929E-3</v>
       </c>
       <c r="AE19" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.1764845294377178E-3</v>
       </c>
       <c r="AF19" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.3287962602263445E-3</v>
       </c>
       <c r="AG19" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>7.9269582890742734E-4</v>
       </c>
       <c r="AH19" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI19" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>7.4007830335184128E-4</v>
       </c>
       <c r="AJ19" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>7.0738302217035411E-4</v>
       </c>
       <c r="AK19" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>8.0234115950314402E-4</v>
       </c>
       <c r="AL19" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>7.1933080869381386E-4</v>
       </c>
       <c r="AM19" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>7.4164409782466955E-4</v>
       </c>
       <c r="AN19" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>7.7316749378532367E-4</v>
       </c>
       <c r="AO19" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6553,7 +6708,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="L20" s="30"/>
       <c r="M20" s="30"/>
@@ -6609,7 +6764,7 @@
         <v>2018</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="L21" s="15">
         <v>-1</v>
@@ -6748,7 +6903,7 @@
         <v>2030</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="L22" s="15">
         <v>-1</v>
@@ -6762,107 +6917,107 @@
         <v>0.25710845115816899</v>
       </c>
       <c r="O22" s="29">
-        <f t="shared" ref="O22:AN22" si="2">O21*0.5</f>
+        <f t="shared" ref="O22:AN22" si="6">O21*0.5</f>
         <v>0.28848468073825351</v>
       </c>
       <c r="P22" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.20759945842607536</v>
       </c>
       <c r="Q22" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.2691870581189274</v>
       </c>
       <c r="R22" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.26365179492704305</v>
       </c>
       <c r="S22" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.27214095232329749</v>
       </c>
       <c r="T22" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.27362209463082626</v>
       </c>
       <c r="U22" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.25314740698368299</v>
       </c>
       <c r="V22" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.27484978119862191</v>
       </c>
       <c r="W22" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.27143439956463933</v>
       </c>
       <c r="X22" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.28525400221813491</v>
       </c>
       <c r="Y22" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.28917008662583377</v>
       </c>
       <c r="Z22" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.27403883738364437</v>
       </c>
       <c r="AA22" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.28722775304065862</v>
       </c>
       <c r="AB22" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.27257079509640914</v>
       </c>
       <c r="AC22" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.26471086661485571</v>
       </c>
       <c r="AD22" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.27445371906158783</v>
       </c>
       <c r="AE22" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.28827915278858768</v>
       </c>
       <c r="AF22" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.2823451425668787</v>
       </c>
       <c r="AG22" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.26574494175439495</v>
       </c>
       <c r="AH22" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.2855224608280601</v>
       </c>
       <c r="AI22" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.27231658223640565</v>
       </c>
       <c r="AJ22" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.30290341614964916</v>
       </c>
       <c r="AK22" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.27287670033140549</v>
       </c>
       <c r="AL22" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.28565196479848676</v>
       </c>
       <c r="AM22" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.28033962298899268</v>
       </c>
       <c r="AN22" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.24642613709310326</v>
       </c>
       <c r="AO22" s="29">
@@ -6882,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="30" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="L23" s="30"/>
       <c r="M23" s="30"/>
@@ -6938,7 +7093,7 @@
         <v>2018</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="L24" s="15">
         <v>-1</v>
@@ -7078,7 +7233,7 @@
         <v>2030</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="L25" s="15">
         <v>-1</v>
@@ -7092,107 +7247,107 @@
         <v>1.6399604421517593E-2</v>
       </c>
       <c r="O25" s="29">
-        <f t="shared" ref="O25:AN25" si="3">O24</f>
+        <f t="shared" ref="O25:AN25" si="7">O24</f>
         <v>7.4490307781118984E-3</v>
       </c>
       <c r="P25" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.2041705931306341E-2</v>
       </c>
       <c r="Q25" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.4142087272297982E-2</v>
       </c>
       <c r="R25" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.8384539751406128E-3</v>
       </c>
       <c r="S25" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.942235039347571E-3</v>
       </c>
       <c r="T25" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8.7941712391293846E-3</v>
       </c>
       <c r="U25" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.9167683727598969E-2</v>
       </c>
       <c r="V25" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.9563309645198885E-2</v>
       </c>
       <c r="W25" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6.7513932047123726E-3</v>
       </c>
       <c r="X25" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.1912585101328303E-2</v>
       </c>
       <c r="Y25" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6.2742086519266488E-3</v>
       </c>
       <c r="Z25" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.0275647633180547E-3</v>
       </c>
       <c r="AA25" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.0257172186811273E-2</v>
       </c>
       <c r="AB25" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2127565539618518E-2</v>
       </c>
       <c r="AC25" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.0185353383353699E-2</v>
       </c>
       <c r="AD25" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2812635692286438E-2</v>
       </c>
       <c r="AE25" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5.2051948265462115E-3</v>
       </c>
       <c r="AF25" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8.6226466174633056E-3</v>
       </c>
       <c r="AG25" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.3327262086971724E-2</v>
       </c>
       <c r="AH25" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8.2106842864435349E-3</v>
       </c>
       <c r="AI25" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.2036254203120672E-3</v>
       </c>
       <c r="AJ25" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6.2594387860714779E-3</v>
       </c>
       <c r="AK25" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8.5196368293601697E-3</v>
       </c>
       <c r="AL25" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8.9112260712667282E-3</v>
       </c>
       <c r="AM25" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.8439085033626087E-3</v>
       </c>
       <c r="AN25" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.1049285439853662E-3</v>
       </c>
       <c r="AO25" s="29">
@@ -7212,7 +7367,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="30" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="L26" s="30"/>
       <c r="M26" s="30"/>
@@ -7269,7 +7424,7 @@
         <v>2018</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="L27" s="15">
         <v>-1</v>
@@ -7408,7 +7563,7 @@
         <v>2030</v>
       </c>
       <c r="K28" s="32" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="L28" s="15">
         <v>-1</v>
@@ -7422,107 +7577,107 @@
         <v>8.2740995898888392E-2</v>
       </c>
       <c r="O28" s="33">
-        <f t="shared" ref="O28:AN28" si="4">O27</f>
+        <f t="shared" ref="O28:AN28" si="8">O27</f>
         <v>7.0110938367526743E-2</v>
       </c>
       <c r="P28" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.1139689510378053</v>
       </c>
       <c r="Q28" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.0814709118386313E-2</v>
       </c>
       <c r="R28" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.11271367561275741</v>
       </c>
       <c r="S28" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.4984165282223824E-2</v>
       </c>
       <c r="T28" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.7598299711661989E-2</v>
       </c>
       <c r="U28" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.216317572067088E-2</v>
       </c>
       <c r="V28" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.0281180381109148E-2</v>
       </c>
       <c r="W28" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.2669371156921962E-2</v>
       </c>
       <c r="X28" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.839703518119168E-2</v>
       </c>
       <c r="Y28" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.7106145813932178E-2</v>
       </c>
       <c r="Z28" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.8278050195023532E-2</v>
       </c>
       <c r="AA28" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.0338383982093263E-2</v>
       </c>
       <c r="AB28" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.9111177723493433E-2</v>
       </c>
       <c r="AC28" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.11983181177914175</v>
       </c>
       <c r="AD28" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.1413439765244195E-2</v>
       </c>
       <c r="AE28" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.9611602487177441E-2</v>
       </c>
       <c r="AF28" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.5334396413720018E-2</v>
       </c>
       <c r="AG28" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.6650816743783748E-2</v>
       </c>
       <c r="AH28" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.4399740618333048E-2</v>
       </c>
       <c r="AI28" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.10016080657514609</v>
       </c>
       <c r="AJ28" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.8914393028833764E-2</v>
       </c>
       <c r="AK28" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.6822981231792783E-2</v>
       </c>
       <c r="AL28" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.5041208932371696E-2</v>
       </c>
       <c r="AM28" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.2495898501573662E-3</v>
       </c>
       <c r="AN28" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.16098313140959611</v>
       </c>
       <c r="AO28" s="33">
@@ -7542,7 +7697,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="30" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="L29" s="30"/>
       <c r="M29" s="30"/>
@@ -7599,7 +7754,7 @@
         <v>2018</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="L30" s="15">
         <v>-1</v>
@@ -7739,7 +7894,7 @@
         <v>2030</v>
       </c>
       <c r="K31" s="32" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="L31" s="15">
         <v>-1</v>
@@ -7753,107 +7908,107 @@
         <v>7.6968954610109105E-3</v>
       </c>
       <c r="O31" s="33">
-        <f t="shared" ref="O31:AN31" si="5">O30</f>
+        <f t="shared" ref="O31:AN31" si="9">O30</f>
         <v>0</v>
       </c>
       <c r="P31" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2.9377083408890298E-2</v>
       </c>
       <c r="Q31" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R31" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S31" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T31" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U31" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V31" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W31" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X31" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y31" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z31" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA31" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AB31" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC31" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD31" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE31" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF31" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG31" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH31" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI31" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ31" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK31" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL31" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM31" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AN31" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AO31" s="33">
@@ -7873,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="30" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="L32" s="30"/>
       <c r="M32" s="30"/>
@@ -7921,7 +8076,7 @@
       <c r="F33" s="32"/>
       <c r="G33" s="32"/>
       <c r="H33" s="32" t="str">
-        <f t="shared" ref="H33" si="6">H30</f>
+        <f t="shared" ref="H33" si="10">H30</f>
         <v>TRAPS</v>
       </c>
       <c r="I33" s="32"/>
@@ -8082,107 +8237,107 @@
         <v>0</v>
       </c>
       <c r="O34" s="33">
-        <f t="shared" ref="O34:AN34" si="7">O33</f>
+        <f t="shared" ref="O34:AN34" si="11">O33</f>
         <v>0</v>
       </c>
       <c r="P34" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q34" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R34" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S34" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T34" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U34" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V34" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W34" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X34" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y34" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z34" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA34" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AB34" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC34" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD34" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE34" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF34" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG34" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AH34" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AI34" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ34" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK34" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL34" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AM34" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN34" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AO34" s="33">
@@ -9848,7 +10003,7 @@
       <c r="F58" s="32"/>
       <c r="G58" s="32"/>
       <c r="H58" s="32" t="str">
-        <f t="shared" ref="H58" si="8">H56</f>
+        <f t="shared" ref="H58" si="12">H56</f>
         <v>TRAPM</v>
       </c>
       <c r="I58" s="32"/>
@@ -11551,7 +11706,7 @@
       <c r="F83" s="32"/>
       <c r="G83" s="32"/>
       <c r="H83" s="32" t="str">
-        <f t="shared" ref="H83" si="9">H81</f>
+        <f t="shared" ref="H83" si="13">H81</f>
         <v>TRAPL</v>
       </c>
       <c r="I83" s="32"/>

--- a/SuppXLS/Scen_TRA_ActiveModes.xlsx
+++ b/SuppXLS/Scen_TRA_ActiveModes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Irish-TIMES-model\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_Irish-TIMES-model\VA_Transport\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7645335-58F1-43C0-A524-C1FF54084D1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B4794C-FAC3-4782-AF66-809C55019755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="141">
   <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
@@ -634,9 +634,6 @@
   <si>
     <t>UP</t>
   </si>
-  <si>
-    <t>FX</t>
-  </si>
 </sst>
 </file>
 
@@ -918,7 +915,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -991,6 +988,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1095,12 +1094,12 @@
     <sheetNames>
       <sheetName val="Cover"/>
       <sheetName val="Intro"/>
-      <sheetName val="Notes"/>
       <sheetName val="EB2018"/>
       <sheetName val="Regions"/>
       <sheetName val="Primary"/>
       <sheetName val="Secondary"/>
       <sheetName val="Commodities"/>
+      <sheetName val="Blending"/>
       <sheetName val="Stock"/>
       <sheetName val="Demands"/>
       <sheetName val="On-Road Fac."/>
@@ -1109,14 +1108,13 @@
       <sheetName val="AF"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
         <row r="8">
           <cell r="K8" t="str">
             <v>TWLK_WLK</v>
@@ -1132,18 +1130,18 @@
             <v>TMOT_GSL_00</v>
           </cell>
         </row>
-        <row r="18">
-          <cell r="B18" t="str">
+        <row r="22">
+          <cell r="B22" t="str">
             <v>TRAPS</v>
           </cell>
         </row>
-        <row r="19">
-          <cell r="B19" t="str">
+        <row r="23">
+          <cell r="B23" t="str">
             <v>TRAPM</v>
           </cell>
         </row>
-        <row r="20">
-          <cell r="B20" t="str">
+        <row r="24">
+          <cell r="B24" t="str">
             <v>TRAPL</v>
           </cell>
         </row>
@@ -1158,7 +1156,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
       <sheetData sheetId="9">
         <row r="4">
           <cell r="C4">
@@ -3426,10 +3425,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5144,8 +5143,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:AQ86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5163,46 +5162,46 @@
       </c>
     </row>
     <row r="3" spans="2:43" s="51" customFormat="1" ht="25.8" customHeight="1">
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56" t="s">
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
     </row>
     <row r="4" spans="2:43" s="51" customFormat="1" ht="24" customHeight="1">
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54" t="s">
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
       <c r="U4" s="51">
         <v>2018</v>
       </c>
@@ -5570,11 +5569,11 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="53" t="s">
+      <c r="K10" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
@@ -5766,7 +5765,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15" t="str">
-        <f>[1]Commodities!$B$18</f>
+        <f>[1]Commodities!B22</f>
         <v>TRAPS</v>
       </c>
       <c r="I12" s="15"/>
@@ -6434,7 +6433,7 @@
         <v>2018</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="L18" s="15">
         <v>-1</v>
@@ -6573,7 +6572,7 @@
         <v>2030</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="L19" s="15">
         <v>-1</v>
@@ -6708,7 +6707,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="L20" s="30"/>
       <c r="M20" s="30"/>
@@ -7424,7 +7423,7 @@
         <v>2018</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="L27" s="15">
         <v>-1</v>
@@ -7563,7 +7562,7 @@
         <v>2030</v>
       </c>
       <c r="K28" s="32" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="L28" s="15">
         <v>-1</v>
@@ -7572,111 +7571,111 @@
         <f>M27</f>
         <v>BUS</v>
       </c>
-      <c r="N28" s="33">
+      <c r="N28" s="29">
         <f>N27</f>
         <v>8.2740995898888392E-2</v>
       </c>
-      <c r="O28" s="33">
+      <c r="O28" s="29">
         <f t="shared" ref="O28:AN28" si="8">O27</f>
         <v>7.0110938367526743E-2</v>
       </c>
-      <c r="P28" s="33">
+      <c r="P28" s="29">
         <f t="shared" si="8"/>
         <v>0.1139689510378053</v>
       </c>
-      <c r="Q28" s="33">
+      <c r="Q28" s="29">
         <f t="shared" si="8"/>
         <v>8.0814709118386313E-2</v>
       </c>
-      <c r="R28" s="33">
+      <c r="R28" s="29">
         <f t="shared" si="8"/>
         <v>0.11271367561275741</v>
       </c>
-      <c r="S28" s="33">
+      <c r="S28" s="29">
         <f t="shared" si="8"/>
         <v>6.4984165282223824E-2</v>
       </c>
-      <c r="T28" s="33">
+      <c r="T28" s="29">
         <f t="shared" si="8"/>
         <v>7.7598299711661989E-2</v>
       </c>
-      <c r="U28" s="33">
+      <c r="U28" s="29">
         <f t="shared" si="8"/>
         <v>7.216317572067088E-2</v>
       </c>
-      <c r="V28" s="33">
+      <c r="V28" s="29">
         <f t="shared" si="8"/>
         <v>6.0281180381109148E-2</v>
       </c>
-      <c r="W28" s="33">
+      <c r="W28" s="29">
         <f t="shared" si="8"/>
         <v>9.2669371156921962E-2</v>
       </c>
-      <c r="X28" s="33">
+      <c r="X28" s="29">
         <f t="shared" si="8"/>
         <v>5.839703518119168E-2</v>
       </c>
-      <c r="Y28" s="33">
+      <c r="Y28" s="29">
         <f t="shared" si="8"/>
         <v>6.7106145813932178E-2</v>
       </c>
-      <c r="Z28" s="33">
+      <c r="Z28" s="29">
         <f t="shared" si="8"/>
         <v>6.8278050195023532E-2</v>
       </c>
-      <c r="AA28" s="33">
+      <c r="AA28" s="29">
         <f t="shared" si="8"/>
         <v>6.0338383982093263E-2</v>
       </c>
-      <c r="AB28" s="33">
+      <c r="AB28" s="29">
         <f t="shared" si="8"/>
         <v>5.9111177723493433E-2</v>
       </c>
-      <c r="AC28" s="33">
+      <c r="AC28" s="29">
         <f t="shared" si="8"/>
         <v>0.11983181177914175</v>
       </c>
-      <c r="AD28" s="33">
+      <c r="AD28" s="29">
         <f t="shared" si="8"/>
         <v>6.1413439765244195E-2</v>
       </c>
-      <c r="AE28" s="33">
+      <c r="AE28" s="29">
         <f t="shared" si="8"/>
         <v>7.9611602487177441E-2</v>
       </c>
-      <c r="AF28" s="33">
+      <c r="AF28" s="29">
         <f t="shared" si="8"/>
         <v>5.5334396413720018E-2</v>
       </c>
-      <c r="AG28" s="33">
+      <c r="AG28" s="29">
         <f t="shared" si="8"/>
         <v>8.6650816743783748E-2</v>
       </c>
-      <c r="AH28" s="33">
+      <c r="AH28" s="29">
         <f t="shared" si="8"/>
         <v>6.4399740618333048E-2</v>
       </c>
-      <c r="AI28" s="33">
+      <c r="AI28" s="29">
         <f t="shared" si="8"/>
         <v>0.10016080657514609</v>
       </c>
-      <c r="AJ28" s="33">
+      <c r="AJ28" s="29">
         <f t="shared" si="8"/>
         <v>5.8914393028833764E-2</v>
       </c>
-      <c r="AK28" s="33">
+      <c r="AK28" s="29">
         <f t="shared" si="8"/>
         <v>6.6822981231792783E-2</v>
       </c>
-      <c r="AL28" s="33">
+      <c r="AL28" s="29">
         <f t="shared" si="8"/>
         <v>2.5041208932371696E-2</v>
       </c>
-      <c r="AM28" s="33">
+      <c r="AM28" s="29">
         <f t="shared" si="8"/>
         <v>4.2495898501573662E-3</v>
       </c>
-      <c r="AN28" s="33">
+      <c r="AN28" s="29">
         <f t="shared" si="8"/>
         <v>0.16098313140959611</v>
       </c>
@@ -7697,7 +7696,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="30" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="L29" s="30"/>
       <c r="M29" s="30"/>
@@ -7753,8 +7752,8 @@
       <c r="J30" s="15">
         <v>2018</v>
       </c>
-      <c r="K30" s="15" t="s">
-        <v>141</v>
+      <c r="K30" s="53" t="s">
+        <v>69</v>
       </c>
       <c r="L30" s="15">
         <v>-1</v>
@@ -7893,8 +7892,8 @@
       <c r="J31" s="15">
         <v>2030</v>
       </c>
-      <c r="K31" s="32" t="s">
-        <v>141</v>
+      <c r="K31" s="54" t="s">
+        <v>69</v>
       </c>
       <c r="L31" s="15">
         <v>-1</v>
@@ -8027,8 +8026,8 @@
       <c r="J32" s="30">
         <v>0</v>
       </c>
-      <c r="K32" s="30" t="s">
-        <v>141</v>
+      <c r="K32" s="46" t="s">
+        <v>69</v>
       </c>
       <c r="L32" s="30"/>
       <c r="M32" s="30"/>
@@ -8771,7 +8770,7 @@
         <v>TWLK_WLK</v>
       </c>
       <c r="H44" t="str">
-        <f>[1]Commodities!$B$19</f>
+        <f>[1]Commodities!B23</f>
         <v>TRAPM</v>
       </c>
       <c r="J44">
@@ -10387,7 +10386,7 @@
       <c r="F69" s="32"/>
       <c r="G69" s="32"/>
       <c r="H69" s="32" t="str">
-        <f>[1]Commodities!$B$20</f>
+        <f>[1]Commodities!B24</f>
         <v>TRAPL</v>
       </c>
       <c r="I69" s="32"/>

--- a/SuppXLS/Scen_TRA_ActiveModes.xlsx
+++ b/SuppXLS/Scen_TRA_ActiveModes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E39F61F-4EDC-4A45-AE1C-897164B84DCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEADF714-D217-4DAB-A753-88895841165B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1985,6 +1985,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C030FF-C503-4743-9DBD-437AEB1E949D}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A3:AD37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7351,111 +7352,111 @@
         <v>234</v>
       </c>
       <c r="N52" s="86">
-        <f>SUM(N41:N50)</f>
+        <f t="shared" ref="N52:AN52" si="21">SUM(N41:N50)</f>
         <v>1</v>
       </c>
       <c r="O52" s="86">
-        <f>SUM(O41:O50)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="P52" s="86">
-        <f>SUM(P41:P50)</f>
+        <f t="shared" si="21"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="Q52" s="86">
-        <f>SUM(Q41:Q50)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="R52" s="86">
-        <f>SUM(R41:R50)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="S52" s="86">
-        <f>SUM(S41:S50)</f>
+        <f t="shared" si="21"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="T52" s="86">
-        <f>SUM(T41:T50)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="U52" s="86">
-        <f>SUM(U41:U50)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="V52" s="86">
-        <f>SUM(V41:V50)</f>
+        <f t="shared" si="21"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="W52" s="86">
-        <f>SUM(W41:W50)</f>
+        <f t="shared" si="21"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="X52" s="86">
-        <f>SUM(X41:X50)</f>
+        <f t="shared" si="21"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="Y52" s="86">
-        <f>SUM(Y41:Y50)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="Z52" s="86">
-        <f>SUM(Z41:Z50)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AA52" s="86">
-        <f>SUM(AA41:AA50)</f>
+        <f t="shared" si="21"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="AB52" s="86">
-        <f>SUM(AB41:AB50)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AC52" s="86">
-        <f>SUM(AC41:AC50)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AD52" s="86">
-        <f>SUM(AD41:AD50)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AE52" s="86">
-        <f>SUM(AE41:AE50)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AF52" s="86">
-        <f>SUM(AF41:AF50)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AG52" s="86">
-        <f>SUM(AG41:AG50)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AH52" s="86">
-        <f>SUM(AH41:AH50)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AI52" s="86">
-        <f>SUM(AI41:AI50)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AJ52" s="86">
-        <f>SUM(AJ41:AJ50)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AK52" s="86">
-        <f>SUM(AK41:AK50)</f>
+        <f t="shared" si="21"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="AL52" s="86">
-        <f>SUM(AL41:AL50)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AM52" s="86">
-        <f>SUM(AM41:AM50)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AN52" s="86">
-        <f>SUM(AN41:AN50)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -7688,107 +7689,107 @@
         <v>0.74108639947108168</v>
       </c>
       <c r="O60" s="32">
-        <f t="shared" ref="O60:AN60" si="21">D168</f>
+        <f t="shared" ref="O60:AN60" si="22">D168</f>
         <v>0.79071880912169545</v>
       </c>
       <c r="P60" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.6386131571238467</v>
       </c>
       <c r="Q60" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.75580744416441215</v>
       </c>
       <c r="R60" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.71320246300225565</v>
       </c>
       <c r="S60" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.78115676031065473</v>
       </c>
       <c r="T60" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.76642349622098382</v>
       </c>
       <c r="U60" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.74828496387185417</v>
       </c>
       <c r="V60" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.78640329755658556</v>
       </c>
       <c r="W60" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.74588309703681677</v>
       </c>
       <c r="X60" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.80172469534468704</v>
       </c>
       <c r="Y60" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.79583426304303684</v>
       </c>
       <c r="Z60" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.77907090765006382</v>
       </c>
       <c r="AA60" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.80155723993574601</v>
       </c>
       <c r="AB60" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.78887154985237196</v>
       </c>
       <c r="AC60" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.70533422841274862</v>
       </c>
       <c r="AD60" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.78717070970762593</v>
       </c>
       <c r="AE60" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.77916775606401434</v>
       </c>
       <c r="AF60" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.80467495581567261</v>
       </c>
       <c r="AG60" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.74505854970828844</v>
       </c>
       <c r="AH60" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.79514890678426453</v>
       </c>
       <c r="AI60" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.73736495113760858</v>
       </c>
       <c r="AJ60" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.81853938082108479</v>
       </c>
       <c r="AK60" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.77998817627338324</v>
       </c>
       <c r="AL60" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.85154985463859412</v>
       </c>
       <c r="AM60" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.88006272796227247</v>
       </c>
       <c r="AN60" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.64231184378282558</v>
       </c>
       <c r="AO60" s="32">
@@ -7876,107 +7877,107 @@
         <v>1.214216695359136E-2</v>
       </c>
       <c r="O62" s="32">
-        <f t="shared" ref="O62:AN62" si="22">D169</f>
+        <f t="shared" ref="O62:AN62" si="23">D169</f>
         <v>5.244564356444866E-3</v>
       </c>
       <c r="P62" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.5318479036608464E-2</v>
       </c>
       <c r="Q62" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0199545943263343E-2</v>
       </c>
       <c r="R62" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5.4465670112681473E-3</v>
       </c>
       <c r="S62" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7.3305854058422536E-3</v>
       </c>
       <c r="T62" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6.327365203104513E-3</v>
       </c>
       <c r="U62" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.4553702960433654E-2</v>
       </c>
       <c r="V62" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.4378136289327563E-2</v>
       </c>
       <c r="W62" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4.7655125577413509E-3</v>
       </c>
       <c r="X62" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>8.6002260738130814E-3</v>
       </c>
       <c r="Y62" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4.4354589246647135E-3</v>
       </c>
       <c r="Z62" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6.592434448494537E-3</v>
       </c>
       <c r="AA62" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7.3526877521562662E-3</v>
       </c>
       <c r="AB62" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9.0159384819168999E-3</v>
       </c>
       <c r="AC62" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6.9712334769449829E-3</v>
       </c>
       <c r="AD62" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9.4394919428535985E-3</v>
       </c>
       <c r="AE62" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3.6138078846859318E-3</v>
       </c>
       <c r="AF62" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6.3123502546919919E-3</v>
       </c>
       <c r="AG62" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9.5979099500525071E-3</v>
       </c>
       <c r="AH62" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5.8735122381989901E-3</v>
       </c>
       <c r="AI62" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5.0103707288089395E-3</v>
       </c>
       <c r="AJ62" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4.3449135578945168E-3</v>
       </c>
       <c r="AK62" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6.2553697184935773E-3</v>
       </c>
       <c r="AL62" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6.8237115745591239E-3</v>
       </c>
       <c r="AM62" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7.9379260453763534E-3</v>
       </c>
       <c r="AN62" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.7483693665086213E-3</v>
       </c>
       <c r="AO62" s="32">
@@ -8064,107 +8065,107 @@
         <v>0.1626965950818042</v>
       </c>
       <c r="O64" s="32">
-        <f t="shared" ref="O64:AN64" si="23">D170</f>
+        <f t="shared" ref="O64:AN64" si="24">D170</f>
         <v>0.13109626623170204</v>
       </c>
       <c r="P64" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.23916819504950479</v>
       </c>
       <c r="Q64" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.15479346868381608</v>
       </c>
       <c r="R64" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.20800029152740038</v>
       </c>
       <c r="S64" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.12724978858051844</v>
       </c>
       <c r="T64" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.14827744084788594</v>
       </c>
       <c r="U64" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.14551722418000443</v>
       </c>
       <c r="V64" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.11766218454461841</v>
       </c>
       <c r="W64" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.17371900154534914</v>
       </c>
       <c r="X64" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.11196687123703571</v>
       </c>
       <c r="Y64" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.12599020808803368</v>
       </c>
       <c r="Z64" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.13241927644257739</v>
       </c>
       <c r="AA64" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.11487011188674058</v>
       </c>
       <c r="AB64" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.11670831913312733</v>
       </c>
       <c r="AC64" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.2178213998684824</v>
       </c>
       <c r="AD64" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.12016236232976817</v>
       </c>
       <c r="AE64" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.14679096653005977</v>
       </c>
       <c r="AF64" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.10758223700696061</v>
       </c>
       <c r="AG64" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.1657308225029282</v>
       </c>
       <c r="AH64" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.12234818626194599</v>
       </c>
       <c r="AI64" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.18501691930313938</v>
       </c>
       <c r="AJ64" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.10860805699514527</v>
       </c>
       <c r="AK64" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.13030246782805119</v>
       </c>
       <c r="AL64" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.0925275195199252E-2</v>
       </c>
       <c r="AM64" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9.1008381034736394E-3</v>
       </c>
       <c r="AN64" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.28624951607603277</v>
       </c>
       <c r="AO64" s="32">
@@ -8252,107 +8253,107 @@
         <v>8.4074838493522847E-2</v>
       </c>
       <c r="O66" s="32">
-        <f t="shared" ref="O66:AN66" si="24">D172</f>
+        <f t="shared" ref="O66:AN66" si="25">D172</f>
         <v>7.2940360290157685E-2</v>
       </c>
       <c r="P66" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>9.6900168790040125E-2</v>
       </c>
       <c r="Q66" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.91995412085085E-2</v>
       </c>
       <c r="R66" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.3350678459075919E-2</v>
       </c>
       <c r="S66" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.426286570298451E-2</v>
       </c>
       <c r="T66" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.8971697728025606E-2</v>
       </c>
       <c r="U66" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>9.1644108987707917E-2</v>
       </c>
       <c r="V66" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.1556381609468237E-2</v>
       </c>
       <c r="W66" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.5632388860092645E-2</v>
       </c>
       <c r="X66" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.7708207344464181E-2</v>
       </c>
       <c r="Y66" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.3740069944264783E-2</v>
       </c>
       <c r="Z66" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.1917381458864319E-2</v>
       </c>
       <c r="AA66" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.6219960425357156E-2</v>
       </c>
       <c r="AB66" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.5404192532583911E-2</v>
       </c>
       <c r="AC66" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.987313824182402E-2</v>
       </c>
       <c r="AD66" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.3227436019752521E-2</v>
       </c>
       <c r="AE66" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.0427469521239974E-2</v>
       </c>
       <c r="AF66" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.1430456922674907E-2</v>
       </c>
       <c r="AG66" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.9612717838730945E-2</v>
       </c>
       <c r="AH66" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.6629394715590618E-2</v>
       </c>
       <c r="AI66" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.2607758830443E-2</v>
       </c>
       <c r="AJ66" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.8507648625875522E-2</v>
       </c>
       <c r="AK66" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.3453986180072076E-2</v>
       </c>
       <c r="AL66" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>9.070115859164736E-2</v>
       </c>
       <c r="AM66" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.10289850788887757</v>
       </c>
       <c r="AN66" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.8690270774633036E-2</v>
       </c>
       <c r="AO66" s="32">
@@ -8421,111 +8422,111 @@
         <v>234</v>
       </c>
       <c r="N69" s="86">
-        <f>SUM(N60:N66)</f>
+        <f t="shared" ref="N69:AN69" si="26">SUM(N60:N66)</f>
         <v>1.0000000000000002</v>
       </c>
       <c r="O69" s="86">
-        <f>SUM(O60:O66)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="P69" s="86">
-        <f>SUM(P60:P66)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q69" s="86">
-        <f>SUM(Q60:Q66)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="R69" s="86">
-        <f>SUM(R60:R66)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="S69" s="86">
-        <f>SUM(S60:S66)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="T69" s="86">
-        <f>SUM(T60:T66)</f>
+        <f t="shared" si="26"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="U69" s="86">
-        <f>SUM(U60:U66)</f>
+        <f t="shared" si="26"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V69" s="86">
-        <f>SUM(V60:V66)</f>
+        <f t="shared" si="26"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="W69" s="86">
-        <f>SUM(W60:W66)</f>
+        <f t="shared" si="26"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="X69" s="86">
-        <f>SUM(X60:X66)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Y69" s="86">
-        <f>SUM(Y60:Y66)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Z69" s="86">
-        <f>SUM(Z60:Z66)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AA69" s="86">
-        <f>SUM(AA60:AA66)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AB69" s="86">
-        <f>SUM(AB60:AB66)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AC69" s="86">
-        <f>SUM(AC60:AC66)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AD69" s="86">
-        <f>SUM(AD60:AD66)</f>
+        <f t="shared" si="26"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="AE69" s="86">
-        <f>SUM(AE60:AE66)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AF69" s="86">
-        <f>SUM(AF60:AF66)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AG69" s="86">
-        <f>SUM(AG60:AG66)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AH69" s="86">
-        <f>SUM(AH60:AH66)</f>
+        <f t="shared" si="26"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="AI69" s="86">
-        <f>SUM(AI60:AI66)</f>
+        <f t="shared" si="26"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="AJ69" s="86">
-        <f>SUM(AJ60:AJ66)</f>
+        <f t="shared" si="26"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="AK69" s="86">
-        <f>SUM(AK60:AK66)</f>
+        <f t="shared" si="26"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="AL69" s="86">
-        <f>SUM(AL60:AL66)</f>
+        <f t="shared" si="26"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="AM69" s="86">
-        <f>SUM(AM60:AM66)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AN69" s="86">
-        <f>SUM(AN60:AN66)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AO69" s="15"/>

--- a/SuppXLS/Scen_TRA_ActiveModes.xlsx
+++ b/SuppXLS/Scen_TRA_ActiveModes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_Irish-TIMES-model\main\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEADF714-D217-4DAB-A753-88895841165B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED2D492-199C-49A8-8025-59CBC0A6BBD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
@@ -930,16 +930,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.0%"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1355,9 +1355,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1380,7 +1380,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="8" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1388,8 +1388,8 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="9" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="11" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1414,16 +1414,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="9" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1468,17 +1468,17 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="24" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="24" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="17" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="27" fillId="17" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1491,15 +1491,16 @@
     <xf numFmtId="0" fontId="28" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="171" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="172" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1549,7 +1550,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1992,37 +1993,37 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" style="15" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5546875" style="15" customWidth="1"/>
+    <col min="25" max="25" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.109375" style="15" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="15" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="15"/>
+    <col min="29" max="29" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.109375" style="15"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:30">
@@ -2493,7 +2494,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1">
+    <row r="10" spans="1:30" ht="15" thickBot="1">
       <c r="A10" s="35" t="s">
         <v>91</v>
       </c>
@@ -2735,7 +2736,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -2759,23 +2760,23 @@
       <selection activeCell="I3" sqref="I3:AI3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="34" width="10.7109375" customWidth="1"/>
-    <col min="35" max="35" width="10.7109375" style="15" customWidth="1"/>
-    <col min="36" max="36" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="34" width="10.6640625" customWidth="1"/>
+    <col min="35" max="35" width="10.6640625" style="15" customWidth="1"/>
+    <col min="36" max="36" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43">
@@ -2796,7 +2797,7 @@
       <c r="AP2" s="11"/>
       <c r="AQ2" s="11"/>
     </row>
-    <row r="3" spans="1:43" ht="15.75" thickBot="1">
+    <row r="3" spans="1:43" ht="15" thickBot="1">
       <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
@@ -2966,22 +2967,22 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="34" width="10.7109375" customWidth="1"/>
-    <col min="35" max="35" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="34" width="10.6640625" customWidth="1"/>
+    <col min="35" max="35" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43">
@@ -3002,7 +3003,7 @@
       <c r="AO2" s="11"/>
       <c r="AP2" s="11"/>
     </row>
-    <row r="3" spans="1:43" ht="15.75" thickBot="1">
+    <row r="3" spans="1:43" ht="15" thickBot="1">
       <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
@@ -3168,65 +3169,65 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:AQ173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N64" sqref="N64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:43" ht="23.25">
+    <row r="2" spans="2:43" ht="23.4">
       <c r="C2" s="47" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="2:43" s="49" customFormat="1" ht="25.9" customHeight="1">
-      <c r="C3" s="90" t="s">
+    <row r="3" spans="2:43" s="49" customFormat="1" ht="25.95" customHeight="1">
+      <c r="C3" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="91" t="s">
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
     </row>
     <row r="4" spans="2:43" s="49" customFormat="1" ht="24" customHeight="1">
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89" t="s">
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
     </row>
     <row r="5" spans="2:43">
       <c r="C5" s="15"/>
@@ -3421,7 +3422,7 @@
       <c r="AO9" s="15"/>
       <c r="AP9" s="15"/>
     </row>
-    <row r="10" spans="2:43" ht="15.75">
+    <row r="10" spans="2:43" ht="15.6">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -3431,11 +3432,11 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="88" t="s">
+      <c r="K10" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
@@ -3644,113 +3645,113 @@
         <f>D123</f>
         <v>Walk</v>
       </c>
-      <c r="N12" s="28">
-        <f t="shared" ref="N12:AN12" si="0">C137</f>
-        <v>0.32377983784854231</v>
-      </c>
-      <c r="O12" s="28">
+      <c r="N12" s="88">
+        <f>ROUNDUP(C137,3)</f>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="O12" s="88">
+        <f t="shared" ref="O12:AN12" si="0">ROUNDUP(D137,3)</f>
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="P12" s="88">
         <f t="shared" si="0"/>
-        <v>0.29539615700051852</v>
-      </c>
-      <c r="P12" s="28">
+        <v>0.35</v>
+      </c>
+      <c r="Q12" s="88">
         <f t="shared" si="0"/>
-        <v>0.34966256439645477</v>
-      </c>
-      <c r="Q12" s="28">
+        <v>0.314</v>
+      </c>
+      <c r="R12" s="88">
         <f t="shared" si="0"/>
-        <v>0.31311359703458036</v>
-      </c>
-      <c r="R12" s="28">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="S12" s="88">
         <f t="shared" si="0"/>
-        <v>0.30099430857485032</v>
-      </c>
-      <c r="S12" s="28">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="T12" s="88">
         <f t="shared" si="0"/>
-        <v>0.32585784427063491</v>
-      </c>
-      <c r="T12" s="28">
+        <v>0.313</v>
+      </c>
+      <c r="U12" s="88">
         <f t="shared" si="0"/>
-        <v>0.31296089693181006</v>
-      </c>
-      <c r="U12" s="28">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="V12" s="88">
         <f t="shared" si="0"/>
-        <v>0.34414959934244926</v>
-      </c>
-      <c r="V12" s="28">
+        <v>0.317</v>
+      </c>
+      <c r="W12" s="88">
         <f t="shared" si="0"/>
-        <v>0.31640567871855385</v>
-      </c>
-      <c r="W12" s="28">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="X12" s="88">
         <f t="shared" si="0"/>
-        <v>0.30551897544605799</v>
-      </c>
-      <c r="X12" s="28">
+        <v>0.307</v>
+      </c>
+      <c r="Y12" s="88">
         <f t="shared" si="0"/>
-        <v>0.30690900126975923</v>
-      </c>
-      <c r="Y12" s="28">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="Z12" s="88">
         <f t="shared" si="0"/>
-        <v>0.29742024558167873</v>
-      </c>
-      <c r="Z12" s="28">
+        <v>0.32</v>
+      </c>
+      <c r="AA12" s="88">
         <f t="shared" si="0"/>
-        <v>0.31985079986061538</v>
-      </c>
-      <c r="AA12" s="28">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="AB12" s="88">
         <f t="shared" si="0"/>
-        <v>0.30317740338092081</v>
-      </c>
-      <c r="AB12" s="28">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="AC12" s="88">
         <f t="shared" si="0"/>
-        <v>0.32755819451934742</v>
-      </c>
-      <c r="AC12" s="28">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="AD12" s="88">
         <f t="shared" si="0"/>
-        <v>0.29108733491927802</v>
-      </c>
-      <c r="AD12" s="28">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="AE12" s="88">
         <f t="shared" si="0"/>
-        <v>0.32210907481657336</v>
-      </c>
-      <c r="AE12" s="28">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AF12" s="88">
         <f t="shared" si="0"/>
-        <v>0.28924149649685427</v>
-      </c>
-      <c r="AF12" s="28">
+        <v>0.318</v>
+      </c>
+      <c r="AG12" s="88">
         <f t="shared" si="0"/>
-        <v>0.31716332192128543</v>
-      </c>
-      <c r="AG12" s="28">
+        <v>0.316</v>
+      </c>
+      <c r="AH12" s="88">
         <f t="shared" si="0"/>
-        <v>0.31520515014132622</v>
-      </c>
-      <c r="AH12" s="28">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="AI12" s="88">
         <f t="shared" si="0"/>
-        <v>0.30543827437637427</v>
-      </c>
-      <c r="AI12" s="28">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="AJ12" s="88">
         <f t="shared" si="0"/>
-        <v>0.29765342162432462</v>
-      </c>
-      <c r="AJ12" s="28">
+        <v>0.28200000000000003</v>
+      </c>
+      <c r="AK12" s="88">
         <f t="shared" si="0"/>
-        <v>0.28141024531167946</v>
-      </c>
-      <c r="AK12" s="28">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AL12" s="88">
         <f t="shared" si="0"/>
-        <v>0.32408712009988533</v>
-      </c>
-      <c r="AL12" s="28">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="AM12" s="88">
         <f t="shared" si="0"/>
-        <v>0.33773511822059504</v>
-      </c>
-      <c r="AM12" s="28">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="AN12" s="88">
         <f t="shared" si="0"/>
-        <v>0.36384480991771728</v>
-      </c>
-      <c r="AN12" s="28">
-        <f t="shared" si="0"/>
-        <v>0.29253128431407999</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="AO12" s="28">
         <v>0</v>
@@ -3785,111 +3786,111 @@
       </c>
       <c r="N13" s="28">
         <f>N12*1.627417526057</f>
-        <v>0.52692498269861132</v>
+        <v>0.52728327844246803</v>
       </c>
       <c r="O13" s="28">
         <f t="shared" ref="O13:AN13" si="1">O12*1.627417526057</f>
-        <v>0.48073288303252903</v>
+        <v>0.48171558771287198</v>
       </c>
       <c r="P13" s="28">
         <f t="shared" si="1"/>
-        <v>0.56904698550482491</v>
+        <v>0.56959613411995003</v>
       </c>
       <c r="Q13" s="28">
         <f t="shared" si="1"/>
-        <v>0.50956655546082519</v>
+        <v>0.51100910318189807</v>
       </c>
       <c r="R13" s="28">
         <f t="shared" si="1"/>
-        <v>0.48984341301812018</v>
+        <v>0.48985267534315702</v>
       </c>
       <c r="S13" s="28">
         <f t="shared" si="1"/>
-        <v>0.53030676676918387</v>
+        <v>0.53053811349458202</v>
       </c>
       <c r="T13" s="28">
         <f t="shared" si="1"/>
-        <v>0.50931804863734609</v>
+        <v>0.50938168565584108</v>
       </c>
       <c r="U13" s="28">
         <f t="shared" si="1"/>
-        <v>0.56007508955539653</v>
+        <v>0.56145904648966494</v>
       </c>
       <c r="V13" s="28">
         <f t="shared" si="1"/>
-        <v>0.5149241468905349</v>
+        <v>0.51589135576006906</v>
       </c>
       <c r="W13" s="28">
         <f t="shared" si="1"/>
-        <v>0.49720693518389303</v>
+        <v>0.497989762973442</v>
       </c>
       <c r="X13" s="28">
         <f t="shared" si="1"/>
-        <v>0.49946908757105624</v>
+        <v>0.49961718049949899</v>
       </c>
       <c r="Y13" s="28">
         <f t="shared" si="1"/>
-        <v>0.48402692026380101</v>
+        <v>0.48497042276498598</v>
       </c>
       <c r="Z13" s="28">
         <f t="shared" si="1"/>
-        <v>0.52053079741651531</v>
+        <v>0.52077360833824005</v>
       </c>
       <c r="AA13" s="28">
         <f t="shared" si="1"/>
-        <v>0.49339621976656328</v>
+        <v>0.494734927921328</v>
       </c>
       <c r="AB13" s="28">
         <f t="shared" si="1"/>
-        <v>0.53307394656437401</v>
+        <v>0.53379294854669601</v>
       </c>
       <c r="AC13" s="28">
         <f t="shared" si="1"/>
-        <v>0.47372063046085683</v>
+        <v>0.475205917608644</v>
       </c>
       <c r="AD13" s="28">
         <f t="shared" si="1"/>
-        <v>0.52420595365849698</v>
+        <v>0.52565586091641103</v>
       </c>
       <c r="AE13" s="28">
         <f t="shared" si="1"/>
-        <v>0.47071668066193501</v>
+        <v>0.47195108255653001</v>
       </c>
       <c r="AF13" s="28">
         <f t="shared" si="1"/>
-        <v>0.51615714871715823</v>
+        <v>0.51751877328612605</v>
       </c>
       <c r="AG13" s="28">
         <f t="shared" si="1"/>
-        <v>0.51297038564342234</v>
+        <v>0.51426393823401206</v>
       </c>
       <c r="AH13" s="28">
         <f t="shared" si="1"/>
-        <v>0.49707560084871821</v>
+        <v>0.497989762973442</v>
       </c>
       <c r="AI13" s="28">
         <f t="shared" si="1"/>
-        <v>0.48440639504225952</v>
+        <v>0.48497042276498598</v>
       </c>
       <c r="AJ13" s="28">
         <f t="shared" si="1"/>
-        <v>0.45797196523222689</v>
+        <v>0.45893174234807405</v>
       </c>
       <c r="AK13" s="28">
         <f t="shared" si="1"/>
-        <v>0.52742505921989324</v>
+        <v>0.52891069596852502</v>
       </c>
       <c r="AL13" s="28">
         <f t="shared" si="1"/>
-        <v>0.54963605055712927</v>
+        <v>0.55006712380726608</v>
       </c>
       <c r="AM13" s="28">
         <f>AM12*1.627417526057</f>
-        <v>0.59212742042497091</v>
+        <v>0.59237997948474796</v>
       </c>
       <c r="AN13" s="28">
         <f t="shared" si="1"/>
-        <v>0.47607053901269697</v>
+        <v>0.476833335134701</v>
       </c>
       <c r="AO13" s="20">
         <v>0</v>
@@ -3974,113 +3975,113 @@
         <f>D124</f>
         <v>Bike</v>
       </c>
-      <c r="N15" s="28">
-        <f t="shared" ref="N15:AN15" si="2">C138</f>
-        <v>5.3963306308090382E-2</v>
-      </c>
-      <c r="O15" s="28">
+      <c r="N15" s="88">
+        <f>ROUNDUP(C138,3)</f>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="O15" s="88">
+        <f t="shared" ref="O15:AN15" si="2">ROUNDUP(D138,3)</f>
+        <v>0.05</v>
+      </c>
+      <c r="P15" s="88">
         <f t="shared" si="2"/>
-        <v>4.9232692833419758E-2</v>
-      </c>
-      <c r="P15" s="28">
+        <v>5.9000000000000004E-2</v>
+      </c>
+      <c r="Q15" s="88">
         <f t="shared" si="2"/>
-        <v>5.8277094066075792E-2</v>
-      </c>
-      <c r="Q15" s="28">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="R15" s="88">
         <f t="shared" si="2"/>
-        <v>5.2185599505763403E-2</v>
-      </c>
-      <c r="R15" s="28">
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="S15" s="88">
         <f t="shared" si="2"/>
-        <v>5.016571809580838E-2</v>
-      </c>
-      <c r="S15" s="28">
+        <v>5.5E-2</v>
+      </c>
+      <c r="T15" s="88">
         <f t="shared" si="2"/>
-        <v>5.4309640711772487E-2</v>
-      </c>
-      <c r="T15" s="28">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="U15" s="88">
         <f t="shared" si="2"/>
-        <v>5.216014948863501E-2</v>
-      </c>
-      <c r="U15" s="28">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="V15" s="88">
         <f t="shared" si="2"/>
-        <v>5.7358266557074891E-2</v>
-      </c>
-      <c r="V15" s="28">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="W15" s="88">
         <f t="shared" si="2"/>
-        <v>5.2734279786425649E-2</v>
-      </c>
-      <c r="W15" s="28">
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="X15" s="88">
         <f t="shared" si="2"/>
-        <v>5.0919829241009663E-2</v>
-      </c>
-      <c r="X15" s="28">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="Y15" s="88">
         <f t="shared" si="2"/>
-        <v>5.1151500211626538E-2</v>
-      </c>
-      <c r="Y15" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="Z15" s="88">
         <f t="shared" si="2"/>
-        <v>4.95700409302798E-2</v>
-      </c>
-      <c r="Z15" s="28">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="AA15" s="88">
         <f t="shared" si="2"/>
-        <v>5.3308466643435894E-2</v>
-      </c>
-      <c r="AA15" s="28">
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="AB15" s="88">
         <f t="shared" si="2"/>
-        <v>5.052956723015347E-2</v>
-      </c>
-      <c r="AB15" s="28">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AC15" s="88">
         <f t="shared" si="2"/>
-        <v>5.459303241989124E-2</v>
-      </c>
-      <c r="AC15" s="28">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="AD15" s="88">
         <f t="shared" si="2"/>
-        <v>4.8514555819879672E-2</v>
-      </c>
-      <c r="AD15" s="28">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="AE15" s="88">
         <f t="shared" si="2"/>
-        <v>5.3684845802762227E-2</v>
-      </c>
-      <c r="AE15" s="28">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="AF15" s="88">
         <f t="shared" si="2"/>
-        <v>4.8206916082809047E-2</v>
-      </c>
-      <c r="AF15" s="28">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="AG15" s="88">
         <f t="shared" si="2"/>
-        <v>5.2860553653547575E-2</v>
-      </c>
-      <c r="AG15" s="28">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="AH15" s="88">
         <f t="shared" si="2"/>
-        <v>5.2534191690221041E-2</v>
-      </c>
-      <c r="AH15" s="28">
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="AI15" s="88">
         <f t="shared" si="2"/>
-        <v>5.0906379062729046E-2</v>
-      </c>
-      <c r="AI15" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="AJ15" s="88">
         <f t="shared" si="2"/>
-        <v>4.9608903604054101E-2</v>
-      </c>
-      <c r="AJ15" s="28">
+        <v>4.7E-2</v>
+      </c>
+      <c r="AK15" s="88">
         <f t="shared" si="2"/>
-        <v>4.690170755194658E-2</v>
-      </c>
-      <c r="AK15" s="28">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AL15" s="88">
         <f t="shared" si="2"/>
-        <v>5.4014520016647569E-2</v>
-      </c>
-      <c r="AL15" s="28">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="AM15" s="88">
         <f t="shared" si="2"/>
-        <v>5.6289186370099165E-2</v>
-      </c>
-      <c r="AM15" s="28">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="AN15" s="88">
         <f t="shared" si="2"/>
-        <v>6.064080165295288E-2</v>
-      </c>
-      <c r="AN15" s="28">
-        <f t="shared" si="2"/>
-        <v>4.8755214052346667E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="AO15" s="28">
         <v>0</v>
@@ -4115,111 +4116,111 @@
       </c>
       <c r="N16" s="28">
         <f>N15*2</f>
-        <v>0.10792661261618076</v>
+        <v>0.108</v>
       </c>
       <c r="O16" s="28">
         <f>O15*2</f>
-        <v>9.8465385666839517E-2</v>
+        <v>0.1</v>
       </c>
       <c r="P16" s="28">
         <f t="shared" ref="P16:AN16" si="3">P15*2</f>
-        <v>0.11655418813215158</v>
+        <v>0.11800000000000001</v>
       </c>
       <c r="Q16" s="28">
         <f t="shared" si="3"/>
-        <v>0.10437119901152681</v>
+        <v>0.106</v>
       </c>
       <c r="R16" s="28">
         <f t="shared" si="3"/>
-        <v>0.10033143619161676</v>
+        <v>0.10200000000000001</v>
       </c>
       <c r="S16" s="28">
         <f t="shared" si="3"/>
-        <v>0.10861928142354497</v>
+        <v>0.11</v>
       </c>
       <c r="T16" s="28">
         <f t="shared" si="3"/>
-        <v>0.10432029897727002</v>
+        <v>0.106</v>
       </c>
       <c r="U16" s="28">
         <f t="shared" si="3"/>
-        <v>0.11471653311414978</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="V16" s="28">
         <f t="shared" si="3"/>
-        <v>0.1054685595728513</v>
+        <v>0.106</v>
       </c>
       <c r="W16" s="28">
         <f t="shared" si="3"/>
-        <v>0.10183965848201933</v>
+        <v>0.10200000000000001</v>
       </c>
       <c r="X16" s="28">
         <f t="shared" si="3"/>
-        <v>0.10230300042325308</v>
+        <v>0.104</v>
       </c>
       <c r="Y16" s="28">
         <f t="shared" si="3"/>
-        <v>9.9140081860559601E-2</v>
+        <v>0.1</v>
       </c>
       <c r="Z16" s="28">
         <f t="shared" si="3"/>
-        <v>0.10661693328687179</v>
+        <v>0.108</v>
       </c>
       <c r="AA16" s="28">
         <f t="shared" si="3"/>
-        <v>0.10105913446030694</v>
+        <v>0.10200000000000001</v>
       </c>
       <c r="AB16" s="28">
         <f t="shared" si="3"/>
-        <v>0.10918606483978248</v>
+        <v>0.11</v>
       </c>
       <c r="AC16" s="28">
         <f t="shared" si="3"/>
-        <v>9.7029111639759344E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="AD16" s="28">
         <f t="shared" si="3"/>
-        <v>0.10736969160552445</v>
+        <v>0.108</v>
       </c>
       <c r="AE16" s="28">
         <f t="shared" si="3"/>
-        <v>9.6413832165618094E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="AF16" s="28">
         <f t="shared" si="3"/>
-        <v>0.10572110730709515</v>
+        <v>0.106</v>
       </c>
       <c r="AG16" s="28">
         <f t="shared" si="3"/>
-        <v>0.10506838338044208</v>
+        <v>0.106</v>
       </c>
       <c r="AH16" s="28">
         <f t="shared" si="3"/>
-        <v>0.10181275812545809</v>
+        <v>0.10200000000000001</v>
       </c>
       <c r="AI16" s="28">
         <f t="shared" si="3"/>
-        <v>9.9217807208108202E-2</v>
+        <v>0.1</v>
       </c>
       <c r="AJ16" s="28">
         <f t="shared" si="3"/>
-        <v>9.3803415103893159E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="AK16" s="28">
         <f t="shared" si="3"/>
-        <v>0.10802904003329514</v>
+        <v>0.11</v>
       </c>
       <c r="AL16" s="28">
         <f t="shared" si="3"/>
-        <v>0.11257837274019833</v>
+        <v>0.114</v>
       </c>
       <c r="AM16" s="28">
         <f t="shared" si="3"/>
-        <v>0.12128160330590576</v>
+        <v>0.122</v>
       </c>
       <c r="AN16" s="28">
         <f t="shared" si="3"/>
-        <v>9.7510428104693334E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="AO16" s="28">
         <v>0</v>
@@ -4305,84 +4306,84 @@
         <v>2-wheelers</v>
       </c>
       <c r="N18" s="28">
-        <f t="shared" ref="N18:AN18" si="4">C139</f>
-        <v>1.2024577456126329E-3</v>
+        <f>ROUNDUP(C139,4)</f>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="O18" s="28">
-        <f t="shared" si="4"/>
-        <v>8.4181954391599476E-4</v>
+        <f t="shared" ref="O18:AN18" si="4">ROUNDUP(D139,4)</f>
+        <v>9.0000000000000008E-4</v>
       </c>
       <c r="P18" s="28">
         <f t="shared" si="4"/>
-        <v>1.4736843073167786E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="Q18" s="28">
         <f t="shared" si="4"/>
-        <v>1.3698908311171865E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="R18" s="28">
         <f t="shared" si="4"/>
-        <v>9.8425388735709995E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="S18" s="28">
         <f t="shared" si="4"/>
-        <v>6.2421004942624992E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="T18" s="28">
         <f t="shared" si="4"/>
-        <v>1.2422933671109623E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="U18" s="28">
         <f t="shared" si="4"/>
-        <v>8.6646068484003841E-4</v>
+        <v>9.0000000000000008E-4</v>
       </c>
       <c r="V18" s="28">
         <f t="shared" si="4"/>
-        <v>1.3159890714686659E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="W18" s="28">
         <f t="shared" si="4"/>
-        <v>1.2716318220191991E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="X18" s="28">
         <f t="shared" si="4"/>
-        <v>1.1218737998245681E-3</v>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="Y18" s="28">
         <f t="shared" si="4"/>
-        <v>1.2891857705150252E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="Z18" s="28">
         <f t="shared" si="4"/>
-        <v>1.4574437703184118E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="AA18" s="28">
         <f t="shared" si="4"/>
-        <v>1.2419671387040388E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="AB18" s="28">
         <f t="shared" si="4"/>
-        <v>1.4684396048311016E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="AC18" s="28">
         <f t="shared" si="4"/>
-        <v>9.5921086863546602E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="AD18" s="28">
         <f t="shared" si="4"/>
-        <v>1.0725657999581929E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="AE18" s="28">
         <f t="shared" si="4"/>
-        <v>1.1764845294377178E-3</v>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="AF18" s="28">
         <f t="shared" si="4"/>
-        <v>1.3287962602263445E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="AG18" s="28">
         <f t="shared" si="4"/>
-        <v>7.9269582890742734E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="AH18" s="28">
         <f t="shared" si="4"/>
@@ -4390,27 +4391,27 @@
       </c>
       <c r="AI18" s="28">
         <f t="shared" si="4"/>
-        <v>7.4007830335184128E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="AJ18" s="28">
         <f t="shared" si="4"/>
-        <v>7.0738302217035411E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="AK18" s="28">
         <f t="shared" si="4"/>
-        <v>8.0234115950314402E-4</v>
+        <v>9.0000000000000008E-4</v>
       </c>
       <c r="AL18" s="28">
         <f t="shared" si="4"/>
-        <v>7.1933080869381386E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="AM18" s="28">
         <f t="shared" si="4"/>
-        <v>7.4164409782466955E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="AN18" s="28">
         <f t="shared" si="4"/>
-        <v>7.7316749378532367E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="AO18" s="28">
         <v>0</v>
@@ -4445,83 +4446,83 @@
       </c>
       <c r="N19" s="28">
         <f>N18</f>
-        <v>1.2024577456126329E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="O19" s="28">
         <f t="shared" ref="O19:AN19" si="5">O18</f>
-        <v>8.4181954391599476E-4</v>
+        <v>9.0000000000000008E-4</v>
       </c>
       <c r="P19" s="28">
         <f t="shared" si="5"/>
-        <v>1.4736843073167786E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="Q19" s="28">
         <f t="shared" si="5"/>
-        <v>1.3698908311171865E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="R19" s="28">
         <f t="shared" si="5"/>
-        <v>9.8425388735709995E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="S19" s="28">
         <f t="shared" si="5"/>
-        <v>6.2421004942624992E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="T19" s="28">
         <f t="shared" si="5"/>
-        <v>1.2422933671109623E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="U19" s="28">
         <f t="shared" si="5"/>
-        <v>8.6646068484003841E-4</v>
+        <v>9.0000000000000008E-4</v>
       </c>
       <c r="V19" s="28">
         <f t="shared" si="5"/>
-        <v>1.3159890714686659E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="W19" s="28">
         <f t="shared" si="5"/>
-        <v>1.2716318220191991E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="X19" s="28">
         <f t="shared" si="5"/>
-        <v>1.1218737998245681E-3</v>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="Y19" s="28">
         <f t="shared" si="5"/>
-        <v>1.2891857705150252E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="Z19" s="28">
         <f t="shared" si="5"/>
-        <v>1.4574437703184118E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="AA19" s="28">
         <f t="shared" si="5"/>
-        <v>1.2419671387040388E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="AB19" s="28">
         <f t="shared" si="5"/>
-        <v>1.4684396048311016E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="AC19" s="28">
         <f t="shared" si="5"/>
-        <v>9.5921086863546602E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="AD19" s="28">
         <f t="shared" si="5"/>
-        <v>1.0725657999581929E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="AE19" s="28">
         <f t="shared" si="5"/>
-        <v>1.1764845294377178E-3</v>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="AF19" s="28">
         <f t="shared" si="5"/>
-        <v>1.3287962602263445E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="AG19" s="28">
         <f t="shared" si="5"/>
-        <v>7.9269582890742734E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="AH19" s="28">
         <f t="shared" si="5"/>
@@ -4529,27 +4530,27 @@
       </c>
       <c r="AI19" s="28">
         <f t="shared" si="5"/>
-        <v>7.4007830335184128E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="AJ19" s="28">
         <f t="shared" si="5"/>
-        <v>7.0738302217035411E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="AK19" s="28">
         <f t="shared" si="5"/>
-        <v>8.0234115950314402E-4</v>
+        <v>9.0000000000000008E-4</v>
       </c>
       <c r="AL19" s="28">
         <f t="shared" si="5"/>
-        <v>7.1933080869381386E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="AM19" s="28">
         <f t="shared" si="5"/>
-        <v>7.4164409782466955E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="AN19" s="28">
         <f t="shared" si="5"/>
-        <v>7.7316749378532367E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="AO19" s="28">
         <v>0</v>
@@ -4634,113 +4635,113 @@
         <f>D126</f>
         <v>LDV</v>
       </c>
-      <c r="N21" s="28">
-        <f>C140</f>
-        <v>0.51421690231633799</v>
-      </c>
-      <c r="O21" s="28">
-        <f t="shared" ref="O21:AN21" si="6">D140</f>
-        <v>0.57696936147650701</v>
-      </c>
-      <c r="P21" s="28">
+      <c r="N21" s="88">
+        <f>ROUNDUP(C140,3)</f>
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="O21" s="88">
+        <f t="shared" ref="O21:AN21" si="6">ROUNDUP(D140,3)</f>
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="P21" s="88">
         <f t="shared" si="6"/>
-        <v>0.41519891685215071</v>
-      </c>
-      <c r="Q21" s="28">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="Q21" s="88">
         <f t="shared" si="6"/>
-        <v>0.53837411623785481</v>
-      </c>
-      <c r="R21" s="28">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="R21" s="88">
         <f t="shared" si="6"/>
-        <v>0.5273035898540861</v>
-      </c>
-      <c r="S21" s="28">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="S21" s="88">
         <f t="shared" si="6"/>
-        <v>0.54428190464659498</v>
-      </c>
-      <c r="T21" s="28">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="T21" s="88">
         <f t="shared" si="6"/>
-        <v>0.54724418926165252</v>
-      </c>
-      <c r="U21" s="28">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="U21" s="88">
         <f t="shared" si="6"/>
-        <v>0.50629481396736598</v>
-      </c>
-      <c r="V21" s="28">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="V21" s="88">
         <f t="shared" si="6"/>
-        <v>0.54969956239724382</v>
-      </c>
-      <c r="W21" s="28">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W21" s="88">
         <f t="shared" si="6"/>
-        <v>0.54286879912927866</v>
-      </c>
-      <c r="X21" s="28">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="X21" s="88">
         <f t="shared" si="6"/>
-        <v>0.57050800443626981</v>
-      </c>
-      <c r="Y21" s="28">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="Y21" s="88">
         <f t="shared" si="6"/>
-        <v>0.57834017325166753</v>
-      </c>
-      <c r="Z21" s="28">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="Z21" s="88">
         <f t="shared" si="6"/>
-        <v>0.54807767476728875</v>
-      </c>
-      <c r="AA21" s="28">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="AA21" s="88">
         <f t="shared" si="6"/>
-        <v>0.57445550608131724</v>
-      </c>
-      <c r="AB21" s="28">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="AB21" s="88">
         <f t="shared" si="6"/>
-        <v>0.54514159019281827</v>
-      </c>
-      <c r="AC21" s="28">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="AC21" s="88">
         <f t="shared" si="6"/>
-        <v>0.52942173322971142</v>
-      </c>
-      <c r="AD21" s="28">
+        <v>0.53</v>
+      </c>
+      <c r="AD21" s="88">
         <f t="shared" si="6"/>
-        <v>0.54890743812317566</v>
-      </c>
-      <c r="AE21" s="28">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="AE21" s="88">
         <f t="shared" si="6"/>
-        <v>0.57655830557717536</v>
-      </c>
-      <c r="AF21" s="28">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="AF21" s="88">
         <f t="shared" si="6"/>
-        <v>0.56469028513375741</v>
-      </c>
-      <c r="AG21" s="28">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="AG21" s="88">
         <f t="shared" si="6"/>
-        <v>0.5314898835087899</v>
-      </c>
-      <c r="AH21" s="28">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="AH21" s="88">
         <f t="shared" si="6"/>
-        <v>0.5710449216561202</v>
-      </c>
-      <c r="AI21" s="28">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="AI21" s="88">
         <f t="shared" si="6"/>
-        <v>0.54463316447281129</v>
-      </c>
-      <c r="AJ21" s="28">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="AJ21" s="88">
         <f t="shared" si="6"/>
-        <v>0.60580683229929833</v>
-      </c>
-      <c r="AK21" s="28">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="AK21" s="88">
         <f t="shared" si="6"/>
-        <v>0.54575340066281097</v>
-      </c>
-      <c r="AL21" s="28">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="AL21" s="88">
         <f t="shared" si="6"/>
-        <v>0.57130392959697351</v>
-      </c>
-      <c r="AM21" s="28">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="AM21" s="88">
         <f t="shared" si="6"/>
-        <v>0.56067924597798535</v>
-      </c>
-      <c r="AN21" s="28">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="AN21" s="88">
         <f t="shared" si="6"/>
-        <v>0.49285227418620653</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="AO21" s="28">
         <v>0</v>
@@ -4775,111 +4776,111 @@
       </c>
       <c r="N22" s="28">
         <f>N21*0.5</f>
-        <v>0.25710845115816899</v>
+        <v>0.25750000000000001</v>
       </c>
       <c r="O22" s="28">
         <f t="shared" ref="O22:AN22" si="7">O21*0.5</f>
-        <v>0.28848468073825351</v>
+        <v>0.28849999999999998</v>
       </c>
       <c r="P22" s="28">
         <f t="shared" si="7"/>
-        <v>0.20759945842607536</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="Q22" s="28">
         <f t="shared" si="7"/>
-        <v>0.2691870581189274</v>
+        <v>0.26950000000000002</v>
       </c>
       <c r="R22" s="28">
         <f t="shared" si="7"/>
-        <v>0.26365179492704305</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="S22" s="28">
         <f t="shared" si="7"/>
-        <v>0.27214095232329749</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="T22" s="28">
         <f t="shared" si="7"/>
-        <v>0.27362209463082626</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="U22" s="28">
         <f t="shared" si="7"/>
-        <v>0.25314740698368299</v>
+        <v>0.2535</v>
       </c>
       <c r="V22" s="28">
         <f t="shared" si="7"/>
-        <v>0.27484978119862191</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="W22" s="28">
         <f t="shared" si="7"/>
-        <v>0.27143439956463933</v>
+        <v>0.27150000000000002</v>
       </c>
       <c r="X22" s="28">
         <f t="shared" si="7"/>
-        <v>0.28525400221813491</v>
+        <v>0.28549999999999998</v>
       </c>
       <c r="Y22" s="28">
         <f t="shared" si="7"/>
-        <v>0.28917008662583377</v>
+        <v>0.28949999999999998</v>
       </c>
       <c r="Z22" s="28">
         <f t="shared" si="7"/>
-        <v>0.27403883738364437</v>
+        <v>0.27450000000000002</v>
       </c>
       <c r="AA22" s="28">
         <f t="shared" si="7"/>
-        <v>0.28722775304065862</v>
+        <v>0.28749999999999998</v>
       </c>
       <c r="AB22" s="28">
         <f t="shared" si="7"/>
-        <v>0.27257079509640914</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="AC22" s="28">
         <f t="shared" si="7"/>
-        <v>0.26471086661485571</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="AD22" s="28">
         <f t="shared" si="7"/>
-        <v>0.27445371906158783</v>
+        <v>0.27450000000000002</v>
       </c>
       <c r="AE22" s="28">
         <f t="shared" si="7"/>
-        <v>0.28827915278858768</v>
+        <v>0.28849999999999998</v>
       </c>
       <c r="AF22" s="28">
         <f t="shared" si="7"/>
-        <v>0.2823451425668787</v>
+        <v>0.28249999999999997</v>
       </c>
       <c r="AG22" s="28">
         <f t="shared" si="7"/>
-        <v>0.26574494175439495</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="AH22" s="28">
         <f t="shared" si="7"/>
-        <v>0.2855224608280601</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="AI22" s="28">
         <f t="shared" si="7"/>
-        <v>0.27231658223640565</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="AJ22" s="28">
         <f t="shared" si="7"/>
-        <v>0.30290341614964916</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="AK22" s="28">
         <f t="shared" si="7"/>
-        <v>0.27287670033140549</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="AL22" s="28">
         <f t="shared" si="7"/>
-        <v>0.28565196479848676</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="AM22" s="28">
         <f t="shared" si="7"/>
-        <v>0.28033962298899268</v>
+        <v>0.28050000000000003</v>
       </c>
       <c r="AN22" s="28">
         <f t="shared" si="7"/>
-        <v>0.24642613709310326</v>
+        <v>0.2465</v>
       </c>
       <c r="AO22" s="28">
         <v>0</v>
@@ -4964,113 +4965,113 @@
         <f>D127</f>
         <v>Taxis</v>
       </c>
-      <c r="N24" s="28">
-        <f>C141</f>
-        <v>1.6399604421517593E-2</v>
-      </c>
-      <c r="O24" s="28">
-        <f t="shared" ref="O24:AN24" si="8">D141</f>
-        <v>7.4490307781118984E-3</v>
-      </c>
-      <c r="P24" s="28">
+      <c r="N24" s="88">
+        <f>ROUNDUP(C141,3)</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="O24" s="88">
+        <f t="shared" ref="O24:AN24" si="8">ROUNDUP(D141,3)</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="P24" s="88">
         <f t="shared" si="8"/>
-        <v>3.2041705931306341E-2</v>
-      </c>
-      <c r="Q24" s="28">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q24" s="88">
         <f t="shared" si="8"/>
-        <v>1.4142087272297982E-2</v>
-      </c>
-      <c r="R24" s="28">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R24" s="88">
         <f t="shared" si="8"/>
-        <v>7.8384539751406128E-3</v>
-      </c>
-      <c r="S24" s="28">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="S24" s="88">
         <f t="shared" si="8"/>
-        <v>9.942235039347571E-3</v>
-      </c>
-      <c r="T24" s="28">
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="T24" s="88">
         <f t="shared" si="8"/>
-        <v>8.7941712391293846E-3</v>
-      </c>
-      <c r="U24" s="28">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="U24" s="88">
         <f t="shared" si="8"/>
-        <v>1.9167683727598969E-2</v>
-      </c>
-      <c r="V24" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="V24" s="88">
         <f t="shared" si="8"/>
-        <v>1.9563309645198885E-2</v>
-      </c>
-      <c r="W24" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="W24" s="88">
         <f t="shared" si="8"/>
-        <v>6.7513932047123726E-3</v>
-      </c>
-      <c r="X24" s="28">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="X24" s="88">
         <f t="shared" si="8"/>
-        <v>1.1912585101328303E-2</v>
-      </c>
-      <c r="Y24" s="28">
+        <v>1.2E-2</v>
+      </c>
+      <c r="Y24" s="88">
         <f t="shared" si="8"/>
-        <v>6.2742086519266488E-3</v>
-      </c>
-      <c r="Z24" s="28">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="Z24" s="88">
         <f t="shared" si="8"/>
-        <v>9.0275647633180547E-3</v>
-      </c>
-      <c r="AA24" s="28">
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="AA24" s="88">
         <f t="shared" si="8"/>
-        <v>1.0257172186811273E-2</v>
-      </c>
-      <c r="AB24" s="28">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AB24" s="88">
         <f t="shared" si="8"/>
-        <v>1.2127565539618518E-2</v>
-      </c>
-      <c r="AC24" s="28">
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="AC24" s="88">
         <f t="shared" si="8"/>
-        <v>1.0185353383353699E-2</v>
-      </c>
-      <c r="AD24" s="28">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AD24" s="88">
         <f t="shared" si="8"/>
-        <v>1.2812635692286438E-2</v>
-      </c>
-      <c r="AE24" s="28">
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="AE24" s="88">
         <f t="shared" si="8"/>
-        <v>5.2051948265462115E-3</v>
-      </c>
-      <c r="AF24" s="28">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AF24" s="88">
         <f t="shared" si="8"/>
-        <v>8.6226466174633056E-3</v>
-      </c>
-      <c r="AG24" s="28">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="AG24" s="88">
         <f t="shared" si="8"/>
-        <v>1.3327262086971724E-2</v>
-      </c>
-      <c r="AH24" s="28">
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="AH24" s="88">
         <f t="shared" si="8"/>
-        <v>8.2106842864435349E-3</v>
-      </c>
-      <c r="AI24" s="28">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="AI24" s="88">
         <f t="shared" si="8"/>
-        <v>7.2036254203120672E-3</v>
-      </c>
-      <c r="AJ24" s="28">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AJ24" s="88">
         <f t="shared" si="8"/>
-        <v>6.2594387860714779E-3</v>
-      </c>
-      <c r="AK24" s="28">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AK24" s="88">
         <f t="shared" si="8"/>
-        <v>8.5196368293601697E-3</v>
-      </c>
-      <c r="AL24" s="28">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="AL24" s="88">
         <f t="shared" si="8"/>
-        <v>8.9112260712667282E-3</v>
-      </c>
-      <c r="AM24" s="28">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="AM24" s="88">
         <f t="shared" si="8"/>
-        <v>9.8439085033626087E-3</v>
-      </c>
-      <c r="AN24" s="28">
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="AN24" s="88">
         <f t="shared" si="8"/>
-        <v>4.1049285439853662E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AO24" s="28">
         <v>0</v>
@@ -5105,111 +5106,111 @@
       </c>
       <c r="N25" s="28">
         <f>N24</f>
-        <v>1.6399604421517593E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="O25" s="28">
         <f t="shared" ref="O25:AN25" si="9">O24</f>
-        <v>7.4490307781118984E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="P25" s="28">
         <f t="shared" si="9"/>
-        <v>3.2041705931306341E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="Q25" s="28">
         <f t="shared" si="9"/>
-        <v>1.4142087272297982E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="R25" s="28">
         <f>R24</f>
-        <v>7.8384539751406128E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="S25" s="28">
         <f t="shared" si="9"/>
-        <v>9.942235039347571E-3</v>
+        <v>9.9999999999999985E-3</v>
       </c>
       <c r="T25" s="28">
         <f t="shared" si="9"/>
-        <v>8.7941712391293846E-3</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="U25" s="28">
         <f t="shared" si="9"/>
-        <v>1.9167683727598969E-2</v>
+        <v>0.02</v>
       </c>
       <c r="V25" s="28">
         <f t="shared" si="9"/>
-        <v>1.9563309645198885E-2</v>
+        <v>0.02</v>
       </c>
       <c r="W25" s="28">
         <f t="shared" si="9"/>
-        <v>6.7513932047123726E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="X25" s="28">
         <f t="shared" si="9"/>
-        <v>1.1912585101328303E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="Y25" s="28">
         <f t="shared" si="9"/>
-        <v>6.2742086519266488E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="Z25" s="28">
         <f t="shared" si="9"/>
-        <v>9.0275647633180547E-3</v>
+        <v>9.9999999999999985E-3</v>
       </c>
       <c r="AA25" s="28">
         <f t="shared" si="9"/>
-        <v>1.0257172186811273E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AB25" s="28">
         <f t="shared" si="9"/>
-        <v>1.2127565539618518E-2</v>
+        <v>1.3000000000000001E-2</v>
       </c>
       <c r="AC25" s="28">
         <f t="shared" si="9"/>
-        <v>1.0185353383353699E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AD25" s="28">
         <f t="shared" si="9"/>
-        <v>1.2812635692286438E-2</v>
+        <v>1.3000000000000001E-2</v>
       </c>
       <c r="AE25" s="28">
         <f t="shared" si="9"/>
-        <v>5.2051948265462115E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AF25" s="28">
         <f t="shared" si="9"/>
-        <v>8.6226466174633056E-3</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="AG25" s="28">
         <f t="shared" si="9"/>
-        <v>1.3327262086971724E-2</v>
+        <v>1.3999999999999999E-2</v>
       </c>
       <c r="AH25" s="28">
         <f t="shared" si="9"/>
-        <v>8.2106842864435349E-3</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="AI25" s="28">
         <f t="shared" si="9"/>
-        <v>7.2036254203120672E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AJ25" s="28">
         <f t="shared" si="9"/>
-        <v>6.2594387860714779E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AK25" s="28">
         <f t="shared" si="9"/>
-        <v>8.5196368293601697E-3</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="AL25" s="28">
         <f t="shared" si="9"/>
-        <v>8.9112260712667282E-3</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="AM25" s="28">
         <f t="shared" si="9"/>
-        <v>9.8439085033626087E-3</v>
+        <v>9.9999999999999985E-3</v>
       </c>
       <c r="AN25" s="28">
         <f t="shared" si="9"/>
-        <v>4.1049285439853662E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AO25" s="28">
         <v>0</v>
@@ -5294,113 +5295,113 @@
         <f>D128</f>
         <v>BUS</v>
       </c>
-      <c r="N27" s="28">
-        <f t="shared" ref="N27:AN27" si="10">C142</f>
-        <v>8.2740995898888392E-2</v>
-      </c>
-      <c r="O27" s="28">
+      <c r="N27" s="88">
+        <f>ROUNDUP(C142,3)</f>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="O27" s="88">
+        <f t="shared" ref="O27:AN27" si="10">ROUNDUP(D142,3)</f>
+        <v>7.1000000000000008E-2</v>
+      </c>
+      <c r="P27" s="88">
         <f t="shared" si="10"/>
-        <v>7.0110938367526743E-2</v>
-      </c>
-      <c r="P27" s="28">
+        <v>0.114</v>
+      </c>
+      <c r="Q27" s="88">
         <f t="shared" si="10"/>
-        <v>0.1139689510378053</v>
-      </c>
-      <c r="Q27" s="28">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="R27" s="88">
         <f t="shared" si="10"/>
-        <v>8.0814709118386313E-2</v>
-      </c>
-      <c r="R27" s="28">
+        <v>0.113</v>
+      </c>
+      <c r="S27" s="88">
         <f t="shared" si="10"/>
-        <v>0.11271367561275741</v>
-      </c>
-      <c r="S27" s="28">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="T27" s="88">
         <f t="shared" si="10"/>
-        <v>6.4984165282223824E-2</v>
-      </c>
-      <c r="T27" s="28">
+        <v>7.8E-2</v>
+      </c>
+      <c r="U27" s="88">
         <f t="shared" si="10"/>
-        <v>7.7598299711661989E-2</v>
-      </c>
-      <c r="U27" s="28">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="V27" s="88">
         <f t="shared" si="10"/>
-        <v>7.216317572067088E-2</v>
-      </c>
-      <c r="V27" s="28">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="W27" s="88">
         <f t="shared" si="10"/>
-        <v>6.0281180381109148E-2</v>
-      </c>
-      <c r="W27" s="28">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="X27" s="88">
         <f t="shared" si="10"/>
-        <v>9.2669371156921962E-2</v>
-      </c>
-      <c r="X27" s="28">
+        <v>5.9000000000000004E-2</v>
+      </c>
+      <c r="Y27" s="88">
         <f t="shared" si="10"/>
-        <v>5.839703518119168E-2</v>
-      </c>
-      <c r="Y27" s="28">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Z27" s="88">
         <f t="shared" si="10"/>
-        <v>6.7106145813932178E-2</v>
-      </c>
-      <c r="Z27" s="28">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="AA27" s="88">
         <f t="shared" si="10"/>
-        <v>6.8278050195023532E-2</v>
-      </c>
-      <c r="AA27" s="28">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="AB27" s="88">
         <f t="shared" si="10"/>
-        <v>6.0338383982093263E-2</v>
-      </c>
-      <c r="AB27" s="28">
+        <v>0.06</v>
+      </c>
+      <c r="AC27" s="88">
         <f t="shared" si="10"/>
-        <v>5.9111177723493433E-2</v>
-      </c>
-      <c r="AC27" s="28">
+        <v>0.12</v>
+      </c>
+      <c r="AD27" s="88">
         <f t="shared" si="10"/>
-        <v>0.11983181177914175</v>
-      </c>
-      <c r="AD27" s="28">
+        <v>6.2E-2</v>
+      </c>
+      <c r="AE27" s="88">
         <f t="shared" si="10"/>
-        <v>6.1413439765244195E-2</v>
-      </c>
-      <c r="AE27" s="28">
+        <v>0.08</v>
+      </c>
+      <c r="AF27" s="88">
         <f t="shared" si="10"/>
-        <v>7.9611602487177441E-2</v>
-      </c>
-      <c r="AF27" s="28">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="AG27" s="88">
         <f t="shared" si="10"/>
-        <v>5.5334396413720018E-2</v>
-      </c>
-      <c r="AG27" s="28">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="AH27" s="88">
         <f t="shared" si="10"/>
-        <v>8.6650816743783748E-2</v>
-      </c>
-      <c r="AH27" s="28">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AI27" s="88">
         <f t="shared" si="10"/>
-        <v>6.4399740618333048E-2</v>
-      </c>
-      <c r="AI27" s="28">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="AJ27" s="88">
         <f t="shared" si="10"/>
-        <v>0.10016080657514609</v>
-      </c>
-      <c r="AJ27" s="28">
+        <v>5.9000000000000004E-2</v>
+      </c>
+      <c r="AK27" s="88">
         <f t="shared" si="10"/>
-        <v>5.8914393028833764E-2</v>
-      </c>
-      <c r="AK27" s="28">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="AL27" s="88">
         <f t="shared" si="10"/>
-        <v>6.6822981231792783E-2</v>
-      </c>
-      <c r="AL27" s="28">
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="AM27" s="88">
         <f t="shared" si="10"/>
-        <v>2.5041208932371696E-2</v>
-      </c>
-      <c r="AM27" s="28">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AN27" s="88">
         <f t="shared" si="10"/>
-        <v>4.2495898501573662E-3</v>
-      </c>
-      <c r="AN27" s="28">
-        <f t="shared" si="10"/>
-        <v>0.16098313140959611</v>
+        <v>0.161</v>
       </c>
       <c r="AO27" s="28">
         <v>0</v>
@@ -5435,111 +5436,111 @@
       </c>
       <c r="N28" s="28">
         <f>N27</f>
-        <v>8.2740995898888392E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="O28" s="28">
         <f t="shared" ref="O28:AM28" si="11">O27</f>
-        <v>7.0110938367526743E-2</v>
+        <v>7.1000000000000008E-2</v>
       </c>
       <c r="P28" s="28">
         <f t="shared" si="11"/>
-        <v>0.1139689510378053</v>
+        <v>0.114</v>
       </c>
       <c r="Q28" s="28">
         <f t="shared" si="11"/>
-        <v>8.0814709118386313E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="R28" s="28">
         <f t="shared" si="11"/>
-        <v>0.11271367561275741</v>
+        <v>0.113</v>
       </c>
       <c r="S28" s="28">
         <f t="shared" si="11"/>
-        <v>6.4984165282223824E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="T28" s="28">
         <f t="shared" si="11"/>
-        <v>7.7598299711661989E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="U28" s="28">
         <f t="shared" si="11"/>
-        <v>7.216317572067088E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="V28" s="28">
         <f t="shared" si="11"/>
-        <v>6.0281180381109148E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="W28" s="28">
         <f t="shared" si="11"/>
-        <v>9.2669371156921962E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="X28" s="28">
         <f t="shared" si="11"/>
-        <v>5.839703518119168E-2</v>
+        <v>5.9000000000000004E-2</v>
       </c>
       <c r="Y28" s="28">
         <f t="shared" si="11"/>
-        <v>6.7106145813932178E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="Z28" s="28">
         <f t="shared" si="11"/>
-        <v>6.8278050195023532E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="AA28" s="28">
         <f t="shared" si="11"/>
-        <v>6.0338383982093263E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="AB28" s="28">
         <f t="shared" si="11"/>
-        <v>5.9111177723493433E-2</v>
+        <v>0.06</v>
       </c>
       <c r="AC28" s="28">
         <f t="shared" si="11"/>
-        <v>0.11983181177914175</v>
+        <v>0.12</v>
       </c>
       <c r="AD28" s="28">
         <f t="shared" si="11"/>
-        <v>6.1413439765244195E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="AE28" s="28">
         <f t="shared" si="11"/>
-        <v>7.9611602487177441E-2</v>
+        <v>0.08</v>
       </c>
       <c r="AF28" s="28">
         <f t="shared" si="11"/>
-        <v>5.5334396413720018E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="AG28" s="28">
         <f t="shared" si="11"/>
-        <v>8.6650816743783748E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="AH28" s="28">
         <f t="shared" si="11"/>
-        <v>6.4399740618333048E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AI28" s="28">
         <f t="shared" si="11"/>
-        <v>0.10016080657514609</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="AJ28" s="28">
         <f t="shared" si="11"/>
-        <v>5.8914393028833764E-2</v>
+        <v>5.9000000000000004E-2</v>
       </c>
       <c r="AK28" s="28">
         <f t="shared" si="11"/>
-        <v>6.6822981231792783E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="AL28" s="28">
         <f t="shared" si="11"/>
-        <v>2.5041208932371696E-2</v>
+        <v>2.6000000000000002E-2</v>
       </c>
       <c r="AM28" s="28">
         <f t="shared" si="11"/>
-        <v>4.2495898501573662E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AN28" s="28">
         <f>AN27</f>
-        <v>0.16098313140959611</v>
+        <v>0.161</v>
       </c>
       <c r="AO28" s="32">
         <v>0</v>
@@ -5624,111 +5625,111 @@
         <f>D129</f>
         <v>Light rail (LUAS)</v>
       </c>
-      <c r="N30" s="28">
-        <f>C143</f>
-        <v>7.6968954610109105E-3</v>
-      </c>
-      <c r="O30" s="28">
-        <f t="shared" ref="O30:AN30" si="12">D143</f>
-        <v>0</v>
-      </c>
-      <c r="P30" s="28">
+      <c r="N30" s="88">
+        <f>ROUNDUP(C143,3)</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="O30" s="88">
+        <f t="shared" ref="O30:AN30" si="12">ROUNDUP(D143,3)</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="88">
         <f t="shared" si="12"/>
-        <v>2.9377083408890298E-2</v>
-      </c>
-      <c r="Q30" s="28">
+        <v>3.0000000000000002E-2</v>
+      </c>
+      <c r="Q30" s="88">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R30" s="28">
+      <c r="R30" s="88">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S30" s="28">
+      <c r="S30" s="88">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T30" s="28">
+      <c r="T30" s="88">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U30" s="28">
+      <c r="U30" s="88">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="V30" s="28">
+      <c r="V30" s="88">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="W30" s="28">
+      <c r="W30" s="88">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="X30" s="28">
+      <c r="X30" s="88">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="28">
+      <c r="Y30" s="88">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z30" s="28">
+      <c r="Z30" s="88">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA30" s="28">
+      <c r="AA30" s="88">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB30" s="28">
+      <c r="AB30" s="88">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC30" s="28">
+      <c r="AC30" s="88">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD30" s="28">
+      <c r="AD30" s="88">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE30" s="28">
+      <c r="AE30" s="88">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AF30" s="28">
+      <c r="AF30" s="88">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AG30" s="28">
+      <c r="AG30" s="88">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AH30" s="28">
+      <c r="AH30" s="88">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI30" s="28">
+      <c r="AI30" s="88">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AJ30" s="28">
+      <c r="AJ30" s="88">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AK30" s="28">
+      <c r="AK30" s="88">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AL30" s="28">
+      <c r="AL30" s="88">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AM30" s="28">
+      <c r="AM30" s="88">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AN30" s="28">
+      <c r="AN30" s="88">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -5765,7 +5766,7 @@
       </c>
       <c r="N31" s="32">
         <f>N30</f>
-        <v>7.6968954610109105E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="O31" s="32">
         <f t="shared" ref="O31:AN31" si="13">O30</f>
@@ -5773,7 +5774,7 @@
       </c>
       <c r="P31" s="32">
         <f>P30</f>
-        <v>2.9377083408890298E-2</v>
+        <v>3.0000000000000002E-2</v>
       </c>
       <c r="Q31" s="32">
         <f t="shared" si="13"/>
@@ -5984,111 +5985,111 @@
       </c>
       <c r="N34" s="86">
         <f>N12+N15+N18+N21+N24+N27+N30</f>
-        <v>1.0000000000000002</v>
+        <v>1.0023</v>
       </c>
       <c r="O34" s="86">
         <f t="shared" ref="O34:AN35" si="14">O12+O15+O18+O21+O24+O27+O30</f>
-        <v>0.99999999999999978</v>
+        <v>1.0028999999999999</v>
       </c>
       <c r="P34" s="86">
         <f t="shared" si="14"/>
-        <v>0.99999999999999989</v>
+        <v>1.0035000000000001</v>
       </c>
       <c r="Q34" s="86">
         <f t="shared" si="14"/>
-        <v>0.99999999999999989</v>
+        <v>1.0034000000000001</v>
       </c>
       <c r="R34" s="86">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>1.002</v>
       </c>
       <c r="S34" s="86">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>1.0017</v>
       </c>
       <c r="T34" s="86">
         <f t="shared" si="14"/>
-        <v>0.99999999999999989</v>
+        <v>1.0023</v>
       </c>
       <c r="U34" s="86">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>1.0039</v>
       </c>
       <c r="V34" s="86">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>1.0024</v>
       </c>
       <c r="W34" s="86">
         <f t="shared" si="14"/>
-        <v>0.99999999999999989</v>
+        <v>1.0013000000000001</v>
       </c>
       <c r="X34" s="86">
         <f t="shared" si="14"/>
-        <v>1.0000000000000002</v>
+        <v>1.0022</v>
       </c>
       <c r="Y34" s="86">
         <f t="shared" si="14"/>
-        <v>0.99999999999999989</v>
+        <v>1.0032999999999999</v>
       </c>
       <c r="Z34" s="86">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>1.0035000000000001</v>
       </c>
       <c r="AA34" s="86">
         <f t="shared" si="14"/>
-        <v>1.0000000000000002</v>
+        <v>1.0033000000000001</v>
       </c>
       <c r="AB34" s="86">
         <f t="shared" si="14"/>
-        <v>0.99999999999999989</v>
+        <v>1.0035000000000001</v>
       </c>
       <c r="AC34" s="86">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>1.0030000000000001</v>
       </c>
       <c r="AD34" s="86">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>1.0021</v>
       </c>
       <c r="AE34" s="86">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>1.0031999999999999</v>
       </c>
       <c r="AF34" s="86">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>1.0024</v>
       </c>
       <c r="AG34" s="86">
         <f t="shared" si="14"/>
-        <v>1.0000000000000002</v>
+        <v>1.0028000000000001</v>
       </c>
       <c r="AH34" s="86">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="AI34" s="86">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>1.0028000000000001</v>
       </c>
       <c r="AJ34" s="86">
         <f t="shared" si="14"/>
-        <v>0.99999999999999989</v>
+        <v>1.0018</v>
       </c>
       <c r="AK34" s="86">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>1.0029000000000001</v>
       </c>
       <c r="AL34" s="86">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>1.0027999999999999</v>
       </c>
       <c r="AM34" s="86">
         <f t="shared" si="14"/>
-        <v>1.0000000000000002</v>
+        <v>1.0018</v>
       </c>
       <c r="AN34" s="86">
         <f t="shared" si="14"/>
-        <v>0.99999999999999989</v>
+        <v>1.0018</v>
       </c>
       <c r="AO34" s="15"/>
       <c r="AP34" s="15"/>
@@ -6110,111 +6111,111 @@
       </c>
       <c r="N35" s="86">
         <f>N13+N16+N19+N22+N25+N28+N31</f>
-        <v>0.99999999999999067</v>
+        <v>1.0020832784424678</v>
       </c>
       <c r="O35" s="86">
         <f t="shared" ref="O35:U35" si="15">O13+O16+O19+O22+O25+O28+O31</f>
-        <v>0.94608473812717664</v>
+        <v>0.95011558771287197</v>
       </c>
       <c r="P35" s="86">
         <f t="shared" si="15"/>
-        <v>1.0700620567483703</v>
+        <v>1.07409613411995</v>
       </c>
       <c r="Q35" s="86">
         <f t="shared" si="15"/>
-        <v>0.97945149981308077</v>
+        <v>0.98390910318189795</v>
       </c>
       <c r="R35" s="86">
         <f t="shared" si="15"/>
-        <v>0.97536302761203508</v>
+        <v>0.97785267534315701</v>
       </c>
       <c r="S35" s="86">
         <f t="shared" si="15"/>
-        <v>0.98661761088702393</v>
+        <v>0.98873811349458207</v>
       </c>
       <c r="T35" s="86">
         <f t="shared" si="15"/>
-        <v>0.97489520656334483</v>
-      </c>
-      <c r="U35" s="87">
+        <v>0.97768168565584102</v>
+      </c>
+      <c r="U35" s="86">
         <f t="shared" si="15"/>
-        <v>1.0201363497863392</v>
+        <v>1.024859046489665</v>
       </c>
       <c r="V35" s="86">
         <f t="shared" si="14"/>
-        <v>0.97640296675978488</v>
+        <v>0.97929135576006909</v>
       </c>
       <c r="W35" s="86">
         <f t="shared" si="14"/>
-        <v>0.97117338941420528</v>
+        <v>0.972789762973442</v>
       </c>
       <c r="X35" s="86">
         <f t="shared" si="14"/>
-        <v>0.95845758429478878</v>
+        <v>0.96131718049949899</v>
       </c>
       <c r="Y35" s="86">
         <f t="shared" si="14"/>
-        <v>0.94700662898656818</v>
+        <v>0.95077042276498602</v>
       </c>
       <c r="Z35" s="86">
         <f t="shared" si="14"/>
-        <v>0.97994962681569153</v>
+        <v>0.98377360833824001</v>
       </c>
       <c r="AA35" s="86">
         <f t="shared" si="14"/>
-        <v>0.95352063057513747</v>
+        <v>0.95753492792132788</v>
       </c>
       <c r="AB35" s="86">
         <f t="shared" si="14"/>
-        <v>0.98753798936850856</v>
+        <v>0.99129294854669592</v>
       </c>
       <c r="AC35" s="86">
         <f t="shared" si="14"/>
-        <v>0.96643698474660267</v>
+        <v>0.97020591760864405</v>
       </c>
       <c r="AD35" s="86">
         <f t="shared" si="14"/>
-        <v>0.98132800558309796</v>
+        <v>0.98425586091641093</v>
       </c>
       <c r="AE35" s="86">
         <f t="shared" si="14"/>
-        <v>0.9414029474593022</v>
+        <v>0.94565108255652996</v>
       </c>
       <c r="AF35" s="86">
         <f t="shared" si="14"/>
-        <v>0.96950923788254173</v>
+        <v>0.97241877328612603</v>
       </c>
       <c r="AG35" s="86">
         <f t="shared" si="14"/>
-        <v>0.98455448543792234</v>
+        <v>0.98806393823401206</v>
       </c>
       <c r="AH35" s="86">
         <f t="shared" si="14"/>
-        <v>0.957021244707013</v>
+        <v>0.95998976297344196</v>
       </c>
       <c r="AI35" s="86">
         <f t="shared" si="14"/>
-        <v>0.96404529478558332</v>
+        <v>0.96727042276498598</v>
       </c>
       <c r="AJ35" s="86">
         <f t="shared" si="14"/>
-        <v>0.92056001132284482</v>
+        <v>0.92273174234807409</v>
       </c>
       <c r="AK35" s="86">
         <f t="shared" si="14"/>
-        <v>0.98447575880524996</v>
+        <v>0.988810695968525</v>
       </c>
       <c r="AL35" s="86">
         <f t="shared" si="14"/>
-        <v>0.98253815390814658</v>
+        <v>0.98586712380726615</v>
       </c>
       <c r="AM35" s="87">
         <f t="shared" si="14"/>
-        <v>1.0085837891712139</v>
+        <v>1.0106799794847479</v>
       </c>
       <c r="AN35" s="86">
         <f t="shared" si="14"/>
-        <v>0.98586833165786025</v>
+        <v>0.98813333513470114</v>
       </c>
       <c r="AO35" s="15"/>
       <c r="AP35" s="15"/>
@@ -6484,113 +6485,113 @@
         <f>D125</f>
         <v>2-wheelers</v>
       </c>
-      <c r="N41" s="28">
-        <f>C153</f>
-        <v>3.2739468688573266E-3</v>
-      </c>
-      <c r="O41" s="28">
-        <f t="shared" ref="O41:AN41" si="16">D153</f>
-        <v>2.1586268841599747E-3</v>
-      </c>
-      <c r="P41" s="28">
+      <c r="N41" s="86">
+        <f>ROUNDUP(C153,4)</f>
+        <v>3.3E-3</v>
+      </c>
+      <c r="O41" s="86">
+        <f t="shared" ref="O41:AN41" si="16">ROUNDUP(D153,4)</f>
+        <v>2.1999999999999997E-3</v>
+      </c>
+      <c r="P41" s="86">
         <f t="shared" si="16"/>
-        <v>4.3137182635283444E-3</v>
-      </c>
-      <c r="Q41" s="28">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="Q41" s="86">
         <f t="shared" si="16"/>
-        <v>3.6319751739066989E-3</v>
-      </c>
-      <c r="R41" s="28">
+        <v>3.6999999999999997E-3</v>
+      </c>
+      <c r="R41" s="86">
         <f t="shared" si="16"/>
-        <v>2.5491869155235955E-3</v>
-      </c>
-      <c r="S41" s="28">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="S41" s="86">
         <f t="shared" si="16"/>
-        <v>1.6941154698507114E-3</v>
-      </c>
-      <c r="T41" s="28">
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="T41" s="86">
         <f t="shared" si="16"/>
-        <v>3.2883004760979389E-3</v>
-      </c>
-      <c r="U41" s="28">
+        <v>3.3E-3</v>
+      </c>
+      <c r="U41" s="86">
         <f t="shared" si="16"/>
-        <v>2.4416088687366478E-3</v>
-      </c>
-      <c r="V41" s="28">
+        <v>2.4999999999999996E-3</v>
+      </c>
+      <c r="V41" s="86">
         <f t="shared" si="16"/>
-        <v>3.5159102982178412E-3</v>
-      </c>
-      <c r="W41" s="28">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="W41" s="86">
         <f t="shared" si="16"/>
-        <v>3.3185344885490013E-3</v>
-      </c>
-      <c r="X41" s="28">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="X41" s="86">
         <f t="shared" si="16"/>
-        <v>2.939754742265497E-3</v>
-      </c>
-      <c r="Y41" s="28">
+        <v>2.9999999999999996E-3</v>
+      </c>
+      <c r="Y41" s="86">
         <f t="shared" si="16"/>
-        <v>3.3151523856669103E-3</v>
-      </c>
-      <c r="Z41" s="28">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="Z41" s="86">
         <f t="shared" si="16"/>
-        <v>3.906666915379246E-3</v>
-      </c>
-      <c r="AA41" s="28">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AA41" s="86">
         <f t="shared" si="16"/>
-        <v>3.2306073901205486E-3</v>
-      </c>
-      <c r="AB41" s="28">
+        <v>3.3E-3</v>
+      </c>
+      <c r="AB41" s="86">
         <f t="shared" si="16"/>
-        <v>3.9969766503394092E-3</v>
-      </c>
-      <c r="AC41" s="28">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AC41" s="86">
         <f t="shared" si="16"/>
-        <v>2.4423953155841079E-3</v>
-      </c>
-      <c r="AD41" s="28">
+        <v>2.4999999999999996E-3</v>
+      </c>
+      <c r="AD41" s="86">
         <f t="shared" si="16"/>
-        <v>2.8914591982090753E-3</v>
-      </c>
-      <c r="AE41" s="28">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="AE41" s="86">
         <f t="shared" si="16"/>
-        <v>2.9812499263931389E-3</v>
-      </c>
-      <c r="AF41" s="28">
+        <v>2.9999999999999996E-3</v>
+      </c>
+      <c r="AF41" s="86">
         <f t="shared" si="16"/>
-        <v>3.5441732524901714E-3</v>
-      </c>
-      <c r="AG41" s="28">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="AG41" s="86">
         <f t="shared" si="16"/>
-        <v>2.1106258862285242E-3</v>
-      </c>
-      <c r="AH41" s="28">
+        <v>2.1999999999999997E-3</v>
+      </c>
+      <c r="AH41" s="86">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AI41" s="28">
+      <c r="AI41" s="86">
         <f t="shared" si="16"/>
-        <v>1.9054783663146626E-3</v>
-      </c>
-      <c r="AJ41" s="28">
+        <v>2E-3</v>
+      </c>
+      <c r="AJ41" s="86">
         <f t="shared" si="16"/>
-        <v>1.7694736792673005E-3</v>
-      </c>
-      <c r="AK41" s="28">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AK41" s="86">
         <f t="shared" si="16"/>
-        <v>2.1690169741061518E-3</v>
-      </c>
-      <c r="AL41" s="28">
+        <v>2.1999999999999997E-3</v>
+      </c>
+      <c r="AL41" s="86">
         <f t="shared" si="16"/>
-        <v>1.996201699404686E-3</v>
-      </c>
-      <c r="AM41" s="28">
+        <v>2E-3</v>
+      </c>
+      <c r="AM41" s="86">
         <f t="shared" si="16"/>
-        <v>2.1678265957034699E-3</v>
-      </c>
-      <c r="AN41" s="28">
+        <v>2.1999999999999997E-3</v>
+      </c>
+      <c r="AN41" s="86">
         <f t="shared" si="16"/>
-        <v>1.9708873200458749E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="AO41" s="28">
         <v>0</v>
@@ -6659,113 +6660,113 @@
         <f>D126</f>
         <v>LDV</v>
       </c>
-      <c r="N43" s="28">
-        <f>C154</f>
-        <v>0.83405572391255312</v>
-      </c>
-      <c r="O43" s="28">
-        <f t="shared" ref="O43:AN43" si="17">D154</f>
-        <v>0.88136996225712338</v>
-      </c>
-      <c r="P43" s="28">
+      <c r="N43" s="88">
+        <f>ROUNDUP(C154,3)</f>
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="O43" s="88">
+        <f t="shared" ref="O43:AN43" si="17">ROUNDUP(D154,3)</f>
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="P43" s="88">
         <f t="shared" si="17"/>
-        <v>0.7240198055510555</v>
-      </c>
-      <c r="Q43" s="28">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="Q43" s="88">
         <f t="shared" si="17"/>
-        <v>0.85033097733510543</v>
-      </c>
-      <c r="R43" s="28">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="R43" s="88">
         <f t="shared" si="17"/>
-        <v>0.81358360125192186</v>
-      </c>
-      <c r="S43" s="28">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="S43" s="88">
         <f t="shared" si="17"/>
-        <v>0.88000079438796519</v>
-      </c>
-      <c r="T43" s="28">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="T43" s="88">
         <f t="shared" si="17"/>
-        <v>0.86292967512561713</v>
-      </c>
-      <c r="U43" s="28">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="U43" s="88">
         <f t="shared" si="17"/>
-        <v>0.84991917486050839</v>
-      </c>
-      <c r="V43" s="28">
+        <v>0.85</v>
+      </c>
+      <c r="V43" s="88">
         <f t="shared" si="17"/>
-        <v>0.87489878054676506</v>
-      </c>
-      <c r="W43" s="28">
+        <v>0.875</v>
+      </c>
+      <c r="W43" s="88">
         <f t="shared" si="17"/>
-        <v>0.84396948853578213</v>
-      </c>
-      <c r="X43" s="28">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="X43" s="88">
         <f t="shared" si="17"/>
-        <v>0.89058577172865516</v>
-      </c>
-      <c r="Y43" s="28">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="Y43" s="88">
         <f t="shared" si="17"/>
-        <v>0.88596847722847849</v>
-      </c>
-      <c r="Z43" s="28">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="Z43" s="88">
         <f t="shared" si="17"/>
-        <v>0.87519253516054751</v>
-      </c>
-      <c r="AA43" s="28">
+        <v>0.876</v>
+      </c>
+      <c r="AA43" s="88">
         <f t="shared" si="17"/>
-        <v>0.89017909286971042</v>
-      </c>
-      <c r="AB43" s="28">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="AB43" s="88">
         <f t="shared" si="17"/>
-        <v>0.88395825319439558</v>
-      </c>
-      <c r="AC43" s="28">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="AC43" s="88">
         <f t="shared" si="17"/>
-        <v>0.80306472393989703</v>
-      </c>
-      <c r="AD43" s="28">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="AD43" s="88">
         <f t="shared" si="17"/>
-        <v>0.88153417928289457</v>
-      </c>
-      <c r="AE43" s="28">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="AE43" s="88">
         <f t="shared" si="17"/>
-        <v>0.87036679499941227</v>
-      </c>
-      <c r="AF43" s="28">
+        <v>0.871</v>
+      </c>
+      <c r="AF43" s="88">
         <f t="shared" si="17"/>
-        <v>0.89725064481847272</v>
-      </c>
-      <c r="AG43" s="28">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="AG43" s="88">
         <f t="shared" si="17"/>
-        <v>0.84303694258501916</v>
-      </c>
-      <c r="AH43" s="28">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="AH43" s="88">
         <f t="shared" si="17"/>
-        <v>0.88919219682824724</v>
-      </c>
-      <c r="AI43" s="28">
+        <v>0.89</v>
+      </c>
+      <c r="AI43" s="88">
         <f t="shared" si="17"/>
-        <v>0.83536706688667051</v>
-      </c>
-      <c r="AJ43" s="28">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="AJ43" s="88">
         <f t="shared" si="17"/>
-        <v>0.90275636290048633</v>
-      </c>
-      <c r="AK43" s="28">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="AK43" s="88">
         <f t="shared" si="17"/>
-        <v>0.87891574758893642</v>
-      </c>
-      <c r="AL43" s="28">
+        <v>0.879</v>
+      </c>
+      <c r="AL43" s="88">
         <f t="shared" si="17"/>
-        <v>0.9444737396739924</v>
-      </c>
-      <c r="AM43" s="28">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="AM43" s="88">
         <f t="shared" si="17"/>
-        <v>0.97631596747347482</v>
-      </c>
-      <c r="AN43" s="28">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="AN43" s="88">
         <f t="shared" si="17"/>
-        <v>0.7484312106638259</v>
+        <v>0.749</v>
       </c>
       <c r="AO43" s="28">
         <v>0</v>
@@ -6834,113 +6835,113 @@
         <f>D127</f>
         <v>Taxis</v>
       </c>
-      <c r="N45" s="28">
-        <f>C155</f>
-        <v>2.1905905312439161E-2</v>
-      </c>
-      <c r="O45" s="28">
-        <f t="shared" ref="O45:AN45" si="18">D155</f>
-        <v>9.3709663140288998E-3</v>
-      </c>
-      <c r="P45" s="28">
+      <c r="N45" s="88">
+        <f>ROUNDUP(C155,3)</f>
+        <v>2.2000000000000002E-2</v>
+      </c>
+      <c r="O45" s="88">
+        <f t="shared" ref="O45:AN45" si="18">ROUNDUP(D155,3)</f>
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="P45" s="88">
         <f t="shared" si="18"/>
-        <v>4.6013893098741668E-2</v>
-      </c>
-      <c r="Q45" s="28">
+        <v>4.7E-2</v>
+      </c>
+      <c r="Q45" s="88">
         <f t="shared" si="18"/>
-        <v>1.8394858695029128E-2</v>
-      </c>
-      <c r="R45" s="28">
+        <v>1.9E-2</v>
+      </c>
+      <c r="R45" s="88">
         <f t="shared" si="18"/>
-        <v>9.9598084318994508E-3</v>
-      </c>
-      <c r="S45" s="28">
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="S45" s="88">
         <f t="shared" si="18"/>
-        <v>1.3237997918849932E-2</v>
-      </c>
-      <c r="T45" s="28">
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="T45" s="88">
         <f t="shared" si="18"/>
-        <v>1.1420057155050359E-2</v>
-      </c>
-      <c r="U45" s="28">
+        <v>1.2E-2</v>
+      </c>
+      <c r="U45" s="88">
         <f t="shared" si="18"/>
-        <v>2.6498598054231513E-2</v>
-      </c>
-      <c r="V45" s="28">
+        <v>2.7E-2</v>
+      </c>
+      <c r="V45" s="88">
         <f t="shared" si="18"/>
-        <v>2.5642116158186581E-2</v>
-      </c>
-      <c r="W45" s="28">
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="W45" s="88">
         <f t="shared" si="18"/>
-        <v>8.6437934593511252E-3</v>
-      </c>
-      <c r="X45" s="28">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="X45" s="88">
         <f t="shared" si="18"/>
-        <v>1.5314370184172183E-2</v>
-      </c>
-      <c r="Y45" s="28">
+        <v>1.6E-2</v>
+      </c>
+      <c r="Y45" s="88">
         <f t="shared" si="18"/>
-        <v>7.9154020817384443E-3</v>
-      </c>
-      <c r="Z45" s="28">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Z45" s="88">
         <f t="shared" si="18"/>
-        <v>1.1871653704006174E-2</v>
-      </c>
-      <c r="AA45" s="28">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AA45" s="88">
         <f t="shared" si="18"/>
-        <v>1.3089641552029165E-2</v>
-      </c>
-      <c r="AB45" s="28">
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="AB45" s="88">
         <f t="shared" si="18"/>
-        <v>1.6194784858342321E-2</v>
-      </c>
-      <c r="AC45" s="28">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AC45" s="88">
         <f t="shared" si="18"/>
-        <v>1.272342398540301E-2</v>
-      </c>
-      <c r="AD45" s="28">
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="AD45" s="88">
         <f t="shared" si="18"/>
-        <v>1.6945626580446856E-2</v>
-      </c>
-      <c r="AE45" s="28">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AE45" s="88">
         <f t="shared" si="18"/>
-        <v>6.4710564013944778E-3</v>
-      </c>
-      <c r="AF45" s="28">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AF45" s="88">
         <f t="shared" si="18"/>
-        <v>1.1282963024401618E-2</v>
-      </c>
-      <c r="AG45" s="28">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AG45" s="88">
         <f t="shared" si="18"/>
-        <v>1.7408913059663488E-2</v>
-      </c>
-      <c r="AH45" s="28">
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="AH45" s="88">
         <f t="shared" si="18"/>
-        <v>1.0528920260910977E-2</v>
-      </c>
-      <c r="AI45" s="28">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AI45" s="88">
         <f t="shared" si="18"/>
-        <v>9.0992061135074936E-3</v>
-      </c>
-      <c r="AJ45" s="28">
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="AJ45" s="88">
         <f t="shared" si="18"/>
-        <v>7.6815860877352945E-3</v>
-      </c>
-      <c r="AK45" s="28">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AK45" s="88">
         <f t="shared" si="18"/>
-        <v>1.129928575321087E-2</v>
-      </c>
-      <c r="AL45" s="28">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AL45" s="88">
         <f t="shared" si="18"/>
-        <v>1.2132191360051241E-2</v>
-      </c>
-      <c r="AM45" s="28">
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="AM45" s="88">
         <f t="shared" si="18"/>
-        <v>1.4116355738962196E-2</v>
-      </c>
-      <c r="AN45" s="28">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AN45" s="88">
         <f t="shared" si="18"/>
-        <v>5.1335741680296381E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AO45" s="28">
         <v>0</v>
@@ -7010,112 +7011,112 @@
         <v>BUS</v>
       </c>
       <c r="N47" s="28">
-        <f>C156</f>
-        <v>0.13420523697456904</v>
+        <f>ROUNDUP(C156,2)</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="O47" s="28">
-        <f t="shared" ref="O47:AN47" si="19">D156</f>
-        <v>0.10710044454468777</v>
+        <f t="shared" ref="O47:AN47" si="19">ROUNDUP(D156,2)</f>
+        <v>0.11</v>
       </c>
       <c r="P47" s="28">
         <f t="shared" si="19"/>
-        <v>0.19873794082808949</v>
+        <v>0.2</v>
       </c>
       <c r="Q47" s="28">
         <f t="shared" si="19"/>
-        <v>0.12764218879595873</v>
+        <v>0.13</v>
       </c>
       <c r="R47" s="28">
         <f t="shared" si="19"/>
-        <v>0.17390740340065505</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="S47" s="28">
         <f t="shared" si="19"/>
-        <v>0.10506709222333424</v>
+        <v>0.11</v>
       </c>
       <c r="T47" s="28">
         <f t="shared" si="19"/>
-        <v>0.12236196724323453</v>
+        <v>0.13</v>
       </c>
       <c r="U47" s="28">
         <f t="shared" si="19"/>
-        <v>0.12114061821652349</v>
+        <v>0.13</v>
       </c>
       <c r="V47" s="28">
         <f t="shared" si="19"/>
-        <v>9.5943192996830379E-2</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="W47" s="28">
         <f t="shared" si="19"/>
-        <v>0.14406818351631784</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="X47" s="28">
         <f t="shared" si="19"/>
-        <v>9.1160103344907026E-2</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="Y47" s="28">
         <f t="shared" si="19"/>
-        <v>0.10280096830411618</v>
+        <v>0.11</v>
       </c>
       <c r="Z47" s="28">
         <f t="shared" si="19"/>
-        <v>0.1090291442200671</v>
+        <v>0.11</v>
       </c>
       <c r="AA47" s="28">
         <f t="shared" si="19"/>
-        <v>9.3500658188139713E-2</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="AB47" s="28">
         <f t="shared" si="19"/>
-        <v>9.5849985296922749E-2</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="AC47" s="28">
         <f t="shared" si="19"/>
-        <v>0.18176945675911579</v>
+        <v>0.19</v>
       </c>
       <c r="AD47" s="28">
         <f t="shared" si="19"/>
-        <v>9.8628734938449439E-2</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="AE47" s="28">
         <f t="shared" si="19"/>
-        <v>0.1201808986728002</v>
+        <v>0.13</v>
       </c>
       <c r="AF47" s="28">
         <f t="shared" si="19"/>
-        <v>8.7922218904635543E-2</v>
+        <v>0.09</v>
       </c>
       <c r="AG47" s="28">
         <f t="shared" si="19"/>
-        <v>0.13744351846908884</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AH47" s="28">
         <f t="shared" si="19"/>
-        <v>0.10027888291084175</v>
+        <v>0.11</v>
       </c>
       <c r="AI47" s="28">
         <f t="shared" si="19"/>
-        <v>0.15362824863350735</v>
+        <v>0.16</v>
       </c>
       <c r="AJ47" s="28">
         <f t="shared" si="19"/>
-        <v>8.779257733251114E-2</v>
+        <v>0.09</v>
       </c>
       <c r="AK47" s="28">
         <f t="shared" si="19"/>
-        <v>0.10761594968374652</v>
+        <v>0.11</v>
       </c>
       <c r="AL47" s="28">
         <f t="shared" si="19"/>
-        <v>4.1397867266551647E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AM47" s="28">
         <f t="shared" si="19"/>
-        <v>7.3998501918595234E-3</v>
+        <v>0.01</v>
       </c>
       <c r="AN47" s="28">
         <f t="shared" si="19"/>
-        <v>0.24446432784809863</v>
+        <v>0.25</v>
       </c>
       <c r="AO47" s="28">
         <v>0</v>
@@ -7128,33 +7129,33 @@
       <c r="K48" t="s">
         <v>69</v>
       </c>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="28"/>
-      <c r="S48" s="28"/>
-      <c r="T48" s="28"/>
-      <c r="U48" s="28"/>
-      <c r="V48" s="28"/>
-      <c r="W48" s="28"/>
-      <c r="X48" s="28"/>
-      <c r="Y48" s="28"/>
-      <c r="Z48" s="28"/>
-      <c r="AA48" s="28"/>
-      <c r="AB48" s="28"/>
-      <c r="AC48" s="28"/>
-      <c r="AD48" s="28"/>
-      <c r="AE48" s="28"/>
-      <c r="AF48" s="28"/>
-      <c r="AG48" s="28"/>
-      <c r="AH48" s="28"/>
-      <c r="AI48" s="28"/>
-      <c r="AJ48" s="28"/>
-      <c r="AK48" s="28"/>
-      <c r="AL48" s="28"/>
-      <c r="AM48" s="28"/>
-      <c r="AN48" s="28"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="20"/>
+      <c r="X48" s="20"/>
+      <c r="Y48" s="20"/>
+      <c r="Z48" s="20"/>
+      <c r="AA48" s="20"/>
+      <c r="AB48" s="20"/>
+      <c r="AC48" s="20"/>
+      <c r="AD48" s="20"/>
+      <c r="AE48" s="20"/>
+      <c r="AF48" s="20"/>
+      <c r="AG48" s="20"/>
+      <c r="AH48" s="20"/>
+      <c r="AI48" s="20"/>
+      <c r="AJ48" s="20"/>
+      <c r="AK48" s="20"/>
+      <c r="AL48" s="20"/>
+      <c r="AM48" s="20"/>
+      <c r="AN48" s="20"/>
       <c r="AO48">
         <v>5</v>
       </c>
@@ -7189,16 +7190,16 @@
         <v>Light rail (LUAS)</v>
       </c>
       <c r="N49" s="32">
-        <f>C157</f>
-        <v>6.559186931581344E-3</v>
+        <f>ROUNDUP(C157,2)</f>
+        <v>0.01</v>
       </c>
       <c r="O49" s="32">
-        <f t="shared" ref="O49:AN49" si="20">D157</f>
+        <f t="shared" ref="O49:AN49" si="20">ROUNDUP(D157,2)</f>
         <v>0</v>
       </c>
       <c r="P49" s="32">
         <f t="shared" si="20"/>
-        <v>2.6914642258584892E-2</v>
+        <v>0.03</v>
       </c>
       <c r="Q49" s="32">
         <f t="shared" si="20"/>
@@ -7353,111 +7354,111 @@
       </c>
       <c r="N52" s="86">
         <f t="shared" ref="N52:AN52" si="21">SUM(N41:N50)</f>
-        <v>1</v>
+        <v>1.0103</v>
       </c>
       <c r="O52" s="86">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>1.0042</v>
       </c>
       <c r="P52" s="86">
         <f t="shared" si="21"/>
-        <v>0.99999999999999989</v>
+        <v>1.0064</v>
       </c>
       <c r="Q52" s="86">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>1.0037</v>
       </c>
       <c r="R52" s="86">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>1.0065999999999999</v>
       </c>
       <c r="S52" s="86">
         <f t="shared" si="21"/>
-        <v>1.0000000000000002</v>
+        <v>1.0067000000000002</v>
       </c>
       <c r="T52" s="86">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>1.0083</v>
       </c>
       <c r="U52" s="86">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>1.0095000000000001</v>
       </c>
       <c r="V52" s="86">
         <f t="shared" si="21"/>
-        <v>0.99999999999999989</v>
+        <v>1.0046000000000002</v>
       </c>
       <c r="W52" s="86">
         <f t="shared" si="21"/>
-        <v>1.0000000000000002</v>
+        <v>1.0064</v>
       </c>
       <c r="X52" s="86">
         <f t="shared" si="21"/>
-        <v>0.99999999999999978</v>
+        <v>1.01</v>
       </c>
       <c r="Y52" s="86">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>1.0074000000000001</v>
       </c>
       <c r="Z52" s="86">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>1.002</v>
       </c>
       <c r="AA52" s="86">
         <f t="shared" si="21"/>
-        <v>0.99999999999999989</v>
+        <v>1.0083</v>
       </c>
       <c r="AB52" s="86">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>1.0050000000000001</v>
       </c>
       <c r="AC52" s="86">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>1.0095000000000001</v>
       </c>
       <c r="AD52" s="86">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>1.0019</v>
       </c>
       <c r="AE52" s="86">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>1.0110000000000001</v>
       </c>
       <c r="AF52" s="86">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>1.0036</v>
       </c>
       <c r="AG52" s="86">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>1.0042</v>
       </c>
       <c r="AH52" s="86">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>1.0110000000000001</v>
       </c>
       <c r="AI52" s="86">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>1.008</v>
       </c>
       <c r="AJ52" s="86">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>1.0028000000000001</v>
       </c>
       <c r="AK52" s="86">
         <f t="shared" si="21"/>
-        <v>0.99999999999999989</v>
+        <v>1.0032000000000001</v>
       </c>
       <c r="AL52" s="86">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="AM52" s="86">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>1.0042</v>
       </c>
       <c r="AN52" s="86">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>1.0070000000000001</v>
       </c>
     </row>
     <row r="56" spans="3:41">
@@ -7684,113 +7685,113 @@
         <f>[1]Demands!B31</f>
         <v>LDV</v>
       </c>
-      <c r="N60" s="32">
-        <f>C168</f>
-        <v>0.74108639947108168</v>
-      </c>
-      <c r="O60" s="32">
-        <f t="shared" ref="O60:AN60" si="22">D168</f>
-        <v>0.79071880912169545</v>
-      </c>
-      <c r="P60" s="32">
+      <c r="N60" s="45">
+        <f>ROUNDUP(C168,3)</f>
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="O60" s="45">
+        <f t="shared" ref="O60:AN60" si="22">ROUNDUP(D168,3)</f>
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="P60" s="45">
         <f t="shared" si="22"/>
-        <v>0.6386131571238467</v>
-      </c>
-      <c r="Q60" s="32">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="Q60" s="45">
         <f t="shared" si="22"/>
-        <v>0.75580744416441215</v>
-      </c>
-      <c r="R60" s="32">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="R60" s="45">
         <f t="shared" si="22"/>
-        <v>0.71320246300225565</v>
-      </c>
-      <c r="S60" s="32">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="S60" s="45">
         <f t="shared" si="22"/>
-        <v>0.78115676031065473</v>
-      </c>
-      <c r="T60" s="32">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="T60" s="45">
         <f t="shared" si="22"/>
-        <v>0.76642349622098382</v>
-      </c>
-      <c r="U60" s="32">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="U60" s="45">
         <f t="shared" si="22"/>
-        <v>0.74828496387185417</v>
-      </c>
-      <c r="V60" s="32">
+        <v>0.749</v>
+      </c>
+      <c r="V60" s="45">
         <f t="shared" si="22"/>
-        <v>0.78640329755658556</v>
-      </c>
-      <c r="W60" s="32">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="W60" s="45">
         <f t="shared" si="22"/>
-        <v>0.74588309703681677</v>
-      </c>
-      <c r="X60" s="32">
+        <v>0.746</v>
+      </c>
+      <c r="X60" s="45">
         <f t="shared" si="22"/>
-        <v>0.80172469534468704</v>
-      </c>
-      <c r="Y60" s="32">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="Y60" s="45">
         <f t="shared" si="22"/>
-        <v>0.79583426304303684</v>
-      </c>
-      <c r="Z60" s="32">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="Z60" s="45">
         <f t="shared" si="22"/>
-        <v>0.77907090765006382</v>
-      </c>
-      <c r="AA60" s="32">
+        <v>0.78</v>
+      </c>
+      <c r="AA60" s="45">
         <f t="shared" si="22"/>
-        <v>0.80155723993574601</v>
-      </c>
-      <c r="AB60" s="32">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="AB60" s="45">
         <f t="shared" si="22"/>
-        <v>0.78887154985237196</v>
-      </c>
-      <c r="AC60" s="32">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="AC60" s="45">
         <f t="shared" si="22"/>
-        <v>0.70533422841274862</v>
-      </c>
-      <c r="AD60" s="32">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="AD60" s="45">
         <f t="shared" si="22"/>
-        <v>0.78717070970762593</v>
-      </c>
-      <c r="AE60" s="32">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="AE60" s="45">
         <f t="shared" si="22"/>
-        <v>0.77916775606401434</v>
-      </c>
-      <c r="AF60" s="32">
+        <v>0.78</v>
+      </c>
+      <c r="AF60" s="45">
         <f t="shared" si="22"/>
-        <v>0.80467495581567261</v>
-      </c>
-      <c r="AG60" s="32">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="AG60" s="45">
         <f t="shared" si="22"/>
-        <v>0.74505854970828844</v>
-      </c>
-      <c r="AH60" s="32">
+        <v>0.746</v>
+      </c>
+      <c r="AH60" s="45">
         <f t="shared" si="22"/>
-        <v>0.79514890678426453</v>
-      </c>
-      <c r="AI60" s="32">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="AI60" s="45">
         <f t="shared" si="22"/>
-        <v>0.73736495113760858</v>
-      </c>
-      <c r="AJ60" s="32">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="AJ60" s="45">
         <f t="shared" si="22"/>
-        <v>0.81853938082108479</v>
-      </c>
-      <c r="AK60" s="32">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="AK60" s="45">
         <f t="shared" si="22"/>
-        <v>0.77998817627338324</v>
-      </c>
-      <c r="AL60" s="32">
+        <v>0.78</v>
+      </c>
+      <c r="AL60" s="45">
         <f t="shared" si="22"/>
-        <v>0.85154985463859412</v>
-      </c>
-      <c r="AM60" s="32">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="AM60" s="45">
         <f t="shared" si="22"/>
-        <v>0.88006272796227247</v>
-      </c>
-      <c r="AN60" s="32">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="AN60" s="45">
         <f t="shared" si="22"/>
-        <v>0.64231184378282558</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="AO60" s="32">
         <v>0</v>
@@ -7872,113 +7873,113 @@
         <f>[1]Demands!B32</f>
         <v>Taxis</v>
       </c>
-      <c r="N62" s="32">
-        <f>C169</f>
-        <v>1.214216695359136E-2</v>
-      </c>
-      <c r="O62" s="32">
-        <f t="shared" ref="O62:AN62" si="23">D169</f>
-        <v>5.244564356444866E-3</v>
-      </c>
-      <c r="P62" s="32">
+      <c r="N62" s="45">
+        <f>ROUNDUP(C169,3)</f>
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="O62" s="45">
+        <f t="shared" ref="O62:AN62" si="23">ROUNDUP(D169,3)</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="P62" s="45">
         <f t="shared" si="23"/>
-        <v>2.5318479036608464E-2</v>
-      </c>
-      <c r="Q62" s="32">
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="Q62" s="45">
         <f t="shared" si="23"/>
-        <v>1.0199545943263343E-2</v>
-      </c>
-      <c r="R62" s="32">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="R62" s="45">
         <f t="shared" si="23"/>
-        <v>5.4465670112681473E-3</v>
-      </c>
-      <c r="S62" s="32">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="S62" s="45">
         <f t="shared" si="23"/>
-        <v>7.3305854058422536E-3</v>
-      </c>
-      <c r="T62" s="32">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="T62" s="45">
         <f t="shared" si="23"/>
-        <v>6.327365203104513E-3</v>
-      </c>
-      <c r="U62" s="32">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="U62" s="45">
         <f t="shared" si="23"/>
-        <v>1.4553702960433654E-2</v>
-      </c>
-      <c r="V62" s="32">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V62" s="45">
         <f t="shared" si="23"/>
-        <v>1.4378136289327563E-2</v>
-      </c>
-      <c r="W62" s="32">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W62" s="45">
         <f t="shared" si="23"/>
-        <v>4.7655125577413509E-3</v>
-      </c>
-      <c r="X62" s="32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="X62" s="45">
         <f t="shared" si="23"/>
-        <v>8.6002260738130814E-3</v>
-      </c>
-      <c r="Y62" s="32">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="Y62" s="45">
         <f t="shared" si="23"/>
-        <v>4.4354589246647135E-3</v>
-      </c>
-      <c r="Z62" s="32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Z62" s="45">
         <f t="shared" si="23"/>
-        <v>6.592434448494537E-3</v>
-      </c>
-      <c r="AA62" s="32">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AA62" s="45">
         <f t="shared" si="23"/>
-        <v>7.3526877521562662E-3</v>
-      </c>
-      <c r="AB62" s="32">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AB62" s="45">
         <f t="shared" si="23"/>
-        <v>9.0159384819168999E-3</v>
-      </c>
-      <c r="AC62" s="32">
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="AC62" s="45">
         <f t="shared" si="23"/>
-        <v>6.9712334769449829E-3</v>
-      </c>
-      <c r="AD62" s="32">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AD62" s="45">
         <f t="shared" si="23"/>
-        <v>9.4394919428535985E-3</v>
-      </c>
-      <c r="AE62" s="32">
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="AE62" s="45">
         <f t="shared" si="23"/>
-        <v>3.6138078846859318E-3</v>
-      </c>
-      <c r="AF62" s="32">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AF62" s="45">
         <f t="shared" si="23"/>
-        <v>6.3123502546919919E-3</v>
-      </c>
-      <c r="AG62" s="32">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AG62" s="45">
         <f t="shared" si="23"/>
-        <v>9.5979099500525071E-3</v>
-      </c>
-      <c r="AH62" s="32">
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="AH62" s="45">
         <f t="shared" si="23"/>
-        <v>5.8735122381989901E-3</v>
-      </c>
-      <c r="AI62" s="32">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AI62" s="45">
         <f t="shared" si="23"/>
-        <v>5.0103707288089395E-3</v>
-      </c>
-      <c r="AJ62" s="32">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AJ62" s="45">
         <f t="shared" si="23"/>
-        <v>4.3449135578945168E-3</v>
-      </c>
-      <c r="AK62" s="32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AK62" s="45">
         <f t="shared" si="23"/>
-        <v>6.2553697184935773E-3</v>
-      </c>
-      <c r="AL62" s="32">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AL62" s="45">
         <f t="shared" si="23"/>
-        <v>6.8237115745591239E-3</v>
-      </c>
-      <c r="AM62" s="32">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AM62" s="45">
         <f t="shared" si="23"/>
-        <v>7.9379260453763534E-3</v>
-      </c>
-      <c r="AN62" s="32">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AN62" s="45">
         <f t="shared" si="23"/>
-        <v>2.7483693665086213E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AO62" s="32">
         <v>0</v>
@@ -8061,112 +8062,112 @@
         <v>BUS</v>
       </c>
       <c r="N64" s="32">
-        <f>C170</f>
-        <v>0.1626965950818042</v>
+        <f>ROUNDUP(C170,2)</f>
+        <v>0.17</v>
       </c>
       <c r="O64" s="32">
-        <f t="shared" ref="O64:AN64" si="24">D170</f>
-        <v>0.13109626623170204</v>
+        <f t="shared" ref="O64:AN64" si="24">ROUNDUP(D170,2)</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="P64" s="32">
         <f t="shared" si="24"/>
-        <v>0.23916819504950479</v>
+        <v>0.24000000000000002</v>
       </c>
       <c r="Q64" s="32">
         <f t="shared" si="24"/>
-        <v>0.15479346868381608</v>
+        <v>0.16</v>
       </c>
       <c r="R64" s="32">
         <f t="shared" si="24"/>
-        <v>0.20800029152740038</v>
+        <v>0.21000000000000002</v>
       </c>
       <c r="S64" s="32">
         <f t="shared" si="24"/>
-        <v>0.12724978858051844</v>
+        <v>0.13</v>
       </c>
       <c r="T64" s="32">
         <f t="shared" si="24"/>
-        <v>0.14827744084788594</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="U64" s="32">
         <f t="shared" si="24"/>
-        <v>0.14551722418000443</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="V64" s="32">
         <f t="shared" si="24"/>
-        <v>0.11766218454461841</v>
+        <v>0.12</v>
       </c>
       <c r="W64" s="32">
         <f t="shared" si="24"/>
-        <v>0.17371900154534914</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="X64" s="32">
         <f t="shared" si="24"/>
-        <v>0.11196687123703571</v>
+        <v>0.12</v>
       </c>
       <c r="Y64" s="32">
         <f t="shared" si="24"/>
-        <v>0.12599020808803368</v>
+        <v>0.13</v>
       </c>
       <c r="Z64" s="32">
         <f t="shared" si="24"/>
-        <v>0.13241927644257739</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AA64" s="32">
         <f t="shared" si="24"/>
-        <v>0.11487011188674058</v>
+        <v>0.12</v>
       </c>
       <c r="AB64" s="32">
         <f t="shared" si="24"/>
-        <v>0.11670831913312733</v>
+        <v>0.12</v>
       </c>
       <c r="AC64" s="32">
         <f t="shared" si="24"/>
-        <v>0.2178213998684824</v>
+        <v>0.22</v>
       </c>
       <c r="AD64" s="32">
         <f t="shared" si="24"/>
-        <v>0.12016236232976817</v>
+        <v>0.13</v>
       </c>
       <c r="AE64" s="32">
         <f t="shared" si="24"/>
-        <v>0.14679096653005977</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AF64" s="32">
         <f t="shared" si="24"/>
-        <v>0.10758223700696061</v>
+        <v>0.11</v>
       </c>
       <c r="AG64" s="32">
         <f t="shared" si="24"/>
-        <v>0.1657308225029282</v>
+        <v>0.17</v>
       </c>
       <c r="AH64" s="32">
         <f t="shared" si="24"/>
-        <v>0.12234818626194599</v>
+        <v>0.13</v>
       </c>
       <c r="AI64" s="32">
         <f t="shared" si="24"/>
-        <v>0.18501691930313938</v>
+        <v>0.19</v>
       </c>
       <c r="AJ64" s="32">
         <f t="shared" si="24"/>
-        <v>0.10860805699514527</v>
+        <v>0.11</v>
       </c>
       <c r="AK64" s="32">
         <f t="shared" si="24"/>
-        <v>0.13030246782805119</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AL64" s="32">
         <f t="shared" si="24"/>
-        <v>5.0925275195199252E-2</v>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="AM64" s="32">
         <f t="shared" si="24"/>
-        <v>9.1008381034736394E-3</v>
+        <v>0.01</v>
       </c>
       <c r="AN64" s="32">
         <f t="shared" si="24"/>
-        <v>0.28624951607603277</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="AO64" s="32">
         <v>0</v>
@@ -8249,112 +8250,112 @@
         <v>Train</v>
       </c>
       <c r="N66" s="32">
-        <f>C172</f>
-        <v>8.4074838493522847E-2</v>
+        <f>ROUNDUP(C172,2)</f>
+        <v>0.09</v>
       </c>
       <c r="O66" s="32">
-        <f t="shared" ref="O66:AN66" si="25">D172</f>
-        <v>7.2940360290157685E-2</v>
+        <f t="shared" ref="O66:AN66" si="25">ROUNDUP(D172,2)</f>
+        <v>0.08</v>
       </c>
       <c r="P66" s="32">
         <f t="shared" si="25"/>
-        <v>9.6900168790040125E-2</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="Q66" s="32">
         <f t="shared" si="25"/>
-        <v>7.91995412085085E-2</v>
+        <v>0.08</v>
       </c>
       <c r="R66" s="32">
         <f t="shared" si="25"/>
-        <v>7.3350678459075919E-2</v>
+        <v>0.08</v>
       </c>
       <c r="S66" s="32">
         <f t="shared" si="25"/>
-        <v>8.426286570298451E-2</v>
+        <v>0.09</v>
       </c>
       <c r="T66" s="32">
         <f t="shared" si="25"/>
-        <v>7.8971697728025606E-2</v>
+        <v>0.08</v>
       </c>
       <c r="U66" s="32">
         <f t="shared" si="25"/>
-        <v>9.1644108987707917E-2</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="V66" s="32">
         <f t="shared" si="25"/>
-        <v>8.1556381609468237E-2</v>
+        <v>0.09</v>
       </c>
       <c r="W66" s="32">
         <f t="shared" si="25"/>
-        <v>7.5632388860092645E-2</v>
+        <v>0.08</v>
       </c>
       <c r="X66" s="32">
         <f t="shared" si="25"/>
-        <v>7.7708207344464181E-2</v>
+        <v>0.08</v>
       </c>
       <c r="Y66" s="32">
         <f t="shared" si="25"/>
-        <v>7.3740069944264783E-2</v>
+        <v>0.08</v>
       </c>
       <c r="Z66" s="32">
         <f t="shared" si="25"/>
-        <v>8.1917381458864319E-2</v>
+        <v>0.09</v>
       </c>
       <c r="AA66" s="32">
         <f t="shared" si="25"/>
-        <v>7.6219960425357156E-2</v>
+        <v>0.08</v>
       </c>
       <c r="AB66" s="32">
         <f t="shared" si="25"/>
-        <v>8.5404192532583911E-2</v>
+        <v>0.09</v>
       </c>
       <c r="AC66" s="32">
         <f t="shared" si="25"/>
-        <v>6.987313824182402E-2</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="AD66" s="32">
         <f t="shared" si="25"/>
-        <v>8.3227436019752521E-2</v>
+        <v>0.09</v>
       </c>
       <c r="AE66" s="32">
         <f t="shared" si="25"/>
-        <v>7.0427469521239974E-2</v>
+        <v>0.08</v>
       </c>
       <c r="AF66" s="32">
         <f t="shared" si="25"/>
-        <v>8.1430456922674907E-2</v>
+        <v>0.09</v>
       </c>
       <c r="AG66" s="32">
         <f t="shared" si="25"/>
-        <v>7.9612717838730945E-2</v>
+        <v>0.08</v>
       </c>
       <c r="AH66" s="32">
         <f t="shared" si="25"/>
-        <v>7.6629394715590618E-2</v>
+        <v>0.08</v>
       </c>
       <c r="AI66" s="32">
         <f t="shared" si="25"/>
-        <v>7.2607758830443E-2</v>
+        <v>0.08</v>
       </c>
       <c r="AJ66" s="32">
         <f t="shared" si="25"/>
-        <v>6.8507648625875522E-2</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="AK66" s="32">
         <f t="shared" si="25"/>
-        <v>8.3453986180072076E-2</v>
+        <v>0.09</v>
       </c>
       <c r="AL66" s="32">
         <f t="shared" si="25"/>
-        <v>9.070115859164736E-2</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="AM66" s="32">
         <f t="shared" si="25"/>
-        <v>0.10289850788887757</v>
+        <v>0.11</v>
       </c>
       <c r="AN66" s="32">
         <f t="shared" si="25"/>
-        <v>6.8690270774633036E-2</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="AO66" s="32">
         <v>0</v>
@@ -8423,111 +8424,111 @@
       </c>
       <c r="N69" s="86">
         <f t="shared" ref="N69:AN69" si="26">SUM(N60:N66)</f>
-        <v>1.0000000000000002</v>
+        <v>1.0150000000000001</v>
       </c>
       <c r="O69" s="86">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>1.0170000000000001</v>
       </c>
       <c r="P69" s="86">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>1.0050000000000001</v>
       </c>
       <c r="Q69" s="86">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>1.0070000000000001</v>
       </c>
       <c r="R69" s="86">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="S69" s="86">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="T69" s="86">
         <f t="shared" si="26"/>
-        <v>0.99999999999999989</v>
+        <v>1.004</v>
       </c>
       <c r="U69" s="86">
         <f t="shared" si="26"/>
-        <v>1.0000000000000002</v>
+        <v>1.014</v>
       </c>
       <c r="V69" s="86">
         <f t="shared" si="26"/>
-        <v>0.99999999999999978</v>
+        <v>1.012</v>
       </c>
       <c r="W69" s="86">
         <f t="shared" si="26"/>
-        <v>0.99999999999999989</v>
+        <v>1.0110000000000001</v>
       </c>
       <c r="X69" s="86">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>1.0110000000000001</v>
       </c>
       <c r="Y69" s="86">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>1.0110000000000001</v>
       </c>
       <c r="Z69" s="86">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>1.0170000000000001</v>
       </c>
       <c r="AA69" s="86">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="AB69" s="86">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>1.0090000000000001</v>
       </c>
       <c r="AC69" s="86">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="AD69" s="86">
         <f t="shared" si="26"/>
-        <v>1.0000000000000002</v>
+        <v>1.018</v>
       </c>
       <c r="AE69" s="86">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>1.014</v>
       </c>
       <c r="AF69" s="86">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>1.012</v>
       </c>
       <c r="AG69" s="86">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>1.006</v>
       </c>
       <c r="AH69" s="86">
         <f t="shared" si="26"/>
-        <v>1.0000000000000002</v>
+        <v>1.012</v>
       </c>
       <c r="AI69" s="86">
         <f t="shared" si="26"/>
-        <v>0.99999999999999989</v>
+        <v>1.014</v>
       </c>
       <c r="AJ69" s="86">
         <f t="shared" si="26"/>
-        <v>1.0000000000000002</v>
+        <v>1.004</v>
       </c>
       <c r="AK69" s="86">
         <f t="shared" si="26"/>
-        <v>1.0000000000000002</v>
+        <v>1.0170000000000001</v>
       </c>
       <c r="AL69" s="86">
         <f t="shared" si="26"/>
-        <v>0.99999999999999989</v>
+        <v>1.0190000000000001</v>
       </c>
       <c r="AM69" s="86">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>1.0090000000000001</v>
       </c>
       <c r="AN69" s="86">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>1.006</v>
       </c>
       <c r="AO69" s="15"/>
       <c r="AP69" s="15"/>
@@ -8542,7 +8543,7 @@
       <c r="G73" s="59"/>
       <c r="H73" s="59"/>
     </row>
-    <row r="74" spans="3:42" ht="15.75" thickBot="1">
+    <row r="74" spans="3:42" ht="15" thickBot="1">
       <c r="C74" s="53" t="s">
         <v>129</v>
       </c>
@@ -8768,7 +8769,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="100" spans="3:8" ht="15.75" thickBot="1">
+    <row r="100" spans="3:8" ht="15" thickBot="1">
       <c r="C100" s="56" t="s">
         <v>174</v>
       </c>
@@ -8776,7 +8777,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="101" spans="3:8" ht="15.75" thickBot="1">
+    <row r="101" spans="3:8" ht="15" thickBot="1">
       <c r="C101" s="57" t="s">
         <v>176</v>
       </c>
@@ -8812,7 +8813,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="105" spans="3:8" ht="15.75" thickBot="1">
+    <row r="105" spans="3:8" ht="15" thickBot="1">
       <c r="C105" s="56" t="s">
         <v>182</v>
       </c>
@@ -8820,7 +8821,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="106" spans="3:8" ht="15.75" thickBot="1">
+    <row r="106" spans="3:8" ht="15" thickBot="1">
       <c r="C106" s="57" t="s">
         <v>184</v>
       </c>
@@ -8846,7 +8847,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="109" spans="3:8" ht="15.75" thickBot="1">
+    <row r="109" spans="3:8" ht="15" thickBot="1">
       <c r="C109" s="56" t="s">
         <v>189</v>
       </c>
@@ -8854,7 +8855,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="110" spans="3:8" ht="15.75" thickBot="1">
+    <row r="110" spans="3:8" ht="15" thickBot="1">
       <c r="C110" s="57" t="s">
         <v>191</v>
       </c>
@@ -8872,7 +8873,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="112" spans="3:8" ht="15.75" thickBot="1">
+    <row r="112" spans="3:8" ht="15" thickBot="1">
       <c r="C112" s="58" t="s">
         <v>194</v>
       </c>
@@ -8889,7 +8890,7 @@
       <c r="H114" s="15"/>
       <c r="I114" s="15"/>
     </row>
-    <row r="115" spans="3:9" ht="15.75" thickBot="1">
+    <row r="115" spans="3:9" ht="15" thickBot="1">
       <c r="C115" s="62" t="s">
         <v>197</v>
       </c>
@@ -8940,7 +8941,7 @@
       <c r="H117" s="15"/>
       <c r="I117" s="15"/>
     </row>
-    <row r="118" spans="3:9" ht="15.75" thickBot="1">
+    <row r="118" spans="3:9" ht="15" thickBot="1">
       <c r="C118" s="60" t="s">
         <v>203</v>
       </c>
@@ -8966,13 +8967,13 @@
       <c r="H120" s="15"/>
       <c r="I120" s="15"/>
     </row>
-    <row r="121" spans="3:9" ht="15.75">
+    <row r="121" spans="3:9" ht="15.6">
       <c r="C121" s="63" t="s">
         <v>208</v>
       </c>
       <c r="D121" s="63"/>
     </row>
-    <row r="122" spans="3:9" ht="15.75" thickBot="1">
+    <row r="122" spans="3:9" ht="15" thickBot="1">
       <c r="C122" s="62" t="s">
         <v>208</v>
       </c>
@@ -9028,7 +9029,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="130" spans="1:29" ht="15.75" thickBot="1">
+    <row r="130" spans="1:29" ht="15" thickBot="1">
       <c r="C130" s="60"/>
       <c r="D130" s="60" t="s">
         <v>220</v>
@@ -9046,7 +9047,7 @@
       <c r="E132" s="15"/>
       <c r="F132" s="15"/>
     </row>
-    <row r="133" spans="1:29" ht="19.5" thickBot="1">
+    <row r="133" spans="1:29" ht="18.600000000000001" thickBot="1">
       <c r="A133" s="73" t="s">
         <v>224</v>
       </c>
@@ -9056,7 +9057,7 @@
       <c r="E133" s="73"/>
     </row>
     <row r="134" spans="1:29" s="15" customFormat="1"/>
-    <row r="135" spans="1:29" ht="15.75">
+    <row r="135" spans="1:29" ht="15.6">
       <c r="A135" s="64" t="s">
         <v>207</v>
       </c>
@@ -10060,7 +10061,7 @@
       <c r="AB148" s="65"/>
       <c r="AC148" s="65"/>
     </row>
-    <row r="149" spans="1:29" ht="15.75">
+    <row r="149" spans="1:29" ht="15.6">
       <c r="A149" s="64" t="s">
         <v>222</v>
       </c>
@@ -11064,7 +11065,7 @@
       <c r="AB162" s="65"/>
       <c r="AC162" s="65"/>
     </row>
-    <row r="163" spans="1:29" ht="15.75">
+    <row r="163" spans="1:29" ht="15.6">
       <c r="A163" s="64" t="s">
         <v>223</v>
       </c>
@@ -11998,9 +11999,9 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12083,10 +12084,10 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -12166,9 +12167,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -12250,9 +12251,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12291,7 +12292,7 @@
       <c r="AF2" s="15"/>
       <c r="AG2" s="15"/>
     </row>
-    <row r="3" spans="2:33" ht="15.75" thickBot="1">
+    <row r="3" spans="2:33" ht="15" thickBot="1">
       <c r="B3" s="17" t="s">
         <v>17</v>
       </c>
@@ -12538,7 +12539,7 @@
         <v>0.20769618859639608</v>
       </c>
     </row>
-    <row r="5" spans="2:33" ht="15.75">
+    <row r="5" spans="2:33" ht="15.6">
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15" t="s">
@@ -12782,7 +12783,7 @@
         <v>0.47664625412085693</v>
       </c>
     </row>
-    <row r="7" spans="2:33" ht="15.75">
+    <row r="7" spans="2:33" ht="15.6">
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
@@ -13026,7 +13027,7 @@
         <v>0.42809298937083867</v>
       </c>
     </row>
-    <row r="9" spans="2:33" ht="15.75">
+    <row r="9" spans="2:33" ht="15.6">
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
       <c r="D9" s="31" t="s">
@@ -13269,7 +13270,7 @@
         <v>0.15458274126405555</v>
       </c>
     </row>
-    <row r="11" spans="2:33" ht="15.75">
+    <row r="11" spans="2:33" ht="15.6">
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
       <c r="D11" s="31" t="s">
@@ -13512,7 +13513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:33" s="15" customFormat="1" ht="15.75">
+    <row r="13" spans="2:33" s="15" customFormat="1" ht="15.6">
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
@@ -13645,7 +13646,7 @@
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
     </row>
-    <row r="16" spans="2:33" ht="15.75" thickBot="1">
+    <row r="16" spans="2:33" ht="15" thickBot="1">
       <c r="B16" s="17" t="s">
         <v>64</v>
       </c>
@@ -13789,7 +13790,7 @@
       <c r="AB26" s="65"/>
       <c r="AC26" s="65"/>
     </row>
-    <row r="27" spans="1:29" ht="15.75" thickBot="1">
+    <row r="27" spans="1:29" ht="15" thickBot="1">
       <c r="A27" s="76" t="s">
         <v>225</v>
       </c>

--- a/SuppXLS/Scen_TRA_ActiveModes.xlsx
+++ b/SuppXLS/Scen_TRA_ActiveModes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8998AC-D344-477F-82FB-7FAAC90B5420}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E17D6B7-AEE4-400F-B1DB-EC8C4BC7944A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
@@ -541,9 +541,6 @@
     </r>
   </si>
   <si>
-    <t>TFGV</t>
-  </si>
-  <si>
     <r>
       <t>The potential of behavior change measures on fuel consumption &amp; CO</t>
     </r>
@@ -951,6 +948,9 @@
   <si>
     <t>GTR</t>
   </si>
+  <si>
+    <t>TRAF</t>
+  </si>
 </sst>
 </file>
 
@@ -959,13 +959,13 @@
   <numFmts count="9">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1390,11 +1390,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1439,22 +1439,22 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="23" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3237,8 +3237,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:AQ205"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N77" sqref="N77:AN83"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3252,19 +3252,19 @@
   <sheetData>
     <row r="2" spans="2:43" ht="23.4">
       <c r="C2" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="2:43" s="35" customFormat="1" ht="25.95" customHeight="1">
       <c r="C3" s="75" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" s="75"/>
       <c r="E3" s="75"/>
       <c r="F3" s="75"/>
       <c r="G3" s="75"/>
       <c r="H3" s="76" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I3" s="76"/>
       <c r="J3" s="76"/>
@@ -3278,14 +3278,14 @@
     </row>
     <row r="4" spans="2:43" s="35" customFormat="1" ht="24" customHeight="1">
       <c r="C4" s="74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" s="74"/>
       <c r="E4" s="74"/>
       <c r="F4" s="74"/>
       <c r="G4" s="74"/>
       <c r="H4" s="74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I4" s="74"/>
       <c r="J4" s="74"/>
@@ -4694,7 +4694,7 @@
         <v>2018</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L21" s="15">
         <v>-1</v>
@@ -4833,7 +4833,7 @@
         <v>2030</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L22" s="15">
         <v>-1</v>
@@ -4967,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
@@ -5024,7 +5024,7 @@
         <v>2018</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L24" s="15">
         <v>-1</v>
@@ -5163,7 +5163,7 @@
         <v>2030</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L25" s="15">
         <v>-1</v>
@@ -5297,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L26" s="21"/>
       <c r="M26" s="21"/>
@@ -6049,7 +6049,7 @@
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
       <c r="M34" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N34" s="63">
         <f>N12+N15+N18+N21+N24+N27+N30</f>
@@ -6175,7 +6175,7 @@
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
       <c r="M35" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N35" s="63">
         <f>N13+N16+N19+N22+N25+N28+N31</f>
@@ -7230,7 +7230,7 @@
     </row>
     <row r="49" spans="3:41">
       <c r="C49" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D49" s="23"/>
       <c r="E49" s="23" t="str">
@@ -7418,7 +7418,7 @@
     </row>
     <row r="52" spans="3:41">
       <c r="M52" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N52" s="63">
         <f t="shared" ref="N52:AN52" si="21">SUM(N41:N50)</f>
@@ -8488,7 +8488,7 @@
       <c r="K69" s="15"/>
       <c r="L69" s="15"/>
       <c r="M69" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N69" s="63">
         <f t="shared" ref="N69:AN69" si="26">SUM(N60:N66)</f>
@@ -8661,7 +8661,7 @@
     </row>
     <row r="72" spans="3:42" s="15" customFormat="1" ht="18">
       <c r="C72" s="70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D72" s="71"/>
     </row>
@@ -8820,14 +8820,14 @@
     </row>
     <row r="77" spans="3:42" s="15" customFormat="1">
       <c r="C77" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E77" s="15" t="str">
         <f>LEFT(C121,5)&amp;"*"</f>
         <v>T-LGT*</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>117</v>
+        <v>246</v>
       </c>
       <c r="J77" s="15">
         <v>2018</v>
@@ -8839,7 +8839,7 @@
         <v>-1</v>
       </c>
       <c r="M77" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N77" s="65">
         <f>ROUNDUP(C201/C205,3)</f>
@@ -8993,7 +8993,7 @@
     </row>
     <row r="79" spans="3:42" s="15" customFormat="1">
       <c r="C79" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E79" s="15" t="str">
         <f>LEFT(C123,5)&amp;"*"</f>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="H79" s="15" t="str">
         <f>H77</f>
-        <v>TFGV</v>
+        <v>TRAF</v>
       </c>
       <c r="J79" s="15">
         <v>2018</v>
@@ -9013,7 +9013,7 @@
         <v>-1</v>
       </c>
       <c r="M79" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N79" s="65">
         <f>ROUNDUP(C202/C205,3)</f>
@@ -9167,7 +9167,7 @@
     </row>
     <row r="81" spans="3:41" s="15" customFormat="1">
       <c r="C81" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E81" s="15" t="str">
         <f>LEFT(C124,5)&amp;"*"</f>
@@ -9175,7 +9175,7 @@
       </c>
       <c r="H81" s="15" t="str">
         <f>H79</f>
-        <v>TFGV</v>
+        <v>TRAF</v>
       </c>
       <c r="J81" s="15">
         <v>2018</v>
@@ -9187,7 +9187,7 @@
         <v>-1</v>
       </c>
       <c r="M81" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N81" s="65">
         <f>ROUNDUP(C203/C205,3)</f>
@@ -9341,7 +9341,7 @@
     </row>
     <row r="83" spans="3:41" s="15" customFormat="1">
       <c r="C83" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E83" s="15" t="str">
         <f>LEFT(C125,5)&amp;"*"</f>
@@ -9349,7 +9349,7 @@
       </c>
       <c r="H83" s="15" t="str">
         <f>H81</f>
-        <v>TFGV</v>
+        <v>TRAF</v>
       </c>
       <c r="J83" s="15">
         <v>2018</v>
@@ -9361,7 +9361,7 @@
         <v>-1</v>
       </c>
       <c r="M83" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N83" s="65">
         <f>C204/C205</f>
@@ -9525,7 +9525,7 @@
     <row r="85" spans="3:41" s="15" customFormat="1"/>
     <row r="86" spans="3:41" s="15" customFormat="1">
       <c r="M86" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N86" s="63">
         <f t="shared" ref="N86:AN86" si="31">SUM(N77:N83)</f>
@@ -9667,7 +9667,7 @@
     </row>
     <row r="91" spans="3:41" ht="21">
       <c r="C91" s="45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D91" s="45"/>
       <c r="E91" s="45"/>
@@ -9677,10 +9677,10 @@
     </row>
     <row r="92" spans="3:41" ht="15" thickBot="1">
       <c r="C92" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D92" s="39" t="s">
         <v>125</v>
-      </c>
-      <c r="D92" s="39" t="s">
-        <v>126</v>
       </c>
       <c r="E92" s="39"/>
       <c r="F92" s="39"/>
@@ -9689,7 +9689,7 @@
     </row>
     <row r="93" spans="3:41">
       <c r="C93" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D93" s="40"/>
       <c r="E93" s="40"/>
@@ -9699,7 +9699,7 @@
     </row>
     <row r="94" spans="3:41">
       <c r="C94" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D94" s="41"/>
       <c r="E94" s="41"/>
@@ -9709,23 +9709,23 @@
     </row>
     <row r="95" spans="3:41">
       <c r="C95" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D95" s="42" t="s">
         <v>129</v>
-      </c>
-      <c r="D95" s="42" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="96" spans="3:41">
       <c r="C96" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D96" s="42" t="s">
         <v>131</v>
-      </c>
-      <c r="D96" s="42" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="97" spans="3:8">
       <c r="C97" s="41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D97" s="41"/>
       <c r="E97" s="41"/>
@@ -9735,15 +9735,15 @@
     </row>
     <row r="98" spans="3:8">
       <c r="C98" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D98" s="42" t="s">
         <v>134</v>
-      </c>
-      <c r="D98" s="42" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="99" spans="3:8">
       <c r="C99" s="41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D99" s="41"/>
       <c r="E99" s="41"/>
@@ -9753,79 +9753,79 @@
     </row>
     <row r="100" spans="3:8">
       <c r="C100" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="D100" s="42" t="s">
         <v>137</v>
-      </c>
-      <c r="D100" s="42" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="101" spans="3:8">
       <c r="C101" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="D101" s="42" t="s">
         <v>139</v>
-      </c>
-      <c r="D101" s="42" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="102" spans="3:8">
       <c r="C102" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D102" s="42" t="s">
         <v>141</v>
-      </c>
-      <c r="D102" s="42" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="103" spans="3:8">
       <c r="C103" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D103" s="42" t="s">
         <v>143</v>
-      </c>
-      <c r="D103" s="42" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="104" spans="3:8">
       <c r="C104" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="D104" s="42" t="s">
         <v>145</v>
-      </c>
-      <c r="D104" s="42" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="105" spans="3:8">
       <c r="C105" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D105" s="42" t="s">
         <v>147</v>
-      </c>
-      <c r="D105" s="42" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="106" spans="3:8">
       <c r="C106" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D106" s="42" t="s">
         <v>149</v>
-      </c>
-      <c r="D106" s="42" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="107" spans="3:8">
       <c r="C107" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="D107" s="42" t="s">
         <v>151</v>
-      </c>
-      <c r="D107" s="42" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="108" spans="3:8">
       <c r="C108" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="D108" s="42" t="s">
         <v>153</v>
-      </c>
-      <c r="D108" s="42" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="109" spans="3:8">
       <c r="C109" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D109" s="41"/>
       <c r="E109" s="41"/>
@@ -9835,31 +9835,31 @@
     </row>
     <row r="110" spans="3:8">
       <c r="C110" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D110" s="42" t="s">
         <v>156</v>
-      </c>
-      <c r="D110" s="42" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="111" spans="3:8">
       <c r="C111" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="D111" s="42" t="s">
         <v>158</v>
-      </c>
-      <c r="D111" s="42" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="112" spans="3:8">
       <c r="C112" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="D112" s="42" t="s">
         <v>160</v>
-      </c>
-      <c r="D112" s="42" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="113" spans="3:8">
       <c r="C113" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D113" s="41"/>
       <c r="E113" s="41"/>
@@ -9869,15 +9869,15 @@
     </row>
     <row r="114" spans="3:8">
       <c r="C114" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="D114" s="42" t="s">
         <v>163</v>
-      </c>
-      <c r="D114" s="42" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="115" spans="3:8">
       <c r="C115" s="41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D115" s="41"/>
       <c r="E115" s="41"/>
@@ -9887,31 +9887,31 @@
     </row>
     <row r="116" spans="3:8">
       <c r="C116" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="D116" s="42" t="s">
         <v>166</v>
-      </c>
-      <c r="D116" s="42" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="117" spans="3:8">
       <c r="C117" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="D117" s="42" t="s">
         <v>168</v>
-      </c>
-      <c r="D117" s="42" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="118" spans="3:8" ht="15" thickBot="1">
       <c r="C118" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="D118" s="42" t="s">
         <v>170</v>
-      </c>
-      <c r="D118" s="42" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="119" spans="3:8" ht="15" thickBot="1">
       <c r="C119" s="43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D119" s="43"/>
       <c r="E119" s="43"/>
@@ -9921,7 +9921,7 @@
     </row>
     <row r="120" spans="3:8">
       <c r="C120" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D120" s="41"/>
       <c r="E120" s="41"/>
@@ -9931,10 +9931,10 @@
     </row>
     <row r="121" spans="3:8">
       <c r="C121" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="D121" s="42" t="s">
         <v>174</v>
-      </c>
-      <c r="D121" s="42" t="s">
-        <v>175</v>
       </c>
       <c r="E121" s="15"/>
       <c r="F121" s="15"/>
@@ -9942,10 +9942,10 @@
     </row>
     <row r="122" spans="3:8">
       <c r="C122" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="D122" s="42" t="s">
         <v>225</v>
-      </c>
-      <c r="D122" s="42" t="s">
-        <v>226</v>
       </c>
       <c r="E122" s="15"/>
       <c r="F122" s="15"/>
@@ -9953,26 +9953,26 @@
     </row>
     <row r="123" spans="3:8" s="15" customFormat="1">
       <c r="C123" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="D123" s="42" t="s">
         <v>227</v>
-      </c>
-      <c r="D123" s="42" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="124" spans="3:8" s="15" customFormat="1">
       <c r="C124" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="D124" s="42" t="s">
         <v>176</v>
-      </c>
-      <c r="D124" s="42" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="125" spans="3:8" ht="15" thickBot="1">
       <c r="C125" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D125" s="42" t="s">
         <v>178</v>
-      </c>
-      <c r="D125" s="42" t="s">
-        <v>179</v>
       </c>
       <c r="E125" s="15"/>
       <c r="F125" s="15"/>
@@ -9980,7 +9980,7 @@
     </row>
     <row r="126" spans="3:8" ht="15" thickBot="1">
       <c r="C126" s="43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D126" s="43"/>
       <c r="E126" s="43"/>
@@ -9990,31 +9990,31 @@
     </row>
     <row r="127" spans="3:8">
       <c r="C127" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="D127" s="42" t="s">
         <v>181</v>
-      </c>
-      <c r="D127" s="42" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="128" spans="3:8">
       <c r="C128" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="D128" s="42" t="s">
         <v>183</v>
-      </c>
-      <c r="D128" s="42" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="129" spans="3:9" ht="15" thickBot="1">
       <c r="C129" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="D129" s="42" t="s">
         <v>185</v>
-      </c>
-      <c r="D129" s="42" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="130" spans="3:9" ht="15" thickBot="1">
       <c r="C130" s="43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D130" s="43"/>
       <c r="E130" s="43"/>
@@ -10024,18 +10024,18 @@
     </row>
     <row r="131" spans="3:9">
       <c r="C131" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="D131" s="42" t="s">
         <v>188</v>
-      </c>
-      <c r="D131" s="42" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="132" spans="3:9" ht="15" thickBot="1">
       <c r="C132" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="D132" s="44" t="s">
         <v>190</v>
-      </c>
-      <c r="D132" s="44" t="s">
-        <v>191</v>
       </c>
       <c r="E132" s="46"/>
       <c r="F132" s="46"/>
@@ -10049,16 +10049,16 @@
     </row>
     <row r="135" spans="3:9" ht="15" thickBot="1">
       <c r="C135" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="D135" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="D135" s="48" t="s">
-        <v>194</v>
-      </c>
       <c r="E135" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="F135" s="48" t="s">
         <v>201</v>
-      </c>
-      <c r="F135" s="48" t="s">
-        <v>202</v>
       </c>
       <c r="G135" s="15"/>
       <c r="H135" s="15"/>
@@ -10066,16 +10066,16 @@
     </row>
     <row r="136" spans="3:9">
       <c r="C136" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D136" s="15" t="s">
         <v>195</v>
-      </c>
-      <c r="D136" s="15" t="s">
-        <v>196</v>
       </c>
       <c r="E136" s="35" t="s">
         <v>62</v>
       </c>
       <c r="F136" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G136" s="15"/>
       <c r="H136" s="15"/>
@@ -10083,16 +10083,16 @@
     </row>
     <row r="137" spans="3:9">
       <c r="C137" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D137" s="15" t="s">
         <v>197</v>
-      </c>
-      <c r="D137" s="15" t="s">
-        <v>198</v>
       </c>
       <c r="E137" s="35" t="s">
         <v>63</v>
       </c>
       <c r="F137" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G137" s="15"/>
       <c r="H137" s="15"/>
@@ -10100,16 +10100,16 @@
     </row>
     <row r="138" spans="3:9" ht="15" thickBot="1">
       <c r="C138" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="D138" s="46" t="s">
         <v>199</v>
-      </c>
-      <c r="D138" s="46" t="s">
-        <v>200</v>
       </c>
       <c r="E138" s="47" t="s">
         <v>64</v>
       </c>
       <c r="F138" s="46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G138" s="15"/>
       <c r="H138" s="15"/>
@@ -10126,70 +10126,70 @@
     </row>
     <row r="141" spans="3:9" ht="15.6">
       <c r="C141" s="49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D141" s="49"/>
     </row>
     <row r="142" spans="3:9" ht="15" thickBot="1">
       <c r="C142" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="D142" s="48" t="s">
         <v>204</v>
-      </c>
-      <c r="D142" s="48" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="143" spans="3:9">
       <c r="C143" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="D143" s="15" t="s">
         <v>206</v>
-      </c>
-      <c r="D143" s="15" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="144" spans="3:9">
       <c r="C144" s="15"/>
       <c r="D144" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="145" spans="1:29">
       <c r="C145" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D145" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="D145" s="15" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="146" spans="1:29">
       <c r="C146" s="15"/>
       <c r="D146" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="147" spans="1:29">
       <c r="C147" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D147" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="D147" s="15" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="148" spans="1:29">
       <c r="C148" s="15"/>
       <c r="D148" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="149" spans="1:29">
       <c r="C149" s="15"/>
       <c r="D149" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="150" spans="1:29" ht="15" thickBot="1">
       <c r="C150" s="46"/>
       <c r="D150" s="46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -10206,7 +10206,7 @@
     </row>
     <row r="153" spans="1:29" ht="18.600000000000001" thickBot="1">
       <c r="A153" s="59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B153" s="59"/>
       <c r="C153" s="59"/>
@@ -10216,7 +10216,7 @@
     <row r="154" spans="1:29" s="15" customFormat="1"/>
     <row r="155" spans="1:29" ht="15.6">
       <c r="A155" s="50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B155" s="50"/>
       <c r="C155" s="50"/>
@@ -10249,10 +10249,10 @@
     </row>
     <row r="156" spans="1:29">
       <c r="A156" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="B156" s="52" t="s">
         <v>204</v>
-      </c>
-      <c r="B156" s="52" t="s">
-        <v>205</v>
       </c>
       <c r="C156" s="53" t="s">
         <v>84</v>
@@ -10338,10 +10338,10 @@
     </row>
     <row r="157" spans="1:29">
       <c r="A157" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="B157" s="51" t="s">
         <v>206</v>
-      </c>
-      <c r="B157" s="51" t="s">
-        <v>207</v>
       </c>
       <c r="C157" s="54">
         <v>0.32377983784854231</v>
@@ -10428,7 +10428,7 @@
     <row r="158" spans="1:29">
       <c r="A158" s="51"/>
       <c r="B158" s="51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C158" s="54">
         <v>5.3963306308090382E-2</v>
@@ -10514,10 +10514,10 @@
     </row>
     <row r="159" spans="1:29">
       <c r="A159" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="B159" s="51" t="s">
         <v>209</v>
-      </c>
-      <c r="B159" s="51" t="s">
-        <v>210</v>
       </c>
       <c r="C159" s="55">
         <v>1.2024577456126329E-3</v>
@@ -10604,7 +10604,7 @@
     <row r="160" spans="1:29">
       <c r="A160" s="51"/>
       <c r="B160" s="51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C160" s="54">
         <v>0.51421690231633799</v>
@@ -10690,10 +10690,10 @@
     </row>
     <row r="161" spans="1:29">
       <c r="A161" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="B161" s="51" t="s">
         <v>212</v>
-      </c>
-      <c r="B161" s="51" t="s">
-        <v>213</v>
       </c>
       <c r="C161" s="54">
         <v>1.6399604421517593E-2</v>
@@ -10780,7 +10780,7 @@
     <row r="162" spans="1:29">
       <c r="A162" s="51"/>
       <c r="B162" s="51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C162" s="54">
         <v>8.2740995898888392E-2</v>
@@ -10867,7 +10867,7 @@
     <row r="163" spans="1:29">
       <c r="A163" s="51"/>
       <c r="B163" s="51" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C163" s="54">
         <v>7.6968954610109105E-3</v>
@@ -10954,7 +10954,7 @@
     <row r="164" spans="1:29">
       <c r="A164" s="51"/>
       <c r="B164" s="51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C164" s="54">
         <v>0</v>
@@ -11041,7 +11041,7 @@
     <row r="165" spans="1:29">
       <c r="A165" s="56"/>
       <c r="B165" s="57" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C165" s="58">
         <v>1.0000000000000002</v>
@@ -11220,7 +11220,7 @@
     </row>
     <row r="169" spans="1:29" ht="15.6">
       <c r="A169" s="50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B169" s="50"/>
       <c r="C169" s="50"/>
@@ -11253,10 +11253,10 @@
     </row>
     <row r="170" spans="1:29">
       <c r="A170" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="B170" s="52" t="s">
         <v>204</v>
-      </c>
-      <c r="B170" s="52" t="s">
-        <v>205</v>
       </c>
       <c r="C170" s="53" t="s">
         <v>84</v>
@@ -11342,10 +11342,10 @@
     </row>
     <row r="171" spans="1:29">
       <c r="A171" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="B171" s="51" t="s">
         <v>206</v>
-      </c>
-      <c r="B171" s="51" t="s">
-        <v>207</v>
       </c>
       <c r="C171" s="54">
         <v>0</v>
@@ -11432,7 +11432,7 @@
     <row r="172" spans="1:29">
       <c r="A172" s="51"/>
       <c r="B172" s="51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C172" s="54">
         <v>0</v>
@@ -11518,10 +11518,10 @@
     </row>
     <row r="173" spans="1:29">
       <c r="A173" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="B173" s="51" t="s">
         <v>209</v>
-      </c>
-      <c r="B173" s="51" t="s">
-        <v>210</v>
       </c>
       <c r="C173" s="55">
         <v>3.2739468688573266E-3</v>
@@ -11608,7 +11608,7 @@
     <row r="174" spans="1:29">
       <c r="A174" s="51"/>
       <c r="B174" s="51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C174" s="54">
         <v>0.83405572391255312</v>
@@ -11694,10 +11694,10 @@
     </row>
     <row r="175" spans="1:29">
       <c r="A175" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="B175" s="51" t="s">
         <v>212</v>
-      </c>
-      <c r="B175" s="51" t="s">
-        <v>213</v>
       </c>
       <c r="C175" s="54">
         <v>2.1905905312439161E-2</v>
@@ -11784,7 +11784,7 @@
     <row r="176" spans="1:29">
       <c r="A176" s="51"/>
       <c r="B176" s="51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C176" s="54">
         <v>0.13420523697456904</v>
@@ -11871,7 +11871,7 @@
     <row r="177" spans="1:29">
       <c r="A177" s="51"/>
       <c r="B177" s="51" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C177" s="54">
         <v>6.559186931581344E-3</v>
@@ -11958,7 +11958,7 @@
     <row r="178" spans="1:29">
       <c r="A178" s="51"/>
       <c r="B178" s="51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C178" s="54">
         <v>0</v>
@@ -12045,7 +12045,7 @@
     <row r="179" spans="1:29">
       <c r="A179" s="56"/>
       <c r="B179" s="57" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C179" s="58">
         <v>1</v>
@@ -12224,7 +12224,7 @@
     </row>
     <row r="183" spans="1:29" ht="15.6">
       <c r="A183" s="50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B183" s="50"/>
       <c r="C183" s="50"/>
@@ -12257,10 +12257,10 @@
     </row>
     <row r="184" spans="1:29">
       <c r="A184" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="B184" s="52" t="s">
         <v>204</v>
-      </c>
-      <c r="B184" s="52" t="s">
-        <v>205</v>
       </c>
       <c r="C184" s="53" t="s">
         <v>84</v>
@@ -12346,10 +12346,10 @@
     </row>
     <row r="185" spans="1:29">
       <c r="A185" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="B185" s="51" t="s">
         <v>206</v>
-      </c>
-      <c r="B185" s="51" t="s">
-        <v>207</v>
       </c>
       <c r="C185" s="54">
         <v>0</v>
@@ -12436,7 +12436,7 @@
     <row r="186" spans="1:29">
       <c r="A186" s="51"/>
       <c r="B186" s="51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C186" s="54">
         <v>0</v>
@@ -12522,10 +12522,10 @@
     </row>
     <row r="187" spans="1:29">
       <c r="A187" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="B187" s="51" t="s">
         <v>209</v>
-      </c>
-      <c r="B187" s="51" t="s">
-        <v>210</v>
       </c>
       <c r="C187" s="54">
         <v>0</v>
@@ -12612,7 +12612,7 @@
     <row r="188" spans="1:29">
       <c r="A188" s="51"/>
       <c r="B188" s="51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C188" s="54">
         <v>0.74108639947108168</v>
@@ -12698,10 +12698,10 @@
     </row>
     <row r="189" spans="1:29">
       <c r="A189" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="B189" s="51" t="s">
         <v>212</v>
-      </c>
-      <c r="B189" s="51" t="s">
-        <v>213</v>
       </c>
       <c r="C189" s="54">
         <v>1.214216695359136E-2</v>
@@ -12788,7 +12788,7 @@
     <row r="190" spans="1:29">
       <c r="A190" s="51"/>
       <c r="B190" s="51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C190" s="54">
         <v>0.1626965950818042</v>
@@ -12875,7 +12875,7 @@
     <row r="191" spans="1:29">
       <c r="A191" s="51"/>
       <c r="B191" s="51" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C191" s="54">
         <v>0</v>
@@ -12962,7 +12962,7 @@
     <row r="192" spans="1:29">
       <c r="A192" s="51"/>
       <c r="B192" s="51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C192" s="54">
         <v>8.4074838493522847E-2</v>
@@ -13049,7 +13049,7 @@
     <row r="193" spans="1:29">
       <c r="A193" s="56"/>
       <c r="B193" s="57" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C193" s="58">
         <v>1.0000000000000002</v>
@@ -13135,7 +13135,7 @@
     </row>
     <row r="199" spans="1:29" ht="15.6">
       <c r="A199" s="50" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B199" s="51"/>
       <c r="C199" s="51"/>
@@ -13168,10 +13168,10 @@
     </row>
     <row r="200" spans="1:29">
       <c r="A200" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="B200" s="52" t="s">
         <v>230</v>
-      </c>
-      <c r="B200" s="52" t="s">
-        <v>231</v>
       </c>
       <c r="C200" s="52" t="s">
         <v>84</v>
@@ -13257,10 +13257,10 @@
     </row>
     <row r="201" spans="1:29">
       <c r="A201" s="66" t="s">
+        <v>231</v>
+      </c>
+      <c r="B201" s="51" t="s">
         <v>232</v>
-      </c>
-      <c r="B201" s="51" t="s">
-        <v>233</v>
       </c>
       <c r="C201" s="51">
         <v>292</v>
@@ -13346,10 +13346,10 @@
     </row>
     <row r="202" spans="1:29">
       <c r="A202" s="66" t="s">
+        <v>233</v>
+      </c>
+      <c r="B202" s="51" t="s">
         <v>234</v>
-      </c>
-      <c r="B202" s="51" t="s">
-        <v>235</v>
       </c>
       <c r="C202" s="68">
         <v>1140</v>
@@ -13435,10 +13435,10 @@
     </row>
     <row r="203" spans="1:29">
       <c r="A203" s="66" t="s">
+        <v>235</v>
+      </c>
+      <c r="B203" s="51" t="s">
         <v>236</v>
-      </c>
-      <c r="B203" s="51" t="s">
-        <v>237</v>
       </c>
       <c r="C203" s="51">
         <v>10106</v>
@@ -13524,7 +13524,7 @@
     </row>
     <row r="204" spans="1:29">
       <c r="A204" s="66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B204" s="51"/>
       <c r="C204" s="60">
@@ -13612,7 +13612,7 @@
     <row r="205" spans="1:29">
       <c r="A205" s="57"/>
       <c r="B205" s="57" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C205" s="69">
         <f>SUM(C201:C204)</f>
@@ -13912,7 +13912,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>

--- a/SuppXLS/Scen_TRA_ActiveModes.xlsx
+++ b/SuppXLS/Scen_TRA_ActiveModes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Irish-TIMES-model\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_Irish-TIMES-model\TRA_Update\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E17D6B7-AEE4-400F-B1DB-EC8C4BC7944A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B72859-51A2-497B-B131-314AF72C054B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="250">
   <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
@@ -951,12 +951,32 @@
   <si>
     <t>TRAF</t>
   </si>
+  <si>
+    <t>Activity (share in tkm)</t>
+  </si>
+  <si>
+    <r>
+      <t>Unladen Weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF384350"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="11">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -966,8 +986,10 @@
     <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="171" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="0.000%"/>
+    <numFmt numFmtId="173" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1148,6 +1170,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF384350"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -1346,7 +1374,7 @@
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1466,6 +1494,9 @@
     <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1478,6 +1509,26 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -3235,10 +3286,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A2:AQ205"/>
+  <dimension ref="A2:AQ224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N81" sqref="N81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3256,46 +3307,46 @@
       </c>
     </row>
     <row r="3" spans="2:43" s="35" customFormat="1" ht="25.95" customHeight="1">
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76" t="s">
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
     </row>
     <row r="4" spans="2:43" s="35" customFormat="1" ht="24" customHeight="1">
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74" t="s">
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
     </row>
     <row r="5" spans="2:43">
       <c r="C5" s="15"/>
@@ -3500,11 +3551,11 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="73" t="s">
+      <c r="K10" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
@@ -8842,113 +8893,113 @@
         <v>239</v>
       </c>
       <c r="N77" s="65">
-        <f>ROUNDUP(C201/C205,3)</f>
+        <f>ROUNDUP(C220,3)</f>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="O77" s="65">
-        <f t="shared" ref="O77:AN77" si="27">ROUNDUP(D201/D205,3)</f>
+      <c r="O77" s="74">
+        <f t="shared" ref="O77:AN77" si="27">ROUNDUP(D220,3)</f>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="P77" s="65">
+      <c r="P77" s="74">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="Q77" s="65">
+      <c r="Q77" s="74">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="R77" s="65">
+      <c r="R77" s="74">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="S77" s="65">
+      <c r="S77" s="74">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="T77" s="65">
+      <c r="T77" s="74">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="U77" s="65">
+      <c r="U77" s="74">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="V77" s="65">
+      <c r="V77" s="74">
+        <f t="shared" si="27"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="W77" s="74">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="W77" s="65">
+      <c r="X77" s="74">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="X77" s="65">
+      <c r="Y77" s="74">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="Y77" s="65">
+      <c r="Z77" s="74">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="Z77" s="65">
+      <c r="AA77" s="74">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AA77" s="65">
+      <c r="AB77" s="74">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AB77" s="65">
+      <c r="AC77" s="74">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AC77" s="65">
+      <c r="AD77" s="74">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AD77" s="65">
+      <c r="AE77" s="74">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AE77" s="65">
+      <c r="AF77" s="74">
+        <f t="shared" si="27"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG77" s="74">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AF77" s="65">
+      <c r="AH77" s="74">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AG77" s="65">
+      <c r="AI77" s="74">
+        <f t="shared" si="27"/>
+        <v>2.3E-2</v>
+      </c>
+      <c r="AJ77" s="74">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AH77" s="65">
+      <c r="AK77" s="74">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AI77" s="65">
+      <c r="AL77" s="74">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AJ77" s="65">
+      <c r="AM77" s="74">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AK77" s="65">
+      <c r="AN77" s="74">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AL77" s="65">
-        <f t="shared" si="27"/>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="AM77" s="65">
-        <f t="shared" si="27"/>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="AN77" s="65">
-        <f t="shared" si="27"/>
-        <v>2.6000000000000002E-2</v>
-      </c>
       <c r="AO77" s="72">
         <v>0</v>
       </c>
@@ -8961,32 +9012,32 @@
         <v>66</v>
       </c>
       <c r="N78" s="20"/>
-      <c r="O78" s="20"/>
-      <c r="P78" s="20"/>
-      <c r="Q78" s="20"/>
-      <c r="R78" s="20"/>
-      <c r="S78" s="20"/>
-      <c r="T78" s="20"/>
-      <c r="U78" s="20"/>
-      <c r="V78" s="20"/>
-      <c r="W78" s="20"/>
-      <c r="X78" s="20"/>
-      <c r="Y78" s="20"/>
-      <c r="Z78" s="20"/>
-      <c r="AA78" s="20"/>
-      <c r="AB78" s="20"/>
-      <c r="AC78" s="20"/>
-      <c r="AD78" s="20"/>
-      <c r="AE78" s="20"/>
-      <c r="AF78" s="20"/>
-      <c r="AG78" s="20"/>
-      <c r="AH78" s="20"/>
-      <c r="AI78" s="20"/>
-      <c r="AJ78" s="20"/>
-      <c r="AK78" s="20"/>
-      <c r="AL78" s="20"/>
-      <c r="AM78" s="20"/>
-      <c r="AN78" s="20"/>
+      <c r="O78" s="73"/>
+      <c r="P78" s="73"/>
+      <c r="Q78" s="73"/>
+      <c r="R78" s="73"/>
+      <c r="S78" s="73"/>
+      <c r="T78" s="73"/>
+      <c r="U78" s="73"/>
+      <c r="V78" s="73"/>
+      <c r="W78" s="73"/>
+      <c r="X78" s="73"/>
+      <c r="Y78" s="73"/>
+      <c r="Z78" s="73"/>
+      <c r="AA78" s="73"/>
+      <c r="AB78" s="73"/>
+      <c r="AC78" s="73"/>
+      <c r="AD78" s="73"/>
+      <c r="AE78" s="73"/>
+      <c r="AF78" s="73"/>
+      <c r="AG78" s="73"/>
+      <c r="AH78" s="73"/>
+      <c r="AI78" s="73"/>
+      <c r="AJ78" s="73"/>
+      <c r="AK78" s="73"/>
+      <c r="AL78" s="73"/>
+      <c r="AM78" s="73"/>
+      <c r="AN78" s="73"/>
       <c r="AO78" s="15">
         <v>5</v>
       </c>
@@ -9016,113 +9067,113 @@
         <v>241</v>
       </c>
       <c r="N79" s="65">
-        <f>ROUNDUP(C202/C205,3)</f>
+        <f>ROUNDUP(C221,3)</f>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="O79" s="65">
-        <f t="shared" ref="O79:AN79" si="28">ROUNDUP(D202/D205,3)</f>
+      <c r="O79" s="74">
+        <f t="shared" ref="O79:AN79" si="28">ROUNDUP(D221,3)</f>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="P79" s="65">
+      <c r="P79" s="74">
+        <f t="shared" si="28"/>
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="Q79" s="74">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="Q79" s="65">
+      <c r="R79" s="74">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="R79" s="65">
+      <c r="S79" s="74">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="S79" s="65">
+      <c r="T79" s="74">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="T79" s="65">
+      <c r="U79" s="74">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="U79" s="65">
+      <c r="V79" s="74">
+        <f t="shared" si="28"/>
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="W79" s="74">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="V79" s="65">
+      <c r="X79" s="74">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="W79" s="65">
+      <c r="Y79" s="74">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="X79" s="65">
+      <c r="Z79" s="74">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="Y79" s="65">
+      <c r="AA79" s="74">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="Z79" s="65">
+      <c r="AB79" s="74">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AA79" s="65">
+      <c r="AC79" s="74">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AB79" s="65">
+      <c r="AD79" s="74">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AC79" s="65">
+      <c r="AE79" s="74">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AD79" s="65">
+      <c r="AF79" s="74">
+        <f t="shared" si="28"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AG79" s="74">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AE79" s="65">
+      <c r="AH79" s="74">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AF79" s="65">
+      <c r="AI79" s="74">
+        <f t="shared" si="28"/>
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="AJ79" s="74">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AG79" s="65">
+      <c r="AK79" s="74">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AH79" s="65">
+      <c r="AL79" s="74">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AI79" s="65">
+      <c r="AM79" s="74">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AJ79" s="65">
+      <c r="AN79" s="74">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AK79" s="65">
-        <f t="shared" si="28"/>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="AL79" s="65">
-        <f t="shared" si="28"/>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="AM79" s="65">
-        <f t="shared" si="28"/>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="AN79" s="65">
-        <f t="shared" si="28"/>
-        <v>9.9000000000000005E-2</v>
-      </c>
       <c r="AO79" s="72">
         <v>0</v>
       </c>
@@ -9135,32 +9186,32 @@
         <v>66</v>
       </c>
       <c r="N80" s="20"/>
-      <c r="O80" s="20"/>
-      <c r="P80" s="20"/>
-      <c r="Q80" s="20"/>
-      <c r="R80" s="20"/>
-      <c r="S80" s="20"/>
-      <c r="T80" s="20"/>
-      <c r="U80" s="20"/>
-      <c r="V80" s="20"/>
-      <c r="W80" s="20"/>
-      <c r="X80" s="20"/>
-      <c r="Y80" s="20"/>
-      <c r="Z80" s="20"/>
-      <c r="AA80" s="20"/>
-      <c r="AB80" s="20"/>
-      <c r="AC80" s="20"/>
-      <c r="AD80" s="20"/>
-      <c r="AE80" s="20"/>
-      <c r="AF80" s="20"/>
-      <c r="AG80" s="20"/>
-      <c r="AH80" s="20"/>
-      <c r="AI80" s="20"/>
-      <c r="AJ80" s="20"/>
-      <c r="AK80" s="20"/>
-      <c r="AL80" s="20"/>
-      <c r="AM80" s="20"/>
-      <c r="AN80" s="20"/>
+      <c r="O80" s="73"/>
+      <c r="P80" s="73"/>
+      <c r="Q80" s="73"/>
+      <c r="R80" s="73"/>
+      <c r="S80" s="73"/>
+      <c r="T80" s="73"/>
+      <c r="U80" s="73"/>
+      <c r="V80" s="73"/>
+      <c r="W80" s="73"/>
+      <c r="X80" s="73"/>
+      <c r="Y80" s="73"/>
+      <c r="Z80" s="73"/>
+      <c r="AA80" s="73"/>
+      <c r="AB80" s="73"/>
+      <c r="AC80" s="73"/>
+      <c r="AD80" s="73"/>
+      <c r="AE80" s="73"/>
+      <c r="AF80" s="73"/>
+      <c r="AG80" s="73"/>
+      <c r="AH80" s="73"/>
+      <c r="AI80" s="73"/>
+      <c r="AJ80" s="73"/>
+      <c r="AK80" s="73"/>
+      <c r="AL80" s="73"/>
+      <c r="AM80" s="73"/>
+      <c r="AN80" s="73"/>
       <c r="AO80" s="15">
         <v>5</v>
       </c>
@@ -9190,113 +9241,113 @@
         <v>243</v>
       </c>
       <c r="N81" s="65">
-        <f>ROUNDUP(C203/C205,3)</f>
+        <f>ROUNDUP(C222,3)</f>
+        <v>0.87</v>
+      </c>
+      <c r="O81" s="74">
+        <f t="shared" ref="O81:AN81" si="29">ROUNDUP(D222,3)</f>
         <v>0.876</v>
       </c>
-      <c r="O81" s="65">
-        <f t="shared" ref="O81:AN81" si="29">ROUNDUP(D203/D205,3)</f>
-        <v>0.876</v>
-      </c>
-      <c r="P81" s="65">
+      <c r="P81" s="74">
+        <f t="shared" si="29"/>
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="Q81" s="74">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="Q81" s="65">
+      <c r="R81" s="74">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="R81" s="65">
+      <c r="S81" s="74">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="S81" s="65">
+      <c r="T81" s="74">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="T81" s="65">
+      <c r="U81" s="74">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="U81" s="65">
+      <c r="V81" s="74">
+        <f t="shared" si="29"/>
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="W81" s="74">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="V81" s="65">
+      <c r="X81" s="74">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="W81" s="65">
+      <c r="Y81" s="74">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="X81" s="65">
+      <c r="Z81" s="74">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="Y81" s="65">
+      <c r="AA81" s="74">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="Z81" s="65">
+      <c r="AB81" s="74">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="AA81" s="65">
+      <c r="AC81" s="74">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="AB81" s="65">
+      <c r="AD81" s="74">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="AC81" s="65">
+      <c r="AE81" s="74">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="AD81" s="65">
+      <c r="AF81" s="74">
+        <f t="shared" si="29"/>
+        <v>0.84</v>
+      </c>
+      <c r="AG81" s="74">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="AE81" s="65">
+      <c r="AH81" s="74">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="AF81" s="65">
+      <c r="AI81" s="74">
+        <f t="shared" si="29"/>
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="AJ81" s="74">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="AG81" s="65">
+      <c r="AK81" s="74">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="AH81" s="65">
+      <c r="AL81" s="74">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="AI81" s="65">
+      <c r="AM81" s="74">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="AJ81" s="65">
+      <c r="AN81" s="74">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="AK81" s="65">
-        <f t="shared" si="29"/>
-        <v>0.876</v>
-      </c>
-      <c r="AL81" s="65">
-        <f t="shared" si="29"/>
-        <v>0.876</v>
-      </c>
-      <c r="AM81" s="65">
-        <f t="shared" si="29"/>
-        <v>0.876</v>
-      </c>
-      <c r="AN81" s="65">
-        <f t="shared" si="29"/>
-        <v>0.876</v>
-      </c>
       <c r="AO81" s="72">
         <v>0</v>
       </c>
@@ -9309,32 +9360,32 @@
         <v>66</v>
       </c>
       <c r="N82" s="20"/>
-      <c r="O82" s="20"/>
-      <c r="P82" s="20"/>
-      <c r="Q82" s="20"/>
-      <c r="R82" s="20"/>
-      <c r="S82" s="20"/>
-      <c r="T82" s="20"/>
-      <c r="U82" s="20"/>
-      <c r="V82" s="20"/>
-      <c r="W82" s="20"/>
-      <c r="X82" s="20"/>
-      <c r="Y82" s="20"/>
-      <c r="Z82" s="20"/>
-      <c r="AA82" s="20"/>
-      <c r="AB82" s="20"/>
-      <c r="AC82" s="20"/>
-      <c r="AD82" s="20"/>
-      <c r="AE82" s="20"/>
-      <c r="AF82" s="20"/>
-      <c r="AG82" s="20"/>
-      <c r="AH82" s="20"/>
-      <c r="AI82" s="20"/>
-      <c r="AJ82" s="20"/>
-      <c r="AK82" s="20"/>
-      <c r="AL82" s="20"/>
-      <c r="AM82" s="20"/>
-      <c r="AN82" s="20"/>
+      <c r="O82" s="73"/>
+      <c r="P82" s="73"/>
+      <c r="Q82" s="73"/>
+      <c r="R82" s="73"/>
+      <c r="S82" s="73"/>
+      <c r="T82" s="73"/>
+      <c r="U82" s="73"/>
+      <c r="V82" s="73"/>
+      <c r="W82" s="73"/>
+      <c r="X82" s="73"/>
+      <c r="Y82" s="73"/>
+      <c r="Z82" s="73"/>
+      <c r="AA82" s="73"/>
+      <c r="AB82" s="73"/>
+      <c r="AC82" s="73"/>
+      <c r="AD82" s="73"/>
+      <c r="AE82" s="73"/>
+      <c r="AF82" s="73"/>
+      <c r="AG82" s="73"/>
+      <c r="AH82" s="73"/>
+      <c r="AI82" s="73"/>
+      <c r="AJ82" s="73"/>
+      <c r="AK82" s="73"/>
+      <c r="AL82" s="73"/>
+      <c r="AM82" s="73"/>
+      <c r="AN82" s="73"/>
       <c r="AO82" s="15">
         <v>5</v>
       </c>
@@ -9363,111 +9414,111 @@
       <c r="M83" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="N83" s="65">
-        <f>C204/C205</f>
-        <v>7.6746680880972545E-6</v>
-      </c>
-      <c r="O83" s="65">
-        <f t="shared" ref="O83:AN83" si="30">D204/D205</f>
-        <v>0</v>
-      </c>
-      <c r="P83" s="65">
+      <c r="N83" s="75">
+        <f>ROUNDUP(C223,3)</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="O83" s="75">
+        <f t="shared" ref="O83:AN83" si="30">ROUNDUP(D223,3)</f>
+        <v>0</v>
+      </c>
+      <c r="P83" s="75">
         <f t="shared" si="30"/>
-        <v>1.0824487944998058E-5</v>
-      </c>
-      <c r="Q83" s="65">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="Q83" s="75">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="R83" s="65">
+      <c r="R83" s="75">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="S83" s="65">
+      <c r="S83" s="75">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="T83" s="65">
+      <c r="T83" s="75">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U83" s="65">
+      <c r="U83" s="75">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="V83" s="65">
+      <c r="V83" s="75">
         <f t="shared" si="30"/>
-        <v>2.2439420734313278E-5</v>
-      </c>
-      <c r="W83" s="65">
+        <v>2.2000000000000002E-2</v>
+      </c>
+      <c r="W83" s="75">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="X83" s="65">
+      <c r="X83" s="75">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="Y83" s="65">
+      <c r="Y83" s="75">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="Z83" s="65">
+      <c r="Z83" s="75">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AA83" s="65">
+      <c r="AA83" s="75">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AB83" s="65">
+      <c r="AB83" s="75">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AC83" s="65">
+      <c r="AC83" s="75">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AD83" s="65">
+      <c r="AD83" s="75">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AE83" s="65">
+      <c r="AE83" s="75">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF83" s="65">
+      <c r="AF83" s="75">
         <f t="shared" si="30"/>
-        <v>4.3542453277533046E-5</v>
-      </c>
-      <c r="AG83" s="65">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="AG83" s="75">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AH83" s="65">
+      <c r="AH83" s="75">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AI83" s="65">
+      <c r="AI83" s="75">
         <f t="shared" si="30"/>
-        <v>1.1366467062496786E-4</v>
-      </c>
-      <c r="AJ83" s="65">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="AJ83" s="75">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AK83" s="65">
+      <c r="AK83" s="75">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AL83" s="65">
+      <c r="AL83" s="75">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AM83" s="65">
+      <c r="AM83" s="75">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AN83" s="65">
+      <c r="AN83" s="75">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
@@ -9529,7 +9580,7 @@
       </c>
       <c r="N86" s="63">
         <f t="shared" ref="N86:AN86" si="31">SUM(N77:N83)</f>
-        <v>1.001007674668088</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="O86" s="63">
         <f t="shared" si="31"/>
@@ -9537,7 +9588,7 @@
       </c>
       <c r="P86" s="63">
         <f t="shared" si="31"/>
-        <v>1.001010824487945</v>
+        <v>1.002</v>
       </c>
       <c r="Q86" s="63">
         <f t="shared" si="31"/>
@@ -9561,7 +9612,7 @@
       </c>
       <c r="V86" s="63">
         <f t="shared" si="31"/>
-        <v>1.0010224394207341</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="W86" s="63">
         <f t="shared" si="31"/>
@@ -9601,7 +9652,7 @@
       </c>
       <c r="AF86" s="63">
         <f t="shared" si="31"/>
-        <v>1.0010435424532773</v>
+        <v>1.002</v>
       </c>
       <c r="AG86" s="63">
         <f t="shared" si="31"/>
@@ -9613,7 +9664,7 @@
       </c>
       <c r="AI86" s="63">
         <f t="shared" si="31"/>
-        <v>1.0011136646706249</v>
+        <v>1.002</v>
       </c>
       <c r="AJ86" s="63">
         <f t="shared" si="31"/>
@@ -13721,6 +13772,571 @@
       <c r="AC205" s="69">
         <f t="shared" si="32"/>
         <v>154.59614013215509</v>
+      </c>
+    </row>
+    <row r="218" spans="1:29" ht="15.6">
+      <c r="A218" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="B218" s="15"/>
+      <c r="C218" s="15"/>
+      <c r="D218" s="15"/>
+      <c r="E218" s="15"/>
+      <c r="F218" s="15"/>
+      <c r="G218" s="15"/>
+      <c r="H218" s="15"/>
+      <c r="I218" s="15"/>
+      <c r="J218" s="15"/>
+      <c r="K218" s="15"/>
+      <c r="L218" s="15"/>
+      <c r="M218" s="15"/>
+      <c r="N218" s="15"/>
+      <c r="O218" s="15"/>
+      <c r="P218" s="15"/>
+      <c r="Q218" s="15"/>
+      <c r="R218" s="15"/>
+      <c r="S218" s="15"/>
+      <c r="T218" s="15"/>
+      <c r="U218" s="15"/>
+      <c r="V218" s="15"/>
+      <c r="W218" s="15"/>
+      <c r="X218" s="15"/>
+      <c r="Y218" s="15"/>
+      <c r="Z218" s="15"/>
+      <c r="AA218" s="15"/>
+      <c r="AB218" s="15"/>
+      <c r="AC218" s="15"/>
+    </row>
+    <row r="219" spans="1:29" ht="17.399999999999999">
+      <c r="A219" s="81" t="s">
+        <v>229</v>
+      </c>
+      <c r="B219" s="81" t="s">
+        <v>248</v>
+      </c>
+      <c r="C219" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="D219" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="E219" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="F219" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="G219" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="H219" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="I219" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="J219" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="K219" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="L219" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="M219" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="N219" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="O219" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="P219" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q219" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="R219" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="S219" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="T219" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="U219" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="V219" s="82" t="s">
+        <v>96</v>
+      </c>
+      <c r="W219" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="X219" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y219" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z219" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA219" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB219" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC219" s="82" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29">
+      <c r="A220" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="B220" s="80" t="s">
+        <v>232</v>
+      </c>
+      <c r="C220" s="83">
+        <v>2.5114928752301518E-2</v>
+      </c>
+      <c r="D220" s="83">
+        <v>2.5307678973825617E-2</v>
+      </c>
+      <c r="E220" s="83">
+        <v>2.5036666940775772E-2</v>
+      </c>
+      <c r="F220" s="83">
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="G220" s="83">
+        <v>2.5307678973825624E-2</v>
+      </c>
+      <c r="H220" s="83">
+        <v>2.5307678973825617E-2</v>
+      </c>
+      <c r="I220" s="83">
+        <v>2.5307678973825614E-2</v>
+      </c>
+      <c r="J220" s="83">
+        <v>2.5307678973825617E-2</v>
+      </c>
+      <c r="K220" s="83">
+        <v>2.475224056984587E-2</v>
+      </c>
+      <c r="L220" s="83">
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="M220" s="83">
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="N220" s="83">
+        <v>2.5307678973825614E-2</v>
+      </c>
+      <c r="O220" s="83">
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="P220" s="83">
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="Q220" s="83">
+        <v>2.5307678973825624E-2</v>
+      </c>
+      <c r="R220" s="83">
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="S220" s="83">
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="T220" s="83">
+        <v>2.5307678973825624E-2</v>
+      </c>
+      <c r="U220" s="83">
+        <v>2.4251656377299691E-2</v>
+      </c>
+      <c r="V220" s="83">
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="W220" s="83">
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="X220" s="83">
+        <v>2.2724421467469186E-2</v>
+      </c>
+      <c r="Y220" s="83">
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="Z220" s="83">
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="AA220" s="83">
+        <v>2.5307678973825614E-2</v>
+      </c>
+      <c r="AB220" s="83">
+        <v>2.5307678973825614E-2</v>
+      </c>
+      <c r="AC220" s="83">
+        <v>2.5307678973825614E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29">
+      <c r="A221" s="86" t="s">
+        <v>233</v>
+      </c>
+      <c r="B221" s="80" t="s">
+        <v>234</v>
+      </c>
+      <c r="C221" s="83">
+        <v>9.8051434169944274E-2</v>
+      </c>
+      <c r="D221" s="83">
+        <v>9.8803952158086308E-2</v>
+      </c>
+      <c r="E221" s="83">
+        <v>9.7745891481110903E-2</v>
+      </c>
+      <c r="F221" s="83">
+        <v>9.8803952158086336E-2</v>
+      </c>
+      <c r="G221" s="83">
+        <v>9.8803952158086336E-2</v>
+      </c>
+      <c r="H221" s="83">
+        <v>9.8803952158086308E-2</v>
+      </c>
+      <c r="I221" s="83">
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="J221" s="83">
+        <v>9.8803952158086308E-2</v>
+      </c>
+      <c r="K221" s="83">
+        <v>9.663545975898731E-2</v>
+      </c>
+      <c r="L221" s="83">
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="M221" s="83">
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="N221" s="83">
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="O221" s="83">
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="P221" s="83">
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="Q221" s="83">
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="R221" s="83">
+        <v>9.8803952158086336E-2</v>
+      </c>
+      <c r="S221" s="83">
+        <v>9.8803952158086336E-2</v>
+      </c>
+      <c r="T221" s="83">
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="U221" s="83">
+        <v>9.4681124212745368E-2</v>
+      </c>
+      <c r="V221" s="83">
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="W221" s="83">
+        <v>9.8803952158086336E-2</v>
+      </c>
+      <c r="X221" s="83">
+        <v>8.8718631756557781E-2</v>
+      </c>
+      <c r="Y221" s="83">
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="Z221" s="83">
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="AA221" s="83">
+        <v>9.8803952158086308E-2</v>
+      </c>
+      <c r="AB221" s="83">
+        <v>9.8803952158086308E-2</v>
+      </c>
+      <c r="AC221" s="83">
+        <v>9.8803952158086308E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29">
+      <c r="A222" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="B222" s="80" t="s">
+        <v>236</v>
+      </c>
+      <c r="C222" s="83">
+        <v>0.86921736291355867</v>
+      </c>
+      <c r="D222" s="83">
+        <v>0.87588836886808796</v>
+      </c>
+      <c r="E222" s="83">
+        <v>0.86650875377904113</v>
+      </c>
+      <c r="F222" s="83">
+        <v>0.87588836886808796</v>
+      </c>
+      <c r="G222" s="83">
+        <v>0.87588836886808819</v>
+      </c>
+      <c r="H222" s="83">
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="I222" s="83">
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="J222" s="83">
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="K222" s="83">
+        <v>0.85666487396870672</v>
+      </c>
+      <c r="L222" s="83">
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="M222" s="83">
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="N222" s="83">
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="O222" s="83">
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="P222" s="83">
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="Q222" s="83">
+        <v>0.87588836886808796</v>
+      </c>
+      <c r="R222" s="83">
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="S222" s="83">
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="T222" s="83">
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="U222" s="83">
+        <v>0.83933986078421463</v>
+      </c>
+      <c r="V222" s="83">
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="W222" s="83">
+        <v>0.87588836886808796</v>
+      </c>
+      <c r="X222" s="83">
+        <v>0.78648288818576584</v>
+      </c>
+      <c r="Y222" s="83">
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="Z222" s="83">
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="AA222" s="83">
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="AB222" s="83">
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="AC222" s="83">
+        <v>0.87588836886808807</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29">
+      <c r="A223" s="86" t="s">
+        <v>164</v>
+      </c>
+      <c r="B223" s="80" t="s">
+        <v>249</v>
+      </c>
+      <c r="C223" s="87">
+        <v>7.6162741641953831E-3</v>
+      </c>
+      <c r="D223" s="87">
+        <v>0</v>
+      </c>
+      <c r="E223" s="87">
+        <v>1.0708687799072239E-2</v>
+      </c>
+      <c r="F223" s="87">
+        <v>0</v>
+      </c>
+      <c r="G223" s="87">
+        <v>0</v>
+      </c>
+      <c r="H223" s="87">
+        <v>0</v>
+      </c>
+      <c r="I223" s="87">
+        <v>0</v>
+      </c>
+      <c r="J223" s="87">
+        <v>0</v>
+      </c>
+      <c r="K223" s="87">
+        <v>2.1947425702460065E-2</v>
+      </c>
+      <c r="L223" s="87">
+        <v>0</v>
+      </c>
+      <c r="M223" s="87">
+        <v>0</v>
+      </c>
+      <c r="N223" s="87">
+        <v>0</v>
+      </c>
+      <c r="O223" s="87">
+        <v>0</v>
+      </c>
+      <c r="P223" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q223" s="87">
+        <v>0</v>
+      </c>
+      <c r="R223" s="87">
+        <v>0</v>
+      </c>
+      <c r="S223" s="87">
+        <v>0</v>
+      </c>
+      <c r="T223" s="87">
+        <v>0</v>
+      </c>
+      <c r="U223" s="87">
+        <v>4.1727358625740237E-2</v>
+      </c>
+      <c r="V223" s="87">
+        <v>0</v>
+      </c>
+      <c r="W223" s="87">
+        <v>0</v>
+      </c>
+      <c r="X223" s="87">
+        <v>0.10207405859020728</v>
+      </c>
+      <c r="Y223" s="87">
+        <v>0</v>
+      </c>
+      <c r="Z223" s="87">
+        <v>0</v>
+      </c>
+      <c r="AA223" s="87">
+        <v>0</v>
+      </c>
+      <c r="AB223" s="87">
+        <v>0</v>
+      </c>
+      <c r="AC223" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29">
+      <c r="A224" s="84"/>
+      <c r="B224" s="84" t="s">
+        <v>216</v>
+      </c>
+      <c r="C224" s="85">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="D224" s="85">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="E224" s="85">
+        <v>1</v>
+      </c>
+      <c r="F224" s="85">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="G224" s="85">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="H224" s="85">
+        <v>1</v>
+      </c>
+      <c r="I224" s="85">
+        <v>1</v>
+      </c>
+      <c r="J224" s="85">
+        <v>1</v>
+      </c>
+      <c r="K224" s="85">
+        <v>1</v>
+      </c>
+      <c r="L224" s="85">
+        <v>1</v>
+      </c>
+      <c r="M224" s="85">
+        <v>1</v>
+      </c>
+      <c r="N224" s="85">
+        <v>1</v>
+      </c>
+      <c r="O224" s="85">
+        <v>1</v>
+      </c>
+      <c r="P224" s="85">
+        <v>1</v>
+      </c>
+      <c r="Q224" s="85">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="R224" s="85">
+        <v>1</v>
+      </c>
+      <c r="S224" s="85">
+        <v>1</v>
+      </c>
+      <c r="T224" s="85">
+        <v>1</v>
+      </c>
+      <c r="U224" s="85">
+        <v>1</v>
+      </c>
+      <c r="V224" s="85">
+        <v>1</v>
+      </c>
+      <c r="W224" s="85">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="X224" s="85">
+        <v>1</v>
+      </c>
+      <c r="Y224" s="85">
+        <v>1</v>
+      </c>
+      <c r="Z224" s="85">
+        <v>1</v>
+      </c>
+      <c r="AA224" s="85">
+        <v>1</v>
+      </c>
+      <c r="AB224" s="85">
+        <v>1</v>
+      </c>
+      <c r="AC224" s="85">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_TRA_ActiveModes.xlsx
+++ b/SuppXLS/Scen_TRA_ActiveModes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_Irish-TIMES-model\TRA_Update\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B72859-51A2-497B-B131-314AF72C054B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BBD907-F96A-4A86-8320-0D63C29B2911}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -976,7 +976,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
+  <numFmts count="9">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -984,9 +984,7 @@
     <numFmt numFmtId="167" formatCode="0.0000"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="171" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="0.000%"/>
     <numFmt numFmtId="173" formatCode="0.00000"/>
   </numFmts>
   <fonts count="28">
@@ -1374,7 +1372,7 @@
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1477,9 +1475,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1497,18 +1492,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1528,7 +1511,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -3288,8 +3283,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:AQ224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N81" sqref="N81"/>
+    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C220" sqref="C220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3307,46 +3302,46 @@
       </c>
     </row>
     <row r="3" spans="2:43" s="35" customFormat="1" ht="25.95" customHeight="1">
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="79" t="s">
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
     </row>
     <row r="4" spans="2:43" s="35" customFormat="1" ht="24" customHeight="1">
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77" t="s">
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
     </row>
     <row r="5" spans="2:43">
       <c r="C5" s="15"/>
@@ -3551,11 +3546,11 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="76" t="s">
+      <c r="K10" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
@@ -3764,111 +3759,111 @@
         <f>D143</f>
         <v>Walk</v>
       </c>
-      <c r="N12" s="65">
+      <c r="N12" s="62">
         <f>ROUNDUP(C157,3)</f>
         <v>0.32400000000000001</v>
       </c>
-      <c r="O12" s="65">
+      <c r="O12" s="62">
         <f t="shared" ref="O12:AN12" si="0">ROUNDUP(D157,3)</f>
         <v>0.29599999999999999</v>
       </c>
-      <c r="P12" s="65">
+      <c r="P12" s="62">
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
-      <c r="Q12" s="65">
+      <c r="Q12" s="62">
         <f t="shared" si="0"/>
         <v>0.314</v>
       </c>
-      <c r="R12" s="65">
+      <c r="R12" s="62">
         <f t="shared" si="0"/>
         <v>0.30099999999999999</v>
       </c>
-      <c r="S12" s="65">
+      <c r="S12" s="62">
         <f t="shared" si="0"/>
         <v>0.32600000000000001</v>
       </c>
-      <c r="T12" s="65">
+      <c r="T12" s="62">
         <f t="shared" si="0"/>
         <v>0.313</v>
       </c>
-      <c r="U12" s="65">
+      <c r="U12" s="62">
         <f t="shared" si="0"/>
         <v>0.34499999999999997</v>
       </c>
-      <c r="V12" s="65">
+      <c r="V12" s="62">
         <f t="shared" si="0"/>
         <v>0.317</v>
       </c>
-      <c r="W12" s="65">
+      <c r="W12" s="62">
         <f t="shared" si="0"/>
         <v>0.30599999999999999</v>
       </c>
-      <c r="X12" s="65">
+      <c r="X12" s="62">
         <f t="shared" si="0"/>
         <v>0.307</v>
       </c>
-      <c r="Y12" s="65">
+      <c r="Y12" s="62">
         <f t="shared" si="0"/>
         <v>0.29799999999999999</v>
       </c>
-      <c r="Z12" s="65">
+      <c r="Z12" s="62">
         <f t="shared" si="0"/>
         <v>0.32</v>
       </c>
-      <c r="AA12" s="65">
+      <c r="AA12" s="62">
         <f t="shared" si="0"/>
         <v>0.30399999999999999</v>
       </c>
-      <c r="AB12" s="65">
+      <c r="AB12" s="62">
         <f t="shared" si="0"/>
         <v>0.32800000000000001</v>
       </c>
-      <c r="AC12" s="65">
+      <c r="AC12" s="62">
         <f t="shared" si="0"/>
         <v>0.29199999999999998</v>
       </c>
-      <c r="AD12" s="65">
+      <c r="AD12" s="62">
         <f t="shared" si="0"/>
         <v>0.32300000000000001</v>
       </c>
-      <c r="AE12" s="65">
+      <c r="AE12" s="62">
         <f t="shared" si="0"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="AF12" s="65">
+      <c r="AF12" s="62">
         <f t="shared" si="0"/>
         <v>0.318</v>
       </c>
-      <c r="AG12" s="65">
+      <c r="AG12" s="62">
         <f t="shared" si="0"/>
         <v>0.316</v>
       </c>
-      <c r="AH12" s="65">
+      <c r="AH12" s="62">
         <f t="shared" si="0"/>
         <v>0.30599999999999999</v>
       </c>
-      <c r="AI12" s="65">
+      <c r="AI12" s="62">
         <f t="shared" si="0"/>
         <v>0.29799999999999999</v>
       </c>
-      <c r="AJ12" s="65">
+      <c r="AJ12" s="62">
         <f t="shared" si="0"/>
         <v>0.28200000000000003</v>
       </c>
-      <c r="AK12" s="65">
+      <c r="AK12" s="62">
         <f t="shared" si="0"/>
         <v>0.32500000000000001</v>
       </c>
-      <c r="AL12" s="65">
+      <c r="AL12" s="62">
         <f t="shared" si="0"/>
         <v>0.33800000000000002</v>
       </c>
-      <c r="AM12" s="65">
+      <c r="AM12" s="62">
         <f t="shared" si="0"/>
         <v>0.36399999999999999</v>
       </c>
-      <c r="AN12" s="65">
+      <c r="AN12" s="62">
         <f t="shared" si="0"/>
         <v>0.29299999999999998</v>
       </c>
@@ -4094,111 +4089,111 @@
         <f>D144</f>
         <v>Bike</v>
       </c>
-      <c r="N15" s="65">
+      <c r="N15" s="62">
         <f>ROUNDUP(C158,3)</f>
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="O15" s="65">
+      <c r="O15" s="62">
         <f t="shared" ref="O15:AN15" si="2">ROUNDUP(D158,3)</f>
         <v>0.05</v>
       </c>
-      <c r="P15" s="65">
+      <c r="P15" s="62">
         <f t="shared" si="2"/>
         <v>5.9000000000000004E-2</v>
       </c>
-      <c r="Q15" s="65">
+      <c r="Q15" s="62">
         <f t="shared" si="2"/>
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="R15" s="65">
+      <c r="R15" s="62">
         <f t="shared" si="2"/>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="S15" s="65">
+      <c r="S15" s="62">
         <f t="shared" si="2"/>
         <v>5.5E-2</v>
       </c>
-      <c r="T15" s="65">
+      <c r="T15" s="62">
         <f t="shared" si="2"/>
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="U15" s="65">
+      <c r="U15" s="62">
         <f t="shared" si="2"/>
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="V15" s="65">
+      <c r="V15" s="62">
         <f t="shared" si="2"/>
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="W15" s="65">
+      <c r="W15" s="62">
         <f t="shared" si="2"/>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="X15" s="65">
+      <c r="X15" s="62">
         <f t="shared" si="2"/>
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="Y15" s="65">
+      <c r="Y15" s="62">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="Z15" s="65">
+      <c r="Z15" s="62">
         <f t="shared" si="2"/>
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="AA15" s="65">
+      <c r="AA15" s="62">
         <f t="shared" si="2"/>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="AB15" s="65">
+      <c r="AB15" s="62">
         <f t="shared" si="2"/>
         <v>5.5E-2</v>
       </c>
-      <c r="AC15" s="65">
+      <c r="AC15" s="62">
         <f t="shared" si="2"/>
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="AD15" s="65">
+      <c r="AD15" s="62">
         <f t="shared" si="2"/>
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="AE15" s="65">
+      <c r="AE15" s="62">
         <f t="shared" si="2"/>
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="AF15" s="65">
+      <c r="AF15" s="62">
         <f t="shared" si="2"/>
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="AG15" s="65">
+      <c r="AG15" s="62">
         <f t="shared" si="2"/>
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="AH15" s="65">
+      <c r="AH15" s="62">
         <f t="shared" si="2"/>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="AI15" s="65">
+      <c r="AI15" s="62">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="AJ15" s="65">
+      <c r="AJ15" s="62">
         <f t="shared" si="2"/>
         <v>4.7E-2</v>
       </c>
-      <c r="AK15" s="65">
+      <c r="AK15" s="62">
         <f t="shared" si="2"/>
         <v>5.5E-2</v>
       </c>
-      <c r="AL15" s="65">
+      <c r="AL15" s="62">
         <f t="shared" si="2"/>
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="AM15" s="65">
+      <c r="AM15" s="62">
         <f t="shared" si="2"/>
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="AN15" s="65">
+      <c r="AN15" s="62">
         <f t="shared" si="2"/>
         <v>4.9000000000000002E-2</v>
       </c>
@@ -4754,111 +4749,111 @@
         <f>D146</f>
         <v>LDV</v>
       </c>
-      <c r="N21" s="65">
+      <c r="N21" s="62">
         <f>ROUNDUP(C160,3)</f>
         <v>0.51500000000000001</v>
       </c>
-      <c r="O21" s="65">
+      <c r="O21" s="62">
         <f t="shared" ref="O21:AN21" si="6">ROUNDUP(D160,3)</f>
         <v>0.57699999999999996</v>
       </c>
-      <c r="P21" s="65">
+      <c r="P21" s="62">
         <f t="shared" si="6"/>
         <v>0.41599999999999998</v>
       </c>
-      <c r="Q21" s="65">
+      <c r="Q21" s="62">
         <f t="shared" si="6"/>
         <v>0.53900000000000003</v>
       </c>
-      <c r="R21" s="65">
+      <c r="R21" s="62">
         <f t="shared" si="6"/>
         <v>0.52800000000000002</v>
       </c>
-      <c r="S21" s="65">
+      <c r="S21" s="62">
         <f t="shared" si="6"/>
         <v>0.54500000000000004</v>
       </c>
-      <c r="T21" s="65">
+      <c r="T21" s="62">
         <f t="shared" si="6"/>
         <v>0.54800000000000004</v>
       </c>
-      <c r="U21" s="65">
+      <c r="U21" s="62">
         <f t="shared" si="6"/>
         <v>0.50700000000000001</v>
       </c>
-      <c r="V21" s="65">
+      <c r="V21" s="62">
         <f t="shared" si="6"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="W21" s="65">
+      <c r="W21" s="62">
         <f t="shared" si="6"/>
         <v>0.54300000000000004</v>
       </c>
-      <c r="X21" s="65">
+      <c r="X21" s="62">
         <f t="shared" si="6"/>
         <v>0.57099999999999995</v>
       </c>
-      <c r="Y21" s="65">
+      <c r="Y21" s="62">
         <f t="shared" si="6"/>
         <v>0.57899999999999996</v>
       </c>
-      <c r="Z21" s="65">
+      <c r="Z21" s="62">
         <f t="shared" si="6"/>
         <v>0.54900000000000004</v>
       </c>
-      <c r="AA21" s="65">
+      <c r="AA21" s="62">
         <f t="shared" si="6"/>
         <v>0.57499999999999996</v>
       </c>
-      <c r="AB21" s="65">
+      <c r="AB21" s="62">
         <f t="shared" si="6"/>
         <v>0.54600000000000004</v>
       </c>
-      <c r="AC21" s="65">
+      <c r="AC21" s="62">
         <f t="shared" si="6"/>
         <v>0.53</v>
       </c>
-      <c r="AD21" s="65">
+      <c r="AD21" s="62">
         <f t="shared" si="6"/>
         <v>0.54900000000000004</v>
       </c>
-      <c r="AE21" s="65">
+      <c r="AE21" s="62">
         <f t="shared" si="6"/>
         <v>0.57699999999999996</v>
       </c>
-      <c r="AF21" s="65">
+      <c r="AF21" s="62">
         <f t="shared" si="6"/>
         <v>0.56499999999999995</v>
       </c>
-      <c r="AG21" s="65">
+      <c r="AG21" s="62">
         <f t="shared" si="6"/>
         <v>0.53200000000000003</v>
       </c>
-      <c r="AH21" s="65">
+      <c r="AH21" s="62">
         <f t="shared" si="6"/>
         <v>0.57199999999999995</v>
       </c>
-      <c r="AI21" s="65">
+      <c r="AI21" s="62">
         <f t="shared" si="6"/>
         <v>0.54500000000000004</v>
       </c>
-      <c r="AJ21" s="65">
+      <c r="AJ21" s="62">
         <f t="shared" si="6"/>
         <v>0.60599999999999998</v>
       </c>
-      <c r="AK21" s="65">
+      <c r="AK21" s="62">
         <f t="shared" si="6"/>
         <v>0.54600000000000004</v>
       </c>
-      <c r="AL21" s="65">
+      <c r="AL21" s="62">
         <f t="shared" si="6"/>
         <v>0.57199999999999995</v>
       </c>
-      <c r="AM21" s="65">
+      <c r="AM21" s="62">
         <f t="shared" si="6"/>
         <v>0.56100000000000005</v>
       </c>
-      <c r="AN21" s="65">
+      <c r="AN21" s="62">
         <f t="shared" si="6"/>
         <v>0.49299999999999999</v>
       </c>
@@ -5084,111 +5079,111 @@
         <f>D147</f>
         <v>Taxis</v>
       </c>
-      <c r="N24" s="65">
+      <c r="N24" s="62">
         <f>ROUNDUP(C161,3)</f>
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="O24" s="65">
+      <c r="O24" s="62">
         <f t="shared" ref="O24:AN24" si="8">ROUNDUP(D161,3)</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="P24" s="65">
+      <c r="P24" s="62">
         <f t="shared" si="8"/>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="Q24" s="65">
+      <c r="Q24" s="62">
         <f t="shared" si="8"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="R24" s="65">
+      <c r="R24" s="62">
         <f t="shared" si="8"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="S24" s="65">
+      <c r="S24" s="62">
         <f t="shared" si="8"/>
         <v>9.9999999999999985E-3</v>
       </c>
-      <c r="T24" s="65">
+      <c r="T24" s="62">
         <f t="shared" si="8"/>
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="U24" s="65">
+      <c r="U24" s="62">
         <f t="shared" si="8"/>
         <v>0.02</v>
       </c>
-      <c r="V24" s="65">
+      <c r="V24" s="62">
         <f t="shared" si="8"/>
         <v>0.02</v>
       </c>
-      <c r="W24" s="65">
+      <c r="W24" s="62">
         <f t="shared" si="8"/>
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="X24" s="65">
+      <c r="X24" s="62">
         <f t="shared" si="8"/>
         <v>1.2E-2</v>
       </c>
-      <c r="Y24" s="65">
+      <c r="Y24" s="62">
         <f t="shared" si="8"/>
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="Z24" s="65">
+      <c r="Z24" s="62">
         <f t="shared" si="8"/>
         <v>9.9999999999999985E-3</v>
       </c>
-      <c r="AA24" s="65">
+      <c r="AA24" s="62">
         <f t="shared" si="8"/>
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="AB24" s="65">
+      <c r="AB24" s="62">
         <f t="shared" si="8"/>
         <v>1.3000000000000001E-2</v>
       </c>
-      <c r="AC24" s="65">
+      <c r="AC24" s="62">
         <f t="shared" si="8"/>
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="AD24" s="65">
+      <c r="AD24" s="62">
         <f t="shared" si="8"/>
         <v>1.3000000000000001E-2</v>
       </c>
-      <c r="AE24" s="65">
+      <c r="AE24" s="62">
         <f t="shared" si="8"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AF24" s="65">
+      <c r="AF24" s="62">
         <f t="shared" si="8"/>
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="AG24" s="65">
+      <c r="AG24" s="62">
         <f t="shared" si="8"/>
         <v>1.3999999999999999E-2</v>
       </c>
-      <c r="AH24" s="65">
+      <c r="AH24" s="62">
         <f t="shared" si="8"/>
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="AI24" s="65">
+      <c r="AI24" s="62">
         <f t="shared" si="8"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AJ24" s="65">
+      <c r="AJ24" s="62">
         <f t="shared" si="8"/>
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AK24" s="65">
+      <c r="AK24" s="62">
         <f t="shared" si="8"/>
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="AL24" s="65">
+      <c r="AL24" s="62">
         <f t="shared" si="8"/>
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="AM24" s="65">
+      <c r="AM24" s="62">
         <f t="shared" si="8"/>
         <v>9.9999999999999985E-3</v>
       </c>
-      <c r="AN24" s="65">
+      <c r="AN24" s="62">
         <f t="shared" si="8"/>
         <v>5.0000000000000001E-3</v>
       </c>
@@ -5414,111 +5409,111 @@
         <f>D148</f>
         <v>BUS</v>
       </c>
-      <c r="N27" s="65">
+      <c r="N27" s="62">
         <f>ROUNDUP(C162,3)</f>
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="O27" s="65">
+      <c r="O27" s="62">
         <f t="shared" ref="O27:AN27" si="10">ROUNDUP(D162,3)</f>
         <v>7.1000000000000008E-2</v>
       </c>
-      <c r="P27" s="65">
+      <c r="P27" s="62">
         <f t="shared" si="10"/>
         <v>0.114</v>
       </c>
-      <c r="Q27" s="65">
+      <c r="Q27" s="62">
         <f t="shared" si="10"/>
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="R27" s="65">
+      <c r="R27" s="62">
         <f t="shared" si="10"/>
         <v>0.113</v>
       </c>
-      <c r="S27" s="65">
+      <c r="S27" s="62">
         <f t="shared" si="10"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="T27" s="65">
+      <c r="T27" s="62">
         <f t="shared" si="10"/>
         <v>7.8E-2</v>
       </c>
-      <c r="U27" s="65">
+      <c r="U27" s="62">
         <f t="shared" si="10"/>
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="V27" s="65">
+      <c r="V27" s="62">
         <f t="shared" si="10"/>
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="W27" s="65">
+      <c r="W27" s="62">
         <f t="shared" si="10"/>
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="X27" s="65">
+      <c r="X27" s="62">
         <f t="shared" si="10"/>
         <v>5.9000000000000004E-2</v>
       </c>
-      <c r="Y27" s="65">
+      <c r="Y27" s="62">
         <f t="shared" si="10"/>
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="Z27" s="65">
+      <c r="Z27" s="62">
         <f t="shared" si="10"/>
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="AA27" s="65">
+      <c r="AA27" s="62">
         <f t="shared" si="10"/>
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="AB27" s="65">
+      <c r="AB27" s="62">
         <f t="shared" si="10"/>
         <v>0.06</v>
       </c>
-      <c r="AC27" s="65">
+      <c r="AC27" s="62">
         <f t="shared" si="10"/>
         <v>0.12</v>
       </c>
-      <c r="AD27" s="65">
+      <c r="AD27" s="62">
         <f t="shared" si="10"/>
         <v>6.2E-2</v>
       </c>
-      <c r="AE27" s="65">
+      <c r="AE27" s="62">
         <f t="shared" si="10"/>
         <v>0.08</v>
       </c>
-      <c r="AF27" s="65">
+      <c r="AF27" s="62">
         <f t="shared" si="10"/>
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="AG27" s="65">
+      <c r="AG27" s="62">
         <f t="shared" si="10"/>
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="AH27" s="65">
+      <c r="AH27" s="62">
         <f t="shared" si="10"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="AI27" s="65">
+      <c r="AI27" s="62">
         <f t="shared" si="10"/>
         <v>0.10100000000000001</v>
       </c>
-      <c r="AJ27" s="65">
+      <c r="AJ27" s="62">
         <f t="shared" si="10"/>
         <v>5.9000000000000004E-2</v>
       </c>
-      <c r="AK27" s="65">
+      <c r="AK27" s="62">
         <f t="shared" si="10"/>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="AL27" s="65">
+      <c r="AL27" s="62">
         <f t="shared" si="10"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AM27" s="65">
+      <c r="AM27" s="62">
         <f t="shared" si="10"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AN27" s="65">
+      <c r="AN27" s="62">
         <f t="shared" si="10"/>
         <v>0.161</v>
       </c>
@@ -5744,111 +5739,111 @@
         <f>D149</f>
         <v>Light rail (LUAS)</v>
       </c>
-      <c r="N30" s="65">
+      <c r="N30" s="62">
         <f>ROUNDUP(C163,3)</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="O30" s="65">
+      <c r="O30" s="62">
         <f t="shared" ref="O30:AN30" si="12">ROUNDUP(D163,3)</f>
         <v>0</v>
       </c>
-      <c r="P30" s="65">
+      <c r="P30" s="62">
         <f t="shared" si="12"/>
         <v>3.0000000000000002E-2</v>
       </c>
-      <c r="Q30" s="65">
+      <c r="Q30" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R30" s="65">
+      <c r="R30" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S30" s="65">
+      <c r="S30" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T30" s="65">
+      <c r="T30" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U30" s="65">
+      <c r="U30" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="V30" s="65">
+      <c r="V30" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="W30" s="65">
+      <c r="W30" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="X30" s="65">
+      <c r="X30" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="65">
+      <c r="Y30" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z30" s="65">
+      <c r="Z30" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA30" s="65">
+      <c r="AA30" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB30" s="65">
+      <c r="AB30" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC30" s="65">
+      <c r="AC30" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD30" s="65">
+      <c r="AD30" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE30" s="65">
+      <c r="AE30" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AF30" s="65">
+      <c r="AF30" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AG30" s="65">
+      <c r="AG30" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AH30" s="65">
+      <c r="AH30" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI30" s="65">
+      <c r="AI30" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AJ30" s="65">
+      <c r="AJ30" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AK30" s="65">
+      <c r="AK30" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AL30" s="65">
+      <c r="AL30" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AM30" s="65">
+      <c r="AM30" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AN30" s="65">
+      <c r="AN30" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6102,111 +6097,111 @@
       <c r="M34" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="N34" s="63">
+      <c r="N34" s="60">
         <f>N12+N15+N18+N21+N24+N27+N30</f>
         <v>1.0023</v>
       </c>
-      <c r="O34" s="63">
+      <c r="O34" s="60">
         <f t="shared" ref="O34:AN35" si="14">O12+O15+O18+O21+O24+O27+O30</f>
         <v>1.0028999999999999</v>
       </c>
-      <c r="P34" s="63">
+      <c r="P34" s="60">
         <f t="shared" si="14"/>
         <v>1.0035000000000001</v>
       </c>
-      <c r="Q34" s="63">
+      <c r="Q34" s="60">
         <f t="shared" si="14"/>
         <v>1.0034000000000001</v>
       </c>
-      <c r="R34" s="63">
+      <c r="R34" s="60">
         <f t="shared" si="14"/>
         <v>1.002</v>
       </c>
-      <c r="S34" s="63">
+      <c r="S34" s="60">
         <f t="shared" si="14"/>
         <v>1.0017</v>
       </c>
-      <c r="T34" s="63">
+      <c r="T34" s="60">
         <f t="shared" si="14"/>
         <v>1.0023</v>
       </c>
-      <c r="U34" s="63">
+      <c r="U34" s="60">
         <f t="shared" si="14"/>
         <v>1.0039</v>
       </c>
-      <c r="V34" s="63">
+      <c r="V34" s="60">
         <f t="shared" si="14"/>
         <v>1.0024</v>
       </c>
-      <c r="W34" s="63">
+      <c r="W34" s="60">
         <f t="shared" si="14"/>
         <v>1.0013000000000001</v>
       </c>
-      <c r="X34" s="63">
+      <c r="X34" s="60">
         <f t="shared" si="14"/>
         <v>1.0022</v>
       </c>
-      <c r="Y34" s="63">
+      <c r="Y34" s="60">
         <f t="shared" si="14"/>
         <v>1.0032999999999999</v>
       </c>
-      <c r="Z34" s="63">
+      <c r="Z34" s="60">
         <f t="shared" si="14"/>
         <v>1.0035000000000001</v>
       </c>
-      <c r="AA34" s="63">
+      <c r="AA34" s="60">
         <f t="shared" si="14"/>
         <v>1.0033000000000001</v>
       </c>
-      <c r="AB34" s="63">
+      <c r="AB34" s="60">
         <f t="shared" si="14"/>
         <v>1.0035000000000001</v>
       </c>
-      <c r="AC34" s="63">
+      <c r="AC34" s="60">
         <f t="shared" si="14"/>
         <v>1.0030000000000001</v>
       </c>
-      <c r="AD34" s="63">
+      <c r="AD34" s="60">
         <f t="shared" si="14"/>
         <v>1.0021</v>
       </c>
-      <c r="AE34" s="63">
+      <c r="AE34" s="60">
         <f t="shared" si="14"/>
         <v>1.0031999999999999</v>
       </c>
-      <c r="AF34" s="63">
+      <c r="AF34" s="60">
         <f t="shared" si="14"/>
         <v>1.0024</v>
       </c>
-      <c r="AG34" s="63">
+      <c r="AG34" s="60">
         <f t="shared" si="14"/>
         <v>1.0028000000000001</v>
       </c>
-      <c r="AH34" s="63">
+      <c r="AH34" s="60">
         <f t="shared" si="14"/>
         <v>1.0029999999999999</v>
       </c>
-      <c r="AI34" s="63">
+      <c r="AI34" s="60">
         <f t="shared" si="14"/>
         <v>1.0028000000000001</v>
       </c>
-      <c r="AJ34" s="63">
+      <c r="AJ34" s="60">
         <f t="shared" si="14"/>
         <v>1.0018</v>
       </c>
-      <c r="AK34" s="63">
+      <c r="AK34" s="60">
         <f t="shared" si="14"/>
         <v>1.0029000000000001</v>
       </c>
-      <c r="AL34" s="63">
+      <c r="AL34" s="60">
         <f t="shared" si="14"/>
         <v>1.0027999999999999</v>
       </c>
-      <c r="AM34" s="63">
+      <c r="AM34" s="60">
         <f t="shared" si="14"/>
         <v>1.0018</v>
       </c>
-      <c r="AN34" s="63">
+      <c r="AN34" s="60">
         <f t="shared" si="14"/>
         <v>1.0018</v>
       </c>
@@ -6228,111 +6223,111 @@
       <c r="M35" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="N35" s="63">
+      <c r="N35" s="60">
         <f>N13+N16+N19+N22+N25+N28+N31</f>
         <v>1.0020832784424678</v>
       </c>
-      <c r="O35" s="63">
+      <c r="O35" s="60">
         <f t="shared" ref="O35:U35" si="15">O13+O16+O19+O22+O25+O28+O31</f>
         <v>0.95011558771287197</v>
       </c>
-      <c r="P35" s="63">
+      <c r="P35" s="60">
         <f t="shared" si="15"/>
         <v>1.07409613411995</v>
       </c>
-      <c r="Q35" s="63">
+      <c r="Q35" s="60">
         <f t="shared" si="15"/>
         <v>0.98390910318189795</v>
       </c>
-      <c r="R35" s="63">
+      <c r="R35" s="60">
         <f t="shared" si="15"/>
         <v>0.97785267534315701</v>
       </c>
-      <c r="S35" s="63">
+      <c r="S35" s="60">
         <f t="shared" si="15"/>
         <v>0.98873811349458207</v>
       </c>
-      <c r="T35" s="63">
+      <c r="T35" s="60">
         <f t="shared" si="15"/>
         <v>0.97768168565584102</v>
       </c>
-      <c r="U35" s="63">
+      <c r="U35" s="60">
         <f t="shared" si="15"/>
         <v>1.024859046489665</v>
       </c>
-      <c r="V35" s="63">
+      <c r="V35" s="60">
         <f t="shared" si="14"/>
         <v>0.97929135576006909</v>
       </c>
-      <c r="W35" s="63">
+      <c r="W35" s="60">
         <f t="shared" si="14"/>
         <v>0.972789762973442</v>
       </c>
-      <c r="X35" s="63">
+      <c r="X35" s="60">
         <f t="shared" si="14"/>
         <v>0.96131718049949899</v>
       </c>
-      <c r="Y35" s="63">
+      <c r="Y35" s="60">
         <f t="shared" si="14"/>
         <v>0.95077042276498602</v>
       </c>
-      <c r="Z35" s="63">
+      <c r="Z35" s="60">
         <f t="shared" si="14"/>
         <v>0.98377360833824001</v>
       </c>
-      <c r="AA35" s="63">
+      <c r="AA35" s="60">
         <f t="shared" si="14"/>
         <v>0.95753492792132788</v>
       </c>
-      <c r="AB35" s="63">
+      <c r="AB35" s="60">
         <f t="shared" si="14"/>
         <v>0.99129294854669592</v>
       </c>
-      <c r="AC35" s="63">
+      <c r="AC35" s="60">
         <f t="shared" si="14"/>
         <v>0.97020591760864405</v>
       </c>
-      <c r="AD35" s="63">
+      <c r="AD35" s="60">
         <f t="shared" si="14"/>
         <v>0.98425586091641093</v>
       </c>
-      <c r="AE35" s="63">
+      <c r="AE35" s="60">
         <f t="shared" si="14"/>
         <v>0.94565108255652996</v>
       </c>
-      <c r="AF35" s="63">
+      <c r="AF35" s="60">
         <f t="shared" si="14"/>
         <v>0.97241877328612603</v>
       </c>
-      <c r="AG35" s="63">
+      <c r="AG35" s="60">
         <f t="shared" si="14"/>
         <v>0.98806393823401206</v>
       </c>
-      <c r="AH35" s="63">
+      <c r="AH35" s="60">
         <f t="shared" si="14"/>
         <v>0.95998976297344196</v>
       </c>
-      <c r="AI35" s="63">
+      <c r="AI35" s="60">
         <f t="shared" si="14"/>
         <v>0.96727042276498598</v>
       </c>
-      <c r="AJ35" s="63">
+      <c r="AJ35" s="60">
         <f t="shared" si="14"/>
         <v>0.92273174234807409</v>
       </c>
-      <c r="AK35" s="63">
+      <c r="AK35" s="60">
         <f t="shared" si="14"/>
         <v>0.988810695968525</v>
       </c>
-      <c r="AL35" s="63">
+      <c r="AL35" s="60">
         <f t="shared" si="14"/>
         <v>0.98586712380726615</v>
       </c>
-      <c r="AM35" s="64">
+      <c r="AM35" s="61">
         <f t="shared" si="14"/>
         <v>1.0106799794847479</v>
       </c>
-      <c r="AN35" s="63">
+      <c r="AN35" s="60">
         <f t="shared" si="14"/>
         <v>0.98813333513470114</v>
       </c>
@@ -6604,111 +6599,111 @@
         <f>D145</f>
         <v>2-wheelers</v>
       </c>
-      <c r="N41" s="63">
+      <c r="N41" s="60">
         <f>ROUNDUP(C173,4)</f>
         <v>3.3E-3</v>
       </c>
-      <c r="O41" s="63">
+      <c r="O41" s="60">
         <f t="shared" ref="O41:AN41" si="16">ROUNDUP(D173,4)</f>
         <v>2.1999999999999997E-3</v>
       </c>
-      <c r="P41" s="63">
+      <c r="P41" s="60">
         <f t="shared" si="16"/>
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="Q41" s="63">
+      <c r="Q41" s="60">
         <f t="shared" si="16"/>
         <v>3.6999999999999997E-3</v>
       </c>
-      <c r="R41" s="63">
+      <c r="R41" s="60">
         <f t="shared" si="16"/>
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="S41" s="63">
+      <c r="S41" s="60">
         <f t="shared" si="16"/>
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="T41" s="63">
+      <c r="T41" s="60">
         <f t="shared" si="16"/>
         <v>3.3E-3</v>
       </c>
-      <c r="U41" s="63">
+      <c r="U41" s="60">
         <f t="shared" si="16"/>
         <v>2.4999999999999996E-3</v>
       </c>
-      <c r="V41" s="63">
+      <c r="V41" s="60">
         <f t="shared" si="16"/>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="W41" s="63">
+      <c r="W41" s="60">
         <f t="shared" si="16"/>
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="X41" s="63">
+      <c r="X41" s="60">
         <f t="shared" si="16"/>
         <v>2.9999999999999996E-3</v>
       </c>
-      <c r="Y41" s="63">
+      <c r="Y41" s="60">
         <f t="shared" si="16"/>
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="Z41" s="63">
+      <c r="Z41" s="60">
         <f t="shared" si="16"/>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AA41" s="63">
+      <c r="AA41" s="60">
         <f t="shared" si="16"/>
         <v>3.3E-3</v>
       </c>
-      <c r="AB41" s="63">
+      <c r="AB41" s="60">
         <f t="shared" si="16"/>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AC41" s="63">
+      <c r="AC41" s="60">
         <f t="shared" si="16"/>
         <v>2.4999999999999996E-3</v>
       </c>
-      <c r="AD41" s="63">
+      <c r="AD41" s="60">
         <f t="shared" si="16"/>
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="AE41" s="63">
+      <c r="AE41" s="60">
         <f t="shared" si="16"/>
         <v>2.9999999999999996E-3</v>
       </c>
-      <c r="AF41" s="63">
+      <c r="AF41" s="60">
         <f t="shared" si="16"/>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="AG41" s="63">
+      <c r="AG41" s="60">
         <f t="shared" si="16"/>
         <v>2.1999999999999997E-3</v>
       </c>
-      <c r="AH41" s="63">
+      <c r="AH41" s="60">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AI41" s="63">
+      <c r="AI41" s="60">
         <f t="shared" si="16"/>
         <v>2E-3</v>
       </c>
-      <c r="AJ41" s="63">
+      <c r="AJ41" s="60">
         <f t="shared" si="16"/>
         <v>1.8E-3</v>
       </c>
-      <c r="AK41" s="63">
+      <c r="AK41" s="60">
         <f t="shared" si="16"/>
         <v>2.1999999999999997E-3</v>
       </c>
-      <c r="AL41" s="63">
+      <c r="AL41" s="60">
         <f t="shared" si="16"/>
         <v>2E-3</v>
       </c>
-      <c r="AM41" s="63">
+      <c r="AM41" s="60">
         <f t="shared" si="16"/>
         <v>2.1999999999999997E-3</v>
       </c>
-      <c r="AN41" s="63">
+      <c r="AN41" s="60">
         <f t="shared" si="16"/>
         <v>2E-3</v>
       </c>
@@ -6779,111 +6774,111 @@
         <f>D146</f>
         <v>LDV</v>
       </c>
-      <c r="N43" s="65">
+      <c r="N43" s="62">
         <f>ROUNDUP(C174,3)</f>
         <v>0.83499999999999996</v>
       </c>
-      <c r="O43" s="65">
+      <c r="O43" s="62">
         <f t="shared" ref="O43:AN43" si="17">ROUNDUP(D174,3)</f>
         <v>0.88200000000000001</v>
       </c>
-      <c r="P43" s="65">
+      <c r="P43" s="62">
         <f t="shared" si="17"/>
         <v>0.72499999999999998</v>
       </c>
-      <c r="Q43" s="65">
+      <c r="Q43" s="62">
         <f t="shared" si="17"/>
         <v>0.85099999999999998</v>
       </c>
-      <c r="R43" s="65">
+      <c r="R43" s="62">
         <f t="shared" si="17"/>
         <v>0.81399999999999995</v>
       </c>
-      <c r="S43" s="65">
+      <c r="S43" s="62">
         <f t="shared" si="17"/>
         <v>0.88100000000000001</v>
       </c>
-      <c r="T43" s="65">
+      <c r="T43" s="62">
         <f t="shared" si="17"/>
         <v>0.86299999999999999</v>
       </c>
-      <c r="U43" s="65">
+      <c r="U43" s="62">
         <f t="shared" si="17"/>
         <v>0.85</v>
       </c>
-      <c r="V43" s="65">
+      <c r="V43" s="62">
         <f t="shared" si="17"/>
         <v>0.875</v>
       </c>
-      <c r="W43" s="65">
+      <c r="W43" s="62">
         <f t="shared" si="17"/>
         <v>0.84399999999999997</v>
       </c>
-      <c r="X43" s="65">
+      <c r="X43" s="62">
         <f t="shared" si="17"/>
         <v>0.89100000000000001</v>
       </c>
-      <c r="Y43" s="65">
+      <c r="Y43" s="62">
         <f t="shared" si="17"/>
         <v>0.88600000000000001</v>
       </c>
-      <c r="Z43" s="65">
+      <c r="Z43" s="62">
         <f t="shared" si="17"/>
         <v>0.876</v>
       </c>
-      <c r="AA43" s="65">
+      <c r="AA43" s="62">
         <f t="shared" si="17"/>
         <v>0.89100000000000001</v>
       </c>
-      <c r="AB43" s="65">
+      <c r="AB43" s="62">
         <f t="shared" si="17"/>
         <v>0.88400000000000001</v>
       </c>
-      <c r="AC43" s="65">
+      <c r="AC43" s="62">
         <f t="shared" si="17"/>
         <v>0.80400000000000005</v>
       </c>
-      <c r="AD43" s="65">
+      <c r="AD43" s="62">
         <f t="shared" si="17"/>
         <v>0.88200000000000001</v>
       </c>
-      <c r="AE43" s="65">
+      <c r="AE43" s="62">
         <f t="shared" si="17"/>
         <v>0.871</v>
       </c>
-      <c r="AF43" s="65">
+      <c r="AF43" s="62">
         <f t="shared" si="17"/>
         <v>0.89800000000000002</v>
       </c>
-      <c r="AG43" s="65">
+      <c r="AG43" s="62">
         <f t="shared" si="17"/>
         <v>0.84399999999999997</v>
       </c>
-      <c r="AH43" s="65">
+      <c r="AH43" s="62">
         <f t="shared" si="17"/>
         <v>0.89</v>
       </c>
-      <c r="AI43" s="65">
+      <c r="AI43" s="62">
         <f t="shared" si="17"/>
         <v>0.83599999999999997</v>
       </c>
-      <c r="AJ43" s="65">
+      <c r="AJ43" s="62">
         <f t="shared" si="17"/>
         <v>0.90300000000000002</v>
       </c>
-      <c r="AK43" s="65">
+      <c r="AK43" s="62">
         <f t="shared" si="17"/>
         <v>0.879</v>
       </c>
-      <c r="AL43" s="65">
+      <c r="AL43" s="62">
         <f t="shared" si="17"/>
         <v>0.94499999999999995</v>
       </c>
-      <c r="AM43" s="65">
+      <c r="AM43" s="62">
         <f t="shared" si="17"/>
         <v>0.97699999999999998</v>
       </c>
-      <c r="AN43" s="65">
+      <c r="AN43" s="62">
         <f t="shared" si="17"/>
         <v>0.749</v>
       </c>
@@ -6954,111 +6949,111 @@
         <f>D147</f>
         <v>Taxis</v>
       </c>
-      <c r="N45" s="65">
+      <c r="N45" s="62">
         <f>ROUNDUP(C175,3)</f>
         <v>2.2000000000000002E-2</v>
       </c>
-      <c r="O45" s="65">
+      <c r="O45" s="62">
         <f t="shared" ref="O45:AN45" si="18">ROUNDUP(D175,3)</f>
         <v>9.9999999999999985E-3</v>
       </c>
-      <c r="P45" s="65">
+      <c r="P45" s="62">
         <f t="shared" si="18"/>
         <v>4.7E-2</v>
       </c>
-      <c r="Q45" s="65">
+      <c r="Q45" s="62">
         <f t="shared" si="18"/>
         <v>1.9E-2</v>
       </c>
-      <c r="R45" s="65">
+      <c r="R45" s="62">
         <f t="shared" si="18"/>
         <v>9.9999999999999985E-3</v>
       </c>
-      <c r="S45" s="65">
+      <c r="S45" s="62">
         <f t="shared" si="18"/>
         <v>1.3999999999999999E-2</v>
       </c>
-      <c r="T45" s="65">
+      <c r="T45" s="62">
         <f t="shared" si="18"/>
         <v>1.2E-2</v>
       </c>
-      <c r="U45" s="65">
+      <c r="U45" s="62">
         <f t="shared" si="18"/>
         <v>2.7E-2</v>
       </c>
-      <c r="V45" s="65">
+      <c r="V45" s="62">
         <f t="shared" si="18"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="W45" s="65">
+      <c r="W45" s="62">
         <f t="shared" si="18"/>
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="X45" s="65">
+      <c r="X45" s="62">
         <f t="shared" si="18"/>
         <v>1.6E-2</v>
       </c>
-      <c r="Y45" s="65">
+      <c r="Y45" s="62">
         <f t="shared" si="18"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="Z45" s="65">
+      <c r="Z45" s="62">
         <f t="shared" si="18"/>
         <v>1.2E-2</v>
       </c>
-      <c r="AA45" s="65">
+      <c r="AA45" s="62">
         <f t="shared" si="18"/>
         <v>1.3999999999999999E-2</v>
       </c>
-      <c r="AB45" s="65">
+      <c r="AB45" s="62">
         <f t="shared" si="18"/>
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AC45" s="65">
+      <c r="AC45" s="62">
         <f t="shared" si="18"/>
         <v>1.3000000000000001E-2</v>
       </c>
-      <c r="AD45" s="65">
+      <c r="AD45" s="62">
         <f t="shared" si="18"/>
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AE45" s="65">
+      <c r="AE45" s="62">
         <f t="shared" si="18"/>
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AF45" s="65">
+      <c r="AF45" s="62">
         <f t="shared" si="18"/>
         <v>1.2E-2</v>
       </c>
-      <c r="AG45" s="65">
+      <c r="AG45" s="62">
         <f t="shared" si="18"/>
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="AH45" s="65">
+      <c r="AH45" s="62">
         <f t="shared" si="18"/>
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="AI45" s="65">
+      <c r="AI45" s="62">
         <f t="shared" si="18"/>
         <v>9.9999999999999985E-3</v>
       </c>
-      <c r="AJ45" s="65">
+      <c r="AJ45" s="62">
         <f t="shared" si="18"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AK45" s="65">
+      <c r="AK45" s="62">
         <f t="shared" si="18"/>
         <v>1.2E-2</v>
       </c>
-      <c r="AL45" s="65">
+      <c r="AL45" s="62">
         <f t="shared" si="18"/>
         <v>1.3000000000000001E-2</v>
       </c>
-      <c r="AM45" s="65">
+      <c r="AM45" s="62">
         <f t="shared" si="18"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN45" s="65">
+      <c r="AN45" s="62">
         <f t="shared" si="18"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -7471,111 +7466,111 @@
       <c r="M52" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="N52" s="63">
+      <c r="N52" s="60">
         <f t="shared" ref="N52:AN52" si="21">SUM(N41:N50)</f>
         <v>1.0103</v>
       </c>
-      <c r="O52" s="63">
+      <c r="O52" s="60">
         <f t="shared" si="21"/>
         <v>1.0042</v>
       </c>
-      <c r="P52" s="63">
+      <c r="P52" s="60">
         <f t="shared" si="21"/>
         <v>1.0064</v>
       </c>
-      <c r="Q52" s="63">
+      <c r="Q52" s="60">
         <f t="shared" si="21"/>
         <v>1.0037</v>
       </c>
-      <c r="R52" s="63">
+      <c r="R52" s="60">
         <f t="shared" si="21"/>
         <v>1.0065999999999999</v>
       </c>
-      <c r="S52" s="63">
+      <c r="S52" s="60">
         <f t="shared" si="21"/>
         <v>1.0067000000000002</v>
       </c>
-      <c r="T52" s="63">
+      <c r="T52" s="60">
         <f t="shared" si="21"/>
         <v>1.0083</v>
       </c>
-      <c r="U52" s="63">
+      <c r="U52" s="60">
         <f t="shared" si="21"/>
         <v>1.0095000000000001</v>
       </c>
-      <c r="V52" s="63">
+      <c r="V52" s="60">
         <f t="shared" si="21"/>
         <v>1.0046000000000002</v>
       </c>
-      <c r="W52" s="63">
+      <c r="W52" s="60">
         <f t="shared" si="21"/>
         <v>1.0064</v>
       </c>
-      <c r="X52" s="63">
+      <c r="X52" s="60">
         <f t="shared" si="21"/>
         <v>1.01</v>
       </c>
-      <c r="Y52" s="63">
+      <c r="Y52" s="60">
         <f t="shared" si="21"/>
         <v>1.0074000000000001</v>
       </c>
-      <c r="Z52" s="63">
+      <c r="Z52" s="60">
         <f t="shared" si="21"/>
         <v>1.002</v>
       </c>
-      <c r="AA52" s="63">
+      <c r="AA52" s="60">
         <f t="shared" si="21"/>
         <v>1.0083</v>
       </c>
-      <c r="AB52" s="63">
+      <c r="AB52" s="60">
         <f t="shared" si="21"/>
         <v>1.0050000000000001</v>
       </c>
-      <c r="AC52" s="63">
+      <c r="AC52" s="60">
         <f t="shared" si="21"/>
         <v>1.0095000000000001</v>
       </c>
-      <c r="AD52" s="63">
+      <c r="AD52" s="60">
         <f t="shared" si="21"/>
         <v>1.0019</v>
       </c>
-      <c r="AE52" s="63">
+      <c r="AE52" s="60">
         <f t="shared" si="21"/>
         <v>1.0110000000000001</v>
       </c>
-      <c r="AF52" s="63">
+      <c r="AF52" s="60">
         <f t="shared" si="21"/>
         <v>1.0036</v>
       </c>
-      <c r="AG52" s="63">
+      <c r="AG52" s="60">
         <f t="shared" si="21"/>
         <v>1.0042</v>
       </c>
-      <c r="AH52" s="63">
+      <c r="AH52" s="60">
         <f t="shared" si="21"/>
         <v>1.0110000000000001</v>
       </c>
-      <c r="AI52" s="63">
+      <c r="AI52" s="60">
         <f t="shared" si="21"/>
         <v>1.008</v>
       </c>
-      <c r="AJ52" s="63">
+      <c r="AJ52" s="60">
         <f t="shared" si="21"/>
         <v>1.0028000000000001</v>
       </c>
-      <c r="AK52" s="63">
+      <c r="AK52" s="60">
         <f t="shared" si="21"/>
         <v>1.0032000000000001</v>
       </c>
-      <c r="AL52" s="63">
+      <c r="AL52" s="60">
         <f t="shared" si="21"/>
         <v>1.01</v>
       </c>
-      <c r="AM52" s="63">
+      <c r="AM52" s="60">
         <f t="shared" si="21"/>
         <v>1.0042</v>
       </c>
-      <c r="AN52" s="63">
+      <c r="AN52" s="60">
         <f t="shared" si="21"/>
         <v>1.0070000000000001</v>
       </c>
@@ -8541,111 +8536,111 @@
       <c r="M69" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="N69" s="63">
+      <c r="N69" s="60">
         <f t="shared" ref="N69:AN69" si="26">SUM(N60:N66)</f>
         <v>1.0150000000000001</v>
       </c>
-      <c r="O69" s="63">
+      <c r="O69" s="60">
         <f t="shared" si="26"/>
         <v>1.0170000000000001</v>
       </c>
-      <c r="P69" s="63">
+      <c r="P69" s="60">
         <f t="shared" si="26"/>
         <v>1.0050000000000001</v>
       </c>
-      <c r="Q69" s="63">
+      <c r="Q69" s="60">
         <f t="shared" si="26"/>
         <v>1.0070000000000001</v>
       </c>
-      <c r="R69" s="63">
+      <c r="R69" s="60">
         <f t="shared" si="26"/>
         <v>1.01</v>
       </c>
-      <c r="S69" s="63">
+      <c r="S69" s="60">
         <f t="shared" si="26"/>
         <v>1.01</v>
       </c>
-      <c r="T69" s="63">
+      <c r="T69" s="60">
         <f t="shared" si="26"/>
         <v>1.004</v>
       </c>
-      <c r="U69" s="63">
+      <c r="U69" s="60">
         <f t="shared" si="26"/>
         <v>1.014</v>
       </c>
-      <c r="V69" s="63">
+      <c r="V69" s="60">
         <f t="shared" si="26"/>
         <v>1.012</v>
       </c>
-      <c r="W69" s="63">
+      <c r="W69" s="60">
         <f t="shared" si="26"/>
         <v>1.0110000000000001</v>
       </c>
-      <c r="X69" s="63">
+      <c r="X69" s="60">
         <f t="shared" si="26"/>
         <v>1.0110000000000001</v>
       </c>
-      <c r="Y69" s="63">
+      <c r="Y69" s="60">
         <f t="shared" si="26"/>
         <v>1.0110000000000001</v>
       </c>
-      <c r="Z69" s="63">
+      <c r="Z69" s="60">
         <f t="shared" si="26"/>
         <v>1.0170000000000001</v>
       </c>
-      <c r="AA69" s="63">
+      <c r="AA69" s="60">
         <f t="shared" si="26"/>
         <v>1.01</v>
       </c>
-      <c r="AB69" s="63">
+      <c r="AB69" s="60">
         <f t="shared" si="26"/>
         <v>1.0090000000000001</v>
       </c>
-      <c r="AC69" s="63">
+      <c r="AC69" s="60">
         <f t="shared" si="26"/>
         <v>1.0029999999999999</v>
       </c>
-      <c r="AD69" s="63">
+      <c r="AD69" s="60">
         <f t="shared" si="26"/>
         <v>1.018</v>
       </c>
-      <c r="AE69" s="63">
+      <c r="AE69" s="60">
         <f t="shared" si="26"/>
         <v>1.014</v>
       </c>
-      <c r="AF69" s="63">
+      <c r="AF69" s="60">
         <f t="shared" si="26"/>
         <v>1.012</v>
       </c>
-      <c r="AG69" s="63">
+      <c r="AG69" s="60">
         <f t="shared" si="26"/>
         <v>1.006</v>
       </c>
-      <c r="AH69" s="63">
+      <c r="AH69" s="60">
         <f t="shared" si="26"/>
         <v>1.012</v>
       </c>
-      <c r="AI69" s="63">
+      <c r="AI69" s="60">
         <f t="shared" si="26"/>
         <v>1.014</v>
       </c>
-      <c r="AJ69" s="63">
+      <c r="AJ69" s="60">
         <f t="shared" si="26"/>
         <v>1.004</v>
       </c>
-      <c r="AK69" s="63">
+      <c r="AK69" s="60">
         <f t="shared" si="26"/>
         <v>1.0170000000000001</v>
       </c>
-      <c r="AL69" s="63">
+      <c r="AL69" s="60">
         <f t="shared" si="26"/>
         <v>1.0190000000000001</v>
       </c>
-      <c r="AM69" s="63">
+      <c r="AM69" s="60">
         <f t="shared" si="26"/>
         <v>1.0090000000000001</v>
       </c>
-      <c r="AN69" s="63">
+      <c r="AN69" s="60">
         <f t="shared" si="26"/>
         <v>1.006</v>
       </c>
@@ -8653,68 +8648,68 @@
       <c r="AP69" s="15"/>
     </row>
     <row r="70" spans="3:42" s="15" customFormat="1">
-      <c r="N70" s="63"/>
-      <c r="O70" s="63"/>
-      <c r="P70" s="63"/>
-      <c r="Q70" s="63"/>
-      <c r="R70" s="63"/>
-      <c r="S70" s="63"/>
-      <c r="T70" s="63"/>
-      <c r="U70" s="63"/>
-      <c r="V70" s="63"/>
-      <c r="W70" s="63"/>
-      <c r="X70" s="63"/>
-      <c r="Y70" s="63"/>
-      <c r="Z70" s="63"/>
-      <c r="AA70" s="63"/>
-      <c r="AB70" s="63"/>
-      <c r="AC70" s="63"/>
-      <c r="AD70" s="63"/>
-      <c r="AE70" s="63"/>
-      <c r="AF70" s="63"/>
-      <c r="AG70" s="63"/>
-      <c r="AH70" s="63"/>
-      <c r="AI70" s="63"/>
-      <c r="AJ70" s="63"/>
-      <c r="AK70" s="63"/>
-      <c r="AL70" s="63"/>
-      <c r="AM70" s="63"/>
-      <c r="AN70" s="63"/>
+      <c r="N70" s="60"/>
+      <c r="O70" s="60"/>
+      <c r="P70" s="60"/>
+      <c r="Q70" s="60"/>
+      <c r="R70" s="60"/>
+      <c r="S70" s="60"/>
+      <c r="T70" s="60"/>
+      <c r="U70" s="60"/>
+      <c r="V70" s="60"/>
+      <c r="W70" s="60"/>
+      <c r="X70" s="60"/>
+      <c r="Y70" s="60"/>
+      <c r="Z70" s="60"/>
+      <c r="AA70" s="60"/>
+      <c r="AB70" s="60"/>
+      <c r="AC70" s="60"/>
+      <c r="AD70" s="60"/>
+      <c r="AE70" s="60"/>
+      <c r="AF70" s="60"/>
+      <c r="AG70" s="60"/>
+      <c r="AH70" s="60"/>
+      <c r="AI70" s="60"/>
+      <c r="AJ70" s="60"/>
+      <c r="AK70" s="60"/>
+      <c r="AL70" s="60"/>
+      <c r="AM70" s="60"/>
+      <c r="AN70" s="60"/>
     </row>
     <row r="71" spans="3:42" s="15" customFormat="1">
-      <c r="N71" s="63"/>
-      <c r="O71" s="63"/>
-      <c r="P71" s="63"/>
-      <c r="Q71" s="63"/>
-      <c r="R71" s="63"/>
-      <c r="S71" s="63"/>
-      <c r="T71" s="63"/>
-      <c r="U71" s="63"/>
-      <c r="V71" s="63"/>
-      <c r="W71" s="63"/>
-      <c r="X71" s="63"/>
-      <c r="Y71" s="63"/>
-      <c r="Z71" s="63"/>
-      <c r="AA71" s="63"/>
-      <c r="AB71" s="63"/>
-      <c r="AC71" s="63"/>
-      <c r="AD71" s="63"/>
-      <c r="AE71" s="63"/>
-      <c r="AF71" s="63"/>
-      <c r="AG71" s="63"/>
-      <c r="AH71" s="63"/>
-      <c r="AI71" s="63"/>
-      <c r="AJ71" s="63"/>
-      <c r="AK71" s="63"/>
-      <c r="AL71" s="63"/>
-      <c r="AM71" s="63"/>
-      <c r="AN71" s="63"/>
+      <c r="N71" s="60"/>
+      <c r="O71" s="60"/>
+      <c r="P71" s="60"/>
+      <c r="Q71" s="60"/>
+      <c r="R71" s="60"/>
+      <c r="S71" s="60"/>
+      <c r="T71" s="60"/>
+      <c r="U71" s="60"/>
+      <c r="V71" s="60"/>
+      <c r="W71" s="60"/>
+      <c r="X71" s="60"/>
+      <c r="Y71" s="60"/>
+      <c r="Z71" s="60"/>
+      <c r="AA71" s="60"/>
+      <c r="AB71" s="60"/>
+      <c r="AC71" s="60"/>
+      <c r="AD71" s="60"/>
+      <c r="AE71" s="60"/>
+      <c r="AF71" s="60"/>
+      <c r="AG71" s="60"/>
+      <c r="AH71" s="60"/>
+      <c r="AI71" s="60"/>
+      <c r="AJ71" s="60"/>
+      <c r="AK71" s="60"/>
+      <c r="AL71" s="60"/>
+      <c r="AM71" s="60"/>
+      <c r="AN71" s="60"/>
     </row>
     <row r="72" spans="3:42" s="15" customFormat="1" ht="18">
-      <c r="C72" s="70" t="s">
+      <c r="C72" s="67" t="s">
         <v>237</v>
       </c>
-      <c r="D72" s="71"/>
+      <c r="D72" s="68"/>
     </row>
     <row r="73" spans="3:42" s="15" customFormat="1"/>
     <row r="74" spans="3:42" s="15" customFormat="1"/>
@@ -8892,115 +8887,115 @@
       <c r="M77" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="N77" s="65">
+      <c r="N77" s="62">
         <f>ROUNDUP(C220,3)</f>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="O77" s="74">
+      <c r="O77" s="71">
         <f t="shared" ref="O77:AN77" si="27">ROUNDUP(D220,3)</f>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="P77" s="74">
+      <c r="P77" s="71">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="Q77" s="74">
+      <c r="Q77" s="71">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="R77" s="74">
+      <c r="R77" s="71">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="S77" s="74">
+      <c r="S77" s="71">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="T77" s="74">
+      <c r="T77" s="71">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="U77" s="74">
+      <c r="U77" s="71">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="V77" s="74">
+      <c r="V77" s="71">
         <f t="shared" si="27"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="W77" s="74">
+      <c r="W77" s="71">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="X77" s="74">
+      <c r="X77" s="71">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="Y77" s="74">
+      <c r="Y77" s="71">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="Z77" s="74">
+      <c r="Z77" s="71">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AA77" s="74">
+      <c r="AA77" s="71">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AB77" s="74">
+      <c r="AB77" s="71">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AC77" s="74">
+      <c r="AC77" s="71">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AD77" s="74">
+      <c r="AD77" s="71">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AE77" s="74">
+      <c r="AE77" s="71">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AF77" s="74">
+      <c r="AF77" s="71">
         <f t="shared" si="27"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AG77" s="74">
+      <c r="AG77" s="71">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AH77" s="74">
+      <c r="AH77" s="71">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AI77" s="74">
+      <c r="AI77" s="71">
         <f t="shared" si="27"/>
         <v>2.3E-2</v>
       </c>
-      <c r="AJ77" s="74">
+      <c r="AJ77" s="71">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AK77" s="74">
+      <c r="AK77" s="71">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AL77" s="74">
+      <c r="AL77" s="71">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AM77" s="74">
+      <c r="AM77" s="71">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AN77" s="74">
+      <c r="AN77" s="71">
         <f t="shared" si="27"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AO77" s="72">
+      <c r="AO77" s="69">
         <v>0</v>
       </c>
     </row>
@@ -9012,32 +9007,32 @@
         <v>66</v>
       </c>
       <c r="N78" s="20"/>
-      <c r="O78" s="73"/>
-      <c r="P78" s="73"/>
-      <c r="Q78" s="73"/>
-      <c r="R78" s="73"/>
-      <c r="S78" s="73"/>
-      <c r="T78" s="73"/>
-      <c r="U78" s="73"/>
-      <c r="V78" s="73"/>
-      <c r="W78" s="73"/>
-      <c r="X78" s="73"/>
-      <c r="Y78" s="73"/>
-      <c r="Z78" s="73"/>
-      <c r="AA78" s="73"/>
-      <c r="AB78" s="73"/>
-      <c r="AC78" s="73"/>
-      <c r="AD78" s="73"/>
-      <c r="AE78" s="73"/>
-      <c r="AF78" s="73"/>
-      <c r="AG78" s="73"/>
-      <c r="AH78" s="73"/>
-      <c r="AI78" s="73"/>
-      <c r="AJ78" s="73"/>
-      <c r="AK78" s="73"/>
-      <c r="AL78" s="73"/>
-      <c r="AM78" s="73"/>
-      <c r="AN78" s="73"/>
+      <c r="O78" s="70"/>
+      <c r="P78" s="70"/>
+      <c r="Q78" s="70"/>
+      <c r="R78" s="70"/>
+      <c r="S78" s="70"/>
+      <c r="T78" s="70"/>
+      <c r="U78" s="70"/>
+      <c r="V78" s="70"/>
+      <c r="W78" s="70"/>
+      <c r="X78" s="70"/>
+      <c r="Y78" s="70"/>
+      <c r="Z78" s="70"/>
+      <c r="AA78" s="70"/>
+      <c r="AB78" s="70"/>
+      <c r="AC78" s="70"/>
+      <c r="AD78" s="70"/>
+      <c r="AE78" s="70"/>
+      <c r="AF78" s="70"/>
+      <c r="AG78" s="70"/>
+      <c r="AH78" s="70"/>
+      <c r="AI78" s="70"/>
+      <c r="AJ78" s="70"/>
+      <c r="AK78" s="70"/>
+      <c r="AL78" s="70"/>
+      <c r="AM78" s="70"/>
+      <c r="AN78" s="70"/>
       <c r="AO78" s="15">
         <v>5</v>
       </c>
@@ -9066,115 +9061,115 @@
       <c r="M79" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="N79" s="65">
+      <c r="N79" s="62">
         <f>ROUNDUP(C221,3)</f>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="O79" s="74">
+      <c r="O79" s="71">
         <f t="shared" ref="O79:AN79" si="28">ROUNDUP(D221,3)</f>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="P79" s="74">
+      <c r="P79" s="71">
         <f t="shared" si="28"/>
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="Q79" s="74">
+      <c r="Q79" s="71">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="R79" s="74">
+      <c r="R79" s="71">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="S79" s="74">
+      <c r="S79" s="71">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="T79" s="74">
+      <c r="T79" s="71">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="U79" s="74">
+      <c r="U79" s="71">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="V79" s="74">
+      <c r="V79" s="71">
         <f t="shared" si="28"/>
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="W79" s="74">
+      <c r="W79" s="71">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="X79" s="74">
+      <c r="X79" s="71">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="Y79" s="74">
+      <c r="Y79" s="71">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="Z79" s="74">
+      <c r="Z79" s="71">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AA79" s="74">
+      <c r="AA79" s="71">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AB79" s="74">
+      <c r="AB79" s="71">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AC79" s="74">
+      <c r="AC79" s="71">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AD79" s="74">
+      <c r="AD79" s="71">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AE79" s="74">
+      <c r="AE79" s="71">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AF79" s="74">
+      <c r="AF79" s="71">
         <f t="shared" si="28"/>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="AG79" s="74">
+      <c r="AG79" s="71">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AH79" s="74">
+      <c r="AH79" s="71">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AI79" s="74">
+      <c r="AI79" s="71">
         <f t="shared" si="28"/>
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="AJ79" s="74">
+      <c r="AJ79" s="71">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AK79" s="74">
+      <c r="AK79" s="71">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AL79" s="74">
+      <c r="AL79" s="71">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AM79" s="74">
+      <c r="AM79" s="71">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AN79" s="74">
+      <c r="AN79" s="71">
         <f t="shared" si="28"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AO79" s="72">
+      <c r="AO79" s="69">
         <v>0</v>
       </c>
     </row>
@@ -9186,32 +9181,32 @@
         <v>66</v>
       </c>
       <c r="N80" s="20"/>
-      <c r="O80" s="73"/>
-      <c r="P80" s="73"/>
-      <c r="Q80" s="73"/>
-      <c r="R80" s="73"/>
-      <c r="S80" s="73"/>
-      <c r="T80" s="73"/>
-      <c r="U80" s="73"/>
-      <c r="V80" s="73"/>
-      <c r="W80" s="73"/>
-      <c r="X80" s="73"/>
-      <c r="Y80" s="73"/>
-      <c r="Z80" s="73"/>
-      <c r="AA80" s="73"/>
-      <c r="AB80" s="73"/>
-      <c r="AC80" s="73"/>
-      <c r="AD80" s="73"/>
-      <c r="AE80" s="73"/>
-      <c r="AF80" s="73"/>
-      <c r="AG80" s="73"/>
-      <c r="AH80" s="73"/>
-      <c r="AI80" s="73"/>
-      <c r="AJ80" s="73"/>
-      <c r="AK80" s="73"/>
-      <c r="AL80" s="73"/>
-      <c r="AM80" s="73"/>
-      <c r="AN80" s="73"/>
+      <c r="O80" s="70"/>
+      <c r="P80" s="70"/>
+      <c r="Q80" s="70"/>
+      <c r="R80" s="70"/>
+      <c r="S80" s="70"/>
+      <c r="T80" s="70"/>
+      <c r="U80" s="70"/>
+      <c r="V80" s="70"/>
+      <c r="W80" s="70"/>
+      <c r="X80" s="70"/>
+      <c r="Y80" s="70"/>
+      <c r="Z80" s="70"/>
+      <c r="AA80" s="70"/>
+      <c r="AB80" s="70"/>
+      <c r="AC80" s="70"/>
+      <c r="AD80" s="70"/>
+      <c r="AE80" s="70"/>
+      <c r="AF80" s="70"/>
+      <c r="AG80" s="70"/>
+      <c r="AH80" s="70"/>
+      <c r="AI80" s="70"/>
+      <c r="AJ80" s="70"/>
+      <c r="AK80" s="70"/>
+      <c r="AL80" s="70"/>
+      <c r="AM80" s="70"/>
+      <c r="AN80" s="70"/>
       <c r="AO80" s="15">
         <v>5</v>
       </c>
@@ -9240,115 +9235,115 @@
       <c r="M81" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="N81" s="65">
+      <c r="N81" s="62">
         <f>ROUNDUP(C222,3)</f>
         <v>0.87</v>
       </c>
-      <c r="O81" s="74">
+      <c r="O81" s="71">
         <f t="shared" ref="O81:AN81" si="29">ROUNDUP(D222,3)</f>
         <v>0.876</v>
       </c>
-      <c r="P81" s="74">
+      <c r="P81" s="71">
         <f t="shared" si="29"/>
         <v>0.86699999999999999</v>
       </c>
-      <c r="Q81" s="74">
+      <c r="Q81" s="71">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="R81" s="74">
+      <c r="R81" s="71">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="S81" s="74">
+      <c r="S81" s="71">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="T81" s="74">
+      <c r="T81" s="71">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="U81" s="74">
+      <c r="U81" s="71">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="V81" s="74">
+      <c r="V81" s="71">
         <f t="shared" si="29"/>
         <v>0.85699999999999998</v>
       </c>
-      <c r="W81" s="74">
+      <c r="W81" s="71">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="X81" s="74">
+      <c r="X81" s="71">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="Y81" s="74">
+      <c r="Y81" s="71">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="Z81" s="74">
+      <c r="Z81" s="71">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="AA81" s="74">
+      <c r="AA81" s="71">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="AB81" s="74">
+      <c r="AB81" s="71">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="AC81" s="74">
+      <c r="AC81" s="71">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="AD81" s="74">
+      <c r="AD81" s="71">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="AE81" s="74">
+      <c r="AE81" s="71">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="AF81" s="74">
+      <c r="AF81" s="71">
         <f t="shared" si="29"/>
         <v>0.84</v>
       </c>
-      <c r="AG81" s="74">
+      <c r="AG81" s="71">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="AH81" s="74">
+      <c r="AH81" s="71">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="AI81" s="74">
+      <c r="AI81" s="71">
         <f t="shared" si="29"/>
         <v>0.78700000000000003</v>
       </c>
-      <c r="AJ81" s="74">
+      <c r="AJ81" s="71">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="AK81" s="74">
+      <c r="AK81" s="71">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="AL81" s="74">
+      <c r="AL81" s="71">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="AM81" s="74">
+      <c r="AM81" s="71">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="AN81" s="74">
+      <c r="AN81" s="71">
         <f t="shared" si="29"/>
         <v>0.876</v>
       </c>
-      <c r="AO81" s="72">
+      <c r="AO81" s="69">
         <v>0</v>
       </c>
     </row>
@@ -9360,32 +9355,32 @@
         <v>66</v>
       </c>
       <c r="N82" s="20"/>
-      <c r="O82" s="73"/>
-      <c r="P82" s="73"/>
-      <c r="Q82" s="73"/>
-      <c r="R82" s="73"/>
-      <c r="S82" s="73"/>
-      <c r="T82" s="73"/>
-      <c r="U82" s="73"/>
-      <c r="V82" s="73"/>
-      <c r="W82" s="73"/>
-      <c r="X82" s="73"/>
-      <c r="Y82" s="73"/>
-      <c r="Z82" s="73"/>
-      <c r="AA82" s="73"/>
-      <c r="AB82" s="73"/>
-      <c r="AC82" s="73"/>
-      <c r="AD82" s="73"/>
-      <c r="AE82" s="73"/>
-      <c r="AF82" s="73"/>
-      <c r="AG82" s="73"/>
-      <c r="AH82" s="73"/>
-      <c r="AI82" s="73"/>
-      <c r="AJ82" s="73"/>
-      <c r="AK82" s="73"/>
-      <c r="AL82" s="73"/>
-      <c r="AM82" s="73"/>
-      <c r="AN82" s="73"/>
+      <c r="O82" s="70"/>
+      <c r="P82" s="70"/>
+      <c r="Q82" s="70"/>
+      <c r="R82" s="70"/>
+      <c r="S82" s="70"/>
+      <c r="T82" s="70"/>
+      <c r="U82" s="70"/>
+      <c r="V82" s="70"/>
+      <c r="W82" s="70"/>
+      <c r="X82" s="70"/>
+      <c r="Y82" s="70"/>
+      <c r="Z82" s="70"/>
+      <c r="AA82" s="70"/>
+      <c r="AB82" s="70"/>
+      <c r="AC82" s="70"/>
+      <c r="AD82" s="70"/>
+      <c r="AE82" s="70"/>
+      <c r="AF82" s="70"/>
+      <c r="AG82" s="70"/>
+      <c r="AH82" s="70"/>
+      <c r="AI82" s="70"/>
+      <c r="AJ82" s="70"/>
+      <c r="AK82" s="70"/>
+      <c r="AL82" s="70"/>
+      <c r="AM82" s="70"/>
+      <c r="AN82" s="70"/>
       <c r="AO82" s="15">
         <v>5</v>
       </c>
@@ -9414,115 +9409,115 @@
       <c r="M83" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="N83" s="75">
+      <c r="N83" s="72">
         <f>ROUNDUP(C223,3)</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="O83" s="75">
+      <c r="O83" s="72">
         <f t="shared" ref="O83:AN83" si="30">ROUNDUP(D223,3)</f>
         <v>0</v>
       </c>
-      <c r="P83" s="75">
+      <c r="P83" s="72">
         <f t="shared" si="30"/>
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="Q83" s="75">
+      <c r="Q83" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="R83" s="75">
+      <c r="R83" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="S83" s="75">
+      <c r="S83" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="T83" s="75">
+      <c r="T83" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U83" s="75">
+      <c r="U83" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="V83" s="75">
+      <c r="V83" s="72">
         <f t="shared" si="30"/>
         <v>2.2000000000000002E-2</v>
       </c>
-      <c r="W83" s="75">
+      <c r="W83" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="X83" s="75">
+      <c r="X83" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="Y83" s="75">
+      <c r="Y83" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="Z83" s="75">
+      <c r="Z83" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AA83" s="75">
+      <c r="AA83" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AB83" s="75">
+      <c r="AB83" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AC83" s="75">
+      <c r="AC83" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AD83" s="75">
+      <c r="AD83" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AE83" s="75">
+      <c r="AE83" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF83" s="75">
+      <c r="AF83" s="72">
         <f t="shared" si="30"/>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AG83" s="75">
+      <c r="AG83" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AH83" s="75">
+      <c r="AH83" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AI83" s="75">
+      <c r="AI83" s="72">
         <f t="shared" si="30"/>
         <v>0.10299999999999999</v>
       </c>
-      <c r="AJ83" s="75">
+      <c r="AJ83" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AK83" s="75">
+      <c r="AK83" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AL83" s="75">
+      <c r="AL83" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AM83" s="75">
+      <c r="AM83" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AN83" s="75">
+      <c r="AN83" s="72">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO83" s="72">
+      <c r="AO83" s="69">
         <v>0</v>
       </c>
     </row>
@@ -9578,143 +9573,143 @@
       <c r="M86" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="N86" s="63">
+      <c r="N86" s="60">
         <f t="shared" ref="N86:AN86" si="31">SUM(N77:N83)</f>
         <v>1.0029999999999999</v>
       </c>
-      <c r="O86" s="63">
+      <c r="O86" s="60">
         <f t="shared" si="31"/>
         <v>1.0009999999999999</v>
       </c>
-      <c r="P86" s="63">
+      <c r="P86" s="60">
         <f t="shared" si="31"/>
         <v>1.002</v>
       </c>
-      <c r="Q86" s="63">
+      <c r="Q86" s="60">
         <f t="shared" si="31"/>
         <v>1.0009999999999999</v>
       </c>
-      <c r="R86" s="63">
+      <c r="R86" s="60">
         <f t="shared" si="31"/>
         <v>1.0009999999999999</v>
       </c>
-      <c r="S86" s="63">
+      <c r="S86" s="60">
         <f t="shared" si="31"/>
         <v>1.0009999999999999</v>
       </c>
-      <c r="T86" s="63">
+      <c r="T86" s="60">
         <f t="shared" si="31"/>
         <v>1.0009999999999999</v>
       </c>
-      <c r="U86" s="63">
+      <c r="U86" s="60">
         <f t="shared" si="31"/>
         <v>1.0009999999999999</v>
       </c>
-      <c r="V86" s="63">
+      <c r="V86" s="60">
         <f t="shared" si="31"/>
         <v>1.0009999999999999</v>
       </c>
-      <c r="W86" s="63">
+      <c r="W86" s="60">
         <f t="shared" si="31"/>
         <v>1.0009999999999999</v>
       </c>
-      <c r="X86" s="63">
+      <c r="X86" s="60">
         <f t="shared" si="31"/>
         <v>1.0009999999999999</v>
       </c>
-      <c r="Y86" s="63">
+      <c r="Y86" s="60">
         <f t="shared" si="31"/>
         <v>1.0009999999999999</v>
       </c>
-      <c r="Z86" s="63">
+      <c r="Z86" s="60">
         <f t="shared" si="31"/>
         <v>1.0009999999999999</v>
       </c>
-      <c r="AA86" s="63">
+      <c r="AA86" s="60">
         <f t="shared" si="31"/>
         <v>1.0009999999999999</v>
       </c>
-      <c r="AB86" s="63">
+      <c r="AB86" s="60">
         <f t="shared" si="31"/>
         <v>1.0009999999999999</v>
       </c>
-      <c r="AC86" s="63">
+      <c r="AC86" s="60">
         <f t="shared" si="31"/>
         <v>1.0009999999999999</v>
       </c>
-      <c r="AD86" s="63">
+      <c r="AD86" s="60">
         <f t="shared" si="31"/>
         <v>1.0009999999999999</v>
       </c>
-      <c r="AE86" s="63">
+      <c r="AE86" s="60">
         <f t="shared" si="31"/>
         <v>1.0009999999999999</v>
       </c>
-      <c r="AF86" s="63">
+      <c r="AF86" s="60">
         <f t="shared" si="31"/>
         <v>1.002</v>
       </c>
-      <c r="AG86" s="63">
+      <c r="AG86" s="60">
         <f t="shared" si="31"/>
         <v>1.0009999999999999</v>
       </c>
-      <c r="AH86" s="63">
+      <c r="AH86" s="60">
         <f t="shared" si="31"/>
         <v>1.0009999999999999</v>
       </c>
-      <c r="AI86" s="63">
+      <c r="AI86" s="60">
         <f t="shared" si="31"/>
         <v>1.002</v>
       </c>
-      <c r="AJ86" s="63">
+      <c r="AJ86" s="60">
         <f t="shared" si="31"/>
         <v>1.0009999999999999</v>
       </c>
-      <c r="AK86" s="63">
+      <c r="AK86" s="60">
         <f t="shared" si="31"/>
         <v>1.0009999999999999</v>
       </c>
-      <c r="AL86" s="63">
+      <c r="AL86" s="60">
         <f t="shared" si="31"/>
         <v>1.0009999999999999</v>
       </c>
-      <c r="AM86" s="63">
+      <c r="AM86" s="60">
         <f t="shared" si="31"/>
         <v>1.0009999999999999</v>
       </c>
-      <c r="AN86" s="63">
+      <c r="AN86" s="60">
         <f t="shared" si="31"/>
         <v>1.0009999999999999</v>
       </c>
     </row>
     <row r="87" spans="3:41" s="15" customFormat="1">
-      <c r="N87" s="63"/>
-      <c r="O87" s="63"/>
-      <c r="P87" s="63"/>
-      <c r="Q87" s="63"/>
-      <c r="R87" s="63"/>
-      <c r="S87" s="63"/>
-      <c r="T87" s="63"/>
-      <c r="U87" s="63"/>
-      <c r="V87" s="63"/>
-      <c r="W87" s="63"/>
-      <c r="X87" s="63"/>
-      <c r="Y87" s="63"/>
-      <c r="Z87" s="63"/>
-      <c r="AA87" s="63"/>
-      <c r="AB87" s="63"/>
-      <c r="AC87" s="63"/>
-      <c r="AD87" s="63"/>
-      <c r="AE87" s="63"/>
-      <c r="AF87" s="63"/>
-      <c r="AG87" s="63"/>
-      <c r="AH87" s="63"/>
-      <c r="AI87" s="63"/>
-      <c r="AJ87" s="63"/>
-      <c r="AK87" s="63"/>
-      <c r="AL87" s="63"/>
-      <c r="AM87" s="63"/>
-      <c r="AN87" s="63"/>
+      <c r="N87" s="60"/>
+      <c r="O87" s="60"/>
+      <c r="P87" s="60"/>
+      <c r="Q87" s="60"/>
+      <c r="R87" s="60"/>
+      <c r="S87" s="60"/>
+      <c r="T87" s="60"/>
+      <c r="U87" s="60"/>
+      <c r="V87" s="60"/>
+      <c r="W87" s="60"/>
+      <c r="X87" s="60"/>
+      <c r="Y87" s="60"/>
+      <c r="Z87" s="60"/>
+      <c r="AA87" s="60"/>
+      <c r="AB87" s="60"/>
+      <c r="AC87" s="60"/>
+      <c r="AD87" s="60"/>
+      <c r="AE87" s="60"/>
+      <c r="AF87" s="60"/>
+      <c r="AG87" s="60"/>
+      <c r="AH87" s="60"/>
+      <c r="AI87" s="60"/>
+      <c r="AJ87" s="60"/>
+      <c r="AK87" s="60"/>
+      <c r="AL87" s="60"/>
+      <c r="AM87" s="60"/>
+      <c r="AN87" s="60"/>
     </row>
     <row r="91" spans="3:41" ht="21">
       <c r="C91" s="45" t="s">
@@ -13307,7 +13302,7 @@
       </c>
     </row>
     <row r="201" spans="1:29">
-      <c r="A201" s="66" t="s">
+      <c r="A201" s="63" t="s">
         <v>231</v>
       </c>
       <c r="B201" s="51" t="s">
@@ -13316,176 +13311,176 @@
       <c r="C201" s="51">
         <v>292</v>
       </c>
-      <c r="D201" s="67">
+      <c r="D201" s="64">
         <v>4.5036639360040285</v>
       </c>
-      <c r="E201" s="67">
+      <c r="E201" s="64">
         <v>66.545424955208503</v>
       </c>
-      <c r="F201" s="67">
+      <c r="F201" s="64">
         <v>12.206547657003652</v>
       </c>
-      <c r="G201" s="67">
+      <c r="G201" s="64">
         <v>7.8498485859894576</v>
       </c>
-      <c r="H201" s="67">
+      <c r="H201" s="64">
         <v>5.5910693087846983</v>
       </c>
-      <c r="I201" s="67">
+      <c r="I201" s="64">
         <v>2.6981330608871263</v>
       </c>
-      <c r="J201" s="67">
+      <c r="J201" s="64">
         <v>7.0705636223405346</v>
       </c>
-      <c r="K201" s="67">
+      <c r="K201" s="64">
         <v>10.700094745319726</v>
       </c>
-      <c r="L201" s="67">
+      <c r="L201" s="64">
         <v>5.146408425117345</v>
       </c>
-      <c r="M201" s="67">
+      <c r="M201" s="64">
         <v>5.8599386346720381</v>
       </c>
-      <c r="N201" s="67">
+      <c r="N201" s="64">
         <v>11.843911540546534</v>
       </c>
-      <c r="O201" s="67">
+      <c r="O201" s="64">
         <v>7.8134215566854737</v>
       </c>
-      <c r="P201" s="67">
+      <c r="P201" s="64">
         <v>7.688817017013525</v>
       </c>
-      <c r="Q201" s="67">
+      <c r="Q201" s="64">
         <v>41.139368114561577</v>
       </c>
-      <c r="R201" s="67">
+      <c r="R201" s="64">
         <v>11.193462584085903</v>
       </c>
-      <c r="S201" s="67">
+      <c r="S201" s="64">
         <v>12.61219141872728</v>
       </c>
-      <c r="T201" s="67">
+      <c r="T201" s="64">
         <v>10.324901499916336</v>
       </c>
-      <c r="U201" s="67">
+      <c r="U201" s="64">
         <v>9.1902209904658907</v>
       </c>
-      <c r="V201" s="67">
+      <c r="V201" s="64">
         <v>15.314016005661671</v>
       </c>
-      <c r="W201" s="67">
+      <c r="W201" s="64">
         <v>2.0423414488510581</v>
       </c>
-      <c r="X201" s="67">
+      <c r="X201" s="64">
         <v>7.7447174156619347</v>
       </c>
-      <c r="Y201" s="67">
+      <c r="Y201" s="64">
         <v>3.830254629073413</v>
       </c>
-      <c r="Z201" s="67">
+      <c r="Z201" s="64">
         <v>4.1769082152806787</v>
       </c>
-      <c r="AA201" s="67">
+      <c r="AA201" s="64">
         <v>4.8551180316963602</v>
       </c>
-      <c r="AB201" s="67">
+      <c r="AB201" s="64">
         <v>10.146187115388139</v>
       </c>
-      <c r="AC201" s="67">
+      <c r="AC201" s="64">
         <v>3.9124694850571404</v>
       </c>
     </row>
     <row r="202" spans="1:29">
-      <c r="A202" s="66" t="s">
+      <c r="A202" s="63" t="s">
         <v>233</v>
       </c>
       <c r="B202" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="C202" s="68">
+      <c r="C202" s="65">
         <v>1140</v>
       </c>
-      <c r="D202" s="67">
+      <c r="D202" s="64">
         <v>17.58279755837189</v>
       </c>
-      <c r="E202" s="67">
+      <c r="E202" s="64">
         <v>259.80063167444416</v>
       </c>
-      <c r="F202" s="67">
+      <c r="F202" s="64">
         <v>47.65569975679508</v>
       </c>
-      <c r="G202" s="67">
+      <c r="G202" s="64">
         <v>30.646669137082128</v>
       </c>
-      <c r="H202" s="67">
+      <c r="H202" s="64">
         <v>21.828147301419712</v>
       </c>
-      <c r="I202" s="67">
+      <c r="I202" s="64">
         <v>10.533807155518234</v>
       </c>
-      <c r="J202" s="67">
+      <c r="J202" s="64">
         <v>27.604255237904827</v>
       </c>
-      <c r="K202" s="67">
+      <c r="K202" s="64">
         <v>41.774342498850984</v>
       </c>
-      <c r="L202" s="67">
+      <c r="L202" s="64">
         <v>20.09214248162251</v>
       </c>
-      <c r="M202" s="67">
+      <c r="M202" s="64">
         <v>22.877842614815492</v>
       </c>
-      <c r="N202" s="67">
+      <c r="N202" s="64">
         <v>46.239928617202224</v>
       </c>
-      <c r="O202" s="67">
+      <c r="O202" s="64">
         <v>30.504454022676164</v>
       </c>
-      <c r="P202" s="67">
+      <c r="P202" s="64">
         <v>30.017984244504856</v>
       </c>
-      <c r="Q202" s="67">
+      <c r="Q202" s="64">
         <v>160.61260154315136</v>
       </c>
-      <c r="R202" s="67">
+      <c r="R202" s="64">
         <v>43.700504609102502</v>
       </c>
-      <c r="S202" s="67">
+      <c r="S202" s="64">
         <v>49.239377456675001</v>
       </c>
-      <c r="T202" s="67">
+      <c r="T202" s="64">
         <v>40.309546951728159</v>
       </c>
-      <c r="U202" s="67">
+      <c r="U202" s="64">
         <v>35.879629894284641</v>
       </c>
-      <c r="V202" s="67">
+      <c r="V202" s="64">
         <v>59.787596734432547</v>
       </c>
-      <c r="W202" s="67">
+      <c r="W202" s="64">
         <v>7.9735248345555005</v>
       </c>
-      <c r="X202" s="67">
+      <c r="X202" s="64">
         <v>30.236225526899336</v>
       </c>
-      <c r="Y202" s="67">
+      <c r="Y202" s="64">
         <v>14.953733825834558</v>
       </c>
-      <c r="Z202" s="67">
+      <c r="Z202" s="64">
         <v>16.307107415821825</v>
       </c>
-      <c r="AA202" s="67">
+      <c r="AA202" s="64">
         <v>18.954912863472092</v>
       </c>
-      <c r="AB202" s="67">
+      <c r="AB202" s="64">
         <v>39.611826409392052</v>
       </c>
-      <c r="AC202" s="67">
+      <c r="AC202" s="64">
         <v>15.27470963344226</v>
       </c>
     </row>
     <row r="203" spans="1:29">
-      <c r="A203" s="66" t="s">
+      <c r="A203" s="63" t="s">
         <v>235</v>
       </c>
       <c r="B203" s="51" t="s">
@@ -13494,169 +13489,169 @@
       <c r="C203" s="51">
         <v>10106</v>
       </c>
-      <c r="D203" s="67">
+      <c r="D203" s="64">
         <v>155.86995800430381</v>
       </c>
-      <c r="E203" s="67">
+      <c r="E203" s="64">
         <v>2303.1098102648534</v>
       </c>
-      <c r="F203" s="67">
+      <c r="F203" s="64">
         <v>422.46359801944828</v>
       </c>
-      <c r="G203" s="67">
+      <c r="G203" s="64">
         <v>271.68003359592279</v>
       </c>
-      <c r="H203" s="67">
+      <c r="H203" s="64">
         <v>193.50461107732247</v>
       </c>
-      <c r="I203" s="67">
+      <c r="I203" s="64">
         <v>93.381276415497609</v>
       </c>
-      <c r="J203" s="67">
+      <c r="J203" s="64">
         <v>244.70930125812822</v>
       </c>
-      <c r="K203" s="67">
+      <c r="K203" s="64">
         <v>370.32588183630531</v>
       </c>
-      <c r="L203" s="67">
+      <c r="L203" s="64">
         <v>178.11508063094482</v>
       </c>
-      <c r="M203" s="67">
+      <c r="M203" s="64">
         <v>202.81006795203979</v>
       </c>
-      <c r="N203" s="67">
+      <c r="N203" s="64">
         <v>409.91291105740851</v>
       </c>
-      <c r="O203" s="67">
+      <c r="O203" s="64">
         <v>270.41930908172395</v>
       </c>
-      <c r="P203" s="67">
+      <c r="P203" s="64">
         <v>266.10679717102289</v>
       </c>
-      <c r="Q203" s="67">
+      <c r="Q203" s="64">
         <v>1423.8166238553399</v>
       </c>
-      <c r="R203" s="67">
+      <c r="R203" s="64">
         <v>387.40113998209637</v>
       </c>
-      <c r="S203" s="67">
+      <c r="S203" s="64">
         <v>436.5027619097873</v>
       </c>
-      <c r="T203" s="67">
+      <c r="T203" s="64">
         <v>357.34059780189892</v>
       </c>
-      <c r="U203" s="67">
+      <c r="U203" s="64">
         <v>318.06977167687774</v>
       </c>
-      <c r="V203" s="67">
+      <c r="V203" s="64">
         <v>530.01180052471523</v>
       </c>
-      <c r="W203" s="67">
+      <c r="W203" s="64">
         <v>70.684598226331474</v>
       </c>
-      <c r="X203" s="67">
+      <c r="X203" s="64">
         <v>268.04148699547778</v>
       </c>
-      <c r="Y203" s="67">
+      <c r="Y203" s="64">
         <v>132.563538634986</v>
       </c>
-      <c r="Z203" s="67">
+      <c r="Z203" s="64">
         <v>144.56107679324157</v>
       </c>
-      <c r="AA203" s="67">
+      <c r="AA203" s="64">
         <v>168.03363982302542</v>
       </c>
-      <c r="AB203" s="67">
+      <c r="AB203" s="64">
         <v>351.15536639764571</v>
       </c>
-      <c r="AC203" s="67">
+      <c r="AC203" s="64">
         <v>135.4089610136557</v>
       </c>
     </row>
     <row r="204" spans="1:29">
-      <c r="A204" s="66" t="s">
+      <c r="A204" s="63" t="s">
         <v>215</v>
       </c>
       <c r="B204" s="51"/>
-      <c r="C204" s="60">
-        <v>8.8551000000000005E-2</v>
-      </c>
-      <c r="D204" s="61">
-        <v>0</v>
-      </c>
-      <c r="E204" s="60">
-        <v>2.8462821428571431E-2</v>
-      </c>
-      <c r="F204" s="62">
-        <v>0</v>
-      </c>
-      <c r="G204" s="62">
-        <v>0</v>
-      </c>
-      <c r="H204" s="62">
-        <v>0</v>
-      </c>
-      <c r="I204" s="62">
-        <v>0</v>
-      </c>
-      <c r="J204" s="62">
-        <v>0</v>
-      </c>
-      <c r="K204" s="60">
-        <v>9.4876071428571431E-3</v>
-      </c>
-      <c r="L204" s="62">
-        <v>0</v>
-      </c>
-      <c r="M204" s="62">
-        <v>0</v>
-      </c>
-      <c r="N204" s="62">
-        <v>0</v>
-      </c>
-      <c r="O204" s="62">
-        <v>0</v>
-      </c>
-      <c r="P204" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q204" s="62">
-        <v>0</v>
-      </c>
-      <c r="R204" s="62">
-        <v>0</v>
-      </c>
-      <c r="S204" s="62">
-        <v>0</v>
-      </c>
-      <c r="T204" s="62">
-        <v>0</v>
-      </c>
-      <c r="U204" s="60">
-        <v>1.5812678571428571E-2</v>
-      </c>
-      <c r="V204" s="62">
-        <v>0</v>
-      </c>
-      <c r="W204" s="62">
-        <v>0</v>
-      </c>
-      <c r="X204" s="60">
-        <v>3.4787892857142858E-2</v>
-      </c>
-      <c r="Y204" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z204" s="62">
-        <v>0</v>
-      </c>
-      <c r="AA204" s="62">
-        <v>0</v>
-      </c>
-      <c r="AB204" s="62">
-        <v>0</v>
-      </c>
-      <c r="AC204" s="62">
+      <c r="C204" s="84">
+        <v>88.551000000000002</v>
+      </c>
+      <c r="D204" s="84">
+        <v>0</v>
+      </c>
+      <c r="E204" s="84">
+        <v>28.462821428571431</v>
+      </c>
+      <c r="F204" s="84">
+        <v>0</v>
+      </c>
+      <c r="G204" s="84">
+        <v>0</v>
+      </c>
+      <c r="H204" s="84">
+        <v>0</v>
+      </c>
+      <c r="I204" s="84">
+        <v>0</v>
+      </c>
+      <c r="J204" s="84">
+        <v>0</v>
+      </c>
+      <c r="K204" s="84">
+        <v>9.4876071428571436</v>
+      </c>
+      <c r="L204" s="84">
+        <v>0</v>
+      </c>
+      <c r="M204" s="84">
+        <v>0</v>
+      </c>
+      <c r="N204" s="84">
+        <v>0</v>
+      </c>
+      <c r="O204" s="84">
+        <v>0</v>
+      </c>
+      <c r="P204" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q204" s="84">
+        <v>0</v>
+      </c>
+      <c r="R204" s="84">
+        <v>0</v>
+      </c>
+      <c r="S204" s="84">
+        <v>0</v>
+      </c>
+      <c r="T204" s="84">
+        <v>0</v>
+      </c>
+      <c r="U204" s="84">
+        <v>15.812678571428572</v>
+      </c>
+      <c r="V204" s="84">
+        <v>0</v>
+      </c>
+      <c r="W204" s="84">
+        <v>0</v>
+      </c>
+      <c r="X204" s="84">
+        <v>34.787892857142857</v>
+      </c>
+      <c r="Y204" s="84">
+        <v>0</v>
+      </c>
+      <c r="Z204" s="84">
+        <v>0</v>
+      </c>
+      <c r="AA204" s="84">
+        <v>0</v>
+      </c>
+      <c r="AB204" s="84">
+        <v>0</v>
+      </c>
+      <c r="AC204" s="84">
         <v>0</v>
       </c>
     </row>
@@ -13665,111 +13660,111 @@
       <c r="B205" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="C205" s="69">
+      <c r="C205" s="66">
         <f>SUM(C201:C204)</f>
-        <v>11538.088551000001</v>
-      </c>
-      <c r="D205" s="69">
+        <v>11626.550999999999</v>
+      </c>
+      <c r="D205" s="66">
         <f t="shared" ref="D205:AC205" si="32">SUM(D201:D204)</f>
         <v>177.95641949867974</v>
       </c>
-      <c r="E205" s="69">
+      <c r="E205" s="66">
         <f t="shared" si="32"/>
-        <v>2629.4843297159346</v>
-      </c>
-      <c r="F205" s="69">
+        <v>2657.9186883230773</v>
+      </c>
+      <c r="F205" s="66">
         <f t="shared" si="32"/>
         <v>482.32584543324703</v>
       </c>
-      <c r="G205" s="69">
+      <c r="G205" s="66">
         <f t="shared" si="32"/>
         <v>310.17655131899437</v>
       </c>
-      <c r="H205" s="69">
+      <c r="H205" s="66">
         <f t="shared" si="32"/>
         <v>220.92382768752688</v>
       </c>
-      <c r="I205" s="69">
+      <c r="I205" s="66">
         <f t="shared" si="32"/>
         <v>106.61321663190297</v>
       </c>
-      <c r="J205" s="69">
+      <c r="J205" s="66">
         <f t="shared" si="32"/>
         <v>279.38412011837357</v>
       </c>
-      <c r="K205" s="69">
+      <c r="K205" s="66">
         <f t="shared" si="32"/>
-        <v>422.80980668761885</v>
-      </c>
-      <c r="L205" s="69">
+        <v>432.28792622333316</v>
+      </c>
+      <c r="L205" s="66">
         <f t="shared" si="32"/>
         <v>203.35363153768466</v>
       </c>
-      <c r="M205" s="69">
+      <c r="M205" s="66">
         <f t="shared" si="32"/>
         <v>231.54784920152733</v>
       </c>
-      <c r="N205" s="69">
+      <c r="N205" s="66">
         <f t="shared" si="32"/>
         <v>467.99675121515725</v>
       </c>
-      <c r="O205" s="69">
+      <c r="O205" s="66">
         <f t="shared" si="32"/>
         <v>308.73718466108562</v>
       </c>
-      <c r="P205" s="69">
+      <c r="P205" s="66">
         <f t="shared" si="32"/>
         <v>303.81359843254126</v>
       </c>
-      <c r="Q205" s="69">
+      <c r="Q205" s="66">
         <f t="shared" si="32"/>
         <v>1625.5685935130527</v>
       </c>
-      <c r="R205" s="69">
+      <c r="R205" s="66">
         <f t="shared" si="32"/>
         <v>442.29510717528478</v>
       </c>
-      <c r="S205" s="69">
+      <c r="S205" s="66">
         <f t="shared" si="32"/>
         <v>498.35433078518957</v>
       </c>
-      <c r="T205" s="69">
+      <c r="T205" s="66">
         <f t="shared" si="32"/>
         <v>407.97504625354344</v>
       </c>
-      <c r="U205" s="69">
+      <c r="U205" s="66">
         <f t="shared" si="32"/>
-        <v>363.15543524019967</v>
-      </c>
-      <c r="V205" s="69">
+        <v>378.95230113305684</v>
+      </c>
+      <c r="V205" s="66">
         <f t="shared" si="32"/>
         <v>605.11341326480942</v>
       </c>
-      <c r="W205" s="69">
+      <c r="W205" s="66">
         <f t="shared" si="32"/>
         <v>80.700464509738026</v>
       </c>
-      <c r="X205" s="69">
+      <c r="X205" s="66">
         <f t="shared" si="32"/>
-        <v>306.05721783089621</v>
-      </c>
-      <c r="Y205" s="69">
+        <v>340.81032279518195</v>
+      </c>
+      <c r="Y205" s="66">
         <f t="shared" si="32"/>
         <v>151.34752708989396</v>
       </c>
-      <c r="Z205" s="69">
+      <c r="Z205" s="66">
         <f t="shared" si="32"/>
         <v>165.04509242434406</v>
       </c>
-      <c r="AA205" s="69">
+      <c r="AA205" s="66">
         <f t="shared" si="32"/>
         <v>191.84367071819389</v>
       </c>
-      <c r="AB205" s="69">
+      <c r="AB205" s="66">
         <f t="shared" si="32"/>
         <v>400.91337992242592</v>
       </c>
-      <c r="AC205" s="69">
+      <c r="AC205" s="66">
         <f t="shared" si="32"/>
         <v>154.59614013215509</v>
       </c>
@@ -13808,535 +13803,670 @@
       <c r="AC218" s="15"/>
     </row>
     <row r="219" spans="1:29" ht="17.399999999999999">
-      <c r="A219" s="81" t="s">
+      <c r="A219" s="74" t="s">
         <v>229</v>
       </c>
-      <c r="B219" s="81" t="s">
+      <c r="B219" s="74" t="s">
         <v>248</v>
       </c>
-      <c r="C219" s="82" t="s">
+      <c r="C219" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="D219" s="82" t="s">
+      <c r="D219" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="E219" s="82" t="s">
+      <c r="E219" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="F219" s="82" t="s">
+      <c r="F219" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="G219" s="82" t="s">
+      <c r="G219" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="H219" s="82" t="s">
+      <c r="H219" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="I219" s="82" t="s">
+      <c r="I219" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="J219" s="82" t="s">
+      <c r="J219" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="K219" s="82" t="s">
+      <c r="K219" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="L219" s="82" t="s">
+      <c r="L219" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="M219" s="82" t="s">
+      <c r="M219" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="N219" s="82" t="s">
+      <c r="N219" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="O219" s="82" t="s">
+      <c r="O219" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="P219" s="82" t="s">
+      <c r="P219" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="Q219" s="82" t="s">
+      <c r="Q219" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="R219" s="82" t="s">
+      <c r="R219" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="S219" s="82" t="s">
+      <c r="S219" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="T219" s="82" t="s">
+      <c r="T219" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="U219" s="82" t="s">
+      <c r="U219" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="V219" s="82" t="s">
+      <c r="V219" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="W219" s="82" t="s">
+      <c r="W219" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="X219" s="82" t="s">
+      <c r="X219" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="Y219" s="82" t="s">
+      <c r="Y219" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="Z219" s="82" t="s">
+      <c r="Z219" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="AA219" s="82" t="s">
+      <c r="AA219" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="AB219" s="82" t="s">
+      <c r="AB219" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="AC219" s="82" t="s">
+      <c r="AC219" s="75" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="220" spans="1:29">
-      <c r="A220" s="86" t="s">
+      <c r="A220" s="79" t="s">
         <v>231</v>
       </c>
-      <c r="B220" s="80" t="s">
+      <c r="B220" s="73" t="s">
         <v>232</v>
       </c>
-      <c r="C220" s="83">
-        <v>2.5114928752301518E-2</v>
-      </c>
-      <c r="D220" s="83">
+      <c r="C220" s="76">
+        <f>C201/C205</f>
+        <v>2.5114928752301521E-2</v>
+      </c>
+      <c r="D220" s="76">
+        <f t="shared" ref="D220:AC220" si="33">D201/D205</f>
         <v>2.5307678973825617E-2</v>
       </c>
-      <c r="E220" s="83">
-        <v>2.5036666940775772E-2</v>
-      </c>
-      <c r="F220" s="83">
+      <c r="E220" s="76">
+        <f t="shared" si="33"/>
+        <v>2.5036666940775776E-2</v>
+      </c>
+      <c r="F220" s="76">
+        <f t="shared" si="33"/>
         <v>2.5307678973825621E-2</v>
       </c>
-      <c r="G220" s="83">
+      <c r="G220" s="76">
+        <f t="shared" si="33"/>
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="H220" s="76">
+        <f t="shared" si="33"/>
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="I220" s="76">
+        <f t="shared" si="33"/>
+        <v>2.5307678973825617E-2</v>
+      </c>
+      <c r="J220" s="76">
+        <f t="shared" si="33"/>
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="K220" s="76">
+        <f t="shared" si="33"/>
+        <v>2.475224056984587E-2</v>
+      </c>
+      <c r="L220" s="76">
+        <f t="shared" si="33"/>
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="M220" s="76">
+        <f t="shared" si="33"/>
+        <v>2.5307678973825617E-2</v>
+      </c>
+      <c r="N220" s="76">
+        <f t="shared" si="33"/>
+        <v>2.5307678973825617E-2</v>
+      </c>
+      <c r="O220" s="76">
+        <f t="shared" si="33"/>
+        <v>2.5307678973825617E-2</v>
+      </c>
+      <c r="P220" s="76">
+        <f t="shared" si="33"/>
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="Q220" s="76">
+        <f t="shared" si="33"/>
         <v>2.5307678973825624E-2</v>
       </c>
-      <c r="H220" s="83">
+      <c r="R220" s="76">
+        <f t="shared" si="33"/>
         <v>2.5307678973825617E-2</v>
       </c>
-      <c r="I220" s="83">
+      <c r="S220" s="76">
+        <f t="shared" si="33"/>
+        <v>2.5307678973825617E-2</v>
+      </c>
+      <c r="T220" s="76">
+        <f t="shared" si="33"/>
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="U220" s="76">
+        <f t="shared" si="33"/>
+        <v>2.4251656377299691E-2</v>
+      </c>
+      <c r="V220" s="76">
+        <f t="shared" si="33"/>
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="W220" s="76">
+        <f t="shared" si="33"/>
+        <v>2.5307678973825624E-2</v>
+      </c>
+      <c r="X220" s="76">
+        <f t="shared" si="33"/>
+        <v>2.2724421467469183E-2</v>
+      </c>
+      <c r="Y220" s="76">
+        <f t="shared" si="33"/>
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="Z220" s="76">
+        <f t="shared" si="33"/>
+        <v>2.5307678973825621E-2</v>
+      </c>
+      <c r="AA220" s="76">
+        <f t="shared" si="33"/>
         <v>2.5307678973825614E-2</v>
       </c>
-      <c r="J220" s="83">
+      <c r="AB220" s="76">
+        <f t="shared" si="33"/>
         <v>2.5307678973825617E-2</v>
       </c>
-      <c r="K220" s="83">
-        <v>2.475224056984587E-2</v>
-      </c>
-      <c r="L220" s="83">
+      <c r="AC220" s="76">
+        <f t="shared" si="33"/>
         <v>2.5307678973825621E-2</v>
       </c>
-      <c r="M220" s="83">
-        <v>2.5307678973825621E-2</v>
-      </c>
-      <c r="N220" s="83">
-        <v>2.5307678973825614E-2</v>
-      </c>
-      <c r="O220" s="83">
-        <v>2.5307678973825621E-2</v>
-      </c>
-      <c r="P220" s="83">
-        <v>2.5307678973825621E-2</v>
-      </c>
-      <c r="Q220" s="83">
-        <v>2.5307678973825624E-2</v>
-      </c>
-      <c r="R220" s="83">
-        <v>2.5307678973825621E-2</v>
-      </c>
-      <c r="S220" s="83">
-        <v>2.5307678973825621E-2</v>
-      </c>
-      <c r="T220" s="83">
-        <v>2.5307678973825624E-2</v>
-      </c>
-      <c r="U220" s="83">
-        <v>2.4251656377299691E-2</v>
-      </c>
-      <c r="V220" s="83">
-        <v>2.5307678973825621E-2</v>
-      </c>
-      <c r="W220" s="83">
-        <v>2.5307678973825621E-2</v>
-      </c>
-      <c r="X220" s="83">
-        <v>2.2724421467469186E-2</v>
-      </c>
-      <c r="Y220" s="83">
-        <v>2.5307678973825621E-2</v>
-      </c>
-      <c r="Z220" s="83">
-        <v>2.5307678973825621E-2</v>
-      </c>
-      <c r="AA220" s="83">
-        <v>2.5307678973825614E-2</v>
-      </c>
-      <c r="AB220" s="83">
-        <v>2.5307678973825614E-2</v>
-      </c>
-      <c r="AC220" s="83">
-        <v>2.5307678973825614E-2</v>
-      </c>
     </row>
     <row r="221" spans="1:29">
-      <c r="A221" s="86" t="s">
+      <c r="A221" s="79" t="s">
         <v>233</v>
       </c>
-      <c r="B221" s="80" t="s">
+      <c r="B221" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="C221" s="83">
-        <v>9.8051434169944274E-2</v>
-      </c>
-      <c r="D221" s="83">
+      <c r="C221" s="76">
+        <f>C202/C205</f>
+        <v>9.8051434169944301E-2</v>
+      </c>
+      <c r="D221" s="76">
+        <f t="shared" ref="D221:AC221" si="34">D202/D205</f>
         <v>9.8803952158086308E-2</v>
       </c>
-      <c r="E221" s="83">
-        <v>9.7745891481110903E-2</v>
-      </c>
-      <c r="F221" s="83">
+      <c r="E221" s="76">
+        <f t="shared" si="34"/>
+        <v>9.7745891481110916E-2</v>
+      </c>
+      <c r="F221" s="76">
+        <f t="shared" si="34"/>
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="G221" s="76">
+        <f t="shared" si="34"/>
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="H221" s="76">
+        <f t="shared" si="34"/>
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="I221" s="76">
+        <f t="shared" si="34"/>
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="J221" s="76">
+        <f t="shared" si="34"/>
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="K221" s="76">
+        <f t="shared" si="34"/>
+        <v>9.663545975898731E-2</v>
+      </c>
+      <c r="L221" s="76">
+        <f t="shared" si="34"/>
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="M221" s="76">
+        <f t="shared" si="34"/>
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="N221" s="76">
+        <f t="shared" si="34"/>
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="O221" s="76">
+        <f t="shared" si="34"/>
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="P221" s="76">
+        <f t="shared" si="34"/>
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="Q221" s="76">
+        <f t="shared" si="34"/>
         <v>9.8803952158086336E-2</v>
       </c>
-      <c r="G221" s="83">
+      <c r="R221" s="76">
+        <f t="shared" si="34"/>
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="S221" s="76">
+        <f t="shared" si="34"/>
         <v>9.8803952158086336E-2</v>
       </c>
-      <c r="H221" s="83">
+      <c r="T221" s="76">
+        <f t="shared" si="34"/>
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="U221" s="76">
+        <f t="shared" si="34"/>
+        <v>9.4681124212745368E-2</v>
+      </c>
+      <c r="V221" s="76">
+        <f t="shared" si="34"/>
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="W221" s="76">
+        <f t="shared" si="34"/>
+        <v>9.8803952158086336E-2</v>
+      </c>
+      <c r="X221" s="76">
+        <f t="shared" si="34"/>
+        <v>8.8718631756557781E-2</v>
+      </c>
+      <c r="Y221" s="76">
+        <f t="shared" si="34"/>
+        <v>9.8803952158086336E-2</v>
+      </c>
+      <c r="Z221" s="76">
+        <f t="shared" si="34"/>
+        <v>9.8803952158086322E-2</v>
+      </c>
+      <c r="AA221" s="76">
+        <f t="shared" si="34"/>
         <v>9.8803952158086308E-2</v>
       </c>
-      <c r="I221" s="83">
+      <c r="AB221" s="76">
+        <f t="shared" si="34"/>
+        <v>9.8803952158086308E-2</v>
+      </c>
+      <c r="AC221" s="76">
+        <f t="shared" si="34"/>
         <v>9.8803952158086322E-2</v>
       </c>
-      <c r="J221" s="83">
-        <v>9.8803952158086308E-2</v>
-      </c>
-      <c r="K221" s="83">
-        <v>9.663545975898731E-2</v>
-      </c>
-      <c r="L221" s="83">
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="M221" s="83">
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="N221" s="83">
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="O221" s="83">
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="P221" s="83">
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="Q221" s="83">
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="R221" s="83">
-        <v>9.8803952158086336E-2</v>
-      </c>
-      <c r="S221" s="83">
-        <v>9.8803952158086336E-2</v>
-      </c>
-      <c r="T221" s="83">
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="U221" s="83">
-        <v>9.4681124212745368E-2</v>
-      </c>
-      <c r="V221" s="83">
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="W221" s="83">
-        <v>9.8803952158086336E-2</v>
-      </c>
-      <c r="X221" s="83">
-        <v>8.8718631756557781E-2</v>
-      </c>
-      <c r="Y221" s="83">
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="Z221" s="83">
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="AA221" s="83">
-        <v>9.8803952158086308E-2</v>
-      </c>
-      <c r="AB221" s="83">
-        <v>9.8803952158086308E-2</v>
-      </c>
-      <c r="AC221" s="83">
-        <v>9.8803952158086308E-2</v>
-      </c>
     </row>
     <row r="222" spans="1:29">
-      <c r="A222" s="86" t="s">
+      <c r="A222" s="79" t="s">
         <v>235</v>
       </c>
-      <c r="B222" s="80" t="s">
+      <c r="B222" s="73" t="s">
         <v>236</v>
       </c>
-      <c r="C222" s="83">
-        <v>0.86921736291355867</v>
-      </c>
-      <c r="D222" s="83">
+      <c r="C222" s="76">
+        <f>C203/C205</f>
+        <v>0.86921736291355889</v>
+      </c>
+      <c r="D222" s="76">
+        <f t="shared" ref="D222:AC222" si="35">D203/D205</f>
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="E222" s="76">
+        <f t="shared" si="35"/>
+        <v>0.86650875377904113</v>
+      </c>
+      <c r="F222" s="76">
+        <f t="shared" si="35"/>
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="G222" s="76">
+        <f t="shared" si="35"/>
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="H222" s="76">
+        <f t="shared" si="35"/>
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="I222" s="76">
+        <f t="shared" si="35"/>
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="J222" s="76">
+        <f>J203/J205</f>
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="K222" s="76">
+        <f t="shared" si="35"/>
+        <v>0.85666487396870683</v>
+      </c>
+      <c r="L222" s="76">
+        <f t="shared" si="35"/>
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="M222" s="76">
+        <f t="shared" si="35"/>
         <v>0.87588836886808796</v>
       </c>
-      <c r="E222" s="83">
-        <v>0.86650875377904113</v>
-      </c>
-      <c r="F222" s="83">
+      <c r="N222" s="76">
+        <f t="shared" si="35"/>
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="O222" s="76">
+        <f t="shared" si="35"/>
         <v>0.87588836886808796</v>
       </c>
-      <c r="G222" s="83">
+      <c r="P222" s="76">
+        <f t="shared" si="35"/>
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="Q222" s="76">
+        <f t="shared" si="35"/>
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="R222" s="76">
+        <f t="shared" si="35"/>
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="S222" s="76">
+        <f t="shared" si="35"/>
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="T222" s="76">
+        <f t="shared" si="35"/>
+        <v>0.87588836886808796</v>
+      </c>
+      <c r="U222" s="76">
+        <f t="shared" si="35"/>
+        <v>0.83933986078421474</v>
+      </c>
+      <c r="V222" s="76">
+        <f t="shared" si="35"/>
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="W222" s="76">
+        <f t="shared" si="35"/>
+        <v>0.87588836886808807</v>
+      </c>
+      <c r="X222" s="76">
+        <f t="shared" si="35"/>
+        <v>0.78648288818576562</v>
+      </c>
+      <c r="Y222" s="76">
+        <f t="shared" si="35"/>
         <v>0.87588836886808819</v>
       </c>
-      <c r="H222" s="83">
+      <c r="Z222" s="76">
+        <f t="shared" si="35"/>
         <v>0.87588836886808807</v>
       </c>
-      <c r="I222" s="83">
+      <c r="AA222" s="76">
+        <f t="shared" si="35"/>
+        <v>0.87588836886808796</v>
+      </c>
+      <c r="AB222" s="76">
+        <f t="shared" si="35"/>
         <v>0.87588836886808807</v>
       </c>
-      <c r="J222" s="83">
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="K222" s="83">
-        <v>0.85666487396870672</v>
-      </c>
-      <c r="L222" s="83">
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="M222" s="83">
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="N222" s="83">
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="O222" s="83">
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="P222" s="83">
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="Q222" s="83">
-        <v>0.87588836886808796</v>
-      </c>
-      <c r="R222" s="83">
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="S222" s="83">
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="T222" s="83">
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="U222" s="83">
-        <v>0.83933986078421463</v>
-      </c>
-      <c r="V222" s="83">
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="W222" s="83">
-        <v>0.87588836886808796</v>
-      </c>
-      <c r="X222" s="83">
-        <v>0.78648288818576584</v>
-      </c>
-      <c r="Y222" s="83">
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="Z222" s="83">
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="AA222" s="83">
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="AB222" s="83">
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="AC222" s="83">
-        <v>0.87588836886808807</v>
+      <c r="AC222" s="76">
+        <f t="shared" si="35"/>
+        <v>0.87588836886808819</v>
       </c>
     </row>
     <row r="223" spans="1:29">
-      <c r="A223" s="86" t="s">
+      <c r="A223" s="79" t="s">
         <v>164</v>
       </c>
-      <c r="B223" s="80" t="s">
+      <c r="B223" s="73" t="s">
         <v>249</v>
       </c>
-      <c r="C223" s="87">
-        <v>7.6162741641953831E-3</v>
-      </c>
-      <c r="D223" s="87">
-        <v>0</v>
-      </c>
-      <c r="E223" s="87">
-        <v>1.0708687799072239E-2</v>
-      </c>
-      <c r="F223" s="87">
-        <v>0</v>
-      </c>
-      <c r="G223" s="87">
-        <v>0</v>
-      </c>
-      <c r="H223" s="87">
-        <v>0</v>
-      </c>
-      <c r="I223" s="87">
-        <v>0</v>
-      </c>
-      <c r="J223" s="87">
-        <v>0</v>
-      </c>
-      <c r="K223" s="87">
-        <v>2.1947425702460065E-2</v>
-      </c>
-      <c r="L223" s="87">
-        <v>0</v>
-      </c>
-      <c r="M223" s="87">
-        <v>0</v>
-      </c>
-      <c r="N223" s="87">
-        <v>0</v>
-      </c>
-      <c r="O223" s="87">
-        <v>0</v>
-      </c>
-      <c r="P223" s="87">
-        <v>0</v>
-      </c>
-      <c r="Q223" s="87">
-        <v>0</v>
-      </c>
-      <c r="R223" s="87">
-        <v>0</v>
-      </c>
-      <c r="S223" s="87">
-        <v>0</v>
-      </c>
-      <c r="T223" s="87">
-        <v>0</v>
-      </c>
-      <c r="U223" s="87">
+      <c r="C223" s="76">
+        <f>C204/C205</f>
+        <v>7.616274164195384E-3</v>
+      </c>
+      <c r="D223" s="76">
+        <f t="shared" ref="D223:AC223" si="36">D204/D205</f>
+        <v>0</v>
+      </c>
+      <c r="E223" s="76">
+        <f t="shared" si="36"/>
+        <v>1.070868779907224E-2</v>
+      </c>
+      <c r="F223" s="76">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G223" s="76">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H223" s="76">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="I223" s="76">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J223" s="76">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="K223" s="76">
+        <f t="shared" si="36"/>
+        <v>2.1947425702460069E-2</v>
+      </c>
+      <c r="L223" s="76">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="M223" s="76">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="N223" s="76">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O223" s="76">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="P223" s="76">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="Q223" s="76">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="R223" s="76">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="S223" s="76">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="T223" s="76">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U223" s="76">
+        <f t="shared" si="36"/>
         <v>4.1727358625740237E-2</v>
       </c>
-      <c r="V223" s="87">
-        <v>0</v>
-      </c>
-      <c r="W223" s="87">
-        <v>0</v>
-      </c>
-      <c r="X223" s="87">
+      <c r="V223" s="76">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="W223" s="76">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="X223" s="76">
+        <f t="shared" si="36"/>
         <v>0.10207405859020728</v>
       </c>
-      <c r="Y223" s="87">
-        <v>0</v>
-      </c>
-      <c r="Z223" s="87">
-        <v>0</v>
-      </c>
-      <c r="AA223" s="87">
-        <v>0</v>
-      </c>
-      <c r="AB223" s="87">
-        <v>0</v>
-      </c>
-      <c r="AC223" s="87">
+      <c r="Y223" s="76">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="Z223" s="76">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AA223" s="76">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AB223" s="76">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AC223" s="76">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:29">
-      <c r="A224" s="84"/>
-      <c r="B224" s="84" t="s">
+      <c r="A224" s="77"/>
+      <c r="B224" s="77" t="s">
         <v>216</v>
       </c>
-      <c r="C224" s="85">
+      <c r="C224" s="78">
+        <f>SUM(C220:C223)</f>
+        <v>1</v>
+      </c>
+      <c r="D224" s="78">
+        <f t="shared" ref="D224:AC224" si="37">SUM(D220:D223)</f>
+        <v>1</v>
+      </c>
+      <c r="E224" s="78">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="F224" s="78">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="G224" s="78">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="H224" s="78">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="I224" s="78">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="J224" s="78">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="K224" s="78">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="L224" s="78">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="M224" s="78">
+        <f t="shared" si="37"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="D224" s="85">
+      <c r="N224" s="78">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="O224" s="78">
+        <f t="shared" si="37"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="E224" s="85">
+      <c r="P224" s="78">
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
-      <c r="F224" s="85">
+      <c r="Q224" s="78">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="R224" s="78">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="S224" s="78">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="T224" s="78">
+        <f t="shared" si="37"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="G224" s="85">
+      <c r="U224" s="78">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="V224" s="78">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="W224" s="78">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="X224" s="78">
+        <f t="shared" si="37"/>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="Y224" s="78">
+        <f t="shared" si="37"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="H224" s="85">
+      <c r="Z224" s="78">
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
-      <c r="I224" s="85">
+      <c r="AA224" s="78">
+        <f t="shared" si="37"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AB224" s="78">
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
-      <c r="J224" s="85">
-        <v>1</v>
-      </c>
-      <c r="K224" s="85">
-        <v>1</v>
-      </c>
-      <c r="L224" s="85">
-        <v>1</v>
-      </c>
-      <c r="M224" s="85">
-        <v>1</v>
-      </c>
-      <c r="N224" s="85">
-        <v>1</v>
-      </c>
-      <c r="O224" s="85">
-        <v>1</v>
-      </c>
-      <c r="P224" s="85">
-        <v>1</v>
-      </c>
-      <c r="Q224" s="85">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="R224" s="85">
-        <v>1</v>
-      </c>
-      <c r="S224" s="85">
-        <v>1</v>
-      </c>
-      <c r="T224" s="85">
-        <v>1</v>
-      </c>
-      <c r="U224" s="85">
-        <v>1</v>
-      </c>
-      <c r="V224" s="85">
-        <v>1</v>
-      </c>
-      <c r="W224" s="85">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="X224" s="85">
-        <v>1</v>
-      </c>
-      <c r="Y224" s="85">
-        <v>1</v>
-      </c>
-      <c r="Z224" s="85">
-        <v>1</v>
-      </c>
-      <c r="AA224" s="85">
-        <v>1</v>
-      </c>
-      <c r="AB224" s="85">
-        <v>1</v>
-      </c>
-      <c r="AC224" s="85">
-        <v>1</v>
+      <c r="AC224" s="78">
+        <f t="shared" si="37"/>
+        <v>1.0000000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_TRA_ActiveModes.xlsx
+++ b/SuppXLS/Scen_TRA_ActiveModes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BBD907-F96A-4A86-8320-0D63C29B2911}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39916E61-861A-40F1-BC30-1101F1E79DBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
@@ -168,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="255">
   <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
@@ -971,12 +970,27 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>T-LGT*</t>
+  </si>
+  <si>
+    <t>T-MGT*</t>
+  </si>
+  <si>
+    <t>T-HGT*</t>
+  </si>
+  <si>
+    <t>T-GTR*</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -984,10 +998,11 @@
     <numFmt numFmtId="167" formatCode="0.0000"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="0.00000"/>
+    <numFmt numFmtId="172" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1175,8 +1190,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1265,6 +1284,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -1367,12 +1392,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1488,10 +1524,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1511,6 +1543,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1523,12 +1574,22 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="14">
+    <cellStyle name="20% - Accent5 2" xfId="9" xr:uid="{7F8DC7F5-A9E6-4E53-9FB8-C5D57F662307}"/>
+    <cellStyle name="20% - Accent5 3" xfId="13" xr:uid="{46F4640E-8EFB-4FE6-B1A2-2F7FC8E1C753}"/>
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma 2" xfId="7" xr:uid="{B1A7F620-FF14-4805-BE99-2D64774095B6}"/>
+    <cellStyle name="Comma 3" xfId="11" xr:uid="{9D074141-1684-4792-B086-9E09B5D316D2}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{49204F31-F1EE-4765-9298-6FB0EFF2E7E9}"/>
+    <cellStyle name="Normal 3" xfId="6" xr:uid="{C8F48383-0626-4874-BE7C-C97F6FF57A5C}"/>
+    <cellStyle name="Normal 4" xfId="10" xr:uid="{0E134511-7F62-4B08-8BD8-017715E8B306}"/>
+    <cellStyle name="Normal 5" xfId="3" xr:uid="{BC8BD16D-ADD6-4095-95CF-BF085F31A81A}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent 2" xfId="8" xr:uid="{808DFB97-A7D5-4B57-9955-B62C7ADB3DFD}"/>
+    <cellStyle name="Percent 3" xfId="12" xr:uid="{0016E1CC-5919-4761-8727-BBC40F3A532C}"/>
+    <cellStyle name="Percent 4" xfId="4" xr:uid="{63B50ACE-25B1-429E-880D-1E80A6A82CC1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1665,115 +1726,6 @@
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Regions"/>
-      <sheetName val="INS"/>
-      <sheetName val="UPD"/>
-      <sheetName val="UCT1"/>
-      <sheetName val="UCT2"/>
-      <sheetName val="UCT3"/>
-      <sheetName val="UCT4"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3" t="str">
-            <v>IE</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>IE-CW</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>IE-D</v>
-          </cell>
-          <cell r="G3" t="str">
-            <v>IE-KE</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v>IE-KK</v>
-          </cell>
-          <cell r="I3" t="str">
-            <v>IE-LS</v>
-          </cell>
-          <cell r="J3" t="str">
-            <v>IE-LD</v>
-          </cell>
-          <cell r="K3" t="str">
-            <v>IE-LH</v>
-          </cell>
-          <cell r="L3" t="str">
-            <v>IE-MH</v>
-          </cell>
-          <cell r="M3" t="str">
-            <v>IE-OY</v>
-          </cell>
-          <cell r="N3" t="str">
-            <v>IE-WH</v>
-          </cell>
-          <cell r="O3" t="str">
-            <v>IE-WX</v>
-          </cell>
-          <cell r="P3" t="str">
-            <v>IE-WW</v>
-          </cell>
-          <cell r="Q3" t="str">
-            <v>IE-CE</v>
-          </cell>
-          <cell r="R3" t="str">
-            <v>IE-CO</v>
-          </cell>
-          <cell r="S3" t="str">
-            <v>IE-KY</v>
-          </cell>
-          <cell r="T3" t="str">
-            <v>IE-LK</v>
-          </cell>
-          <cell r="U3" t="str">
-            <v>IE-TA</v>
-          </cell>
-          <cell r="V3" t="str">
-            <v>IE-WD</v>
-          </cell>
-          <cell r="W3" t="str">
-            <v>IE-G</v>
-          </cell>
-          <cell r="X3" t="str">
-            <v>IE-LM</v>
-          </cell>
-          <cell r="Y3" t="str">
-            <v>IE-MO</v>
-          </cell>
-          <cell r="Z3" t="str">
-            <v>IE-RN</v>
-          </cell>
-          <cell r="AA3" t="str">
-            <v>IE-SO</v>
-          </cell>
-          <cell r="AB3" t="str">
-            <v>IE-CN</v>
-          </cell>
-          <cell r="AC3" t="str">
-            <v>IE-DL</v>
-          </cell>
-          <cell r="AD3" t="str">
-            <v>IE-MN</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3283,8 +3235,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:AQ224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C220" sqref="C220"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N81" sqref="N81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3302,46 +3254,46 @@
       </c>
     </row>
     <row r="3" spans="2:43" s="35" customFormat="1" ht="25.95" customHeight="1">
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="83" t="s">
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="96" t="s">
         <v>119</v>
       </c>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
     </row>
     <row r="4" spans="2:43" s="35" customFormat="1" ht="24" customHeight="1">
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81" t="s">
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
     </row>
     <row r="5" spans="2:43">
       <c r="C5" s="15"/>
@@ -3546,11 +3498,11 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="80" t="s">
+      <c r="K10" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
@@ -8710,977 +8662,1049 @@
         <v>237</v>
       </c>
       <c r="D72" s="68"/>
+      <c r="E72" s="68"/>
     </row>
     <row r="73" spans="3:42" s="15" customFormat="1"/>
     <row r="74" spans="3:42" s="15" customFormat="1"/>
     <row r="75" spans="3:42" s="15" customFormat="1">
-      <c r="K75" s="15" t="s">
+      <c r="C75" s="84"/>
+      <c r="D75" s="84"/>
+      <c r="E75" s="84"/>
+      <c r="F75" s="84"/>
+      <c r="G75" s="84"/>
+      <c r="H75" s="84"/>
+      <c r="I75" s="84"/>
+      <c r="J75" s="84"/>
+      <c r="K75" s="84" t="s">
         <v>65</v>
       </c>
+      <c r="L75" s="84"/>
+      <c r="M75" s="84"/>
+      <c r="N75" s="84"/>
+      <c r="O75" s="84"/>
+      <c r="P75" s="84"/>
+      <c r="Q75" s="84"/>
+      <c r="R75" s="84"/>
+      <c r="S75" s="84"/>
+      <c r="T75" s="84"/>
+      <c r="U75" s="84"/>
+      <c r="V75" s="84"/>
+      <c r="W75" s="84"/>
+      <c r="X75" s="84"/>
+      <c r="Y75" s="84"/>
+      <c r="Z75" s="84"/>
+      <c r="AA75" s="84"/>
+      <c r="AB75" s="84"/>
+      <c r="AC75" s="84"/>
+      <c r="AD75" s="84"/>
+      <c r="AE75" s="84"/>
+      <c r="AF75" s="84"/>
+      <c r="AG75" s="84"/>
+      <c r="AH75" s="84"/>
+      <c r="AI75" s="84"/>
+      <c r="AJ75" s="84"/>
+      <c r="AK75" s="84"/>
+      <c r="AL75" s="84"/>
+      <c r="AM75" s="84"/>
+      <c r="AN75" s="84"/>
+      <c r="AO75" s="84"/>
     </row>
     <row r="76" spans="3:42" s="15" customFormat="1">
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D76" s="18" t="s">
+      <c r="D76" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="E76" s="18" t="s">
+      <c r="E76" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="F76" s="18" t="s">
+      <c r="F76" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="G76" s="18" t="s">
+      <c r="G76" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="H76" s="19" t="s">
+      <c r="H76" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="I76" s="19" t="s">
+      <c r="I76" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="J76" s="19" t="s">
+      <c r="J76" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="19" t="s">
+      <c r="K76" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="L76" s="19" t="s">
+      <c r="L76" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="M76" s="17" t="s">
+      <c r="M76" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="N76" s="17" t="str">
-        <f>[2]Regions!C$3</f>
-        <v>IE</v>
-      </c>
-      <c r="O76" s="17" t="str">
-        <f>[2]Regions!E$3</f>
-        <v>IE-CW</v>
-      </c>
-      <c r="P76" s="17" t="str">
-        <f>[2]Regions!F$3</f>
-        <v>IE-D</v>
-      </c>
-      <c r="Q76" s="17" t="str">
-        <f>[2]Regions!G$3</f>
-        <v>IE-KE</v>
-      </c>
-      <c r="R76" s="17" t="str">
-        <f>[2]Regions!H$3</f>
-        <v>IE-KK</v>
-      </c>
-      <c r="S76" s="17" t="str">
-        <f>[2]Regions!I$3</f>
-        <v>IE-LS</v>
-      </c>
-      <c r="T76" s="17" t="str">
-        <f>[2]Regions!J$3</f>
-        <v>IE-LD</v>
-      </c>
-      <c r="U76" s="17" t="str">
-        <f>[2]Regions!K$3</f>
-        <v>IE-LH</v>
-      </c>
-      <c r="V76" s="17" t="str">
-        <f>[2]Regions!L$3</f>
-        <v>IE-MH</v>
-      </c>
-      <c r="W76" s="17" t="str">
-        <f>[2]Regions!M$3</f>
-        <v>IE-OY</v>
-      </c>
-      <c r="X76" s="17" t="str">
-        <f>[2]Regions!N$3</f>
-        <v>IE-WH</v>
-      </c>
-      <c r="Y76" s="17" t="str">
-        <f>[2]Regions!O$3</f>
-        <v>IE-WX</v>
-      </c>
-      <c r="Z76" s="17" t="str">
-        <f>[2]Regions!P$3</f>
-        <v>IE-WW</v>
-      </c>
-      <c r="AA76" s="17" t="str">
-        <f>[2]Regions!Q$3</f>
-        <v>IE-CE</v>
-      </c>
-      <c r="AB76" s="17" t="str">
-        <f>[2]Regions!R$3</f>
-        <v>IE-CO</v>
-      </c>
-      <c r="AC76" s="17" t="str">
-        <f>[2]Regions!S$3</f>
-        <v>IE-KY</v>
-      </c>
-      <c r="AD76" s="17" t="str">
-        <f>[2]Regions!T$3</f>
-        <v>IE-LK</v>
-      </c>
-      <c r="AE76" s="17" t="str">
-        <f>[2]Regions!U$3</f>
-        <v>IE-TA</v>
-      </c>
-      <c r="AF76" s="17" t="str">
-        <f>[2]Regions!V$3</f>
-        <v>IE-WD</v>
-      </c>
-      <c r="AG76" s="17" t="str">
-        <f>[2]Regions!W$3</f>
-        <v>IE-G</v>
-      </c>
-      <c r="AH76" s="17" t="str">
-        <f>[2]Regions!X$3</f>
-        <v>IE-LM</v>
-      </c>
-      <c r="AI76" s="17" t="str">
-        <f>[2]Regions!Y$3</f>
-        <v>IE-MO</v>
-      </c>
-      <c r="AJ76" s="17" t="str">
-        <f>[2]Regions!Z$3</f>
-        <v>IE-RN</v>
-      </c>
-      <c r="AK76" s="17" t="str">
-        <f>[2]Regions!AA$3</f>
-        <v>IE-SO</v>
-      </c>
-      <c r="AL76" s="17" t="str">
-        <f>[2]Regions!AB$3</f>
-        <v>IE-CN</v>
-      </c>
-      <c r="AM76" s="17" t="str">
-        <f>[2]Regions!AC$3</f>
-        <v>IE-DL</v>
-      </c>
-      <c r="AN76" s="17" t="str">
-        <f>[2]Regions!AD$3</f>
-        <v>IE-MN</v>
-      </c>
-      <c r="AO76" s="17" t="s">
+      <c r="N76" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="O76" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="P76" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q76" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="R76" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="S76" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="T76" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="U76" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="V76" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="W76" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="X76" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y76" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z76" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA76" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB76" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC76" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD76" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE76" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF76" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG76" s="82" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH76" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI76" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ76" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK76" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL76" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM76" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN76" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO76" s="81" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="77" spans="3:42" s="15" customFormat="1">
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="84" t="s">
         <v>238</v>
       </c>
-      <c r="E77" s="15" t="str">
-        <f>LEFT(C121,5)&amp;"*"</f>
-        <v>T-LGT*</v>
-      </c>
-      <c r="H77" s="15" t="s">
+      <c r="D77" s="84"/>
+      <c r="E77" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="F77" s="84"/>
+      <c r="G77" s="84"/>
+      <c r="H77" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="J77" s="15">
+      <c r="I77" s="84"/>
+      <c r="J77" s="78">
         <v>2018</v>
       </c>
-      <c r="K77" s="15" t="s">
+      <c r="K77" s="78" t="s">
+        <v>250</v>
+      </c>
+      <c r="L77" s="84">
+        <v>-1</v>
+      </c>
+      <c r="M77" s="84" t="s">
+        <v>239</v>
+      </c>
+      <c r="N77" s="88">
+        <f>ROUNDUP(C220,5)</f>
+        <v>2.512E-2</v>
+      </c>
+      <c r="O77" s="88">
+        <f t="shared" ref="O77:AN77" si="27">ROUNDUP(D220,5)</f>
+        <v>2.5309999999999999E-2</v>
+      </c>
+      <c r="P77" s="88">
+        <f t="shared" si="27"/>
+        <v>2.504E-2</v>
+      </c>
+      <c r="Q77" s="88">
+        <f t="shared" si="27"/>
+        <v>2.5309999999999999E-2</v>
+      </c>
+      <c r="R77" s="88">
+        <f t="shared" si="27"/>
+        <v>2.5309999999999999E-2</v>
+      </c>
+      <c r="S77" s="88">
+        <f t="shared" si="27"/>
+        <v>2.5309999999999999E-2</v>
+      </c>
+      <c r="T77" s="88">
+        <f t="shared" si="27"/>
+        <v>2.5309999999999999E-2</v>
+      </c>
+      <c r="U77" s="88">
+        <f t="shared" si="27"/>
+        <v>2.5309999999999999E-2</v>
+      </c>
+      <c r="V77" s="88">
+        <f t="shared" si="27"/>
+        <v>2.4760000000000001E-2</v>
+      </c>
+      <c r="W77" s="88">
+        <f t="shared" si="27"/>
+        <v>2.5309999999999999E-2</v>
+      </c>
+      <c r="X77" s="88">
+        <f t="shared" si="27"/>
+        <v>2.5309999999999999E-2</v>
+      </c>
+      <c r="Y77" s="88">
+        <f t="shared" si="27"/>
+        <v>2.5309999999999999E-2</v>
+      </c>
+      <c r="Z77" s="88">
+        <f t="shared" si="27"/>
+        <v>2.5309999999999999E-2</v>
+      </c>
+      <c r="AA77" s="88">
+        <f t="shared" si="27"/>
+        <v>2.5309999999999999E-2</v>
+      </c>
+      <c r="AB77" s="88">
+        <f t="shared" si="27"/>
+        <v>2.5309999999999999E-2</v>
+      </c>
+      <c r="AC77" s="88">
+        <f t="shared" si="27"/>
+        <v>2.5309999999999999E-2</v>
+      </c>
+      <c r="AD77" s="88">
+        <f t="shared" si="27"/>
+        <v>2.5309999999999999E-2</v>
+      </c>
+      <c r="AE77" s="88">
+        <f t="shared" si="27"/>
+        <v>2.5309999999999999E-2</v>
+      </c>
+      <c r="AF77" s="88">
+        <f t="shared" si="27"/>
+        <v>2.426E-2</v>
+      </c>
+      <c r="AG77" s="88">
+        <f t="shared" si="27"/>
+        <v>2.5309999999999999E-2</v>
+      </c>
+      <c r="AH77" s="88">
+        <f t="shared" si="27"/>
+        <v>2.5309999999999999E-2</v>
+      </c>
+      <c r="AI77" s="88">
+        <f t="shared" si="27"/>
+        <v>2.273E-2</v>
+      </c>
+      <c r="AJ77" s="88">
+        <f t="shared" si="27"/>
+        <v>2.5309999999999999E-2</v>
+      </c>
+      <c r="AK77" s="88">
+        <f t="shared" si="27"/>
+        <v>2.5309999999999999E-2</v>
+      </c>
+      <c r="AL77" s="88">
+        <f t="shared" si="27"/>
+        <v>2.5309999999999999E-2</v>
+      </c>
+      <c r="AM77" s="88">
+        <f t="shared" si="27"/>
+        <v>2.5309999999999999E-2</v>
+      </c>
+      <c r="AN77" s="88">
+        <f t="shared" si="27"/>
+        <v>2.5309999999999999E-2</v>
+      </c>
+      <c r="AO77" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="3:42" s="15" customFormat="1">
+      <c r="C78" s="84"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="84"/>
+      <c r="F78" s="84"/>
+      <c r="G78" s="84"/>
+      <c r="H78" s="84"/>
+      <c r="I78" s="84"/>
+      <c r="J78" s="78">
+        <v>0</v>
+      </c>
+      <c r="K78" s="78" t="s">
+        <v>250</v>
+      </c>
+      <c r="L78" s="84"/>
+      <c r="M78" s="84"/>
+      <c r="N78" s="88"/>
+      <c r="O78" s="88"/>
+      <c r="P78" s="88"/>
+      <c r="Q78" s="88"/>
+      <c r="R78" s="88"/>
+      <c r="S78" s="88"/>
+      <c r="T78" s="88"/>
+      <c r="U78" s="88"/>
+      <c r="V78" s="88"/>
+      <c r="W78" s="88"/>
+      <c r="X78" s="88"/>
+      <c r="Y78" s="88"/>
+      <c r="Z78" s="88"/>
+      <c r="AA78" s="88"/>
+      <c r="AB78" s="88"/>
+      <c r="AC78" s="88"/>
+      <c r="AD78" s="88"/>
+      <c r="AE78" s="88"/>
+      <c r="AF78" s="88"/>
+      <c r="AG78" s="88"/>
+      <c r="AH78" s="88"/>
+      <c r="AI78" s="88"/>
+      <c r="AJ78" s="88"/>
+      <c r="AK78" s="88"/>
+      <c r="AL78" s="88"/>
+      <c r="AM78" s="88"/>
+      <c r="AN78" s="88"/>
+      <c r="AO78" s="91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="3:42" s="15" customFormat="1">
+      <c r="C79" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="D79" s="84"/>
+      <c r="E79" s="84" t="s">
+        <v>252</v>
+      </c>
+      <c r="F79" s="84"/>
+      <c r="G79" s="84"/>
+      <c r="H79" s="84" t="s">
+        <v>246</v>
+      </c>
+      <c r="I79" s="84"/>
+      <c r="J79" s="78">
+        <v>2018</v>
+      </c>
+      <c r="K79" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="L77" s="15">
+      <c r="L79" s="84">
         <v>-1</v>
       </c>
-      <c r="M77" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="N77" s="62">
-        <f>ROUNDUP(C220,3)</f>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="O77" s="71">
-        <f t="shared" ref="O77:AN77" si="27">ROUNDUP(D220,3)</f>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="P77" s="71">
-        <f t="shared" si="27"/>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="Q77" s="71">
-        <f t="shared" si="27"/>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="R77" s="71">
-        <f t="shared" si="27"/>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="S77" s="71">
-        <f t="shared" si="27"/>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="T77" s="71">
-        <f t="shared" si="27"/>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="U77" s="71">
-        <f t="shared" si="27"/>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="V77" s="71">
-        <f t="shared" si="27"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="W77" s="71">
-        <f t="shared" si="27"/>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="X77" s="71">
-        <f t="shared" si="27"/>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="Y77" s="71">
-        <f t="shared" si="27"/>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="Z77" s="71">
-        <f t="shared" si="27"/>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="AA77" s="71">
-        <f t="shared" si="27"/>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="AB77" s="71">
-        <f t="shared" si="27"/>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="AC77" s="71">
-        <f t="shared" si="27"/>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="AD77" s="71">
-        <f t="shared" si="27"/>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="AE77" s="71">
-        <f t="shared" si="27"/>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="AF77" s="71">
-        <f t="shared" si="27"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AG77" s="71">
-        <f t="shared" si="27"/>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="AH77" s="71">
-        <f t="shared" si="27"/>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="AI77" s="71">
-        <f t="shared" si="27"/>
-        <v>2.3E-2</v>
-      </c>
-      <c r="AJ77" s="71">
-        <f t="shared" si="27"/>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="AK77" s="71">
-        <f t="shared" si="27"/>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="AL77" s="71">
-        <f t="shared" si="27"/>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="AM77" s="71">
-        <f t="shared" si="27"/>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="AN77" s="71">
-        <f t="shared" si="27"/>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="AO77" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="3:42" s="15" customFormat="1">
-      <c r="J78" s="15">
-        <v>0</v>
-      </c>
-      <c r="K78" s="15" t="s">
+      <c r="M79" s="84" t="s">
+        <v>241</v>
+      </c>
+      <c r="N79" s="88">
+        <f>ROUNDUP(C221,5)</f>
+        <v>9.8059999999999994E-2</v>
+      </c>
+      <c r="O79" s="88">
+        <f t="shared" ref="O79:AN79" si="28">ROUNDUP(D221,5)</f>
+        <v>9.8809999999999995E-2</v>
+      </c>
+      <c r="P79" s="88">
+        <f t="shared" si="28"/>
+        <v>9.774999999999999E-2</v>
+      </c>
+      <c r="Q79" s="88">
+        <f t="shared" si="28"/>
+        <v>9.8809999999999995E-2</v>
+      </c>
+      <c r="R79" s="88">
+        <f t="shared" si="28"/>
+        <v>9.8809999999999995E-2</v>
+      </c>
+      <c r="S79" s="88">
+        <f t="shared" si="28"/>
+        <v>9.8809999999999995E-2</v>
+      </c>
+      <c r="T79" s="88">
+        <f t="shared" si="28"/>
+        <v>9.8809999999999995E-2</v>
+      </c>
+      <c r="U79" s="88">
+        <f t="shared" si="28"/>
+        <v>9.8809999999999995E-2</v>
+      </c>
+      <c r="V79" s="88">
+        <f t="shared" si="28"/>
+        <v>9.663999999999999E-2</v>
+      </c>
+      <c r="W79" s="88">
+        <f t="shared" si="28"/>
+        <v>9.8809999999999995E-2</v>
+      </c>
+      <c r="X79" s="88">
+        <f t="shared" si="28"/>
+        <v>9.8809999999999995E-2</v>
+      </c>
+      <c r="Y79" s="88">
+        <f t="shared" si="28"/>
+        <v>9.8809999999999995E-2</v>
+      </c>
+      <c r="Z79" s="88">
+        <f t="shared" si="28"/>
+        <v>9.8809999999999995E-2</v>
+      </c>
+      <c r="AA79" s="88">
+        <f t="shared" si="28"/>
+        <v>9.8809999999999995E-2</v>
+      </c>
+      <c r="AB79" s="88">
+        <f t="shared" si="28"/>
+        <v>9.8809999999999995E-2</v>
+      </c>
+      <c r="AC79" s="88">
+        <f t="shared" si="28"/>
+        <v>9.8809999999999995E-2</v>
+      </c>
+      <c r="AD79" s="88">
+        <f t="shared" si="28"/>
+        <v>9.8809999999999995E-2</v>
+      </c>
+      <c r="AE79" s="88">
+        <f t="shared" si="28"/>
+        <v>9.8809999999999995E-2</v>
+      </c>
+      <c r="AF79" s="88">
+        <f t="shared" si="28"/>
+        <v>9.4689999999999996E-2</v>
+      </c>
+      <c r="AG79" s="88">
+        <f t="shared" si="28"/>
+        <v>9.8809999999999995E-2</v>
+      </c>
+      <c r="AH79" s="88">
+        <f t="shared" si="28"/>
+        <v>9.8809999999999995E-2</v>
+      </c>
+      <c r="AI79" s="88">
+        <f t="shared" si="28"/>
+        <v>8.8719999999999993E-2</v>
+      </c>
+      <c r="AJ79" s="88">
+        <f t="shared" si="28"/>
+        <v>9.8809999999999995E-2</v>
+      </c>
+      <c r="AK79" s="88">
+        <f t="shared" si="28"/>
+        <v>9.8809999999999995E-2</v>
+      </c>
+      <c r="AL79" s="88">
+        <f t="shared" si="28"/>
+        <v>9.8809999999999995E-2</v>
+      </c>
+      <c r="AM79" s="88">
+        <f t="shared" si="28"/>
+        <v>9.8809999999999995E-2</v>
+      </c>
+      <c r="AN79" s="88">
+        <f t="shared" si="28"/>
+        <v>9.8809999999999995E-2</v>
+      </c>
+      <c r="AO79" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="3:42" s="15" customFormat="1">
+      <c r="C80" s="84"/>
+      <c r="D80" s="84"/>
+      <c r="E80" s="84"/>
+      <c r="F80" s="84"/>
+      <c r="G80" s="84"/>
+      <c r="H80" s="84"/>
+      <c r="I80" s="84"/>
+      <c r="J80" s="78">
+        <v>0</v>
+      </c>
+      <c r="K80" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="N78" s="20"/>
-      <c r="O78" s="70"/>
-      <c r="P78" s="70"/>
-      <c r="Q78" s="70"/>
-      <c r="R78" s="70"/>
-      <c r="S78" s="70"/>
-      <c r="T78" s="70"/>
-      <c r="U78" s="70"/>
-      <c r="V78" s="70"/>
-      <c r="W78" s="70"/>
-      <c r="X78" s="70"/>
-      <c r="Y78" s="70"/>
-      <c r="Z78" s="70"/>
-      <c r="AA78" s="70"/>
-      <c r="AB78" s="70"/>
-      <c r="AC78" s="70"/>
-      <c r="AD78" s="70"/>
-      <c r="AE78" s="70"/>
-      <c r="AF78" s="70"/>
-      <c r="AG78" s="70"/>
-      <c r="AH78" s="70"/>
-      <c r="AI78" s="70"/>
-      <c r="AJ78" s="70"/>
-      <c r="AK78" s="70"/>
-      <c r="AL78" s="70"/>
-      <c r="AM78" s="70"/>
-      <c r="AN78" s="70"/>
-      <c r="AO78" s="15">
+      <c r="L80" s="84"/>
+      <c r="M80" s="84"/>
+      <c r="N80" s="88"/>
+      <c r="O80" s="88"/>
+      <c r="P80" s="88"/>
+      <c r="Q80" s="88"/>
+      <c r="R80" s="88"/>
+      <c r="S80" s="88"/>
+      <c r="T80" s="88"/>
+      <c r="U80" s="88"/>
+      <c r="V80" s="88"/>
+      <c r="W80" s="88"/>
+      <c r="X80" s="88"/>
+      <c r="Y80" s="88"/>
+      <c r="Z80" s="88"/>
+      <c r="AA80" s="88"/>
+      <c r="AB80" s="88"/>
+      <c r="AC80" s="88"/>
+      <c r="AD80" s="88"/>
+      <c r="AE80" s="88"/>
+      <c r="AF80" s="88"/>
+      <c r="AG80" s="88"/>
+      <c r="AH80" s="88"/>
+      <c r="AI80" s="88"/>
+      <c r="AJ80" s="88"/>
+      <c r="AK80" s="88"/>
+      <c r="AL80" s="88"/>
+      <c r="AM80" s="88"/>
+      <c r="AN80" s="88"/>
+      <c r="AO80" s="91">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="3:42" s="15" customFormat="1">
-      <c r="C79" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="E79" s="15" t="str">
-        <f>LEFT(C123,5)&amp;"*"</f>
-        <v>T-MGT*</v>
-      </c>
-      <c r="H79" s="15" t="str">
-        <f>H77</f>
-        <v>TRAF</v>
-      </c>
-      <c r="J79" s="15">
+    <row r="81" spans="3:41" s="15" customFormat="1">
+      <c r="C81" s="84" t="s">
+        <v>242</v>
+      </c>
+      <c r="D81" s="84"/>
+      <c r="E81" s="84" t="s">
+        <v>253</v>
+      </c>
+      <c r="F81" s="84"/>
+      <c r="G81" s="84"/>
+      <c r="H81" s="84" t="s">
+        <v>246</v>
+      </c>
+      <c r="I81" s="84"/>
+      <c r="J81" s="78">
         <v>2018</v>
       </c>
-      <c r="K79" s="15" t="s">
+      <c r="K81" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="L79" s="15">
+      <c r="L81" s="84">
         <v>-1</v>
       </c>
-      <c r="M79" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="N79" s="62">
-        <f>ROUNDUP(C221,3)</f>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="O79" s="71">
-        <f t="shared" ref="O79:AN79" si="28">ROUNDUP(D221,3)</f>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="P79" s="71">
-        <f t="shared" si="28"/>
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="Q79" s="71">
-        <f t="shared" si="28"/>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="R79" s="71">
-        <f t="shared" si="28"/>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="S79" s="71">
-        <f t="shared" si="28"/>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="T79" s="71">
-        <f t="shared" si="28"/>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="U79" s="71">
-        <f t="shared" si="28"/>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="V79" s="71">
-        <f t="shared" si="28"/>
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="W79" s="71">
-        <f t="shared" si="28"/>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="X79" s="71">
-        <f t="shared" si="28"/>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="Y79" s="71">
-        <f t="shared" si="28"/>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="Z79" s="71">
-        <f t="shared" si="28"/>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="AA79" s="71">
-        <f t="shared" si="28"/>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="AB79" s="71">
-        <f t="shared" si="28"/>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="AC79" s="71">
-        <f t="shared" si="28"/>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="AD79" s="71">
-        <f t="shared" si="28"/>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="AE79" s="71">
-        <f t="shared" si="28"/>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="AF79" s="71">
-        <f t="shared" si="28"/>
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="AG79" s="71">
-        <f t="shared" si="28"/>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="AH79" s="71">
-        <f t="shared" si="28"/>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="AI79" s="71">
-        <f t="shared" si="28"/>
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="AJ79" s="71">
-        <f t="shared" si="28"/>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="AK79" s="71">
-        <f t="shared" si="28"/>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="AL79" s="71">
-        <f t="shared" si="28"/>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="AM79" s="71">
-        <f t="shared" si="28"/>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="AN79" s="71">
-        <f t="shared" si="28"/>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="AO79" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="3:42" s="15" customFormat="1">
-      <c r="J80" s="15">
-        <v>0</v>
-      </c>
-      <c r="K80" s="15" t="s">
+      <c r="M81" s="84" t="s">
+        <v>243</v>
+      </c>
+      <c r="N81" s="88">
+        <f>ROUNDUP(C222,5)</f>
+        <v>0.86921999999999999</v>
+      </c>
+      <c r="O81" s="88">
+        <f t="shared" ref="O81:AN81" si="29">ROUNDUP(D222,5)</f>
+        <v>0.87588999999999995</v>
+      </c>
+      <c r="P81" s="88">
+        <f t="shared" si="29"/>
+        <v>0.86651</v>
+      </c>
+      <c r="Q81" s="88">
+        <f t="shared" si="29"/>
+        <v>0.87588999999999995</v>
+      </c>
+      <c r="R81" s="88">
+        <f t="shared" si="29"/>
+        <v>0.87588999999999995</v>
+      </c>
+      <c r="S81" s="88">
+        <f t="shared" si="29"/>
+        <v>0.87588999999999995</v>
+      </c>
+      <c r="T81" s="88">
+        <f t="shared" si="29"/>
+        <v>0.87588999999999995</v>
+      </c>
+      <c r="U81" s="88">
+        <f t="shared" si="29"/>
+        <v>0.87588999999999995</v>
+      </c>
+      <c r="V81" s="88">
+        <f t="shared" si="29"/>
+        <v>0.85666999999999993</v>
+      </c>
+      <c r="W81" s="88">
+        <f t="shared" si="29"/>
+        <v>0.87588999999999995</v>
+      </c>
+      <c r="X81" s="88">
+        <f t="shared" si="29"/>
+        <v>0.87588999999999995</v>
+      </c>
+      <c r="Y81" s="88">
+        <f t="shared" si="29"/>
+        <v>0.87588999999999995</v>
+      </c>
+      <c r="Z81" s="88">
+        <f t="shared" si="29"/>
+        <v>0.87588999999999995</v>
+      </c>
+      <c r="AA81" s="88">
+        <f t="shared" si="29"/>
+        <v>0.87588999999999995</v>
+      </c>
+      <c r="AB81" s="88">
+        <f t="shared" si="29"/>
+        <v>0.87588999999999995</v>
+      </c>
+      <c r="AC81" s="88">
+        <f t="shared" si="29"/>
+        <v>0.87588999999999995</v>
+      </c>
+      <c r="AD81" s="88">
+        <f t="shared" si="29"/>
+        <v>0.87588999999999995</v>
+      </c>
+      <c r="AE81" s="88">
+        <f t="shared" si="29"/>
+        <v>0.87588999999999995</v>
+      </c>
+      <c r="AF81" s="88">
+        <f t="shared" si="29"/>
+        <v>0.83933999999999997</v>
+      </c>
+      <c r="AG81" s="88">
+        <f t="shared" si="29"/>
+        <v>0.87588999999999995</v>
+      </c>
+      <c r="AH81" s="88">
+        <f t="shared" si="29"/>
+        <v>0.87588999999999995</v>
+      </c>
+      <c r="AI81" s="88">
+        <f t="shared" si="29"/>
+        <v>0.78648999999999991</v>
+      </c>
+      <c r="AJ81" s="88">
+        <f t="shared" si="29"/>
+        <v>0.87588999999999995</v>
+      </c>
+      <c r="AK81" s="88">
+        <f t="shared" si="29"/>
+        <v>0.87588999999999995</v>
+      </c>
+      <c r="AL81" s="88">
+        <f t="shared" si="29"/>
+        <v>0.87588999999999995</v>
+      </c>
+      <c r="AM81" s="88">
+        <f t="shared" si="29"/>
+        <v>0.87588999999999995</v>
+      </c>
+      <c r="AN81" s="88">
+        <f t="shared" si="29"/>
+        <v>0.87588999999999995</v>
+      </c>
+      <c r="AO81" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:41" s="15" customFormat="1">
+      <c r="C82" s="84"/>
+      <c r="D82" s="84"/>
+      <c r="E82" s="84"/>
+      <c r="F82" s="84"/>
+      <c r="G82" s="84"/>
+      <c r="H82" s="84"/>
+      <c r="I82" s="84"/>
+      <c r="J82" s="84">
+        <v>0</v>
+      </c>
+      <c r="K82" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="N80" s="20"/>
-      <c r="O80" s="70"/>
-      <c r="P80" s="70"/>
-      <c r="Q80" s="70"/>
-      <c r="R80" s="70"/>
-      <c r="S80" s="70"/>
-      <c r="T80" s="70"/>
-      <c r="U80" s="70"/>
-      <c r="V80" s="70"/>
-      <c r="W80" s="70"/>
-      <c r="X80" s="70"/>
-      <c r="Y80" s="70"/>
-      <c r="Z80" s="70"/>
-      <c r="AA80" s="70"/>
-      <c r="AB80" s="70"/>
-      <c r="AC80" s="70"/>
-      <c r="AD80" s="70"/>
-      <c r="AE80" s="70"/>
-      <c r="AF80" s="70"/>
-      <c r="AG80" s="70"/>
-      <c r="AH80" s="70"/>
-      <c r="AI80" s="70"/>
-      <c r="AJ80" s="70"/>
-      <c r="AK80" s="70"/>
-      <c r="AL80" s="70"/>
-      <c r="AM80" s="70"/>
-      <c r="AN80" s="70"/>
-      <c r="AO80" s="15">
+      <c r="L82" s="84"/>
+      <c r="M82" s="84"/>
+      <c r="N82" s="89"/>
+      <c r="O82" s="89"/>
+      <c r="P82" s="89"/>
+      <c r="Q82" s="89"/>
+      <c r="R82" s="89"/>
+      <c r="S82" s="89"/>
+      <c r="T82" s="89"/>
+      <c r="U82" s="89"/>
+      <c r="V82" s="89"/>
+      <c r="W82" s="89"/>
+      <c r="X82" s="89"/>
+      <c r="Y82" s="89"/>
+      <c r="Z82" s="89"/>
+      <c r="AA82" s="89"/>
+      <c r="AB82" s="89"/>
+      <c r="AC82" s="89"/>
+      <c r="AD82" s="89"/>
+      <c r="AE82" s="89"/>
+      <c r="AF82" s="89"/>
+      <c r="AG82" s="89"/>
+      <c r="AH82" s="89"/>
+      <c r="AI82" s="89"/>
+      <c r="AJ82" s="89"/>
+      <c r="AK82" s="89"/>
+      <c r="AL82" s="89"/>
+      <c r="AM82" s="89"/>
+      <c r="AN82" s="89"/>
+      <c r="AO82" s="84">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="3:41" s="15" customFormat="1">
-      <c r="C81" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E81" s="15" t="str">
-        <f>LEFT(C124,5)&amp;"*"</f>
-        <v>T-HGT*</v>
-      </c>
-      <c r="H81" s="15" t="str">
-        <f>H79</f>
-        <v>TRAF</v>
-      </c>
-      <c r="J81" s="15">
+    <row r="83" spans="3:41" s="15" customFormat="1">
+      <c r="C83" s="84" t="s">
+        <v>244</v>
+      </c>
+      <c r="D83" s="84"/>
+      <c r="E83" s="84" t="s">
+        <v>254</v>
+      </c>
+      <c r="F83" s="84"/>
+      <c r="G83" s="84"/>
+      <c r="H83" s="84" t="s">
+        <v>246</v>
+      </c>
+      <c r="I83" s="84"/>
+      <c r="J83" s="86">
         <v>2018</v>
       </c>
-      <c r="K81" s="15" t="s">
+      <c r="K83" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="L81" s="15">
+      <c r="L83" s="84">
         <v>-1</v>
       </c>
-      <c r="M81" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="N81" s="62">
-        <f>ROUNDUP(C222,3)</f>
-        <v>0.87</v>
-      </c>
-      <c r="O81" s="71">
-        <f t="shared" ref="O81:AN81" si="29">ROUNDUP(D222,3)</f>
-        <v>0.876</v>
-      </c>
-      <c r="P81" s="71">
-        <f t="shared" si="29"/>
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="Q81" s="71">
-        <f t="shared" si="29"/>
-        <v>0.876</v>
-      </c>
-      <c r="R81" s="71">
-        <f t="shared" si="29"/>
-        <v>0.876</v>
-      </c>
-      <c r="S81" s="71">
-        <f t="shared" si="29"/>
-        <v>0.876</v>
-      </c>
-      <c r="T81" s="71">
-        <f t="shared" si="29"/>
-        <v>0.876</v>
-      </c>
-      <c r="U81" s="71">
-        <f t="shared" si="29"/>
-        <v>0.876</v>
-      </c>
-      <c r="V81" s="71">
-        <f t="shared" si="29"/>
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="W81" s="71">
-        <f t="shared" si="29"/>
-        <v>0.876</v>
-      </c>
-      <c r="X81" s="71">
-        <f t="shared" si="29"/>
-        <v>0.876</v>
-      </c>
-      <c r="Y81" s="71">
-        <f t="shared" si="29"/>
-        <v>0.876</v>
-      </c>
-      <c r="Z81" s="71">
-        <f t="shared" si="29"/>
-        <v>0.876</v>
-      </c>
-      <c r="AA81" s="71">
-        <f t="shared" si="29"/>
-        <v>0.876</v>
-      </c>
-      <c r="AB81" s="71">
-        <f t="shared" si="29"/>
-        <v>0.876</v>
-      </c>
-      <c r="AC81" s="71">
-        <f t="shared" si="29"/>
-        <v>0.876</v>
-      </c>
-      <c r="AD81" s="71">
-        <f t="shared" si="29"/>
-        <v>0.876</v>
-      </c>
-      <c r="AE81" s="71">
-        <f t="shared" si="29"/>
-        <v>0.876</v>
-      </c>
-      <c r="AF81" s="71">
-        <f t="shared" si="29"/>
-        <v>0.84</v>
-      </c>
-      <c r="AG81" s="71">
-        <f t="shared" si="29"/>
-        <v>0.876</v>
-      </c>
-      <c r="AH81" s="71">
-        <f t="shared" si="29"/>
-        <v>0.876</v>
-      </c>
-      <c r="AI81" s="71">
-        <f t="shared" si="29"/>
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="AJ81" s="71">
-        <f t="shared" si="29"/>
-        <v>0.876</v>
-      </c>
-      <c r="AK81" s="71">
-        <f t="shared" si="29"/>
-        <v>0.876</v>
-      </c>
-      <c r="AL81" s="71">
-        <f t="shared" si="29"/>
-        <v>0.876</v>
-      </c>
-      <c r="AM81" s="71">
-        <f t="shared" si="29"/>
-        <v>0.876</v>
-      </c>
-      <c r="AN81" s="71">
-        <f t="shared" si="29"/>
-        <v>0.876</v>
-      </c>
-      <c r="AO81" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:41" s="15" customFormat="1">
-      <c r="J82" s="15">
-        <v>0</v>
-      </c>
-      <c r="K82" s="15" t="s">
+      <c r="M83" s="84" t="s">
+        <v>245</v>
+      </c>
+      <c r="N83" s="88">
+        <f>ROUNDUP(C223,5)</f>
+        <v>7.6199999999999992E-3</v>
+      </c>
+      <c r="O83" s="88">
+        <f t="shared" ref="O83:AN83" si="30">ROUNDUP(D223,5)</f>
+        <v>0</v>
+      </c>
+      <c r="P83" s="88">
+        <f t="shared" si="30"/>
+        <v>1.0709999999999999E-2</v>
+      </c>
+      <c r="Q83" s="88">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="R83" s="88">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="S83" s="88">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="T83" s="88">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="U83" s="88">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="V83" s="88">
+        <f t="shared" si="30"/>
+        <v>2.1950000000000001E-2</v>
+      </c>
+      <c r="W83" s="88">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="X83" s="88">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="Y83" s="88">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="Z83" s="88">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AA83" s="88">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AB83" s="88">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AC83" s="88">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AD83" s="88">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AE83" s="88">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AF83" s="88">
+        <f t="shared" si="30"/>
+        <v>4.1730000000000003E-2</v>
+      </c>
+      <c r="AG83" s="88">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AH83" s="88">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AI83" s="88">
+        <f t="shared" si="30"/>
+        <v>0.10207999999999999</v>
+      </c>
+      <c r="AJ83" s="88">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AK83" s="88">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AL83" s="88">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AM83" s="88">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AN83" s="88">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AO83" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:41" s="15" customFormat="1">
+      <c r="C84" s="83"/>
+      <c r="D84" s="83"/>
+      <c r="E84" s="83"/>
+      <c r="F84" s="83"/>
+      <c r="G84" s="83"/>
+      <c r="H84" s="83"/>
+      <c r="I84" s="83"/>
+      <c r="J84" s="85">
+        <v>0</v>
+      </c>
+      <c r="K84" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="N82" s="20"/>
-      <c r="O82" s="70"/>
-      <c r="P82" s="70"/>
-      <c r="Q82" s="70"/>
-      <c r="R82" s="70"/>
-      <c r="S82" s="70"/>
-      <c r="T82" s="70"/>
-      <c r="U82" s="70"/>
-      <c r="V82" s="70"/>
-      <c r="W82" s="70"/>
-      <c r="X82" s="70"/>
-      <c r="Y82" s="70"/>
-      <c r="Z82" s="70"/>
-      <c r="AA82" s="70"/>
-      <c r="AB82" s="70"/>
-      <c r="AC82" s="70"/>
-      <c r="AD82" s="70"/>
-      <c r="AE82" s="70"/>
-      <c r="AF82" s="70"/>
-      <c r="AG82" s="70"/>
-      <c r="AH82" s="70"/>
-      <c r="AI82" s="70"/>
-      <c r="AJ82" s="70"/>
-      <c r="AK82" s="70"/>
-      <c r="AL82" s="70"/>
-      <c r="AM82" s="70"/>
-      <c r="AN82" s="70"/>
-      <c r="AO82" s="15">
+      <c r="L84" s="83"/>
+      <c r="M84" s="83"/>
+      <c r="N84" s="83"/>
+      <c r="O84" s="83"/>
+      <c r="P84" s="83"/>
+      <c r="Q84" s="83"/>
+      <c r="R84" s="83"/>
+      <c r="S84" s="83"/>
+      <c r="T84" s="83"/>
+      <c r="U84" s="83"/>
+      <c r="V84" s="83"/>
+      <c r="W84" s="83"/>
+      <c r="X84" s="83"/>
+      <c r="Y84" s="83"/>
+      <c r="Z84" s="83"/>
+      <c r="AA84" s="83"/>
+      <c r="AB84" s="83"/>
+      <c r="AC84" s="83"/>
+      <c r="AD84" s="83"/>
+      <c r="AE84" s="83"/>
+      <c r="AF84" s="83"/>
+      <c r="AG84" s="83"/>
+      <c r="AH84" s="83"/>
+      <c r="AI84" s="83"/>
+      <c r="AJ84" s="83"/>
+      <c r="AK84" s="83"/>
+      <c r="AL84" s="83"/>
+      <c r="AM84" s="83"/>
+      <c r="AN84" s="83"/>
+      <c r="AO84" s="83">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="3:41" s="15" customFormat="1">
-      <c r="C83" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="E83" s="15" t="str">
-        <f>LEFT(C125,5)&amp;"*"</f>
-        <v>T-GTR*</v>
-      </c>
-      <c r="H83" s="15" t="str">
-        <f>H81</f>
-        <v>TRAF</v>
-      </c>
-      <c r="J83" s="15">
-        <v>2018</v>
-      </c>
-      <c r="K83" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="L83" s="15">
-        <v>-1</v>
-      </c>
-      <c r="M83" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="N83" s="72">
-        <f>ROUNDUP(C223,3)</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="O83" s="72">
-        <f t="shared" ref="O83:AN83" si="30">ROUNDUP(D223,3)</f>
-        <v>0</v>
-      </c>
-      <c r="P83" s="72">
-        <f t="shared" si="30"/>
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="Q83" s="72">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="R83" s="72">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="S83" s="72">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="T83" s="72">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="U83" s="72">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="V83" s="72">
-        <f t="shared" si="30"/>
-        <v>2.2000000000000002E-2</v>
-      </c>
-      <c r="W83" s="72">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="X83" s="72">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="Y83" s="72">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="Z83" s="72">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AA83" s="72">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AB83" s="72">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AC83" s="72">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AD83" s="72">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AE83" s="72">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AF83" s="72">
-        <f t="shared" si="30"/>
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="AG83" s="72">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AH83" s="72">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AI83" s="72">
-        <f t="shared" si="30"/>
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="AJ83" s="72">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AK83" s="72">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AL83" s="72">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AM83" s="72">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AN83" s="72">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AO83" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:41" s="15" customFormat="1">
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="21"/>
-      <c r="I84" s="21"/>
-      <c r="J84" s="21">
-        <v>0</v>
-      </c>
-      <c r="K84" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="L84" s="21"/>
-      <c r="M84" s="21"/>
-      <c r="N84" s="21"/>
-      <c r="O84" s="21"/>
-      <c r="P84" s="21"/>
-      <c r="Q84" s="21"/>
-      <c r="R84" s="21"/>
-      <c r="S84" s="21"/>
-      <c r="T84" s="21"/>
-      <c r="U84" s="21"/>
-      <c r="V84" s="21"/>
-      <c r="W84" s="21"/>
-      <c r="X84" s="21"/>
-      <c r="Y84" s="21"/>
-      <c r="Z84" s="21"/>
-      <c r="AA84" s="21"/>
-      <c r="AB84" s="21"/>
-      <c r="AC84" s="21"/>
-      <c r="AD84" s="21"/>
-      <c r="AE84" s="21"/>
-      <c r="AF84" s="21"/>
-      <c r="AG84" s="21"/>
-      <c r="AH84" s="21"/>
-      <c r="AI84" s="21"/>
-      <c r="AJ84" s="21"/>
-      <c r="AK84" s="21"/>
-      <c r="AL84" s="21"/>
-      <c r="AM84" s="21"/>
-      <c r="AN84" s="21"/>
-      <c r="AO84" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="3:41" s="15" customFormat="1"/>
+    <row r="85" spans="3:41" s="15" customFormat="1">
+      <c r="C85" s="84"/>
+      <c r="D85" s="84"/>
+      <c r="E85" s="84"/>
+      <c r="F85" s="84"/>
+      <c r="G85" s="84"/>
+      <c r="H85" s="84"/>
+      <c r="I85" s="84"/>
+      <c r="J85" s="84"/>
+      <c r="K85" s="84"/>
+      <c r="L85" s="84"/>
+      <c r="M85" s="84"/>
+      <c r="N85" s="84"/>
+      <c r="O85" s="84"/>
+      <c r="P85" s="84"/>
+      <c r="Q85" s="84"/>
+      <c r="R85" s="84"/>
+      <c r="S85" s="84"/>
+      <c r="T85" s="84"/>
+      <c r="U85" s="84"/>
+      <c r="V85" s="84"/>
+      <c r="W85" s="84"/>
+      <c r="X85" s="84"/>
+      <c r="Y85" s="84"/>
+      <c r="Z85" s="84"/>
+      <c r="AA85" s="84"/>
+      <c r="AB85" s="84"/>
+      <c r="AC85" s="84"/>
+      <c r="AD85" s="84"/>
+      <c r="AE85" s="84"/>
+      <c r="AF85" s="84"/>
+      <c r="AG85" s="84"/>
+      <c r="AH85" s="84"/>
+      <c r="AI85" s="84"/>
+      <c r="AJ85" s="84"/>
+      <c r="AK85" s="84"/>
+      <c r="AL85" s="84"/>
+      <c r="AM85" s="84"/>
+      <c r="AN85" s="84"/>
+      <c r="AO85" s="84"/>
+    </row>
     <row r="86" spans="3:41" s="15" customFormat="1">
-      <c r="M86" s="15" t="s">
+      <c r="C86" s="84"/>
+      <c r="D86" s="84"/>
+      <c r="E86" s="84"/>
+      <c r="F86" s="84"/>
+      <c r="G86" s="84"/>
+      <c r="H86" s="84"/>
+      <c r="I86" s="84"/>
+      <c r="J86" s="86"/>
+      <c r="K86" s="84"/>
+      <c r="L86" s="84"/>
+      <c r="M86" s="78" t="s">
         <v>220</v>
       </c>
-      <c r="N86" s="60">
-        <f t="shared" ref="N86:AN86" si="31">SUM(N77:N83)</f>
-        <v>1.0029999999999999</v>
-      </c>
-      <c r="O86" s="60">
-        <f t="shared" si="31"/>
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="P86" s="60">
-        <f t="shared" si="31"/>
-        <v>1.002</v>
-      </c>
-      <c r="Q86" s="60">
-        <f t="shared" si="31"/>
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="R86" s="60">
-        <f t="shared" si="31"/>
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="S86" s="60">
-        <f t="shared" si="31"/>
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="T86" s="60">
-        <f t="shared" si="31"/>
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="U86" s="60">
-        <f t="shared" si="31"/>
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="V86" s="60">
-        <f t="shared" si="31"/>
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="W86" s="60">
-        <f t="shared" si="31"/>
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="X86" s="60">
-        <f t="shared" si="31"/>
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="Y86" s="60">
-        <f t="shared" si="31"/>
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="Z86" s="60">
-        <f t="shared" si="31"/>
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="AA86" s="60">
-        <f t="shared" si="31"/>
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="AB86" s="60">
-        <f t="shared" si="31"/>
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="AC86" s="60">
-        <f t="shared" si="31"/>
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="AD86" s="60">
-        <f t="shared" si="31"/>
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="AE86" s="60">
-        <f t="shared" si="31"/>
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="AF86" s="60">
-        <f t="shared" si="31"/>
-        <v>1.002</v>
-      </c>
-      <c r="AG86" s="60">
-        <f t="shared" si="31"/>
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="AH86" s="60">
-        <f t="shared" si="31"/>
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="AI86" s="60">
-        <f t="shared" si="31"/>
-        <v>1.002</v>
-      </c>
-      <c r="AJ86" s="60">
-        <f t="shared" si="31"/>
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="AK86" s="60">
-        <f t="shared" si="31"/>
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="AL86" s="60">
-        <f t="shared" si="31"/>
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="AM86" s="60">
-        <f t="shared" si="31"/>
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="AN86" s="60">
-        <f t="shared" si="31"/>
-        <v>1.0009999999999999</v>
-      </c>
+      <c r="N86" s="92">
+        <v>1</v>
+      </c>
+      <c r="O86" s="87">
+        <v>1</v>
+      </c>
+      <c r="P86" s="87">
+        <v>0.99999000000000005</v>
+      </c>
+      <c r="Q86" s="87">
+        <v>1</v>
+      </c>
+      <c r="R86" s="87">
+        <v>1</v>
+      </c>
+      <c r="S86" s="87">
+        <v>1</v>
+      </c>
+      <c r="T86" s="87">
+        <v>1</v>
+      </c>
+      <c r="U86" s="87">
+        <v>1</v>
+      </c>
+      <c r="V86" s="87">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="W86" s="87">
+        <v>1</v>
+      </c>
+      <c r="X86" s="87">
+        <v>1</v>
+      </c>
+      <c r="Y86" s="87">
+        <v>1</v>
+      </c>
+      <c r="Z86" s="87">
+        <v>1</v>
+      </c>
+      <c r="AA86" s="87">
+        <v>1</v>
+      </c>
+      <c r="AB86" s="87">
+        <v>1</v>
+      </c>
+      <c r="AC86" s="87">
+        <v>1</v>
+      </c>
+      <c r="AD86" s="87">
+        <v>1</v>
+      </c>
+      <c r="AE86" s="87">
+        <v>1</v>
+      </c>
+      <c r="AF86" s="87">
+        <v>1</v>
+      </c>
+      <c r="AG86" s="87">
+        <v>1</v>
+      </c>
+      <c r="AH86" s="87">
+        <v>1</v>
+      </c>
+      <c r="AI86" s="87">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AJ86" s="87">
+        <v>1</v>
+      </c>
+      <c r="AK86" s="87">
+        <v>1</v>
+      </c>
+      <c r="AL86" s="87">
+        <v>1</v>
+      </c>
+      <c r="AM86" s="87">
+        <v>1</v>
+      </c>
+      <c r="AN86" s="87">
+        <v>1</v>
+      </c>
+      <c r="AO86" s="84"/>
     </row>
     <row r="87" spans="3:41" s="15" customFormat="1">
       <c r="N87" s="60"/>
@@ -13573,85 +13597,85 @@
         <v>215</v>
       </c>
       <c r="B204" s="51"/>
-      <c r="C204" s="84">
+      <c r="C204" s="76">
         <v>88.551000000000002</v>
       </c>
-      <c r="D204" s="84">
-        <v>0</v>
-      </c>
-      <c r="E204" s="84">
+      <c r="D204" s="76">
+        <v>0</v>
+      </c>
+      <c r="E204" s="76">
         <v>28.462821428571431</v>
       </c>
-      <c r="F204" s="84">
-        <v>0</v>
-      </c>
-      <c r="G204" s="84">
-        <v>0</v>
-      </c>
-      <c r="H204" s="84">
-        <v>0</v>
-      </c>
-      <c r="I204" s="84">
-        <v>0</v>
-      </c>
-      <c r="J204" s="84">
-        <v>0</v>
-      </c>
-      <c r="K204" s="84">
+      <c r="F204" s="76">
+        <v>0</v>
+      </c>
+      <c r="G204" s="76">
+        <v>0</v>
+      </c>
+      <c r="H204" s="76">
+        <v>0</v>
+      </c>
+      <c r="I204" s="76">
+        <v>0</v>
+      </c>
+      <c r="J204" s="76">
+        <v>0</v>
+      </c>
+      <c r="K204" s="76">
         <v>9.4876071428571436</v>
       </c>
-      <c r="L204" s="84">
-        <v>0</v>
-      </c>
-      <c r="M204" s="84">
-        <v>0</v>
-      </c>
-      <c r="N204" s="84">
-        <v>0</v>
-      </c>
-      <c r="O204" s="84">
-        <v>0</v>
-      </c>
-      <c r="P204" s="84">
-        <v>0</v>
-      </c>
-      <c r="Q204" s="84">
-        <v>0</v>
-      </c>
-      <c r="R204" s="84">
-        <v>0</v>
-      </c>
-      <c r="S204" s="84">
-        <v>0</v>
-      </c>
-      <c r="T204" s="84">
-        <v>0</v>
-      </c>
-      <c r="U204" s="84">
+      <c r="L204" s="76">
+        <v>0</v>
+      </c>
+      <c r="M204" s="76">
+        <v>0</v>
+      </c>
+      <c r="N204" s="76">
+        <v>0</v>
+      </c>
+      <c r="O204" s="76">
+        <v>0</v>
+      </c>
+      <c r="P204" s="76">
+        <v>0</v>
+      </c>
+      <c r="Q204" s="76">
+        <v>0</v>
+      </c>
+      <c r="R204" s="76">
+        <v>0</v>
+      </c>
+      <c r="S204" s="76">
+        <v>0</v>
+      </c>
+      <c r="T204" s="76">
+        <v>0</v>
+      </c>
+      <c r="U204" s="76">
         <v>15.812678571428572</v>
       </c>
-      <c r="V204" s="84">
-        <v>0</v>
-      </c>
-      <c r="W204" s="84">
-        <v>0</v>
-      </c>
-      <c r="X204" s="84">
+      <c r="V204" s="76">
+        <v>0</v>
+      </c>
+      <c r="W204" s="76">
+        <v>0</v>
+      </c>
+      <c r="X204" s="76">
         <v>34.787892857142857</v>
       </c>
-      <c r="Y204" s="84">
-        <v>0</v>
-      </c>
-      <c r="Z204" s="84">
-        <v>0</v>
-      </c>
-      <c r="AA204" s="84">
-        <v>0</v>
-      </c>
-      <c r="AB204" s="84">
-        <v>0</v>
-      </c>
-      <c r="AC204" s="84">
+      <c r="Y204" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z204" s="76">
+        <v>0</v>
+      </c>
+      <c r="AA204" s="76">
+        <v>0</v>
+      </c>
+      <c r="AB204" s="76">
+        <v>0</v>
+      </c>
+      <c r="AC204" s="76">
         <v>0</v>
       </c>
     </row>
@@ -13665,107 +13689,107 @@
         <v>11626.550999999999</v>
       </c>
       <c r="D205" s="66">
-        <f t="shared" ref="D205:AC205" si="32">SUM(D201:D204)</f>
+        <f t="shared" ref="D205:AC205" si="31">SUM(D201:D204)</f>
         <v>177.95641949867974</v>
       </c>
       <c r="E205" s="66">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>2657.9186883230773</v>
       </c>
       <c r="F205" s="66">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>482.32584543324703</v>
       </c>
       <c r="G205" s="66">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>310.17655131899437</v>
       </c>
       <c r="H205" s="66">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>220.92382768752688</v>
       </c>
       <c r="I205" s="66">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>106.61321663190297</v>
       </c>
       <c r="J205" s="66">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>279.38412011837357</v>
       </c>
       <c r="K205" s="66">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>432.28792622333316</v>
       </c>
       <c r="L205" s="66">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>203.35363153768466</v>
       </c>
       <c r="M205" s="66">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>231.54784920152733</v>
       </c>
       <c r="N205" s="66">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>467.99675121515725</v>
       </c>
       <c r="O205" s="66">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>308.73718466108562</v>
       </c>
       <c r="P205" s="66">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>303.81359843254126</v>
       </c>
       <c r="Q205" s="66">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>1625.5685935130527</v>
       </c>
       <c r="R205" s="66">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>442.29510717528478</v>
       </c>
       <c r="S205" s="66">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>498.35433078518957</v>
       </c>
       <c r="T205" s="66">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>407.97504625354344</v>
       </c>
       <c r="U205" s="66">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>378.95230113305684</v>
       </c>
       <c r="V205" s="66">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>605.11341326480942</v>
       </c>
       <c r="W205" s="66">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>80.700464509738026</v>
       </c>
       <c r="X205" s="66">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>340.81032279518195</v>
       </c>
       <c r="Y205" s="66">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>151.34752708989396</v>
       </c>
       <c r="Z205" s="66">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>165.04509242434406</v>
       </c>
       <c r="AA205" s="66">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>191.84367071819389</v>
       </c>
       <c r="AB205" s="66">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>400.91337992242592</v>
       </c>
       <c r="AC205" s="66">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>154.59614013215509</v>
       </c>
     </row>
@@ -13803,669 +13827,669 @@
       <c r="AC218" s="15"/>
     </row>
     <row r="219" spans="1:29" ht="17.399999999999999">
-      <c r="A219" s="74" t="s">
+      <c r="A219" s="70" t="s">
         <v>229</v>
       </c>
-      <c r="B219" s="74" t="s">
+      <c r="B219" s="70" t="s">
         <v>248</v>
       </c>
-      <c r="C219" s="75" t="s">
+      <c r="C219" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="D219" s="75" t="s">
+      <c r="D219" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="E219" s="75" t="s">
+      <c r="E219" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="F219" s="75" t="s">
+      <c r="F219" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="G219" s="75" t="s">
+      <c r="G219" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="H219" s="75" t="s">
+      <c r="H219" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="I219" s="75" t="s">
+      <c r="I219" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="J219" s="75" t="s">
+      <c r="J219" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="K219" s="75" t="s">
+      <c r="K219" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="L219" s="75" t="s">
+      <c r="L219" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="M219" s="75" t="s">
+      <c r="M219" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="N219" s="75" t="s">
+      <c r="N219" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="O219" s="75" t="s">
+      <c r="O219" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="P219" s="75" t="s">
+      <c r="P219" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="Q219" s="75" t="s">
+      <c r="Q219" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="R219" s="75" t="s">
+      <c r="R219" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="S219" s="75" t="s">
+      <c r="S219" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="T219" s="75" t="s">
+      <c r="T219" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="U219" s="75" t="s">
+      <c r="U219" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="V219" s="75" t="s">
+      <c r="V219" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="W219" s="75" t="s">
+      <c r="W219" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="X219" s="75" t="s">
+      <c r="X219" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="Y219" s="75" t="s">
+      <c r="Y219" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="Z219" s="75" t="s">
+      <c r="Z219" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="AA219" s="75" t="s">
+      <c r="AA219" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="AB219" s="75" t="s">
+      <c r="AB219" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="AC219" s="75" t="s">
+      <c r="AC219" s="71" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="220" spans="1:29">
-      <c r="A220" s="79" t="s">
+      <c r="A220" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="B220" s="73" t="s">
+      <c r="B220" s="69" t="s">
         <v>232</v>
       </c>
-      <c r="C220" s="76">
+      <c r="C220" s="72">
         <f>C201/C205</f>
         <v>2.5114928752301521E-2</v>
       </c>
-      <c r="D220" s="76">
-        <f t="shared" ref="D220:AC220" si="33">D201/D205</f>
+      <c r="D220" s="72">
+        <f t="shared" ref="D220:AC220" si="32">D201/D205</f>
         <v>2.5307678973825617E-2</v>
       </c>
-      <c r="E220" s="76">
-        <f t="shared" si="33"/>
+      <c r="E220" s="72">
+        <f t="shared" si="32"/>
         <v>2.5036666940775776E-2</v>
       </c>
-      <c r="F220" s="76">
-        <f t="shared" si="33"/>
+      <c r="F220" s="72">
+        <f t="shared" si="32"/>
         <v>2.5307678973825621E-2</v>
       </c>
-      <c r="G220" s="76">
-        <f t="shared" si="33"/>
+      <c r="G220" s="72">
+        <f t="shared" si="32"/>
         <v>2.5307678973825621E-2</v>
       </c>
-      <c r="H220" s="76">
-        <f t="shared" si="33"/>
+      <c r="H220" s="72">
+        <f t="shared" si="32"/>
         <v>2.5307678973825621E-2</v>
       </c>
-      <c r="I220" s="76">
-        <f t="shared" si="33"/>
+      <c r="I220" s="72">
+        <f t="shared" si="32"/>
         <v>2.5307678973825617E-2</v>
       </c>
-      <c r="J220" s="76">
-        <f t="shared" si="33"/>
+      <c r="J220" s="72">
+        <f t="shared" si="32"/>
         <v>2.5307678973825621E-2</v>
       </c>
-      <c r="K220" s="76">
-        <f t="shared" si="33"/>
+      <c r="K220" s="72">
+        <f t="shared" si="32"/>
         <v>2.475224056984587E-2</v>
       </c>
-      <c r="L220" s="76">
-        <f t="shared" si="33"/>
+      <c r="L220" s="72">
+        <f t="shared" si="32"/>
         <v>2.5307678973825621E-2</v>
       </c>
-      <c r="M220" s="76">
-        <f t="shared" si="33"/>
+      <c r="M220" s="72">
+        <f t="shared" si="32"/>
         <v>2.5307678973825617E-2</v>
       </c>
-      <c r="N220" s="76">
-        <f t="shared" si="33"/>
+      <c r="N220" s="72">
+        <f t="shared" si="32"/>
         <v>2.5307678973825617E-2</v>
       </c>
-      <c r="O220" s="76">
-        <f t="shared" si="33"/>
+      <c r="O220" s="72">
+        <f t="shared" si="32"/>
         <v>2.5307678973825617E-2</v>
       </c>
-      <c r="P220" s="76">
-        <f t="shared" si="33"/>
+      <c r="P220" s="72">
+        <f t="shared" si="32"/>
         <v>2.5307678973825621E-2</v>
       </c>
-      <c r="Q220" s="76">
-        <f t="shared" si="33"/>
+      <c r="Q220" s="72">
+        <f t="shared" si="32"/>
         <v>2.5307678973825624E-2</v>
       </c>
-      <c r="R220" s="76">
-        <f t="shared" si="33"/>
+      <c r="R220" s="72">
+        <f t="shared" si="32"/>
         <v>2.5307678973825617E-2</v>
       </c>
-      <c r="S220" s="76">
-        <f t="shared" si="33"/>
+      <c r="S220" s="72">
+        <f t="shared" si="32"/>
         <v>2.5307678973825617E-2</v>
       </c>
-      <c r="T220" s="76">
-        <f t="shared" si="33"/>
+      <c r="T220" s="72">
+        <f t="shared" si="32"/>
         <v>2.5307678973825621E-2</v>
       </c>
-      <c r="U220" s="76">
-        <f t="shared" si="33"/>
+      <c r="U220" s="72">
+        <f t="shared" si="32"/>
         <v>2.4251656377299691E-2</v>
       </c>
-      <c r="V220" s="76">
-        <f t="shared" si="33"/>
+      <c r="V220" s="72">
+        <f t="shared" si="32"/>
         <v>2.5307678973825621E-2</v>
       </c>
-      <c r="W220" s="76">
-        <f t="shared" si="33"/>
+      <c r="W220" s="72">
+        <f t="shared" si="32"/>
         <v>2.5307678973825624E-2</v>
       </c>
-      <c r="X220" s="76">
-        <f t="shared" si="33"/>
+      <c r="X220" s="72">
+        <f t="shared" si="32"/>
         <v>2.2724421467469183E-2</v>
       </c>
-      <c r="Y220" s="76">
-        <f t="shared" si="33"/>
+      <c r="Y220" s="72">
+        <f t="shared" si="32"/>
         <v>2.5307678973825621E-2</v>
       </c>
-      <c r="Z220" s="76">
-        <f t="shared" si="33"/>
+      <c r="Z220" s="72">
+        <f t="shared" si="32"/>
         <v>2.5307678973825621E-2</v>
       </c>
-      <c r="AA220" s="76">
-        <f t="shared" si="33"/>
+      <c r="AA220" s="72">
+        <f t="shared" si="32"/>
         <v>2.5307678973825614E-2</v>
       </c>
-      <c r="AB220" s="76">
-        <f t="shared" si="33"/>
+      <c r="AB220" s="72">
+        <f t="shared" si="32"/>
         <v>2.5307678973825617E-2</v>
       </c>
-      <c r="AC220" s="76">
-        <f t="shared" si="33"/>
+      <c r="AC220" s="72">
+        <f t="shared" si="32"/>
         <v>2.5307678973825621E-2</v>
       </c>
     </row>
     <row r="221" spans="1:29">
-      <c r="A221" s="79" t="s">
+      <c r="A221" s="75" t="s">
         <v>233</v>
       </c>
-      <c r="B221" s="73" t="s">
+      <c r="B221" s="69" t="s">
         <v>234</v>
       </c>
-      <c r="C221" s="76">
+      <c r="C221" s="72">
         <f>C202/C205</f>
         <v>9.8051434169944301E-2</v>
       </c>
-      <c r="D221" s="76">
-        <f t="shared" ref="D221:AC221" si="34">D202/D205</f>
+      <c r="D221" s="72">
+        <f t="shared" ref="D221:AC221" si="33">D202/D205</f>
         <v>9.8803952158086308E-2</v>
       </c>
-      <c r="E221" s="76">
-        <f t="shared" si="34"/>
+      <c r="E221" s="72">
+        <f t="shared" si="33"/>
         <v>9.7745891481110916E-2</v>
       </c>
-      <c r="F221" s="76">
-        <f t="shared" si="34"/>
+      <c r="F221" s="72">
+        <f t="shared" si="33"/>
         <v>9.8803952158086322E-2</v>
       </c>
-      <c r="G221" s="76">
-        <f t="shared" si="34"/>
+      <c r="G221" s="72">
+        <f t="shared" si="33"/>
         <v>9.8803952158086322E-2</v>
       </c>
-      <c r="H221" s="76">
-        <f t="shared" si="34"/>
+      <c r="H221" s="72">
+        <f t="shared" si="33"/>
         <v>9.8803952158086322E-2</v>
       </c>
-      <c r="I221" s="76">
-        <f t="shared" si="34"/>
+      <c r="I221" s="72">
+        <f t="shared" si="33"/>
         <v>9.8803952158086322E-2</v>
       </c>
-      <c r="J221" s="76">
-        <f t="shared" si="34"/>
+      <c r="J221" s="72">
+        <f t="shared" si="33"/>
         <v>9.8803952158086322E-2</v>
       </c>
-      <c r="K221" s="76">
-        <f t="shared" si="34"/>
+      <c r="K221" s="72">
+        <f t="shared" si="33"/>
         <v>9.663545975898731E-2</v>
       </c>
-      <c r="L221" s="76">
-        <f t="shared" si="34"/>
+      <c r="L221" s="72">
+        <f t="shared" si="33"/>
         <v>9.8803952158086322E-2</v>
       </c>
-      <c r="M221" s="76">
-        <f t="shared" si="34"/>
+      <c r="M221" s="72">
+        <f t="shared" si="33"/>
         <v>9.8803952158086322E-2</v>
       </c>
-      <c r="N221" s="76">
-        <f t="shared" si="34"/>
+      <c r="N221" s="72">
+        <f t="shared" si="33"/>
         <v>9.8803952158086322E-2</v>
       </c>
-      <c r="O221" s="76">
-        <f t="shared" si="34"/>
+      <c r="O221" s="72">
+        <f t="shared" si="33"/>
         <v>9.8803952158086322E-2</v>
       </c>
-      <c r="P221" s="76">
-        <f t="shared" si="34"/>
+      <c r="P221" s="72">
+        <f t="shared" si="33"/>
         <v>9.8803952158086322E-2</v>
       </c>
-      <c r="Q221" s="76">
-        <f t="shared" si="34"/>
+      <c r="Q221" s="72">
+        <f t="shared" si="33"/>
         <v>9.8803952158086336E-2</v>
       </c>
-      <c r="R221" s="76">
-        <f t="shared" si="34"/>
+      <c r="R221" s="72">
+        <f t="shared" si="33"/>
         <v>9.8803952158086322E-2</v>
       </c>
-      <c r="S221" s="76">
-        <f t="shared" si="34"/>
+      <c r="S221" s="72">
+        <f t="shared" si="33"/>
         <v>9.8803952158086336E-2</v>
       </c>
-      <c r="T221" s="76">
-        <f t="shared" si="34"/>
+      <c r="T221" s="72">
+        <f t="shared" si="33"/>
         <v>9.8803952158086322E-2</v>
       </c>
-      <c r="U221" s="76">
-        <f t="shared" si="34"/>
+      <c r="U221" s="72">
+        <f t="shared" si="33"/>
         <v>9.4681124212745368E-2</v>
       </c>
-      <c r="V221" s="76">
-        <f t="shared" si="34"/>
+      <c r="V221" s="72">
+        <f t="shared" si="33"/>
         <v>9.8803952158086322E-2</v>
       </c>
-      <c r="W221" s="76">
-        <f t="shared" si="34"/>
+      <c r="W221" s="72">
+        <f t="shared" si="33"/>
         <v>9.8803952158086336E-2</v>
       </c>
-      <c r="X221" s="76">
-        <f t="shared" si="34"/>
+      <c r="X221" s="72">
+        <f t="shared" si="33"/>
         <v>8.8718631756557781E-2</v>
       </c>
-      <c r="Y221" s="76">
-        <f t="shared" si="34"/>
+      <c r="Y221" s="72">
+        <f t="shared" si="33"/>
         <v>9.8803952158086336E-2</v>
       </c>
-      <c r="Z221" s="76">
-        <f t="shared" si="34"/>
+      <c r="Z221" s="72">
+        <f t="shared" si="33"/>
         <v>9.8803952158086322E-2</v>
       </c>
-      <c r="AA221" s="76">
-        <f t="shared" si="34"/>
+      <c r="AA221" s="72">
+        <f t="shared" si="33"/>
         <v>9.8803952158086308E-2</v>
       </c>
-      <c r="AB221" s="76">
-        <f t="shared" si="34"/>
+      <c r="AB221" s="72">
+        <f t="shared" si="33"/>
         <v>9.8803952158086308E-2</v>
       </c>
-      <c r="AC221" s="76">
-        <f t="shared" si="34"/>
+      <c r="AC221" s="72">
+        <f t="shared" si="33"/>
         <v>9.8803952158086322E-2</v>
       </c>
     </row>
     <row r="222" spans="1:29">
-      <c r="A222" s="79" t="s">
+      <c r="A222" s="75" t="s">
         <v>235</v>
       </c>
-      <c r="B222" s="73" t="s">
+      <c r="B222" s="69" t="s">
         <v>236</v>
       </c>
-      <c r="C222" s="76">
+      <c r="C222" s="72">
         <f>C203/C205</f>
         <v>0.86921736291355889</v>
       </c>
-      <c r="D222" s="76">
-        <f t="shared" ref="D222:AC222" si="35">D203/D205</f>
+      <c r="D222" s="72">
+        <f t="shared" ref="D222:AC222" si="34">D203/D205</f>
         <v>0.87588836886808807</v>
       </c>
-      <c r="E222" s="76">
-        <f t="shared" si="35"/>
+      <c r="E222" s="72">
+        <f t="shared" si="34"/>
         <v>0.86650875377904113</v>
       </c>
-      <c r="F222" s="76">
-        <f t="shared" si="35"/>
+      <c r="F222" s="72">
+        <f t="shared" si="34"/>
         <v>0.87588836886808807</v>
       </c>
-      <c r="G222" s="76">
-        <f t="shared" si="35"/>
+      <c r="G222" s="72">
+        <f t="shared" si="34"/>
         <v>0.87588836886808807</v>
       </c>
-      <c r="H222" s="76">
-        <f t="shared" si="35"/>
+      <c r="H222" s="72">
+        <f t="shared" si="34"/>
         <v>0.87588836886808807</v>
       </c>
-      <c r="I222" s="76">
-        <f t="shared" si="35"/>
+      <c r="I222" s="72">
+        <f t="shared" si="34"/>
         <v>0.87588836886808807</v>
       </c>
-      <c r="J222" s="76">
+      <c r="J222" s="72">
         <f>J203/J205</f>
         <v>0.87588836886808807</v>
       </c>
-      <c r="K222" s="76">
-        <f t="shared" si="35"/>
+      <c r="K222" s="72">
+        <f t="shared" si="34"/>
         <v>0.85666487396870683</v>
       </c>
-      <c r="L222" s="76">
-        <f t="shared" si="35"/>
+      <c r="L222" s="72">
+        <f t="shared" si="34"/>
         <v>0.87588836886808807</v>
       </c>
-      <c r="M222" s="76">
-        <f t="shared" si="35"/>
+      <c r="M222" s="72">
+        <f t="shared" si="34"/>
         <v>0.87588836886808796</v>
       </c>
-      <c r="N222" s="76">
-        <f t="shared" si="35"/>
+      <c r="N222" s="72">
+        <f t="shared" si="34"/>
         <v>0.87588836886808807</v>
       </c>
-      <c r="O222" s="76">
-        <f t="shared" si="35"/>
+      <c r="O222" s="72">
+        <f t="shared" si="34"/>
         <v>0.87588836886808796</v>
       </c>
-      <c r="P222" s="76">
-        <f t="shared" si="35"/>
+      <c r="P222" s="72">
+        <f t="shared" si="34"/>
         <v>0.87588836886808807</v>
       </c>
-      <c r="Q222" s="76">
-        <f t="shared" si="35"/>
+      <c r="Q222" s="72">
+        <f t="shared" si="34"/>
         <v>0.87588836886808807</v>
       </c>
-      <c r="R222" s="76">
-        <f t="shared" si="35"/>
+      <c r="R222" s="72">
+        <f t="shared" si="34"/>
         <v>0.87588836886808807</v>
       </c>
-      <c r="S222" s="76">
-        <f t="shared" si="35"/>
+      <c r="S222" s="72">
+        <f t="shared" si="34"/>
         <v>0.87588836886808807</v>
       </c>
-      <c r="T222" s="76">
-        <f t="shared" si="35"/>
+      <c r="T222" s="72">
+        <f t="shared" si="34"/>
         <v>0.87588836886808796</v>
       </c>
-      <c r="U222" s="76">
-        <f t="shared" si="35"/>
+      <c r="U222" s="72">
+        <f t="shared" si="34"/>
         <v>0.83933986078421474</v>
       </c>
-      <c r="V222" s="76">
-        <f t="shared" si="35"/>
+      <c r="V222" s="72">
+        <f t="shared" si="34"/>
         <v>0.87588836886808807</v>
       </c>
-      <c r="W222" s="76">
-        <f t="shared" si="35"/>
+      <c r="W222" s="72">
+        <f t="shared" si="34"/>
         <v>0.87588836886808807</v>
       </c>
-      <c r="X222" s="76">
-        <f t="shared" si="35"/>
+      <c r="X222" s="72">
+        <f t="shared" si="34"/>
         <v>0.78648288818576562</v>
       </c>
-      <c r="Y222" s="76">
-        <f t="shared" si="35"/>
+      <c r="Y222" s="72">
+        <f t="shared" si="34"/>
         <v>0.87588836886808819</v>
       </c>
-      <c r="Z222" s="76">
-        <f t="shared" si="35"/>
+      <c r="Z222" s="72">
+        <f t="shared" si="34"/>
         <v>0.87588836886808807</v>
       </c>
-      <c r="AA222" s="76">
-        <f t="shared" si="35"/>
+      <c r="AA222" s="72">
+        <f t="shared" si="34"/>
         <v>0.87588836886808796</v>
       </c>
-      <c r="AB222" s="76">
-        <f t="shared" si="35"/>
+      <c r="AB222" s="72">
+        <f t="shared" si="34"/>
         <v>0.87588836886808807</v>
       </c>
-      <c r="AC222" s="76">
-        <f t="shared" si="35"/>
+      <c r="AC222" s="72">
+        <f t="shared" si="34"/>
         <v>0.87588836886808819</v>
       </c>
     </row>
     <row r="223" spans="1:29">
-      <c r="A223" s="79" t="s">
+      <c r="A223" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="B223" s="73" t="s">
+      <c r="B223" s="69" t="s">
         <v>249</v>
       </c>
-      <c r="C223" s="76">
+      <c r="C223" s="77">
         <f>C204/C205</f>
         <v>7.616274164195384E-3</v>
       </c>
-      <c r="D223" s="76">
-        <f t="shared" ref="D223:AC223" si="36">D204/D205</f>
-        <v>0</v>
-      </c>
-      <c r="E223" s="76">
-        <f t="shared" si="36"/>
+      <c r="D223" s="72">
+        <f t="shared" ref="D223:AC223" si="35">D204/D205</f>
+        <v>0</v>
+      </c>
+      <c r="E223" s="72">
+        <f t="shared" si="35"/>
         <v>1.070868779907224E-2</v>
       </c>
-      <c r="F223" s="76">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="G223" s="76">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="H223" s="76">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="I223" s="76">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="J223" s="76">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="K223" s="76">
-        <f t="shared" si="36"/>
+      <c r="F223" s="72">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="G223" s="72">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="H223" s="72">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="I223" s="72">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="J223" s="72">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="K223" s="72">
+        <f t="shared" si="35"/>
         <v>2.1947425702460069E-2</v>
       </c>
-      <c r="L223" s="76">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="M223" s="76">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="N223" s="76">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="O223" s="76">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="P223" s="76">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="Q223" s="76">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="R223" s="76">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="S223" s="76">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="T223" s="76">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="U223" s="76">
-        <f t="shared" si="36"/>
+      <c r="L223" s="72">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="M223" s="72">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="N223" s="72">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="O223" s="72">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="P223" s="72">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="Q223" s="72">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="R223" s="72">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="S223" s="72">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T223" s="72">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="U223" s="72">
+        <f t="shared" si="35"/>
         <v>4.1727358625740237E-2</v>
       </c>
-      <c r="V223" s="76">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="W223" s="76">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="X223" s="76">
-        <f t="shared" si="36"/>
+      <c r="V223" s="72">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="W223" s="72">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="X223" s="72">
+        <f t="shared" si="35"/>
         <v>0.10207405859020728</v>
       </c>
-      <c r="Y223" s="76">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="Z223" s="76">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="AA223" s="76">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="AB223" s="76">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="AC223" s="76">
-        <f t="shared" si="36"/>
+      <c r="Y223" s="72">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="Z223" s="72">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AA223" s="72">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AB223" s="72">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AC223" s="72">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:29">
-      <c r="A224" s="77"/>
-      <c r="B224" s="77" t="s">
+      <c r="A224" s="73"/>
+      <c r="B224" s="73" t="s">
         <v>216</v>
       </c>
-      <c r="C224" s="78">
+      <c r="C224" s="74">
         <f>SUM(C220:C223)</f>
         <v>1</v>
       </c>
-      <c r="D224" s="78">
-        <f t="shared" ref="D224:AC224" si="37">SUM(D220:D223)</f>
+      <c r="D224" s="74">
+        <f t="shared" ref="D224:AC224" si="36">SUM(D220:D223)</f>
         <v>1</v>
       </c>
-      <c r="E224" s="78">
-        <f t="shared" si="37"/>
+      <c r="E224" s="74">
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="F224" s="78">
-        <f t="shared" si="37"/>
+      <c r="F224" s="74">
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="G224" s="78">
-        <f t="shared" si="37"/>
+      <c r="G224" s="74">
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="H224" s="78">
-        <f t="shared" si="37"/>
+      <c r="H224" s="74">
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="I224" s="78">
-        <f t="shared" si="37"/>
+      <c r="I224" s="74">
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="J224" s="78">
-        <f t="shared" si="37"/>
+      <c r="J224" s="74">
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="K224" s="78">
-        <f t="shared" si="37"/>
+      <c r="K224" s="74">
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="L224" s="78">
-        <f t="shared" si="37"/>
+      <c r="L224" s="74">
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="M224" s="78">
-        <f t="shared" si="37"/>
+      <c r="M224" s="74">
+        <f t="shared" si="36"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="N224" s="78">
-        <f t="shared" si="37"/>
+      <c r="N224" s="74">
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="O224" s="78">
-        <f t="shared" si="37"/>
+      <c r="O224" s="74">
+        <f t="shared" si="36"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="P224" s="78">
-        <f t="shared" si="37"/>
+      <c r="P224" s="74">
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="Q224" s="78">
-        <f t="shared" si="37"/>
+      <c r="Q224" s="74">
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="R224" s="78">
-        <f t="shared" si="37"/>
+      <c r="R224" s="74">
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="S224" s="78">
-        <f t="shared" si="37"/>
+      <c r="S224" s="74">
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="T224" s="78">
-        <f t="shared" si="37"/>
+      <c r="T224" s="74">
+        <f t="shared" si="36"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="U224" s="78">
-        <f t="shared" si="37"/>
+      <c r="U224" s="74">
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="V224" s="78">
-        <f t="shared" si="37"/>
+      <c r="V224" s="74">
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="W224" s="78">
-        <f t="shared" si="37"/>
+      <c r="W224" s="74">
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="X224" s="78">
-        <f t="shared" si="37"/>
+      <c r="X224" s="74">
+        <f t="shared" si="36"/>
         <v>0.99999999999999978</v>
       </c>
-      <c r="Y224" s="78">
-        <f t="shared" si="37"/>
+      <c r="Y224" s="74">
+        <f t="shared" si="36"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="Z224" s="78">
-        <f t="shared" si="37"/>
+      <c r="Z224" s="74">
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="AA224" s="78">
-        <f t="shared" si="37"/>
+      <c r="AA224" s="74">
+        <f t="shared" si="36"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="AB224" s="78">
-        <f t="shared" si="37"/>
+      <c r="AB224" s="74">
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="AC224" s="78">
-        <f t="shared" si="37"/>
+      <c r="AC224" s="74">
+        <f t="shared" si="36"/>
         <v>1.0000000000000002</v>
       </c>
     </row>

--- a/SuppXLS/Scen_TRA_ActiveModes.xlsx
+++ b/SuppXLS/Scen_TRA_ActiveModes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Irish-TIMES-model\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_Irish-TIMES-model\tra-updates\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39916E61-861A-40F1-BC30-1101F1E79DBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D166B2F-79B6-42D4-95D3-BE7ABAD557BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="251">
   <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
@@ -969,18 +969,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>FX</t>
-  </si>
-  <si>
-    <t>T-LGT*</t>
-  </si>
-  <si>
-    <t>T-MGT*</t>
-  </si>
-  <si>
-    <t>T-HGT*</t>
   </si>
   <si>
     <t>T-GTR*</t>
@@ -1408,7 +1396,7 @@
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1546,20 +1534,10 @@
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1573,6 +1551,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -3235,8 +3216,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:AQ224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N81" sqref="N81"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L92" sqref="L92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3254,46 +3235,46 @@
       </c>
     </row>
     <row r="3" spans="2:43" s="35" customFormat="1" ht="25.95" customHeight="1">
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="96" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="4" spans="2:43" s="35" customFormat="1" ht="24" customHeight="1">
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94" t="s">
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
     </row>
     <row r="5" spans="2:43">
       <c r="C5" s="15"/>
@@ -3498,11 +3479,11 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="93" t="s">
+      <c r="K10" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
@@ -8667,1044 +8648,1103 @@
     <row r="73" spans="3:42" s="15" customFormat="1"/>
     <row r="74" spans="3:42" s="15" customFormat="1"/>
     <row r="75" spans="3:42" s="15" customFormat="1">
-      <c r="C75" s="84"/>
-      <c r="D75" s="84"/>
-      <c r="E75" s="84"/>
-      <c r="F75" s="84"/>
-      <c r="G75" s="84"/>
-      <c r="H75" s="84"/>
-      <c r="I75" s="84"/>
-      <c r="J75" s="84"/>
-      <c r="K75" s="84" t="s">
+      <c r="C75" s="81"/>
+      <c r="D75" s="81"/>
+      <c r="E75" s="81"/>
+      <c r="F75" s="81"/>
+      <c r="G75" s="81"/>
+      <c r="H75" s="81"/>
+      <c r="I75" s="81"/>
+      <c r="J75" s="81"/>
+      <c r="K75" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="L75" s="84"/>
-      <c r="M75" s="84"/>
-      <c r="N75" s="84"/>
-      <c r="O75" s="84"/>
-      <c r="P75" s="84"/>
-      <c r="Q75" s="84"/>
-      <c r="R75" s="84"/>
-      <c r="S75" s="84"/>
-      <c r="T75" s="84"/>
-      <c r="U75" s="84"/>
-      <c r="V75" s="84"/>
-      <c r="W75" s="84"/>
-      <c r="X75" s="84"/>
-      <c r="Y75" s="84"/>
-      <c r="Z75" s="84"/>
-      <c r="AA75" s="84"/>
-      <c r="AB75" s="84"/>
-      <c r="AC75" s="84"/>
-      <c r="AD75" s="84"/>
-      <c r="AE75" s="84"/>
-      <c r="AF75" s="84"/>
-      <c r="AG75" s="84"/>
-      <c r="AH75" s="84"/>
-      <c r="AI75" s="84"/>
-      <c r="AJ75" s="84"/>
-      <c r="AK75" s="84"/>
-      <c r="AL75" s="84"/>
-      <c r="AM75" s="84"/>
-      <c r="AN75" s="84"/>
-      <c r="AO75" s="84"/>
+      <c r="L75" s="81"/>
+      <c r="M75" s="81"/>
+      <c r="N75" s="81"/>
+      <c r="O75" s="81"/>
+      <c r="P75" s="81"/>
+      <c r="Q75" s="81"/>
+      <c r="R75" s="81"/>
+      <c r="S75" s="81"/>
+      <c r="T75" s="81"/>
+      <c r="U75" s="81"/>
+      <c r="V75" s="81"/>
+      <c r="W75" s="81"/>
+      <c r="X75" s="81"/>
+      <c r="Y75" s="81"/>
+      <c r="Z75" s="81"/>
+      <c r="AA75" s="81"/>
+      <c r="AB75" s="81"/>
+      <c r="AC75" s="81"/>
+      <c r="AD75" s="81"/>
+      <c r="AE75" s="81"/>
+      <c r="AF75" s="81"/>
+      <c r="AG75" s="81"/>
+      <c r="AH75" s="81"/>
+      <c r="AI75" s="81"/>
+      <c r="AJ75" s="81"/>
+      <c r="AK75" s="81"/>
+      <c r="AL75" s="81"/>
+      <c r="AM75" s="81"/>
+      <c r="AN75" s="81"/>
+      <c r="AO75" s="81"/>
     </row>
     <row r="76" spans="3:42" s="15" customFormat="1">
-      <c r="C76" s="81" t="s">
+      <c r="C76" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D76" s="79" t="s">
+      <c r="D76" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E76" s="79" t="s">
+      <c r="E76" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F76" s="79" t="s">
+      <c r="F76" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G76" s="79" t="s">
+      <c r="G76" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H76" s="80" t="s">
+      <c r="H76" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I76" s="80" t="s">
+      <c r="I76" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J76" s="80" t="s">
+      <c r="J76" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="80" t="s">
+      <c r="K76" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="L76" s="80" t="s">
+      <c r="L76" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M76" s="81" t="s">
+      <c r="M76" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="N76" s="82" t="s">
-        <v>84</v>
-      </c>
-      <c r="O76" s="82" t="s">
-        <v>90</v>
-      </c>
-      <c r="P76" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q76" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="R76" s="82" t="s">
-        <v>99</v>
-      </c>
-      <c r="S76" s="82" t="s">
-        <v>100</v>
-      </c>
-      <c r="T76" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="U76" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="V76" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="W76" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="X76" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y76" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z76" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA76" s="82" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB76" s="82" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC76" s="82" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD76" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE76" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF76" s="82" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG76" s="82" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH76" s="82" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI76" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="AJ76" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK76" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL76" s="82" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM76" s="82" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN76" s="82" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO76" s="81" t="s">
+      <c r="N76" s="79" t="str">
+        <f>Regions!C$3</f>
+        <v>IE</v>
+      </c>
+      <c r="O76" s="79" t="str">
+        <f>Regions!D$3</f>
+        <v>National</v>
+      </c>
+      <c r="P76" s="79" t="str">
+        <f>Regions!E$3</f>
+        <v>IE-CW</v>
+      </c>
+      <c r="Q76" s="79" t="str">
+        <f>Regions!F$3</f>
+        <v>IE-D</v>
+      </c>
+      <c r="R76" s="79" t="str">
+        <f>Regions!G$3</f>
+        <v>IE-KE</v>
+      </c>
+      <c r="S76" s="79" t="str">
+        <f>Regions!H$3</f>
+        <v>IE-KK</v>
+      </c>
+      <c r="T76" s="79" t="str">
+        <f>Regions!I$3</f>
+        <v>IE-LS</v>
+      </c>
+      <c r="U76" s="79" t="str">
+        <f>Regions!J$3</f>
+        <v>IE-LD</v>
+      </c>
+      <c r="V76" s="79" t="str">
+        <f>Regions!K$3</f>
+        <v>IE-LH</v>
+      </c>
+      <c r="W76" s="79" t="str">
+        <f>Regions!L$3</f>
+        <v>IE-MH</v>
+      </c>
+      <c r="X76" s="79" t="str">
+        <f>Regions!M$3</f>
+        <v>IE-OY</v>
+      </c>
+      <c r="Y76" s="79" t="str">
+        <f>Regions!N$3</f>
+        <v>IE-WH</v>
+      </c>
+      <c r="Z76" s="79" t="str">
+        <f>Regions!O$3</f>
+        <v>IE-WX</v>
+      </c>
+      <c r="AA76" s="79" t="str">
+        <f>Regions!P$3</f>
+        <v>IE-WW</v>
+      </c>
+      <c r="AB76" s="79" t="str">
+        <f>Regions!Q$3</f>
+        <v>IE-CE</v>
+      </c>
+      <c r="AC76" s="79" t="str">
+        <f>Regions!R$3</f>
+        <v>IE-CO</v>
+      </c>
+      <c r="AD76" s="79" t="str">
+        <f>Regions!S$3</f>
+        <v>IE-KY</v>
+      </c>
+      <c r="AE76" s="79" t="str">
+        <f>Regions!T$3</f>
+        <v>IE-LK</v>
+      </c>
+      <c r="AF76" s="79" t="str">
+        <f>Regions!U$3</f>
+        <v>IE-TA</v>
+      </c>
+      <c r="AG76" s="79" t="str">
+        <f>Regions!V$3</f>
+        <v>IE-WD</v>
+      </c>
+      <c r="AH76" s="79" t="str">
+        <f>Regions!W$3</f>
+        <v>IE-G</v>
+      </c>
+      <c r="AI76" s="79" t="str">
+        <f>Regions!X$3</f>
+        <v>IE-LM</v>
+      </c>
+      <c r="AJ76" s="79" t="str">
+        <f>Regions!Y$3</f>
+        <v>IE-MO</v>
+      </c>
+      <c r="AK76" s="79" t="str">
+        <f>Regions!Z$3</f>
+        <v>IE-RN</v>
+      </c>
+      <c r="AL76" s="79" t="str">
+        <f>Regions!AA$3</f>
+        <v>IE-SO</v>
+      </c>
+      <c r="AM76" s="79" t="str">
+        <f>Regions!AB$3</f>
+        <v>IE-CN</v>
+      </c>
+      <c r="AN76" s="79" t="str">
+        <f>Regions!AC$3</f>
+        <v>IE-DL</v>
+      </c>
+      <c r="AO76" s="79" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="77" spans="3:42" s="15" customFormat="1">
-      <c r="C77" s="84" t="s">
+      <c r="C77" s="78" t="s">
         <v>238</v>
       </c>
-      <c r="D77" s="84"/>
-      <c r="E77" s="84" t="s">
-        <v>251</v>
-      </c>
-      <c r="F77" s="84"/>
-      <c r="G77" s="84"/>
-      <c r="H77" s="84" t="s">
+      <c r="D77" s="78"/>
+      <c r="E77" s="78" t="str">
+        <f>LEFT(C121,5)&amp;"*"</f>
+        <v>T-LGT*</v>
+      </c>
+      <c r="F77" s="78"/>
+      <c r="G77" s="78"/>
+      <c r="H77" s="78" t="s">
         <v>246</v>
       </c>
-      <c r="I77" s="84"/>
+      <c r="I77" s="78"/>
       <c r="J77" s="78">
         <v>2018</v>
       </c>
       <c r="K77" s="78" t="s">
-        <v>250</v>
-      </c>
-      <c r="L77" s="84">
+        <v>122</v>
+      </c>
+      <c r="L77" s="78">
         <v>-1</v>
       </c>
-      <c r="M77" s="84" t="s">
+      <c r="M77" s="78" t="s">
         <v>239</v>
       </c>
-      <c r="N77" s="88">
-        <f>ROUNDUP(C220,5)</f>
-        <v>2.512E-2</v>
-      </c>
-      <c r="O77" s="88">
-        <f t="shared" ref="O77:AN77" si="27">ROUNDUP(D220,5)</f>
-        <v>2.5309999999999999E-2</v>
-      </c>
-      <c r="P77" s="88">
+      <c r="N77" s="89">
+        <f>ROUNDDOWN(C220,5)</f>
+        <v>2.511E-2</v>
+      </c>
+      <c r="O77" s="89">
+        <f t="shared" ref="O77:AN77" si="27">ROUNDDOWN(D220,5)</f>
+        <v>2.53E-2</v>
+      </c>
+      <c r="P77" s="89">
         <f t="shared" si="27"/>
-        <v>2.504E-2</v>
-      </c>
-      <c r="Q77" s="88">
+        <v>2.503E-2</v>
+      </c>
+      <c r="Q77" s="89">
         <f t="shared" si="27"/>
-        <v>2.5309999999999999E-2</v>
-      </c>
-      <c r="R77" s="88">
+        <v>2.53E-2</v>
+      </c>
+      <c r="R77" s="89">
         <f t="shared" si="27"/>
-        <v>2.5309999999999999E-2</v>
-      </c>
-      <c r="S77" s="88">
+        <v>2.53E-2</v>
+      </c>
+      <c r="S77" s="89">
         <f t="shared" si="27"/>
-        <v>2.5309999999999999E-2</v>
-      </c>
-      <c r="T77" s="88">
+        <v>2.53E-2</v>
+      </c>
+      <c r="T77" s="89">
         <f t="shared" si="27"/>
-        <v>2.5309999999999999E-2</v>
-      </c>
-      <c r="U77" s="88">
+        <v>2.53E-2</v>
+      </c>
+      <c r="U77" s="89">
         <f t="shared" si="27"/>
-        <v>2.5309999999999999E-2</v>
-      </c>
-      <c r="V77" s="88">
+        <v>2.53E-2</v>
+      </c>
+      <c r="V77" s="89">
         <f t="shared" si="27"/>
-        <v>2.4760000000000001E-2</v>
-      </c>
-      <c r="W77" s="88">
+        <v>2.4750000000000001E-2</v>
+      </c>
+      <c r="W77" s="89">
         <f t="shared" si="27"/>
-        <v>2.5309999999999999E-2</v>
-      </c>
-      <c r="X77" s="88">
+        <v>2.53E-2</v>
+      </c>
+      <c r="X77" s="89">
         <f t="shared" si="27"/>
-        <v>2.5309999999999999E-2</v>
-      </c>
-      <c r="Y77" s="88">
+        <v>2.53E-2</v>
+      </c>
+      <c r="Y77" s="89">
         <f t="shared" si="27"/>
-        <v>2.5309999999999999E-2</v>
-      </c>
-      <c r="Z77" s="88">
+        <v>2.53E-2</v>
+      </c>
+      <c r="Z77" s="89">
         <f t="shared" si="27"/>
-        <v>2.5309999999999999E-2</v>
-      </c>
-      <c r="AA77" s="88">
+        <v>2.53E-2</v>
+      </c>
+      <c r="AA77" s="89">
         <f t="shared" si="27"/>
-        <v>2.5309999999999999E-2</v>
-      </c>
-      <c r="AB77" s="88">
+        <v>2.53E-2</v>
+      </c>
+      <c r="AB77" s="89">
         <f t="shared" si="27"/>
-        <v>2.5309999999999999E-2</v>
-      </c>
-      <c r="AC77" s="88">
+        <v>2.53E-2</v>
+      </c>
+      <c r="AC77" s="89">
         <f t="shared" si="27"/>
-        <v>2.5309999999999999E-2</v>
-      </c>
-      <c r="AD77" s="88">
+        <v>2.53E-2</v>
+      </c>
+      <c r="AD77" s="89">
         <f t="shared" si="27"/>
-        <v>2.5309999999999999E-2</v>
-      </c>
-      <c r="AE77" s="88">
+        <v>2.53E-2</v>
+      </c>
+      <c r="AE77" s="89">
         <f t="shared" si="27"/>
-        <v>2.5309999999999999E-2</v>
-      </c>
-      <c r="AF77" s="88">
+        <v>2.53E-2</v>
+      </c>
+      <c r="AF77" s="89">
         <f t="shared" si="27"/>
-        <v>2.426E-2</v>
-      </c>
-      <c r="AG77" s="88">
+        <v>2.4250000000000001E-2</v>
+      </c>
+      <c r="AG77" s="89">
         <f t="shared" si="27"/>
-        <v>2.5309999999999999E-2</v>
-      </c>
-      <c r="AH77" s="88">
+        <v>2.53E-2</v>
+      </c>
+      <c r="AH77" s="89">
         <f t="shared" si="27"/>
-        <v>2.5309999999999999E-2</v>
-      </c>
-      <c r="AI77" s="88">
+        <v>2.53E-2</v>
+      </c>
+      <c r="AI77" s="89">
         <f t="shared" si="27"/>
-        <v>2.273E-2</v>
-      </c>
-      <c r="AJ77" s="88">
+        <v>2.2720000000000001E-2</v>
+      </c>
+      <c r="AJ77" s="89">
         <f t="shared" si="27"/>
-        <v>2.5309999999999999E-2</v>
-      </c>
-      <c r="AK77" s="88">
+        <v>2.53E-2</v>
+      </c>
+      <c r="AK77" s="89">
         <f t="shared" si="27"/>
-        <v>2.5309999999999999E-2</v>
-      </c>
-      <c r="AL77" s="88">
+        <v>2.53E-2</v>
+      </c>
+      <c r="AL77" s="89">
         <f t="shared" si="27"/>
-        <v>2.5309999999999999E-2</v>
-      </c>
-      <c r="AM77" s="88">
+        <v>2.53E-2</v>
+      </c>
+      <c r="AM77" s="89">
         <f t="shared" si="27"/>
-        <v>2.5309999999999999E-2</v>
-      </c>
-      <c r="AN77" s="88">
+        <v>2.53E-2</v>
+      </c>
+      <c r="AN77" s="89">
         <f t="shared" si="27"/>
-        <v>2.5309999999999999E-2</v>
-      </c>
-      <c r="AO77" s="90">
+        <v>2.53E-2</v>
+      </c>
+      <c r="AO77" s="83">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="3:42" s="15" customFormat="1">
-      <c r="C78" s="84"/>
-      <c r="D78" s="84"/>
-      <c r="E78" s="84"/>
-      <c r="F78" s="84"/>
-      <c r="G78" s="84"/>
-      <c r="H78" s="84"/>
-      <c r="I78" s="84"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="78"/>
+      <c r="E78" s="78"/>
+      <c r="F78" s="78"/>
+      <c r="G78" s="78"/>
+      <c r="H78" s="78"/>
+      <c r="I78" s="78"/>
       <c r="J78" s="78">
         <v>0</v>
       </c>
       <c r="K78" s="78" t="s">
-        <v>250</v>
-      </c>
-      <c r="L78" s="84"/>
-      <c r="M78" s="84"/>
-      <c r="N78" s="88"/>
-      <c r="O78" s="88"/>
-      <c r="P78" s="88"/>
-      <c r="Q78" s="88"/>
-      <c r="R78" s="88"/>
-      <c r="S78" s="88"/>
-      <c r="T78" s="88"/>
-      <c r="U78" s="88"/>
-      <c r="V78" s="88"/>
-      <c r="W78" s="88"/>
-      <c r="X78" s="88"/>
-      <c r="Y78" s="88"/>
-      <c r="Z78" s="88"/>
-      <c r="AA78" s="88"/>
-      <c r="AB78" s="88"/>
-      <c r="AC78" s="88"/>
-      <c r="AD78" s="88"/>
-      <c r="AE78" s="88"/>
-      <c r="AF78" s="88"/>
-      <c r="AG78" s="88"/>
-      <c r="AH78" s="88"/>
-      <c r="AI78" s="88"/>
-      <c r="AJ78" s="88"/>
-      <c r="AK78" s="88"/>
-      <c r="AL78" s="88"/>
-      <c r="AM78" s="88"/>
-      <c r="AN78" s="88"/>
-      <c r="AO78" s="91">
+        <v>122</v>
+      </c>
+      <c r="L78" s="78"/>
+      <c r="M78" s="78"/>
+      <c r="N78" s="89"/>
+      <c r="O78" s="89"/>
+      <c r="P78" s="89"/>
+      <c r="Q78" s="89"/>
+      <c r="R78" s="89"/>
+      <c r="S78" s="89"/>
+      <c r="T78" s="89"/>
+      <c r="U78" s="89"/>
+      <c r="V78" s="89"/>
+      <c r="W78" s="89"/>
+      <c r="X78" s="89"/>
+      <c r="Y78" s="89"/>
+      <c r="Z78" s="89"/>
+      <c r="AA78" s="89"/>
+      <c r="AB78" s="89"/>
+      <c r="AC78" s="89"/>
+      <c r="AD78" s="89"/>
+      <c r="AE78" s="89"/>
+      <c r="AF78" s="89"/>
+      <c r="AG78" s="89"/>
+      <c r="AH78" s="89"/>
+      <c r="AI78" s="89"/>
+      <c r="AJ78" s="89"/>
+      <c r="AK78" s="89"/>
+      <c r="AL78" s="89"/>
+      <c r="AM78" s="89"/>
+      <c r="AN78" s="89"/>
+      <c r="AO78" s="83">
         <v>5</v>
       </c>
     </row>
     <row r="79" spans="3:42" s="15" customFormat="1">
-      <c r="C79" s="84" t="s">
+      <c r="C79" s="78" t="s">
         <v>240</v>
       </c>
-      <c r="D79" s="84"/>
-      <c r="E79" s="84" t="s">
-        <v>252</v>
-      </c>
-      <c r="F79" s="84"/>
-      <c r="G79" s="84"/>
-      <c r="H79" s="84" t="s">
-        <v>246</v>
-      </c>
-      <c r="I79" s="84"/>
+      <c r="D79" s="78"/>
+      <c r="E79" s="78" t="str">
+        <f>LEFT(C123,5)&amp;"*"</f>
+        <v>T-MGT*</v>
+      </c>
+      <c r="F79" s="78"/>
+      <c r="G79" s="78"/>
+      <c r="H79" s="78" t="str">
+        <f>H77</f>
+        <v>TRAF</v>
+      </c>
+      <c r="I79" s="78"/>
       <c r="J79" s="78">
         <v>2018</v>
       </c>
       <c r="K79" s="78" t="s">
-        <v>66</v>
-      </c>
-      <c r="L79" s="84">
+        <v>122</v>
+      </c>
+      <c r="L79" s="78">
         <v>-1</v>
       </c>
-      <c r="M79" s="84" t="s">
+      <c r="M79" s="78" t="s">
         <v>241</v>
       </c>
-      <c r="N79" s="88">
-        <f>ROUNDUP(C221,5)</f>
-        <v>9.8059999999999994E-2</v>
-      </c>
-      <c r="O79" s="88">
-        <f t="shared" ref="O79:AN79" si="28">ROUNDUP(D221,5)</f>
-        <v>9.8809999999999995E-2</v>
-      </c>
-      <c r="P79" s="88">
+      <c r="N79" s="89">
+        <f>ROUNDDOWN(C221,5)</f>
+        <v>9.8049999999999998E-2</v>
+      </c>
+      <c r="O79" s="89">
+        <f t="shared" ref="O79:AN79" si="28">ROUNDDOWN(D221,5)</f>
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="P79" s="89">
         <f t="shared" si="28"/>
-        <v>9.774999999999999E-2</v>
-      </c>
-      <c r="Q79" s="88">
+        <v>9.7739999999999994E-2</v>
+      </c>
+      <c r="Q79" s="89">
         <f t="shared" si="28"/>
-        <v>9.8809999999999995E-2</v>
-      </c>
-      <c r="R79" s="88">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="R79" s="89">
         <f t="shared" si="28"/>
-        <v>9.8809999999999995E-2</v>
-      </c>
-      <c r="S79" s="88">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="S79" s="89">
         <f t="shared" si="28"/>
-        <v>9.8809999999999995E-2</v>
-      </c>
-      <c r="T79" s="88">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="T79" s="89">
         <f t="shared" si="28"/>
-        <v>9.8809999999999995E-2</v>
-      </c>
-      <c r="U79" s="88">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="U79" s="89">
         <f t="shared" si="28"/>
-        <v>9.8809999999999995E-2</v>
-      </c>
-      <c r="V79" s="88">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="V79" s="89">
         <f t="shared" si="28"/>
-        <v>9.663999999999999E-2</v>
-      </c>
-      <c r="W79" s="88">
+        <v>9.6629999999999994E-2</v>
+      </c>
+      <c r="W79" s="89">
         <f t="shared" si="28"/>
-        <v>9.8809999999999995E-2</v>
-      </c>
-      <c r="X79" s="88">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="X79" s="89">
         <f t="shared" si="28"/>
-        <v>9.8809999999999995E-2</v>
-      </c>
-      <c r="Y79" s="88">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="Y79" s="89">
         <f t="shared" si="28"/>
-        <v>9.8809999999999995E-2</v>
-      </c>
-      <c r="Z79" s="88">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="Z79" s="89">
         <f t="shared" si="28"/>
-        <v>9.8809999999999995E-2</v>
-      </c>
-      <c r="AA79" s="88">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="AA79" s="89">
         <f t="shared" si="28"/>
-        <v>9.8809999999999995E-2</v>
-      </c>
-      <c r="AB79" s="88">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="AB79" s="89">
         <f t="shared" si="28"/>
-        <v>9.8809999999999995E-2</v>
-      </c>
-      <c r="AC79" s="88">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="AC79" s="89">
         <f t="shared" si="28"/>
-        <v>9.8809999999999995E-2</v>
-      </c>
-      <c r="AD79" s="88">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="AD79" s="89">
         <f t="shared" si="28"/>
-        <v>9.8809999999999995E-2</v>
-      </c>
-      <c r="AE79" s="88">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="AE79" s="89">
         <f t="shared" si="28"/>
-        <v>9.8809999999999995E-2</v>
-      </c>
-      <c r="AF79" s="88">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="AF79" s="89">
         <f t="shared" si="28"/>
-        <v>9.4689999999999996E-2</v>
-      </c>
-      <c r="AG79" s="88">
+        <v>9.468E-2</v>
+      </c>
+      <c r="AG79" s="89">
         <f t="shared" si="28"/>
-        <v>9.8809999999999995E-2</v>
-      </c>
-      <c r="AH79" s="88">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="AH79" s="89">
         <f t="shared" si="28"/>
-        <v>9.8809999999999995E-2</v>
-      </c>
-      <c r="AI79" s="88">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="AI79" s="89">
         <f t="shared" si="28"/>
-        <v>8.8719999999999993E-2</v>
-      </c>
-      <c r="AJ79" s="88">
+        <v>8.8709999999999997E-2</v>
+      </c>
+      <c r="AJ79" s="89">
         <f t="shared" si="28"/>
-        <v>9.8809999999999995E-2</v>
-      </c>
-      <c r="AK79" s="88">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="AK79" s="89">
         <f t="shared" si="28"/>
-        <v>9.8809999999999995E-2</v>
-      </c>
-      <c r="AL79" s="88">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="AL79" s="89">
         <f t="shared" si="28"/>
-        <v>9.8809999999999995E-2</v>
-      </c>
-      <c r="AM79" s="88">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="AM79" s="89">
         <f t="shared" si="28"/>
-        <v>9.8809999999999995E-2</v>
-      </c>
-      <c r="AN79" s="88">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="AN79" s="89">
         <f t="shared" si="28"/>
-        <v>9.8809999999999995E-2</v>
-      </c>
-      <c r="AO79" s="90">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="AO79" s="83">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="3:42" s="15" customFormat="1">
-      <c r="C80" s="84"/>
-      <c r="D80" s="84"/>
-      <c r="E80" s="84"/>
-      <c r="F80" s="84"/>
-      <c r="G80" s="84"/>
-      <c r="H80" s="84"/>
-      <c r="I80" s="84"/>
+      <c r="C80" s="78"/>
+      <c r="D80" s="78"/>
+      <c r="E80" s="78"/>
+      <c r="F80" s="78"/>
+      <c r="G80" s="78"/>
+      <c r="H80" s="78"/>
+      <c r="I80" s="78"/>
       <c r="J80" s="78">
         <v>0</v>
       </c>
       <c r="K80" s="78" t="s">
-        <v>66</v>
-      </c>
-      <c r="L80" s="84"/>
-      <c r="M80" s="84"/>
-      <c r="N80" s="88"/>
-      <c r="O80" s="88"/>
-      <c r="P80" s="88"/>
-      <c r="Q80" s="88"/>
-      <c r="R80" s="88"/>
-      <c r="S80" s="88"/>
-      <c r="T80" s="88"/>
-      <c r="U80" s="88"/>
-      <c r="V80" s="88"/>
-      <c r="W80" s="88"/>
-      <c r="X80" s="88"/>
-      <c r="Y80" s="88"/>
-      <c r="Z80" s="88"/>
-      <c r="AA80" s="88"/>
-      <c r="AB80" s="88"/>
-      <c r="AC80" s="88"/>
-      <c r="AD80" s="88"/>
-      <c r="AE80" s="88"/>
-      <c r="AF80" s="88"/>
-      <c r="AG80" s="88"/>
-      <c r="AH80" s="88"/>
-      <c r="AI80" s="88"/>
-      <c r="AJ80" s="88"/>
-      <c r="AK80" s="88"/>
-      <c r="AL80" s="88"/>
-      <c r="AM80" s="88"/>
-      <c r="AN80" s="88"/>
-      <c r="AO80" s="91">
+        <v>122</v>
+      </c>
+      <c r="L80" s="78"/>
+      <c r="M80" s="78"/>
+      <c r="N80" s="89"/>
+      <c r="O80" s="89"/>
+      <c r="P80" s="89"/>
+      <c r="Q80" s="89"/>
+      <c r="R80" s="89"/>
+      <c r="S80" s="89"/>
+      <c r="T80" s="89"/>
+      <c r="U80" s="89"/>
+      <c r="V80" s="89"/>
+      <c r="W80" s="89"/>
+      <c r="X80" s="89"/>
+      <c r="Y80" s="89"/>
+      <c r="Z80" s="89"/>
+      <c r="AA80" s="89"/>
+      <c r="AB80" s="89"/>
+      <c r="AC80" s="89"/>
+      <c r="AD80" s="89"/>
+      <c r="AE80" s="89"/>
+      <c r="AF80" s="89"/>
+      <c r="AG80" s="89"/>
+      <c r="AH80" s="89"/>
+      <c r="AI80" s="89"/>
+      <c r="AJ80" s="89"/>
+      <c r="AK80" s="89"/>
+      <c r="AL80" s="89"/>
+      <c r="AM80" s="89"/>
+      <c r="AN80" s="89"/>
+      <c r="AO80" s="83">
         <v>5</v>
       </c>
     </row>
     <row r="81" spans="3:41" s="15" customFormat="1">
-      <c r="C81" s="84" t="s">
+      <c r="C81" s="78" t="s">
         <v>242</v>
       </c>
-      <c r="D81" s="84"/>
-      <c r="E81" s="84" t="s">
-        <v>253</v>
-      </c>
-      <c r="F81" s="84"/>
-      <c r="G81" s="84"/>
-      <c r="H81" s="84" t="s">
-        <v>246</v>
-      </c>
-      <c r="I81" s="84"/>
+      <c r="D81" s="78"/>
+      <c r="E81" s="78" t="str">
+        <f>LEFT(C124,5)&amp;"*"</f>
+        <v>T-HGT*</v>
+      </c>
+      <c r="F81" s="78"/>
+      <c r="G81" s="78"/>
+      <c r="H81" s="78" t="str">
+        <f>H79</f>
+        <v>TRAF</v>
+      </c>
+      <c r="I81" s="78"/>
       <c r="J81" s="78">
         <v>2018</v>
       </c>
       <c r="K81" s="78" t="s">
-        <v>66</v>
-      </c>
-      <c r="L81" s="84">
+        <v>122</v>
+      </c>
+      <c r="L81" s="78">
         <v>-1</v>
       </c>
-      <c r="M81" s="84" t="s">
+      <c r="M81" s="78" t="s">
         <v>243</v>
       </c>
-      <c r="N81" s="88">
-        <f>ROUNDUP(C222,5)</f>
-        <v>0.86921999999999999</v>
-      </c>
-      <c r="O81" s="88">
-        <f t="shared" ref="O81:AN81" si="29">ROUNDUP(D222,5)</f>
-        <v>0.87588999999999995</v>
-      </c>
-      <c r="P81" s="88">
+      <c r="N81" s="89">
+        <f>ROUNDDOWN(C222,5)</f>
+        <v>0.86921000000000004</v>
+      </c>
+      <c r="O81" s="89">
+        <f t="shared" ref="O81:AN81" si="29">ROUNDDOWN(D222,5)</f>
+        <v>0.87587999999999999</v>
+      </c>
+      <c r="P81" s="89">
         <f t="shared" si="29"/>
-        <v>0.86651</v>
-      </c>
-      <c r="Q81" s="88">
+        <v>0.86650000000000005</v>
+      </c>
+      <c r="Q81" s="89">
         <f t="shared" si="29"/>
-        <v>0.87588999999999995</v>
-      </c>
-      <c r="R81" s="88">
+        <v>0.87587999999999999</v>
+      </c>
+      <c r="R81" s="89">
         <f t="shared" si="29"/>
-        <v>0.87588999999999995</v>
-      </c>
-      <c r="S81" s="88">
+        <v>0.87587999999999999</v>
+      </c>
+      <c r="S81" s="89">
         <f t="shared" si="29"/>
-        <v>0.87588999999999995</v>
-      </c>
-      <c r="T81" s="88">
+        <v>0.87587999999999999</v>
+      </c>
+      <c r="T81" s="89">
         <f t="shared" si="29"/>
-        <v>0.87588999999999995</v>
-      </c>
-      <c r="U81" s="88">
+        <v>0.87587999999999999</v>
+      </c>
+      <c r="U81" s="89">
         <f t="shared" si="29"/>
-        <v>0.87588999999999995</v>
-      </c>
-      <c r="V81" s="88">
+        <v>0.87587999999999999</v>
+      </c>
+      <c r="V81" s="89">
         <f t="shared" si="29"/>
-        <v>0.85666999999999993</v>
-      </c>
-      <c r="W81" s="88">
+        <v>0.85665999999999998</v>
+      </c>
+      <c r="W81" s="89">
         <f t="shared" si="29"/>
-        <v>0.87588999999999995</v>
-      </c>
-      <c r="X81" s="88">
+        <v>0.87587999999999999</v>
+      </c>
+      <c r="X81" s="89">
         <f t="shared" si="29"/>
-        <v>0.87588999999999995</v>
-      </c>
-      <c r="Y81" s="88">
+        <v>0.87587999999999999</v>
+      </c>
+      <c r="Y81" s="89">
         <f t="shared" si="29"/>
-        <v>0.87588999999999995</v>
-      </c>
-      <c r="Z81" s="88">
+        <v>0.87587999999999999</v>
+      </c>
+      <c r="Z81" s="89">
         <f t="shared" si="29"/>
-        <v>0.87588999999999995</v>
-      </c>
-      <c r="AA81" s="88">
+        <v>0.87587999999999999</v>
+      </c>
+      <c r="AA81" s="89">
         <f t="shared" si="29"/>
-        <v>0.87588999999999995</v>
-      </c>
-      <c r="AB81" s="88">
+        <v>0.87587999999999999</v>
+      </c>
+      <c r="AB81" s="89">
         <f t="shared" si="29"/>
-        <v>0.87588999999999995</v>
-      </c>
-      <c r="AC81" s="88">
+        <v>0.87587999999999999</v>
+      </c>
+      <c r="AC81" s="89">
         <f t="shared" si="29"/>
-        <v>0.87588999999999995</v>
-      </c>
-      <c r="AD81" s="88">
+        <v>0.87587999999999999</v>
+      </c>
+      <c r="AD81" s="89">
         <f t="shared" si="29"/>
-        <v>0.87588999999999995</v>
-      </c>
-      <c r="AE81" s="88">
+        <v>0.87587999999999999</v>
+      </c>
+      <c r="AE81" s="89">
         <f t="shared" si="29"/>
-        <v>0.87588999999999995</v>
-      </c>
-      <c r="AF81" s="88">
+        <v>0.87587999999999999</v>
+      </c>
+      <c r="AF81" s="89">
         <f t="shared" si="29"/>
-        <v>0.83933999999999997</v>
-      </c>
-      <c r="AG81" s="88">
+        <v>0.83933000000000002</v>
+      </c>
+      <c r="AG81" s="89">
         <f t="shared" si="29"/>
-        <v>0.87588999999999995</v>
-      </c>
-      <c r="AH81" s="88">
+        <v>0.87587999999999999</v>
+      </c>
+      <c r="AH81" s="89">
         <f t="shared" si="29"/>
-        <v>0.87588999999999995</v>
-      </c>
-      <c r="AI81" s="88">
+        <v>0.87587999999999999</v>
+      </c>
+      <c r="AI81" s="89">
         <f t="shared" si="29"/>
-        <v>0.78648999999999991</v>
-      </c>
-      <c r="AJ81" s="88">
+        <v>0.78647999999999996</v>
+      </c>
+      <c r="AJ81" s="89">
         <f t="shared" si="29"/>
-        <v>0.87588999999999995</v>
-      </c>
-      <c r="AK81" s="88">
+        <v>0.87587999999999999</v>
+      </c>
+      <c r="AK81" s="89">
         <f t="shared" si="29"/>
-        <v>0.87588999999999995</v>
-      </c>
-      <c r="AL81" s="88">
+        <v>0.87587999999999999</v>
+      </c>
+      <c r="AL81" s="89">
         <f t="shared" si="29"/>
-        <v>0.87588999999999995</v>
-      </c>
-      <c r="AM81" s="88">
+        <v>0.87587999999999999</v>
+      </c>
+      <c r="AM81" s="89">
         <f t="shared" si="29"/>
-        <v>0.87588999999999995</v>
-      </c>
-      <c r="AN81" s="88">
+        <v>0.87587999999999999</v>
+      </c>
+      <c r="AN81" s="89">
         <f t="shared" si="29"/>
-        <v>0.87588999999999995</v>
-      </c>
-      <c r="AO81" s="90">
+        <v>0.87587999999999999</v>
+      </c>
+      <c r="AO81" s="83">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="3:41" s="15" customFormat="1">
-      <c r="C82" s="84"/>
-      <c r="D82" s="84"/>
-      <c r="E82" s="84"/>
-      <c r="F82" s="84"/>
-      <c r="G82" s="84"/>
-      <c r="H82" s="84"/>
-      <c r="I82" s="84"/>
-      <c r="J82" s="84">
-        <v>0</v>
-      </c>
-      <c r="K82" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="L82" s="84"/>
-      <c r="M82" s="84"/>
-      <c r="N82" s="89"/>
-      <c r="O82" s="89"/>
-      <c r="P82" s="89"/>
-      <c r="Q82" s="89"/>
-      <c r="R82" s="89"/>
-      <c r="S82" s="89"/>
-      <c r="T82" s="89"/>
-      <c r="U82" s="89"/>
-      <c r="V82" s="89"/>
-      <c r="W82" s="89"/>
-      <c r="X82" s="89"/>
-      <c r="Y82" s="89"/>
-      <c r="Z82" s="89"/>
-      <c r="AA82" s="89"/>
-      <c r="AB82" s="89"/>
-      <c r="AC82" s="89"/>
-      <c r="AD82" s="89"/>
-      <c r="AE82" s="89"/>
-      <c r="AF82" s="89"/>
-      <c r="AG82" s="89"/>
-      <c r="AH82" s="89"/>
-      <c r="AI82" s="89"/>
-      <c r="AJ82" s="89"/>
-      <c r="AK82" s="89"/>
-      <c r="AL82" s="89"/>
-      <c r="AM82" s="89"/>
-      <c r="AN82" s="89"/>
-      <c r="AO82" s="84">
+      <c r="C82" s="78"/>
+      <c r="D82" s="78"/>
+      <c r="E82" s="78"/>
+      <c r="F82" s="78"/>
+      <c r="G82" s="78"/>
+      <c r="H82" s="78"/>
+      <c r="I82" s="78"/>
+      <c r="J82" s="78">
+        <v>0</v>
+      </c>
+      <c r="K82" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="L82" s="78"/>
+      <c r="M82" s="78"/>
+      <c r="N82" s="82"/>
+      <c r="O82" s="82"/>
+      <c r="P82" s="82"/>
+      <c r="Q82" s="82"/>
+      <c r="R82" s="82"/>
+      <c r="S82" s="82"/>
+      <c r="T82" s="82"/>
+      <c r="U82" s="82"/>
+      <c r="V82" s="82"/>
+      <c r="W82" s="82"/>
+      <c r="X82" s="82"/>
+      <c r="Y82" s="82"/>
+      <c r="Z82" s="82"/>
+      <c r="AA82" s="82"/>
+      <c r="AB82" s="82"/>
+      <c r="AC82" s="82"/>
+      <c r="AD82" s="82"/>
+      <c r="AE82" s="82"/>
+      <c r="AF82" s="82"/>
+      <c r="AG82" s="82"/>
+      <c r="AH82" s="82"/>
+      <c r="AI82" s="82"/>
+      <c r="AJ82" s="82"/>
+      <c r="AK82" s="82"/>
+      <c r="AL82" s="82"/>
+      <c r="AM82" s="82"/>
+      <c r="AN82" s="82"/>
+      <c r="AO82" s="78">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="3:41" s="15" customFormat="1">
-      <c r="C83" s="84" t="s">
+      <c r="C83" s="78" t="s">
         <v>244</v>
       </c>
-      <c r="D83" s="84"/>
-      <c r="E83" s="84" t="s">
-        <v>254</v>
-      </c>
-      <c r="F83" s="84"/>
-      <c r="G83" s="84"/>
-      <c r="H83" s="84" t="s">
+      <c r="D83" s="78"/>
+      <c r="E83" s="78" t="s">
+        <v>250</v>
+      </c>
+      <c r="F83" s="78"/>
+      <c r="G83" s="78"/>
+      <c r="H83" s="78" t="s">
         <v>246</v>
       </c>
-      <c r="I83" s="84"/>
-      <c r="J83" s="86">
+      <c r="I83" s="78"/>
+      <c r="J83" s="78">
         <v>2018</v>
       </c>
-      <c r="K83" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="L83" s="84">
+      <c r="K83" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="L83" s="78">
         <v>-1</v>
       </c>
-      <c r="M83" s="84" t="s">
+      <c r="M83" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="N83" s="88">
-        <f>ROUNDUP(C223,5)</f>
-        <v>7.6199999999999992E-3</v>
-      </c>
-      <c r="O83" s="88">
-        <f t="shared" ref="O83:AN83" si="30">ROUNDUP(D223,5)</f>
-        <v>0</v>
-      </c>
-      <c r="P83" s="88">
+      <c r="N83" s="89">
+        <f>ROUNDDOWN(C223,5)</f>
+        <v>7.6099999999999996E-3</v>
+      </c>
+      <c r="O83" s="89">
+        <f t="shared" ref="O83:AN83" si="30">ROUNDDOWN(D223,5)</f>
+        <v>0</v>
+      </c>
+      <c r="P83" s="89">
         <f t="shared" si="30"/>
-        <v>1.0709999999999999E-2</v>
-      </c>
-      <c r="Q83" s="88">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="Q83" s="89">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="R83" s="88">
+      <c r="R83" s="89">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="S83" s="88">
+      <c r="S83" s="89">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="T83" s="88">
+      <c r="T83" s="89">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U83" s="88">
+      <c r="U83" s="89">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="V83" s="88">
+      <c r="V83" s="89">
         <f t="shared" si="30"/>
-        <v>2.1950000000000001E-2</v>
-      </c>
-      <c r="W83" s="88">
+        <v>2.1940000000000001E-2</v>
+      </c>
+      <c r="W83" s="89">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="X83" s="88">
+      <c r="X83" s="89">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="Y83" s="88">
+      <c r="Y83" s="89">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="Z83" s="88">
+      <c r="Z83" s="89">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AA83" s="88">
+      <c r="AA83" s="89">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AB83" s="88">
+      <c r="AB83" s="89">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AC83" s="88">
+      <c r="AC83" s="89">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AD83" s="88">
+      <c r="AD83" s="89">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AE83" s="88">
+      <c r="AE83" s="89">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF83" s="88">
+      <c r="AF83" s="89">
         <f t="shared" si="30"/>
-        <v>4.1730000000000003E-2</v>
-      </c>
-      <c r="AG83" s="88">
+        <v>4.172E-2</v>
+      </c>
+      <c r="AG83" s="89">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AH83" s="88">
+      <c r="AH83" s="89">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AI83" s="88">
+      <c r="AI83" s="89">
         <f t="shared" si="30"/>
-        <v>0.10207999999999999</v>
-      </c>
-      <c r="AJ83" s="88">
+        <v>0.10206999999999999</v>
+      </c>
+      <c r="AJ83" s="89">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AK83" s="88">
+      <c r="AK83" s="89">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AL83" s="88">
+      <c r="AL83" s="89">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AM83" s="88">
+      <c r="AM83" s="89">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AN83" s="88">
+      <c r="AN83" s="89">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO83" s="90">
+      <c r="AO83" s="83">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="3:41" s="15" customFormat="1">
-      <c r="C84" s="83"/>
-      <c r="D84" s="83"/>
-      <c r="E84" s="83"/>
-      <c r="F84" s="83"/>
-      <c r="G84" s="83"/>
-      <c r="H84" s="83"/>
-      <c r="I84" s="83"/>
-      <c r="J84" s="85">
-        <v>0</v>
-      </c>
-      <c r="K84" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="L84" s="83"/>
-      <c r="M84" s="83"/>
-      <c r="N84" s="83"/>
-      <c r="O84" s="83"/>
-      <c r="P84" s="83"/>
-      <c r="Q84" s="83"/>
-      <c r="R84" s="83"/>
-      <c r="S84" s="83"/>
-      <c r="T84" s="83"/>
-      <c r="U84" s="83"/>
-      <c r="V84" s="83"/>
-      <c r="W84" s="83"/>
-      <c r="X84" s="83"/>
-      <c r="Y84" s="83"/>
-      <c r="Z84" s="83"/>
-      <c r="AA84" s="83"/>
-      <c r="AB84" s="83"/>
-      <c r="AC84" s="83"/>
-      <c r="AD84" s="83"/>
-      <c r="AE84" s="83"/>
-      <c r="AF84" s="83"/>
-      <c r="AG84" s="83"/>
-      <c r="AH84" s="83"/>
-      <c r="AI84" s="83"/>
-      <c r="AJ84" s="83"/>
-      <c r="AK84" s="83"/>
-      <c r="AL84" s="83"/>
-      <c r="AM84" s="83"/>
-      <c r="AN84" s="83"/>
-      <c r="AO84" s="83">
+      <c r="C84" s="80"/>
+      <c r="D84" s="80"/>
+      <c r="E84" s="80"/>
+      <c r="F84" s="80"/>
+      <c r="G84" s="80"/>
+      <c r="H84" s="80"/>
+      <c r="I84" s="80"/>
+      <c r="J84" s="80">
+        <v>0</v>
+      </c>
+      <c r="K84" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="L84" s="80"/>
+      <c r="M84" s="80"/>
+      <c r="N84" s="80"/>
+      <c r="O84" s="80"/>
+      <c r="P84" s="80"/>
+      <c r="Q84" s="80"/>
+      <c r="R84" s="80"/>
+      <c r="S84" s="80"/>
+      <c r="T84" s="80"/>
+      <c r="U84" s="80"/>
+      <c r="V84" s="80"/>
+      <c r="W84" s="80"/>
+      <c r="X84" s="80"/>
+      <c r="Y84" s="80"/>
+      <c r="Z84" s="80"/>
+      <c r="AA84" s="80"/>
+      <c r="AB84" s="80"/>
+      <c r="AC84" s="80"/>
+      <c r="AD84" s="80"/>
+      <c r="AE84" s="80"/>
+      <c r="AF84" s="80"/>
+      <c r="AG84" s="80"/>
+      <c r="AH84" s="80"/>
+      <c r="AI84" s="80"/>
+      <c r="AJ84" s="80"/>
+      <c r="AK84" s="80"/>
+      <c r="AL84" s="80"/>
+      <c r="AM84" s="80"/>
+      <c r="AN84" s="80"/>
+      <c r="AO84" s="80">
         <v>5</v>
       </c>
     </row>
     <row r="85" spans="3:41" s="15" customFormat="1">
-      <c r="C85" s="84"/>
-      <c r="D85" s="84"/>
-      <c r="E85" s="84"/>
-      <c r="F85" s="84"/>
-      <c r="G85" s="84"/>
-      <c r="H85" s="84"/>
-      <c r="I85" s="84"/>
-      <c r="J85" s="84"/>
-      <c r="K85" s="84"/>
-      <c r="L85" s="84"/>
-      <c r="M85" s="84"/>
-      <c r="N85" s="84"/>
-      <c r="O85" s="84"/>
-      <c r="P85" s="84"/>
-      <c r="Q85" s="84"/>
-      <c r="R85" s="84"/>
-      <c r="S85" s="84"/>
-      <c r="T85" s="84"/>
-      <c r="U85" s="84"/>
-      <c r="V85" s="84"/>
-      <c r="W85" s="84"/>
-      <c r="X85" s="84"/>
-      <c r="Y85" s="84"/>
-      <c r="Z85" s="84"/>
-      <c r="AA85" s="84"/>
-      <c r="AB85" s="84"/>
-      <c r="AC85" s="84"/>
-      <c r="AD85" s="84"/>
-      <c r="AE85" s="84"/>
-      <c r="AF85" s="84"/>
-      <c r="AG85" s="84"/>
-      <c r="AH85" s="84"/>
-      <c r="AI85" s="84"/>
-      <c r="AJ85" s="84"/>
-      <c r="AK85" s="84"/>
-      <c r="AL85" s="84"/>
-      <c r="AM85" s="84"/>
-      <c r="AN85" s="84"/>
-      <c r="AO85" s="84"/>
+      <c r="C85" s="78"/>
+      <c r="D85" s="78"/>
+      <c r="E85" s="78"/>
+      <c r="F85" s="78"/>
+      <c r="G85" s="78"/>
+      <c r="H85" s="78"/>
+      <c r="I85" s="78"/>
+      <c r="J85" s="78"/>
+      <c r="K85" s="78"/>
+      <c r="L85" s="78"/>
+      <c r="M85" s="78"/>
+      <c r="N85" s="78"/>
+      <c r="O85" s="78"/>
+      <c r="P85" s="78"/>
+      <c r="Q85" s="78"/>
+      <c r="R85" s="78"/>
+      <c r="S85" s="78"/>
+      <c r="T85" s="78"/>
+      <c r="U85" s="78"/>
+      <c r="V85" s="78"/>
+      <c r="W85" s="78"/>
+      <c r="X85" s="78"/>
+      <c r="Y85" s="78"/>
+      <c r="Z85" s="78"/>
+      <c r="AA85" s="78"/>
+      <c r="AB85" s="78"/>
+      <c r="AC85" s="78"/>
+      <c r="AD85" s="78"/>
+      <c r="AE85" s="78"/>
+      <c r="AF85" s="78"/>
+      <c r="AG85" s="78"/>
+      <c r="AH85" s="78"/>
+      <c r="AI85" s="78"/>
+      <c r="AJ85" s="78"/>
+      <c r="AK85" s="78"/>
+      <c r="AL85" s="78"/>
+      <c r="AM85" s="78"/>
+      <c r="AN85" s="78"/>
+      <c r="AO85" s="78"/>
     </row>
     <row r="86" spans="3:41" s="15" customFormat="1">
-      <c r="C86" s="84"/>
-      <c r="D86" s="84"/>
-      <c r="E86" s="84"/>
-      <c r="F86" s="84"/>
-      <c r="G86" s="84"/>
-      <c r="H86" s="84"/>
-      <c r="I86" s="84"/>
-      <c r="J86" s="86"/>
-      <c r="K86" s="84"/>
-      <c r="L86" s="84"/>
+      <c r="C86" s="78"/>
+      <c r="D86" s="78"/>
+      <c r="E86" s="78"/>
+      <c r="F86" s="78"/>
+      <c r="G86" s="78"/>
+      <c r="H86" s="78"/>
+      <c r="I86" s="78"/>
+      <c r="J86" s="78"/>
+      <c r="K86" s="78"/>
+      <c r="L86" s="78"/>
       <c r="M86" s="78" t="s">
         <v>220</v>
       </c>
-      <c r="N86" s="92">
-        <v>1</v>
-      </c>
-      <c r="O86" s="87">
-        <v>1</v>
-      </c>
-      <c r="P86" s="87">
-        <v>0.99999000000000005</v>
-      </c>
-      <c r="Q86" s="87">
-        <v>1</v>
-      </c>
-      <c r="R86" s="87">
-        <v>1</v>
-      </c>
-      <c r="S86" s="87">
-        <v>1</v>
-      </c>
-      <c r="T86" s="87">
-        <v>1</v>
-      </c>
-      <c r="U86" s="87">
-        <v>1</v>
-      </c>
-      <c r="V86" s="87">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="W86" s="87">
-        <v>1</v>
-      </c>
-      <c r="X86" s="87">
-        <v>1</v>
-      </c>
-      <c r="Y86" s="87">
-        <v>1</v>
-      </c>
-      <c r="Z86" s="87">
-        <v>1</v>
-      </c>
-      <c r="AA86" s="87">
-        <v>1</v>
-      </c>
-      <c r="AB86" s="87">
-        <v>1</v>
-      </c>
-      <c r="AC86" s="87">
-        <v>1</v>
-      </c>
-      <c r="AD86" s="87">
-        <v>1</v>
-      </c>
-      <c r="AE86" s="87">
-        <v>1</v>
-      </c>
-      <c r="AF86" s="87">
-        <v>1</v>
-      </c>
-      <c r="AG86" s="87">
-        <v>1</v>
-      </c>
-      <c r="AH86" s="87">
-        <v>1</v>
-      </c>
-      <c r="AI86" s="87">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="AJ86" s="87">
-        <v>1</v>
-      </c>
-      <c r="AK86" s="87">
-        <v>1</v>
-      </c>
-      <c r="AL86" s="87">
-        <v>1</v>
-      </c>
-      <c r="AM86" s="87">
-        <v>1</v>
-      </c>
-      <c r="AN86" s="87">
-        <v>1</v>
-      </c>
-      <c r="AO86" s="84"/>
+      <c r="N86" s="84">
+        <f>N77+N79+N81+N83</f>
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="O86" s="84">
+        <f t="shared" ref="O86:AN86" si="31">O77+O79+O81+O83</f>
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="P86" s="82">
+        <f t="shared" si="31"/>
+        <v>0.99997000000000014</v>
+      </c>
+      <c r="Q86" s="82">
+        <f t="shared" si="31"/>
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="R86" s="82">
+        <f t="shared" si="31"/>
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="S86" s="82">
+        <f t="shared" si="31"/>
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="T86" s="82">
+        <f t="shared" si="31"/>
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="U86" s="82">
+        <f t="shared" si="31"/>
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="V86" s="82">
+        <f t="shared" si="31"/>
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="W86" s="82">
+        <f t="shared" si="31"/>
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="X86" s="82">
+        <f t="shared" si="31"/>
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="Y86" s="82">
+        <f t="shared" si="31"/>
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="Z86" s="82">
+        <f t="shared" si="31"/>
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="AA86" s="82">
+        <f t="shared" si="31"/>
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="AB86" s="82">
+        <f t="shared" si="31"/>
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="AC86" s="82">
+        <f t="shared" si="31"/>
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="AD86" s="82">
+        <f t="shared" si="31"/>
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="AE86" s="82">
+        <f t="shared" si="31"/>
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="AF86" s="82">
+        <f t="shared" si="31"/>
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="AG86" s="82">
+        <f t="shared" si="31"/>
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="AH86" s="82">
+        <f t="shared" si="31"/>
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="AI86" s="82">
+        <f t="shared" si="31"/>
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="AJ86" s="82">
+        <f t="shared" si="31"/>
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="AK86" s="82">
+        <f t="shared" si="31"/>
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="AL86" s="82">
+        <f t="shared" si="31"/>
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="AM86" s="82">
+        <f t="shared" si="31"/>
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="AN86" s="82">
+        <f t="shared" si="31"/>
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="AO86" s="78"/>
     </row>
     <row r="87" spans="3:41" s="15" customFormat="1">
       <c r="N87" s="60"/>
@@ -13689,107 +13729,107 @@
         <v>11626.550999999999</v>
       </c>
       <c r="D205" s="66">
-        <f t="shared" ref="D205:AC205" si="31">SUM(D201:D204)</f>
+        <f t="shared" ref="D205:AC205" si="32">SUM(D201:D204)</f>
         <v>177.95641949867974</v>
       </c>
       <c r="E205" s="66">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2657.9186883230773</v>
       </c>
       <c r="F205" s="66">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>482.32584543324703</v>
       </c>
       <c r="G205" s="66">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>310.17655131899437</v>
       </c>
       <c r="H205" s="66">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>220.92382768752688</v>
       </c>
       <c r="I205" s="66">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>106.61321663190297</v>
       </c>
       <c r="J205" s="66">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>279.38412011837357</v>
       </c>
       <c r="K205" s="66">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>432.28792622333316</v>
       </c>
       <c r="L205" s="66">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>203.35363153768466</v>
       </c>
       <c r="M205" s="66">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>231.54784920152733</v>
       </c>
       <c r="N205" s="66">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>467.99675121515725</v>
       </c>
       <c r="O205" s="66">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>308.73718466108562</v>
       </c>
       <c r="P205" s="66">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>303.81359843254126</v>
       </c>
       <c r="Q205" s="66">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1625.5685935130527</v>
       </c>
       <c r="R205" s="66">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>442.29510717528478</v>
       </c>
       <c r="S205" s="66">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>498.35433078518957</v>
       </c>
       <c r="T205" s="66">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>407.97504625354344</v>
       </c>
       <c r="U205" s="66">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>378.95230113305684</v>
       </c>
       <c r="V205" s="66">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>605.11341326480942</v>
       </c>
       <c r="W205" s="66">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>80.700464509738026</v>
       </c>
       <c r="X205" s="66">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>340.81032279518195</v>
       </c>
       <c r="Y205" s="66">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>151.34752708989396</v>
       </c>
       <c r="Z205" s="66">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>165.04509242434406</v>
       </c>
       <c r="AA205" s="66">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>191.84367071819389</v>
       </c>
       <c r="AB205" s="66">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>400.91337992242592</v>
       </c>
       <c r="AC205" s="66">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>154.59614013215509</v>
       </c>
     </row>
@@ -13927,107 +13967,107 @@
         <v>2.5114928752301521E-2</v>
       </c>
       <c r="D220" s="72">
-        <f t="shared" ref="D220:AC220" si="32">D201/D205</f>
+        <f t="shared" ref="D220:AC220" si="33">D201/D205</f>
         <v>2.5307678973825617E-2</v>
       </c>
       <c r="E220" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.5036666940775776E-2</v>
       </c>
       <c r="F220" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.5307678973825621E-2</v>
       </c>
       <c r="G220" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.5307678973825621E-2</v>
       </c>
       <c r="H220" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.5307678973825621E-2</v>
       </c>
       <c r="I220" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.5307678973825617E-2</v>
       </c>
       <c r="J220" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.5307678973825621E-2</v>
       </c>
       <c r="K220" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.475224056984587E-2</v>
       </c>
       <c r="L220" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.5307678973825621E-2</v>
       </c>
       <c r="M220" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.5307678973825617E-2</v>
       </c>
       <c r="N220" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.5307678973825617E-2</v>
       </c>
       <c r="O220" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.5307678973825617E-2</v>
       </c>
       <c r="P220" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.5307678973825621E-2</v>
       </c>
       <c r="Q220" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.5307678973825624E-2</v>
       </c>
       <c r="R220" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.5307678973825617E-2</v>
       </c>
       <c r="S220" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.5307678973825617E-2</v>
       </c>
       <c r="T220" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.5307678973825621E-2</v>
       </c>
       <c r="U220" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.4251656377299691E-2</v>
       </c>
       <c r="V220" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.5307678973825621E-2</v>
       </c>
       <c r="W220" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.5307678973825624E-2</v>
       </c>
       <c r="X220" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.2724421467469183E-2</v>
       </c>
       <c r="Y220" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.5307678973825621E-2</v>
       </c>
       <c r="Z220" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.5307678973825621E-2</v>
       </c>
       <c r="AA220" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.5307678973825614E-2</v>
       </c>
       <c r="AB220" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.5307678973825617E-2</v>
       </c>
       <c r="AC220" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.5307678973825621E-2</v>
       </c>
     </row>
@@ -14043,107 +14083,107 @@
         <v>9.8051434169944301E-2</v>
       </c>
       <c r="D221" s="72">
-        <f t="shared" ref="D221:AC221" si="33">D202/D205</f>
+        <f t="shared" ref="D221:AC221" si="34">D202/D205</f>
         <v>9.8803952158086308E-2</v>
       </c>
       <c r="E221" s="72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.7745891481110916E-2</v>
       </c>
       <c r="F221" s="72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.8803952158086322E-2</v>
       </c>
       <c r="G221" s="72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.8803952158086322E-2</v>
       </c>
       <c r="H221" s="72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.8803952158086322E-2</v>
       </c>
       <c r="I221" s="72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.8803952158086322E-2</v>
       </c>
       <c r="J221" s="72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.8803952158086322E-2</v>
       </c>
       <c r="K221" s="72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.663545975898731E-2</v>
       </c>
       <c r="L221" s="72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.8803952158086322E-2</v>
       </c>
       <c r="M221" s="72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.8803952158086322E-2</v>
       </c>
       <c r="N221" s="72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.8803952158086322E-2</v>
       </c>
       <c r="O221" s="72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.8803952158086322E-2</v>
       </c>
       <c r="P221" s="72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.8803952158086322E-2</v>
       </c>
       <c r="Q221" s="72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.8803952158086336E-2</v>
       </c>
       <c r="R221" s="72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.8803952158086322E-2</v>
       </c>
       <c r="S221" s="72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.8803952158086336E-2</v>
       </c>
       <c r="T221" s="72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.8803952158086322E-2</v>
       </c>
       <c r="U221" s="72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.4681124212745368E-2</v>
       </c>
       <c r="V221" s="72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.8803952158086322E-2</v>
       </c>
       <c r="W221" s="72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.8803952158086336E-2</v>
       </c>
       <c r="X221" s="72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>8.8718631756557781E-2</v>
       </c>
       <c r="Y221" s="72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.8803952158086336E-2</v>
       </c>
       <c r="Z221" s="72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.8803952158086322E-2</v>
       </c>
       <c r="AA221" s="72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.8803952158086308E-2</v>
       </c>
       <c r="AB221" s="72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.8803952158086308E-2</v>
       </c>
       <c r="AC221" s="72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.8803952158086322E-2</v>
       </c>
     </row>
@@ -14159,27 +14199,27 @@
         <v>0.86921736291355889</v>
       </c>
       <c r="D222" s="72">
-        <f t="shared" ref="D222:AC222" si="34">D203/D205</f>
+        <f t="shared" ref="D222:AC222" si="35">D203/D205</f>
         <v>0.87588836886808807</v>
       </c>
       <c r="E222" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.86650875377904113</v>
       </c>
       <c r="F222" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.87588836886808807</v>
       </c>
       <c r="G222" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.87588836886808807</v>
       </c>
       <c r="H222" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.87588836886808807</v>
       </c>
       <c r="I222" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.87588836886808807</v>
       </c>
       <c r="J222" s="72">
@@ -14187,79 +14227,79 @@
         <v>0.87588836886808807</v>
       </c>
       <c r="K222" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.85666487396870683</v>
       </c>
       <c r="L222" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.87588836886808807</v>
       </c>
       <c r="M222" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.87588836886808796</v>
       </c>
       <c r="N222" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.87588836886808807</v>
       </c>
       <c r="O222" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.87588836886808796</v>
       </c>
       <c r="P222" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.87588836886808807</v>
       </c>
       <c r="Q222" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.87588836886808807</v>
       </c>
       <c r="R222" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.87588836886808807</v>
       </c>
       <c r="S222" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.87588836886808807</v>
       </c>
       <c r="T222" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.87588836886808796</v>
       </c>
       <c r="U222" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.83933986078421474</v>
       </c>
       <c r="V222" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.87588836886808807</v>
       </c>
       <c r="W222" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.87588836886808807</v>
       </c>
       <c r="X222" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.78648288818576562</v>
       </c>
       <c r="Y222" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.87588836886808819</v>
       </c>
       <c r="Z222" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.87588836886808807</v>
       </c>
       <c r="AA222" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.87588836886808796</v>
       </c>
       <c r="AB222" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.87588836886808807</v>
       </c>
       <c r="AC222" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.87588836886808819</v>
       </c>
     </row>
@@ -14275,107 +14315,107 @@
         <v>7.616274164195384E-3</v>
       </c>
       <c r="D223" s="72">
-        <f t="shared" ref="D223:AC223" si="35">D204/D205</f>
+        <f t="shared" ref="D223:AC223" si="36">D204/D205</f>
         <v>0</v>
       </c>
       <c r="E223" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.070868779907224E-2</v>
       </c>
       <c r="F223" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="G223" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="H223" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="I223" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J223" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="K223" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>2.1947425702460069E-2</v>
       </c>
       <c r="L223" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="M223" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N223" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O223" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="P223" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Q223" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="R223" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="S223" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T223" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="U223" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4.1727358625740237E-2</v>
       </c>
       <c r="V223" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="W223" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="X223" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.10207405859020728</v>
       </c>
       <c r="Y223" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z223" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AA223" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AB223" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AC223" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
@@ -14389,107 +14429,107 @@
         <v>1</v>
       </c>
       <c r="D224" s="74">
-        <f t="shared" ref="D224:AC224" si="36">SUM(D220:D223)</f>
+        <f t="shared" ref="D224:AC224" si="37">SUM(D220:D223)</f>
         <v>1</v>
       </c>
       <c r="E224" s="74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="F224" s="74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="G224" s="74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="H224" s="74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I224" s="74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="J224" s="74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="K224" s="74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="L224" s="74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="M224" s="74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="N224" s="74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="O224" s="74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="P224" s="74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="Q224" s="74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="R224" s="74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="S224" s="74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="T224" s="74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="U224" s="74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="V224" s="74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="W224" s="74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="X224" s="74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="Y224" s="74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="Z224" s="74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AA224" s="74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="AB224" s="74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AC224" s="74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1.0000000000000002</v>
       </c>
     </row>

--- a/SuppXLS/Scen_TRA_ActiveModes.xlsx
+++ b/SuppXLS/Scen_TRA_ActiveModes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_Irish-TIMES-model\tra-updates\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D166B2F-79B6-42D4-95D3-BE7ABAD557BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56289A35-5701-4E9C-8CD2-E9BCE9AEA9E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="228">
   <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
@@ -893,92 +893,12 @@
   <si>
     <t>TRA Medium Goods Truck: Diesel ICEs - Existing</t>
   </si>
-  <si>
-    <t>Activity for freight vehicles (Million tonne km)</t>
-  </si>
-  <si>
-    <t>Classifications</t>
-  </si>
-  <si>
-    <t>Unladen Weight </t>
-  </si>
-  <si>
-    <t>Light-Duty Trucks</t>
-  </si>
-  <si>
-    <t>0 - 5 tonnes</t>
-  </si>
-  <si>
-    <t>Medium-Duty Trucks</t>
-  </si>
-  <si>
-    <t>5 - 10 tonnes</t>
-  </si>
-  <si>
-    <t>Heavy-Duty Trucks</t>
-  </si>
-  <si>
-    <t>Over 10 tonnes</t>
-  </si>
-  <si>
-    <t>User constraints for Goods Vehicles</t>
-  </si>
-  <si>
-    <t>UC_Good_LGV</t>
-  </si>
-  <si>
-    <t>LGVs</t>
-  </si>
-  <si>
-    <t>UC_Good_MGV</t>
-  </si>
-  <si>
-    <t>MGVs</t>
-  </si>
-  <si>
-    <t>UC_Good_HGV</t>
-  </si>
-  <si>
-    <t>HGVs</t>
-  </si>
-  <si>
-    <t>UC_Good_GTR</t>
-  </si>
-  <si>
-    <t>GTR</t>
-  </si>
-  <si>
-    <t>TRAF</t>
-  </si>
-  <si>
-    <t>Activity (share in tkm)</t>
-  </si>
-  <si>
-    <r>
-      <t>Unladen Weight</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF384350"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>T-GTR*</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -986,11 +906,8 @@
     <numFmt numFmtId="167" formatCode="0.0000"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="0.00000"/>
-    <numFmt numFmtId="172" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1054,14 +971,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1173,17 +1082,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF384350"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1266,12 +1169,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE7E6E6"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1382,21 +1279,21 @@
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1441,7 +1338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1457,19 +1354,19 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1478,82 +1375,41 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -3214,10 +3070,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A2:AQ224"/>
+  <dimension ref="A2:AQ177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L92" sqref="L92"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A183" sqref="A183:XFD210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3235,46 +3091,46 @@
       </c>
     </row>
     <row r="3" spans="2:43" s="35" customFormat="1" ht="25.95" customHeight="1">
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="88" t="s">
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
     </row>
     <row r="4" spans="2:43" s="35" customFormat="1" ht="24" customHeight="1">
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86" t="s">
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
     </row>
     <row r="5" spans="2:43">
       <c r="C5" s="15"/>
@@ -3479,11 +3335,11 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="85" t="s">
+      <c r="K10" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
@@ -3669,13 +3525,13 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="str">
-        <f>C95</f>
+        <f>C79</f>
         <v>T-WLK_WLK</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15" t="str">
-        <f>E136</f>
+        <f>E120</f>
         <v>TRAPS</v>
       </c>
       <c r="I12" s="15"/>
@@ -3689,15 +3545,15 @@
         <v>-1</v>
       </c>
       <c r="M12" s="15" t="str">
-        <f>D143</f>
+        <f>D127</f>
         <v>Walk</v>
       </c>
       <c r="N12" s="62">
-        <f>ROUNDUP(C157,3)</f>
+        <f>ROUNDUP(C141,3)</f>
         <v>0.32400000000000001</v>
       </c>
       <c r="O12" s="62">
-        <f t="shared" ref="O12:AN12" si="0">ROUNDUP(D157,3)</f>
+        <f t="shared" ref="O12:AN12" si="0">ROUNDUP(D141,3)</f>
         <v>0.29599999999999999</v>
       </c>
       <c r="P12" s="62">
@@ -3999,7 +3855,7 @@
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15" t="str">
-        <f>C96</f>
+        <f>C80</f>
         <v>T-CYC_CYC</v>
       </c>
       <c r="F15" s="15"/>
@@ -4019,15 +3875,15 @@
         <v>-1</v>
       </c>
       <c r="M15" s="15" t="str">
-        <f>D144</f>
+        <f>D128</f>
         <v>Bike</v>
       </c>
       <c r="N15" s="62">
-        <f>ROUNDUP(C158,3)</f>
+        <f>ROUNDUP(C142,3)</f>
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="O15" s="62">
-        <f t="shared" ref="O15:AN15" si="2">ROUNDUP(D158,3)</f>
+        <f t="shared" ref="O15:AN15" si="2">ROUNDUP(D142,3)</f>
         <v>0.05</v>
       </c>
       <c r="P15" s="62">
@@ -4329,7 +4185,7 @@
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15" t="str">
-        <f>LEFT(C98,5)&amp;"*"</f>
+        <f>LEFT(C82,5)&amp;"*"</f>
         <v>T-MOT*</v>
       </c>
       <c r="F18" s="15"/>
@@ -4349,15 +4205,15 @@
         <v>-1</v>
       </c>
       <c r="M18" s="15" t="str">
-        <f>D145</f>
+        <f>D129</f>
         <v>2-wheelers</v>
       </c>
       <c r="N18" s="20">
-        <f>ROUNDUP(C159,4)</f>
+        <f>ROUNDUP(C143,4)</f>
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="O18" s="20">
-        <f t="shared" ref="O18:AN18" si="4">ROUNDUP(D159,4)</f>
+        <f t="shared" ref="O18:AN18" si="4">ROUNDUP(D143,4)</f>
         <v>9.0000000000000008E-4</v>
       </c>
       <c r="P18" s="20">
@@ -4659,7 +4515,7 @@
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15" t="str">
-        <f>LEFT(C100,5)&amp;"*"</f>
+        <f>LEFT(C84,5)&amp;"*"</f>
         <v>T-CAR*</v>
       </c>
       <c r="F21" s="15"/>
@@ -4679,15 +4535,15 @@
         <v>-1</v>
       </c>
       <c r="M21" s="15" t="str">
-        <f>D146</f>
+        <f>D130</f>
         <v>LDV</v>
       </c>
       <c r="N21" s="62">
-        <f>ROUNDUP(C160,3)</f>
+        <f>ROUNDUP(C144,3)</f>
         <v>0.51500000000000001</v>
       </c>
       <c r="O21" s="62">
-        <f t="shared" ref="O21:AN21" si="6">ROUNDUP(D160,3)</f>
+        <f t="shared" ref="O21:AN21" si="6">ROUNDUP(D144,3)</f>
         <v>0.57699999999999996</v>
       </c>
       <c r="P21" s="62">
@@ -4989,7 +4845,7 @@
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15" t="str">
-        <f>LEFT(C110,5)&amp;"*"</f>
+        <f>LEFT(C94,5)&amp;"*"</f>
         <v>T-TAX*</v>
       </c>
       <c r="F24" s="15"/>
@@ -5009,15 +4865,15 @@
         <v>-1</v>
       </c>
       <c r="M24" s="15" t="str">
-        <f>D147</f>
+        <f>D131</f>
         <v>Taxis</v>
       </c>
       <c r="N24" s="62">
-        <f>ROUNDUP(C161,3)</f>
+        <f>ROUNDUP(C145,3)</f>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="O24" s="62">
-        <f t="shared" ref="O24:AN24" si="8">ROUNDUP(D161,3)</f>
+        <f t="shared" ref="O24:AN24" si="8">ROUNDUP(D145,3)</f>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="P24" s="62">
@@ -5319,7 +5175,7 @@
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15" t="str">
-        <f>LEFT(C114,5)&amp;"*"</f>
+        <f>LEFT(C98,5)&amp;"*"</f>
         <v>T-BUS*</v>
       </c>
       <c r="F27" s="15"/>
@@ -5339,15 +5195,15 @@
         <v>-1</v>
       </c>
       <c r="M27" s="15" t="str">
-        <f>D148</f>
+        <f>D132</f>
         <v>BUS</v>
       </c>
       <c r="N27" s="62">
-        <f>ROUNDUP(C162,3)</f>
+        <f>ROUNDUP(C146,3)</f>
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="O27" s="62">
-        <f t="shared" ref="O27:AN27" si="10">ROUNDUP(D162,3)</f>
+        <f t="shared" ref="O27:AN27" si="10">ROUNDUP(D146,3)</f>
         <v>7.1000000000000008E-2</v>
       </c>
       <c r="P27" s="62">
@@ -5649,7 +5505,7 @@
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="15" t="str">
-        <f>LEFT(C116,5)&amp;"*"</f>
+        <f>LEFT(C100,5)&amp;"*"</f>
         <v>T-LPT*</v>
       </c>
       <c r="F30" s="15"/>
@@ -5669,15 +5525,15 @@
         <v>-1</v>
       </c>
       <c r="M30" s="15" t="str">
-        <f>D149</f>
+        <f>D133</f>
         <v>Light rail (LUAS)</v>
       </c>
       <c r="N30" s="62">
-        <f>ROUNDUP(C163,3)</f>
+        <f>ROUNDUP(C147,3)</f>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="O30" s="62">
-        <f t="shared" ref="O30:AN30" si="12">ROUNDUP(D163,3)</f>
+        <f t="shared" ref="O30:AN30" si="12">ROUNDUP(D147,3)</f>
         <v>0</v>
       </c>
       <c r="P30" s="62">
@@ -6516,7 +6372,7 @@
         <v>T-MOT*</v>
       </c>
       <c r="H41" s="15" t="str">
-        <f>E137</f>
+        <f>E121</f>
         <v>TRAPM</v>
       </c>
       <c r="J41">
@@ -6529,15 +6385,15 @@
         <v>-1</v>
       </c>
       <c r="M41" t="str">
-        <f>D145</f>
+        <f>D129</f>
         <v>2-wheelers</v>
       </c>
       <c r="N41" s="60">
-        <f>ROUNDUP(C173,4)</f>
+        <f>ROUNDUP(C157,4)</f>
         <v>3.3E-3</v>
       </c>
       <c r="O41" s="60">
-        <f t="shared" ref="O41:AN41" si="16">ROUNDUP(D173,4)</f>
+        <f t="shared" ref="O41:AN41" si="16">ROUNDUP(D157,4)</f>
         <v>2.1999999999999997E-3</v>
       </c>
       <c r="P41" s="60">
@@ -6704,15 +6560,15 @@
         <v>-1</v>
       </c>
       <c r="M43" t="str">
-        <f>D146</f>
+        <f>D130</f>
         <v>LDV</v>
       </c>
       <c r="N43" s="62">
-        <f>ROUNDUP(C174,3)</f>
+        <f>ROUNDUP(C158,3)</f>
         <v>0.83499999999999996</v>
       </c>
       <c r="O43" s="62">
-        <f t="shared" ref="O43:AN43" si="17">ROUNDUP(D174,3)</f>
+        <f t="shared" ref="O43:AN43" si="17">ROUNDUP(D158,3)</f>
         <v>0.88200000000000001</v>
       </c>
       <c r="P43" s="62">
@@ -6879,15 +6735,15 @@
         <v>-1</v>
       </c>
       <c r="M45" t="str">
-        <f>D147</f>
+        <f>D131</f>
         <v>Taxis</v>
       </c>
       <c r="N45" s="62">
-        <f>ROUNDUP(C175,3)</f>
+        <f>ROUNDUP(C159,3)</f>
         <v>2.2000000000000002E-2</v>
       </c>
       <c r="O45" s="62">
-        <f t="shared" ref="O45:AN45" si="18">ROUNDUP(D175,3)</f>
+        <f t="shared" ref="O45:AN45" si="18">ROUNDUP(D159,3)</f>
         <v>9.9999999999999985E-3</v>
       </c>
       <c r="P45" s="62">
@@ -7054,15 +6910,15 @@
         <v>-1</v>
       </c>
       <c r="M47" t="str">
-        <f>D148</f>
+        <f>D132</f>
         <v>BUS</v>
       </c>
       <c r="N47" s="20">
-        <f>ROUNDUP(C176,2)</f>
+        <f>ROUNDUP(C160,2)</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="O47" s="20">
-        <f t="shared" ref="O47:AN47" si="19">ROUNDUP(D176,2)</f>
+        <f t="shared" ref="O47:AN47" si="19">ROUNDUP(D160,2)</f>
         <v>0.11</v>
       </c>
       <c r="P47" s="20">
@@ -7233,15 +7089,15 @@
         <v>-1</v>
       </c>
       <c r="M49" s="23" t="str">
-        <f>D149</f>
+        <f>D133</f>
         <v>Light rail (LUAS)</v>
       </c>
       <c r="N49" s="24">
-        <f>ROUNDUP(C177,2)</f>
+        <f>ROUNDUP(C161,2)</f>
         <v>0.01</v>
       </c>
       <c r="O49" s="24">
-        <f t="shared" ref="O49:AN49" si="20">ROUNDUP(D177,2)</f>
+        <f t="shared" ref="O49:AN49" si="20">ROUNDUP(D161,2)</f>
         <v>0</v>
       </c>
       <c r="P49" s="24">
@@ -7715,7 +7571,7 @@
       <c r="F60" s="23"/>
       <c r="G60" s="23"/>
       <c r="H60" s="23" t="str">
-        <f>E138</f>
+        <f>E122</f>
         <v>TRAPL</v>
       </c>
       <c r="I60" s="23"/>
@@ -7733,11 +7589,11 @@
         <v>LDV</v>
       </c>
       <c r="N60" s="32">
-        <f>ROUNDUP(C188,3)</f>
+        <f>ROUNDUP(C172,3)</f>
         <v>0.74199999999999999</v>
       </c>
       <c r="O60" s="32">
-        <f t="shared" ref="O60:AN60" si="22">ROUNDUP(D188,3)</f>
+        <f t="shared" ref="O60:AN60" si="22">ROUNDUP(D172,3)</f>
         <v>0.79100000000000004</v>
       </c>
       <c r="P60" s="32">
@@ -7921,11 +7777,11 @@
         <v>Taxis</v>
       </c>
       <c r="N62" s="32">
-        <f>ROUNDUP(C189,3)</f>
+        <f>ROUNDUP(C173,3)</f>
         <v>1.3000000000000001E-2</v>
       </c>
       <c r="O62" s="32">
-        <f t="shared" ref="O62:AN62" si="23">ROUNDUP(D189,3)</f>
+        <f t="shared" ref="O62:AN62" si="23">ROUNDUP(D173,3)</f>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="P62" s="32">
@@ -8109,11 +7965,11 @@
         <v>BUS</v>
       </c>
       <c r="N64" s="24">
-        <f>ROUNDUP(C190,2)</f>
+        <f>ROUNDUP(C174,2)</f>
         <v>0.17</v>
       </c>
       <c r="O64" s="24">
-        <f t="shared" ref="O64:AN64" si="24">ROUNDUP(D190,2)</f>
+        <f t="shared" ref="O64:AN64" si="24">ROUNDUP(D174,2)</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="P64" s="24">
@@ -8273,7 +8129,7 @@
       </c>
       <c r="D66" s="23"/>
       <c r="E66" s="23" t="str">
-        <f>LEFT(C117,5)&amp;"*"</f>
+        <f>LEFT(C101,5)&amp;"*"</f>
         <v>T-HPT*</v>
       </c>
       <c r="F66" s="23"/>
@@ -8297,11 +8153,11 @@
         <v>Train</v>
       </c>
       <c r="N66" s="24">
-        <f>ROUNDUP(C192,2)</f>
+        <f>ROUNDUP(C176,2)</f>
         <v>0.09</v>
       </c>
       <c r="O66" s="24">
-        <f t="shared" ref="O66:AN66" si="25">ROUNDUP(D192,2)</f>
+        <f t="shared" ref="O66:AN66" si="25">ROUNDUP(D176,2)</f>
         <v>0.08</v>
       </c>
       <c r="P66" s="24">
@@ -8638,1204 +8494,201 @@
       <c r="AM71" s="60"/>
       <c r="AN71" s="60"/>
     </row>
-    <row r="72" spans="3:42" s="15" customFormat="1" ht="18">
-      <c r="C72" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="D72" s="68"/>
-      <c r="E72" s="68"/>
-    </row>
-    <row r="73" spans="3:42" s="15" customFormat="1"/>
-    <row r="74" spans="3:42" s="15" customFormat="1"/>
-    <row r="75" spans="3:42" s="15" customFormat="1">
-      <c r="C75" s="81"/>
-      <c r="D75" s="81"/>
-      <c r="E75" s="81"/>
-      <c r="F75" s="81"/>
-      <c r="G75" s="81"/>
-      <c r="H75" s="81"/>
-      <c r="I75" s="81"/>
-      <c r="J75" s="81"/>
-      <c r="K75" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="L75" s="81"/>
-      <c r="M75" s="81"/>
-      <c r="N75" s="81"/>
-      <c r="O75" s="81"/>
-      <c r="P75" s="81"/>
-      <c r="Q75" s="81"/>
-      <c r="R75" s="81"/>
-      <c r="S75" s="81"/>
-      <c r="T75" s="81"/>
-      <c r="U75" s="81"/>
-      <c r="V75" s="81"/>
-      <c r="W75" s="81"/>
-      <c r="X75" s="81"/>
-      <c r="Y75" s="81"/>
-      <c r="Z75" s="81"/>
-      <c r="AA75" s="81"/>
-      <c r="AB75" s="81"/>
-      <c r="AC75" s="81"/>
-      <c r="AD75" s="81"/>
-      <c r="AE75" s="81"/>
-      <c r="AF75" s="81"/>
-      <c r="AG75" s="81"/>
-      <c r="AH75" s="81"/>
-      <c r="AI75" s="81"/>
-      <c r="AJ75" s="81"/>
-      <c r="AK75" s="81"/>
-      <c r="AL75" s="81"/>
-      <c r="AM75" s="81"/>
-      <c r="AN75" s="81"/>
-      <c r="AO75" s="81"/>
-    </row>
-    <row r="76" spans="3:42" s="15" customFormat="1">
-      <c r="C76" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="D76" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G76" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H76" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="I76" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="J76" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="L76" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="M76" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="N76" s="79" t="str">
-        <f>Regions!C$3</f>
-        <v>IE</v>
-      </c>
-      <c r="O76" s="79" t="str">
-        <f>Regions!D$3</f>
-        <v>National</v>
-      </c>
-      <c r="P76" s="79" t="str">
-        <f>Regions!E$3</f>
-        <v>IE-CW</v>
-      </c>
-      <c r="Q76" s="79" t="str">
-        <f>Regions!F$3</f>
-        <v>IE-D</v>
-      </c>
-      <c r="R76" s="79" t="str">
-        <f>Regions!G$3</f>
-        <v>IE-KE</v>
-      </c>
-      <c r="S76" s="79" t="str">
-        <f>Regions!H$3</f>
-        <v>IE-KK</v>
-      </c>
-      <c r="T76" s="79" t="str">
-        <f>Regions!I$3</f>
-        <v>IE-LS</v>
-      </c>
-      <c r="U76" s="79" t="str">
-        <f>Regions!J$3</f>
-        <v>IE-LD</v>
-      </c>
-      <c r="V76" s="79" t="str">
-        <f>Regions!K$3</f>
-        <v>IE-LH</v>
-      </c>
-      <c r="W76" s="79" t="str">
-        <f>Regions!L$3</f>
-        <v>IE-MH</v>
-      </c>
-      <c r="X76" s="79" t="str">
-        <f>Regions!M$3</f>
-        <v>IE-OY</v>
-      </c>
-      <c r="Y76" s="79" t="str">
-        <f>Regions!N$3</f>
-        <v>IE-WH</v>
-      </c>
-      <c r="Z76" s="79" t="str">
-        <f>Regions!O$3</f>
-        <v>IE-WX</v>
-      </c>
-      <c r="AA76" s="79" t="str">
-        <f>Regions!P$3</f>
-        <v>IE-WW</v>
-      </c>
-      <c r="AB76" s="79" t="str">
-        <f>Regions!Q$3</f>
-        <v>IE-CE</v>
-      </c>
-      <c r="AC76" s="79" t="str">
-        <f>Regions!R$3</f>
-        <v>IE-CO</v>
-      </c>
-      <c r="AD76" s="79" t="str">
-        <f>Regions!S$3</f>
-        <v>IE-KY</v>
-      </c>
-      <c r="AE76" s="79" t="str">
-        <f>Regions!T$3</f>
-        <v>IE-LK</v>
-      </c>
-      <c r="AF76" s="79" t="str">
-        <f>Regions!U$3</f>
-        <v>IE-TA</v>
-      </c>
-      <c r="AG76" s="79" t="str">
-        <f>Regions!V$3</f>
-        <v>IE-WD</v>
-      </c>
-      <c r="AH76" s="79" t="str">
-        <f>Regions!W$3</f>
-        <v>IE-G</v>
-      </c>
-      <c r="AI76" s="79" t="str">
-        <f>Regions!X$3</f>
-        <v>IE-LM</v>
-      </c>
-      <c r="AJ76" s="79" t="str">
-        <f>Regions!Y$3</f>
-        <v>IE-MO</v>
-      </c>
-      <c r="AK76" s="79" t="str">
-        <f>Regions!Z$3</f>
-        <v>IE-RN</v>
-      </c>
-      <c r="AL76" s="79" t="str">
-        <f>Regions!AA$3</f>
-        <v>IE-SO</v>
-      </c>
-      <c r="AM76" s="79" t="str">
-        <f>Regions!AB$3</f>
-        <v>IE-CN</v>
-      </c>
-      <c r="AN76" s="79" t="str">
-        <f>Regions!AC$3</f>
-        <v>IE-DL</v>
-      </c>
-      <c r="AO76" s="79" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="77" spans="3:42" s="15" customFormat="1">
-      <c r="C77" s="78" t="s">
-        <v>238</v>
-      </c>
-      <c r="D77" s="78"/>
-      <c r="E77" s="78" t="str">
-        <f>LEFT(C121,5)&amp;"*"</f>
-        <v>T-LGT*</v>
-      </c>
-      <c r="F77" s="78"/>
-      <c r="G77" s="78"/>
-      <c r="H77" s="78" t="s">
-        <v>246</v>
-      </c>
-      <c r="I77" s="78"/>
-      <c r="J77" s="78">
-        <v>2018</v>
-      </c>
-      <c r="K77" s="78" t="s">
-        <v>122</v>
-      </c>
-      <c r="L77" s="78">
-        <v>-1</v>
-      </c>
-      <c r="M77" s="78" t="s">
-        <v>239</v>
-      </c>
-      <c r="N77" s="89">
-        <f>ROUNDDOWN(C220,5)</f>
-        <v>2.511E-2</v>
-      </c>
-      <c r="O77" s="89">
-        <f t="shared" ref="O77:AN77" si="27">ROUNDDOWN(D220,5)</f>
-        <v>2.53E-2</v>
-      </c>
-      <c r="P77" s="89">
-        <f t="shared" si="27"/>
-        <v>2.503E-2</v>
-      </c>
-      <c r="Q77" s="89">
-        <f t="shared" si="27"/>
-        <v>2.53E-2</v>
-      </c>
-      <c r="R77" s="89">
-        <f t="shared" si="27"/>
-        <v>2.53E-2</v>
-      </c>
-      <c r="S77" s="89">
-        <f t="shared" si="27"/>
-        <v>2.53E-2</v>
-      </c>
-      <c r="T77" s="89">
-        <f t="shared" si="27"/>
-        <v>2.53E-2</v>
-      </c>
-      <c r="U77" s="89">
-        <f t="shared" si="27"/>
-        <v>2.53E-2</v>
-      </c>
-      <c r="V77" s="89">
-        <f t="shared" si="27"/>
-        <v>2.4750000000000001E-2</v>
-      </c>
-      <c r="W77" s="89">
-        <f t="shared" si="27"/>
-        <v>2.53E-2</v>
-      </c>
-      <c r="X77" s="89">
-        <f t="shared" si="27"/>
-        <v>2.53E-2</v>
-      </c>
-      <c r="Y77" s="89">
-        <f t="shared" si="27"/>
-        <v>2.53E-2</v>
-      </c>
-      <c r="Z77" s="89">
-        <f t="shared" si="27"/>
-        <v>2.53E-2</v>
-      </c>
-      <c r="AA77" s="89">
-        <f t="shared" si="27"/>
-        <v>2.53E-2</v>
-      </c>
-      <c r="AB77" s="89">
-        <f t="shared" si="27"/>
-        <v>2.53E-2</v>
-      </c>
-      <c r="AC77" s="89">
-        <f t="shared" si="27"/>
-        <v>2.53E-2</v>
-      </c>
-      <c r="AD77" s="89">
-        <f t="shared" si="27"/>
-        <v>2.53E-2</v>
-      </c>
-      <c r="AE77" s="89">
-        <f t="shared" si="27"/>
-        <v>2.53E-2</v>
-      </c>
-      <c r="AF77" s="89">
-        <f t="shared" si="27"/>
-        <v>2.4250000000000001E-2</v>
-      </c>
-      <c r="AG77" s="89">
-        <f t="shared" si="27"/>
-        <v>2.53E-2</v>
-      </c>
-      <c r="AH77" s="89">
-        <f t="shared" si="27"/>
-        <v>2.53E-2</v>
-      </c>
-      <c r="AI77" s="89">
-        <f t="shared" si="27"/>
-        <v>2.2720000000000001E-2</v>
-      </c>
-      <c r="AJ77" s="89">
-        <f t="shared" si="27"/>
-        <v>2.53E-2</v>
-      </c>
-      <c r="AK77" s="89">
-        <f t="shared" si="27"/>
-        <v>2.53E-2</v>
-      </c>
-      <c r="AL77" s="89">
-        <f t="shared" si="27"/>
-        <v>2.53E-2</v>
-      </c>
-      <c r="AM77" s="89">
-        <f t="shared" si="27"/>
-        <v>2.53E-2</v>
-      </c>
-      <c r="AN77" s="89">
-        <f t="shared" si="27"/>
-        <v>2.53E-2</v>
-      </c>
-      <c r="AO77" s="83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="3:42" s="15" customFormat="1">
-      <c r="C78" s="78"/>
-      <c r="D78" s="78"/>
-      <c r="E78" s="78"/>
-      <c r="F78" s="78"/>
-      <c r="G78" s="78"/>
-      <c r="H78" s="78"/>
-      <c r="I78" s="78"/>
-      <c r="J78" s="78">
-        <v>0</v>
-      </c>
-      <c r="K78" s="78" t="s">
-        <v>122</v>
-      </c>
-      <c r="L78" s="78"/>
-      <c r="M78" s="78"/>
-      <c r="N78" s="89"/>
-      <c r="O78" s="89"/>
-      <c r="P78" s="89"/>
-      <c r="Q78" s="89"/>
-      <c r="R78" s="89"/>
-      <c r="S78" s="89"/>
-      <c r="T78" s="89"/>
-      <c r="U78" s="89"/>
-      <c r="V78" s="89"/>
-      <c r="W78" s="89"/>
-      <c r="X78" s="89"/>
-      <c r="Y78" s="89"/>
-      <c r="Z78" s="89"/>
-      <c r="AA78" s="89"/>
-      <c r="AB78" s="89"/>
-      <c r="AC78" s="89"/>
-      <c r="AD78" s="89"/>
-      <c r="AE78" s="89"/>
-      <c r="AF78" s="89"/>
-      <c r="AG78" s="89"/>
-      <c r="AH78" s="89"/>
-      <c r="AI78" s="89"/>
-      <c r="AJ78" s="89"/>
-      <c r="AK78" s="89"/>
-      <c r="AL78" s="89"/>
-      <c r="AM78" s="89"/>
-      <c r="AN78" s="89"/>
-      <c r="AO78" s="83">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="3:42" s="15" customFormat="1">
-      <c r="C79" s="78" t="s">
-        <v>240</v>
-      </c>
-      <c r="D79" s="78"/>
-      <c r="E79" s="78" t="str">
-        <f>LEFT(C123,5)&amp;"*"</f>
-        <v>T-MGT*</v>
-      </c>
-      <c r="F79" s="78"/>
-      <c r="G79" s="78"/>
-      <c r="H79" s="78" t="str">
-        <f>H77</f>
-        <v>TRAF</v>
-      </c>
-      <c r="I79" s="78"/>
-      <c r="J79" s="78">
-        <v>2018</v>
-      </c>
-      <c r="K79" s="78" t="s">
-        <v>122</v>
-      </c>
-      <c r="L79" s="78">
-        <v>-1</v>
-      </c>
-      <c r="M79" s="78" t="s">
-        <v>241</v>
-      </c>
-      <c r="N79" s="89">
-        <f>ROUNDDOWN(C221,5)</f>
-        <v>9.8049999999999998E-2</v>
-      </c>
-      <c r="O79" s="89">
-        <f t="shared" ref="O79:AN79" si="28">ROUNDDOWN(D221,5)</f>
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="P79" s="89">
-        <f t="shared" si="28"/>
-        <v>9.7739999999999994E-2</v>
-      </c>
-      <c r="Q79" s="89">
-        <f t="shared" si="28"/>
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="R79" s="89">
-        <f t="shared" si="28"/>
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="S79" s="89">
-        <f t="shared" si="28"/>
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="T79" s="89">
-        <f t="shared" si="28"/>
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="U79" s="89">
-        <f t="shared" si="28"/>
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="V79" s="89">
-        <f t="shared" si="28"/>
-        <v>9.6629999999999994E-2</v>
-      </c>
-      <c r="W79" s="89">
-        <f t="shared" si="28"/>
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="X79" s="89">
-        <f t="shared" si="28"/>
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="Y79" s="89">
-        <f t="shared" si="28"/>
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="Z79" s="89">
-        <f t="shared" si="28"/>
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="AA79" s="89">
-        <f t="shared" si="28"/>
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="AB79" s="89">
-        <f t="shared" si="28"/>
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="AC79" s="89">
-        <f t="shared" si="28"/>
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="AD79" s="89">
-        <f t="shared" si="28"/>
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="AE79" s="89">
-        <f t="shared" si="28"/>
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="AF79" s="89">
-        <f t="shared" si="28"/>
-        <v>9.468E-2</v>
-      </c>
-      <c r="AG79" s="89">
-        <f t="shared" si="28"/>
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="AH79" s="89">
-        <f t="shared" si="28"/>
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="AI79" s="89">
-        <f t="shared" si="28"/>
-        <v>8.8709999999999997E-2</v>
-      </c>
-      <c r="AJ79" s="89">
-        <f t="shared" si="28"/>
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="AK79" s="89">
-        <f t="shared" si="28"/>
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="AL79" s="89">
-        <f t="shared" si="28"/>
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="AM79" s="89">
-        <f t="shared" si="28"/>
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="AN79" s="89">
-        <f t="shared" si="28"/>
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="AO79" s="83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="3:42" s="15" customFormat="1">
-      <c r="C80" s="78"/>
-      <c r="D80" s="78"/>
-      <c r="E80" s="78"/>
-      <c r="F80" s="78"/>
-      <c r="G80" s="78"/>
-      <c r="H80" s="78"/>
-      <c r="I80" s="78"/>
-      <c r="J80" s="78">
-        <v>0</v>
-      </c>
-      <c r="K80" s="78" t="s">
-        <v>122</v>
-      </c>
-      <c r="L80" s="78"/>
-      <c r="M80" s="78"/>
-      <c r="N80" s="89"/>
-      <c r="O80" s="89"/>
-      <c r="P80" s="89"/>
-      <c r="Q80" s="89"/>
-      <c r="R80" s="89"/>
-      <c r="S80" s="89"/>
-      <c r="T80" s="89"/>
-      <c r="U80" s="89"/>
-      <c r="V80" s="89"/>
-      <c r="W80" s="89"/>
-      <c r="X80" s="89"/>
-      <c r="Y80" s="89"/>
-      <c r="Z80" s="89"/>
-      <c r="AA80" s="89"/>
-      <c r="AB80" s="89"/>
-      <c r="AC80" s="89"/>
-      <c r="AD80" s="89"/>
-      <c r="AE80" s="89"/>
-      <c r="AF80" s="89"/>
-      <c r="AG80" s="89"/>
-      <c r="AH80" s="89"/>
-      <c r="AI80" s="89"/>
-      <c r="AJ80" s="89"/>
-      <c r="AK80" s="89"/>
-      <c r="AL80" s="89"/>
-      <c r="AM80" s="89"/>
-      <c r="AN80" s="89"/>
-      <c r="AO80" s="83">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="3:41" s="15" customFormat="1">
-      <c r="C81" s="78" t="s">
-        <v>242</v>
-      </c>
-      <c r="D81" s="78"/>
-      <c r="E81" s="78" t="str">
-        <f>LEFT(C124,5)&amp;"*"</f>
-        <v>T-HGT*</v>
-      </c>
-      <c r="F81" s="78"/>
-      <c r="G81" s="78"/>
-      <c r="H81" s="78" t="str">
-        <f>H79</f>
-        <v>TRAF</v>
-      </c>
-      <c r="I81" s="78"/>
-      <c r="J81" s="78">
-        <v>2018</v>
-      </c>
-      <c r="K81" s="78" t="s">
-        <v>122</v>
-      </c>
-      <c r="L81" s="78">
-        <v>-1</v>
-      </c>
-      <c r="M81" s="78" t="s">
-        <v>243</v>
-      </c>
-      <c r="N81" s="89">
-        <f>ROUNDDOWN(C222,5)</f>
-        <v>0.86921000000000004</v>
-      </c>
-      <c r="O81" s="89">
-        <f t="shared" ref="O81:AN81" si="29">ROUNDDOWN(D222,5)</f>
-        <v>0.87587999999999999</v>
-      </c>
-      <c r="P81" s="89">
-        <f t="shared" si="29"/>
-        <v>0.86650000000000005</v>
-      </c>
-      <c r="Q81" s="89">
-        <f t="shared" si="29"/>
-        <v>0.87587999999999999</v>
-      </c>
-      <c r="R81" s="89">
-        <f t="shared" si="29"/>
-        <v>0.87587999999999999</v>
-      </c>
-      <c r="S81" s="89">
-        <f t="shared" si="29"/>
-        <v>0.87587999999999999</v>
-      </c>
-      <c r="T81" s="89">
-        <f t="shared" si="29"/>
-        <v>0.87587999999999999</v>
-      </c>
-      <c r="U81" s="89">
-        <f t="shared" si="29"/>
-        <v>0.87587999999999999</v>
-      </c>
-      <c r="V81" s="89">
-        <f t="shared" si="29"/>
-        <v>0.85665999999999998</v>
-      </c>
-      <c r="W81" s="89">
-        <f t="shared" si="29"/>
-        <v>0.87587999999999999</v>
-      </c>
-      <c r="X81" s="89">
-        <f t="shared" si="29"/>
-        <v>0.87587999999999999</v>
-      </c>
-      <c r="Y81" s="89">
-        <f t="shared" si="29"/>
-        <v>0.87587999999999999</v>
-      </c>
-      <c r="Z81" s="89">
-        <f t="shared" si="29"/>
-        <v>0.87587999999999999</v>
-      </c>
-      <c r="AA81" s="89">
-        <f t="shared" si="29"/>
-        <v>0.87587999999999999</v>
-      </c>
-      <c r="AB81" s="89">
-        <f t="shared" si="29"/>
-        <v>0.87587999999999999</v>
-      </c>
-      <c r="AC81" s="89">
-        <f t="shared" si="29"/>
-        <v>0.87587999999999999</v>
-      </c>
-      <c r="AD81" s="89">
-        <f t="shared" si="29"/>
-        <v>0.87587999999999999</v>
-      </c>
-      <c r="AE81" s="89">
-        <f t="shared" si="29"/>
-        <v>0.87587999999999999</v>
-      </c>
-      <c r="AF81" s="89">
-        <f t="shared" si="29"/>
-        <v>0.83933000000000002</v>
-      </c>
-      <c r="AG81" s="89">
-        <f t="shared" si="29"/>
-        <v>0.87587999999999999</v>
-      </c>
-      <c r="AH81" s="89">
-        <f t="shared" si="29"/>
-        <v>0.87587999999999999</v>
-      </c>
-      <c r="AI81" s="89">
-        <f t="shared" si="29"/>
-        <v>0.78647999999999996</v>
-      </c>
-      <c r="AJ81" s="89">
-        <f t="shared" si="29"/>
-        <v>0.87587999999999999</v>
-      </c>
-      <c r="AK81" s="89">
-        <f t="shared" si="29"/>
-        <v>0.87587999999999999</v>
-      </c>
-      <c r="AL81" s="89">
-        <f t="shared" si="29"/>
-        <v>0.87587999999999999</v>
-      </c>
-      <c r="AM81" s="89">
-        <f t="shared" si="29"/>
-        <v>0.87587999999999999</v>
-      </c>
-      <c r="AN81" s="89">
-        <f t="shared" si="29"/>
-        <v>0.87587999999999999</v>
-      </c>
-      <c r="AO81" s="83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:41" s="15" customFormat="1">
-      <c r="C82" s="78"/>
-      <c r="D82" s="78"/>
-      <c r="E82" s="78"/>
-      <c r="F82" s="78"/>
-      <c r="G82" s="78"/>
-      <c r="H82" s="78"/>
-      <c r="I82" s="78"/>
-      <c r="J82" s="78">
-        <v>0</v>
-      </c>
-      <c r="K82" s="78" t="s">
-        <v>122</v>
-      </c>
-      <c r="L82" s="78"/>
-      <c r="M82" s="78"/>
-      <c r="N82" s="82"/>
-      <c r="O82" s="82"/>
-      <c r="P82" s="82"/>
-      <c r="Q82" s="82"/>
-      <c r="R82" s="82"/>
-      <c r="S82" s="82"/>
-      <c r="T82" s="82"/>
-      <c r="U82" s="82"/>
-      <c r="V82" s="82"/>
-      <c r="W82" s="82"/>
-      <c r="X82" s="82"/>
-      <c r="Y82" s="82"/>
-      <c r="Z82" s="82"/>
-      <c r="AA82" s="82"/>
-      <c r="AB82" s="82"/>
-      <c r="AC82" s="82"/>
-      <c r="AD82" s="82"/>
-      <c r="AE82" s="82"/>
-      <c r="AF82" s="82"/>
-      <c r="AG82" s="82"/>
-      <c r="AH82" s="82"/>
-      <c r="AI82" s="82"/>
-      <c r="AJ82" s="82"/>
-      <c r="AK82" s="82"/>
-      <c r="AL82" s="82"/>
-      <c r="AM82" s="82"/>
-      <c r="AN82" s="82"/>
-      <c r="AO82" s="78">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="3:41" s="15" customFormat="1">
-      <c r="C83" s="78" t="s">
-        <v>244</v>
-      </c>
-      <c r="D83" s="78"/>
-      <c r="E83" s="78" t="s">
-        <v>250</v>
-      </c>
-      <c r="F83" s="78"/>
-      <c r="G83" s="78"/>
-      <c r="H83" s="78" t="s">
-        <v>246</v>
-      </c>
-      <c r="I83" s="78"/>
-      <c r="J83" s="78">
-        <v>2018</v>
-      </c>
-      <c r="K83" s="78" t="s">
-        <v>122</v>
-      </c>
-      <c r="L83" s="78">
-        <v>-1</v>
-      </c>
-      <c r="M83" s="78" t="s">
-        <v>245</v>
-      </c>
-      <c r="N83" s="89">
-        <f>ROUNDDOWN(C223,5)</f>
-        <v>7.6099999999999996E-3</v>
-      </c>
-      <c r="O83" s="89">
-        <f t="shared" ref="O83:AN83" si="30">ROUNDDOWN(D223,5)</f>
-        <v>0</v>
-      </c>
-      <c r="P83" s="89">
-        <f t="shared" si="30"/>
-        <v>1.0699999999999999E-2</v>
-      </c>
-      <c r="Q83" s="89">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="R83" s="89">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="S83" s="89">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="T83" s="89">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="U83" s="89">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="V83" s="89">
-        <f t="shared" si="30"/>
-        <v>2.1940000000000001E-2</v>
-      </c>
-      <c r="W83" s="89">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="X83" s="89">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="Y83" s="89">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="Z83" s="89">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AA83" s="89">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AB83" s="89">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AC83" s="89">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AD83" s="89">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AE83" s="89">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AF83" s="89">
-        <f t="shared" si="30"/>
-        <v>4.172E-2</v>
-      </c>
-      <c r="AG83" s="89">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AH83" s="89">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AI83" s="89">
-        <f t="shared" si="30"/>
-        <v>0.10206999999999999</v>
-      </c>
-      <c r="AJ83" s="89">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AK83" s="89">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AL83" s="89">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AM83" s="89">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AN83" s="89">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AO83" s="83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:41" s="15" customFormat="1">
-      <c r="C84" s="80"/>
-      <c r="D84" s="80"/>
-      <c r="E84" s="80"/>
-      <c r="F84" s="80"/>
-      <c r="G84" s="80"/>
-      <c r="H84" s="80"/>
-      <c r="I84" s="80"/>
-      <c r="J84" s="80">
-        <v>0</v>
-      </c>
-      <c r="K84" s="80" t="s">
-        <v>122</v>
-      </c>
-      <c r="L84" s="80"/>
-      <c r="M84" s="80"/>
-      <c r="N84" s="80"/>
-      <c r="O84" s="80"/>
-      <c r="P84" s="80"/>
-      <c r="Q84" s="80"/>
-      <c r="R84" s="80"/>
-      <c r="S84" s="80"/>
-      <c r="T84" s="80"/>
-      <c r="U84" s="80"/>
-      <c r="V84" s="80"/>
-      <c r="W84" s="80"/>
-      <c r="X84" s="80"/>
-      <c r="Y84" s="80"/>
-      <c r="Z84" s="80"/>
-      <c r="AA84" s="80"/>
-      <c r="AB84" s="80"/>
-      <c r="AC84" s="80"/>
-      <c r="AD84" s="80"/>
-      <c r="AE84" s="80"/>
-      <c r="AF84" s="80"/>
-      <c r="AG84" s="80"/>
-      <c r="AH84" s="80"/>
-      <c r="AI84" s="80"/>
-      <c r="AJ84" s="80"/>
-      <c r="AK84" s="80"/>
-      <c r="AL84" s="80"/>
-      <c r="AM84" s="80"/>
-      <c r="AN84" s="80"/>
-      <c r="AO84" s="80">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="3:41" s="15" customFormat="1">
-      <c r="C85" s="78"/>
-      <c r="D85" s="78"/>
-      <c r="E85" s="78"/>
-      <c r="F85" s="78"/>
-      <c r="G85" s="78"/>
-      <c r="H85" s="78"/>
-      <c r="I85" s="78"/>
-      <c r="J85" s="78"/>
-      <c r="K85" s="78"/>
-      <c r="L85" s="78"/>
-      <c r="M85" s="78"/>
-      <c r="N85" s="78"/>
-      <c r="O85" s="78"/>
-      <c r="P85" s="78"/>
-      <c r="Q85" s="78"/>
-      <c r="R85" s="78"/>
-      <c r="S85" s="78"/>
-      <c r="T85" s="78"/>
-      <c r="U85" s="78"/>
-      <c r="V85" s="78"/>
-      <c r="W85" s="78"/>
-      <c r="X85" s="78"/>
-      <c r="Y85" s="78"/>
-      <c r="Z85" s="78"/>
-      <c r="AA85" s="78"/>
-      <c r="AB85" s="78"/>
-      <c r="AC85" s="78"/>
-      <c r="AD85" s="78"/>
-      <c r="AE85" s="78"/>
-      <c r="AF85" s="78"/>
-      <c r="AG85" s="78"/>
-      <c r="AH85" s="78"/>
-      <c r="AI85" s="78"/>
-      <c r="AJ85" s="78"/>
-      <c r="AK85" s="78"/>
-      <c r="AL85" s="78"/>
-      <c r="AM85" s="78"/>
-      <c r="AN85" s="78"/>
-      <c r="AO85" s="78"/>
-    </row>
-    <row r="86" spans="3:41" s="15" customFormat="1">
-      <c r="C86" s="78"/>
-      <c r="D86" s="78"/>
-      <c r="E86" s="78"/>
-      <c r="F86" s="78"/>
-      <c r="G86" s="78"/>
-      <c r="H86" s="78"/>
-      <c r="I86" s="78"/>
-      <c r="J86" s="78"/>
-      <c r="K86" s="78"/>
-      <c r="L86" s="78"/>
-      <c r="M86" s="78" t="s">
-        <v>220</v>
-      </c>
-      <c r="N86" s="84">
-        <f>N77+N79+N81+N83</f>
-        <v>0.99997999999999998</v>
-      </c>
-      <c r="O86" s="84">
-        <f t="shared" ref="O86:AN86" si="31">O77+O79+O81+O83</f>
-        <v>0.99997999999999998</v>
-      </c>
-      <c r="P86" s="82">
-        <f t="shared" si="31"/>
-        <v>0.99997000000000014</v>
-      </c>
-      <c r="Q86" s="82">
-        <f t="shared" si="31"/>
-        <v>0.99997999999999998</v>
-      </c>
-      <c r="R86" s="82">
-        <f t="shared" si="31"/>
-        <v>0.99997999999999998</v>
-      </c>
-      <c r="S86" s="82">
-        <f t="shared" si="31"/>
-        <v>0.99997999999999998</v>
-      </c>
-      <c r="T86" s="82">
-        <f t="shared" si="31"/>
-        <v>0.99997999999999998</v>
-      </c>
-      <c r="U86" s="82">
-        <f t="shared" si="31"/>
-        <v>0.99997999999999998</v>
-      </c>
-      <c r="V86" s="82">
-        <f t="shared" si="31"/>
-        <v>0.99997999999999998</v>
-      </c>
-      <c r="W86" s="82">
-        <f t="shared" si="31"/>
-        <v>0.99997999999999998</v>
-      </c>
-      <c r="X86" s="82">
-        <f t="shared" si="31"/>
-        <v>0.99997999999999998</v>
-      </c>
-      <c r="Y86" s="82">
-        <f t="shared" si="31"/>
-        <v>0.99997999999999998</v>
-      </c>
-      <c r="Z86" s="82">
-        <f t="shared" si="31"/>
-        <v>0.99997999999999998</v>
-      </c>
-      <c r="AA86" s="82">
-        <f t="shared" si="31"/>
-        <v>0.99997999999999998</v>
-      </c>
-      <c r="AB86" s="82">
-        <f t="shared" si="31"/>
-        <v>0.99997999999999998</v>
-      </c>
-      <c r="AC86" s="82">
-        <f t="shared" si="31"/>
-        <v>0.99997999999999998</v>
-      </c>
-      <c r="AD86" s="82">
-        <f t="shared" si="31"/>
-        <v>0.99997999999999998</v>
-      </c>
-      <c r="AE86" s="82">
-        <f t="shared" si="31"/>
-        <v>0.99997999999999998</v>
-      </c>
-      <c r="AF86" s="82">
-        <f t="shared" si="31"/>
-        <v>0.99997999999999998</v>
-      </c>
-      <c r="AG86" s="82">
-        <f t="shared" si="31"/>
-        <v>0.99997999999999998</v>
-      </c>
-      <c r="AH86" s="82">
-        <f t="shared" si="31"/>
-        <v>0.99997999999999998</v>
-      </c>
-      <c r="AI86" s="82">
-        <f t="shared" si="31"/>
-        <v>0.99997999999999998</v>
-      </c>
-      <c r="AJ86" s="82">
-        <f t="shared" si="31"/>
-        <v>0.99997999999999998</v>
-      </c>
-      <c r="AK86" s="82">
-        <f t="shared" si="31"/>
-        <v>0.99997999999999998</v>
-      </c>
-      <c r="AL86" s="82">
-        <f t="shared" si="31"/>
-        <v>0.99997999999999998</v>
-      </c>
-      <c r="AM86" s="82">
-        <f t="shared" si="31"/>
-        <v>0.99997999999999998</v>
-      </c>
-      <c r="AN86" s="82">
-        <f t="shared" si="31"/>
-        <v>0.99997999999999998</v>
-      </c>
-      <c r="AO86" s="78"/>
-    </row>
-    <row r="87" spans="3:41" s="15" customFormat="1">
-      <c r="N87" s="60"/>
-      <c r="O87" s="60"/>
-      <c r="P87" s="60"/>
-      <c r="Q87" s="60"/>
-      <c r="R87" s="60"/>
-      <c r="S87" s="60"/>
-      <c r="T87" s="60"/>
-      <c r="U87" s="60"/>
-      <c r="V87" s="60"/>
-      <c r="W87" s="60"/>
-      <c r="X87" s="60"/>
-      <c r="Y87" s="60"/>
-      <c r="Z87" s="60"/>
-      <c r="AA87" s="60"/>
-      <c r="AB87" s="60"/>
-      <c r="AC87" s="60"/>
-      <c r="AD87" s="60"/>
-      <c r="AE87" s="60"/>
-      <c r="AF87" s="60"/>
-      <c r="AG87" s="60"/>
-      <c r="AH87" s="60"/>
-      <c r="AI87" s="60"/>
-      <c r="AJ87" s="60"/>
-      <c r="AK87" s="60"/>
-      <c r="AL87" s="60"/>
-      <c r="AM87" s="60"/>
-      <c r="AN87" s="60"/>
-    </row>
-    <row r="91" spans="3:41" ht="21">
-      <c r="C91" s="45" t="s">
+    <row r="75" spans="3:42" ht="21">
+      <c r="C75" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="D91" s="45"/>
-      <c r="E91" s="45"/>
-      <c r="F91" s="45"/>
-      <c r="G91" s="45"/>
-      <c r="H91" s="45"/>
-    </row>
-    <row r="92" spans="3:41" ht="15" thickBot="1">
-      <c r="C92" s="39" t="s">
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+    </row>
+    <row r="76" spans="3:42" ht="15" thickBot="1">
+      <c r="C76" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="D92" s="39" t="s">
+      <c r="D76" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="E92" s="39"/>
-      <c r="F92" s="39"/>
-      <c r="G92" s="39"/>
-      <c r="H92" s="39"/>
-    </row>
-    <row r="93" spans="3:41">
-      <c r="C93" s="40" t="s">
+      <c r="E76" s="39"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
+    </row>
+    <row r="77" spans="3:42">
+      <c r="C77" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="D93" s="40"/>
-      <c r="E93" s="40"/>
-      <c r="F93" s="40"/>
-      <c r="G93" s="40"/>
-      <c r="H93" s="40"/>
-    </row>
-    <row r="94" spans="3:41">
-      <c r="C94" s="41" t="s">
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+    </row>
+    <row r="78" spans="3:42">
+      <c r="C78" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="D94" s="41"/>
-      <c r="E94" s="41"/>
-      <c r="F94" s="41"/>
-      <c r="G94" s="41"/>
-      <c r="H94" s="41"/>
-    </row>
-    <row r="95" spans="3:41">
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="41"/>
+    </row>
+    <row r="79" spans="3:42">
+      <c r="C79" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D79" s="42" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" spans="3:42">
+      <c r="C80" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D80" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8">
+      <c r="C81" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="41"/>
+    </row>
+    <row r="82" spans="3:8">
+      <c r="C82" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D82" s="42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8">
+      <c r="C83" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="D83" s="41"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="41"/>
+      <c r="G83" s="41"/>
+      <c r="H83" s="41"/>
+    </row>
+    <row r="84" spans="3:8">
+      <c r="C84" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="D84" s="42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8">
+      <c r="C85" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="D85" s="42" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8">
+      <c r="C86" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D86" s="42" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8">
+      <c r="C87" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D87" s="42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8">
+      <c r="C88" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="D88" s="42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8">
+      <c r="C89" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D89" s="42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8">
+      <c r="C90" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D90" s="42" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8">
+      <c r="C91" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="D91" s="42" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8">
+      <c r="C92" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="D92" s="42" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8">
+      <c r="C93" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="D93" s="41"/>
+      <c r="E93" s="41"/>
+      <c r="F93" s="41"/>
+      <c r="G93" s="41"/>
+      <c r="H93" s="41"/>
+    </row>
+    <row r="94" spans="3:8">
+      <c r="C94" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D94" s="42" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8">
       <c r="C95" s="42" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="D95" s="42" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="96" spans="3:41">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8">
       <c r="C96" s="42" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="D96" s="42" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="3:8">
       <c r="C97" s="41" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="D97" s="41"/>
       <c r="E97" s="41"/>
@@ -9845,15 +8698,15 @@
     </row>
     <row r="98" spans="3:8">
       <c r="C98" s="42" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="D98" s="42" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
     </row>
     <row r="99" spans="3:8">
       <c r="C99" s="41" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="D99" s="41"/>
       <c r="E99" s="41"/>
@@ -9863,1377 +8716,2309 @@
     </row>
     <row r="100" spans="3:8">
       <c r="C100" s="42" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="D100" s="42" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
     </row>
     <row r="101" spans="3:8">
       <c r="C101" s="42" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="D101" s="42" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="102" spans="3:8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8" ht="15" thickBot="1">
       <c r="C102" s="42" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="D102" s="42" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="103" spans="3:8">
-      <c r="C103" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="D103" s="42" t="s">
-        <v>143</v>
-      </c>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" ht="15" thickBot="1">
+      <c r="C103" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="D103" s="43"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="43"/>
+      <c r="G103" s="43"/>
+      <c r="H103" s="43"/>
     </row>
     <row r="104" spans="3:8">
-      <c r="C104" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="D104" s="42" t="s">
-        <v>145</v>
-      </c>
+      <c r="C104" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="D104" s="41"/>
+      <c r="E104" s="41"/>
+      <c r="F104" s="41"/>
+      <c r="G104" s="41"/>
+      <c r="H104" s="41"/>
     </row>
     <row r="105" spans="3:8">
       <c r="C105" s="42" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="D105" s="42" t="s">
-        <v>147</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
     </row>
     <row r="106" spans="3:8">
       <c r="C106" s="42" t="s">
-        <v>148</v>
+        <v>224</v>
       </c>
       <c r="D106" s="42" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="107" spans="3:8">
+        <v>225</v>
+      </c>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+    </row>
+    <row r="107" spans="3:8" s="15" customFormat="1">
       <c r="C107" s="42" t="s">
-        <v>150</v>
+        <v>226</v>
       </c>
       <c r="D107" s="42" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="108" spans="3:8">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="108" spans="3:8" s="15" customFormat="1">
       <c r="C108" s="42" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="D108" s="42" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="109" spans="3:8">
-      <c r="C109" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="D109" s="41"/>
-      <c r="E109" s="41"/>
-      <c r="F109" s="41"/>
-      <c r="G109" s="41"/>
-      <c r="H109" s="41"/>
-    </row>
-    <row r="110" spans="3:8">
-      <c r="C110" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="D110" s="42" t="s">
-        <v>156</v>
-      </c>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8" ht="15" thickBot="1">
+      <c r="C109" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D109" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+    </row>
+    <row r="110" spans="3:8" ht="15" thickBot="1">
+      <c r="C110" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="D110" s="43"/>
+      <c r="E110" s="43"/>
+      <c r="F110" s="43"/>
+      <c r="G110" s="43"/>
+      <c r="H110" s="43"/>
     </row>
     <row r="111" spans="3:8">
       <c r="C111" s="42" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="D111" s="42" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
     </row>
     <row r="112" spans="3:8">
       <c r="C112" s="42" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="D112" s="42" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="113" spans="3:8">
-      <c r="C113" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="D113" s="41"/>
-      <c r="E113" s="41"/>
-      <c r="F113" s="41"/>
-      <c r="G113" s="41"/>
-      <c r="H113" s="41"/>
-    </row>
-    <row r="114" spans="3:8">
-      <c r="C114" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="D114" s="42" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="115" spans="3:8">
-      <c r="C115" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D115" s="41"/>
-      <c r="E115" s="41"/>
-      <c r="F115" s="41"/>
-      <c r="G115" s="41"/>
-      <c r="H115" s="41"/>
-    </row>
-    <row r="116" spans="3:8">
-      <c r="C116" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="D116" s="42" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="117" spans="3:8">
-      <c r="C117" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="D117" s="42" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="118" spans="3:8" ht="15" thickBot="1">
-      <c r="C118" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="D118" s="42" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="119" spans="3:8" ht="15" thickBot="1">
-      <c r="C119" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="D119" s="43"/>
-      <c r="E119" s="43"/>
-      <c r="F119" s="43"/>
-      <c r="G119" s="43"/>
-      <c r="H119" s="43"/>
-    </row>
-    <row r="120" spans="3:8">
-      <c r="C120" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="D120" s="41"/>
-      <c r="E120" s="41"/>
-      <c r="F120" s="41"/>
-      <c r="G120" s="41"/>
-      <c r="H120" s="41"/>
-    </row>
-    <row r="121" spans="3:8">
-      <c r="C121" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="D121" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="E121" s="15"/>
-      <c r="F121" s="15"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="113" spans="3:9" ht="15" thickBot="1">
+      <c r="C113" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="D113" s="42" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="114" spans="3:9" ht="15" thickBot="1">
+      <c r="C114" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="D114" s="43"/>
+      <c r="E114" s="43"/>
+      <c r="F114" s="43"/>
+      <c r="G114" s="43"/>
+      <c r="H114" s="43"/>
+    </row>
+    <row r="115" spans="3:9">
+      <c r="C115" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="D115" s="42" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="116" spans="3:9" ht="15" thickBot="1">
+      <c r="C116" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="D116" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="E116" s="46"/>
+      <c r="F116" s="46"/>
+      <c r="G116" s="46"/>
+      <c r="H116" s="46"/>
+    </row>
+    <row r="118" spans="3:9">
+      <c r="G118" s="15"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+    </row>
+    <row r="119" spans="3:9" ht="15" thickBot="1">
+      <c r="C119" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="D119" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="E119" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="F119" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+    </row>
+    <row r="120" spans="3:9">
+      <c r="C120" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E120" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F120" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="G120" s="15"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+    </row>
+    <row r="121" spans="3:9">
+      <c r="C121" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D121" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E121" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F121" s="15" t="s">
+        <v>191</v>
+      </c>
       <c r="G121" s="15"/>
-    </row>
-    <row r="122" spans="3:8">
-      <c r="C122" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="D122" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="E122" s="15"/>
-      <c r="F122" s="15"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+    </row>
+    <row r="122" spans="3:9" ht="15" thickBot="1">
+      <c r="C122" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="D122" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="E122" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="F122" s="46" t="s">
+        <v>191</v>
+      </c>
       <c r="G122" s="15"/>
-    </row>
-    <row r="123" spans="3:8" s="15" customFormat="1">
-      <c r="C123" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="D123" s="42" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="124" spans="3:8" s="15" customFormat="1">
-      <c r="C124" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="D124" s="42" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="125" spans="3:8" ht="15" thickBot="1">
-      <c r="C125" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="D125" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
-    </row>
-    <row r="126" spans="3:8" ht="15" thickBot="1">
-      <c r="C126" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="D126" s="43"/>
-      <c r="E126" s="43"/>
-      <c r="F126" s="43"/>
-      <c r="G126" s="43"/>
-      <c r="H126" s="43"/>
-    </row>
-    <row r="127" spans="3:8">
-      <c r="C127" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="D127" s="42" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="128" spans="3:8">
-      <c r="C128" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="D128" s="42" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="129" spans="3:9" ht="15" thickBot="1">
-      <c r="C129" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="D129" s="42" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="130" spans="3:9" ht="15" thickBot="1">
-      <c r="C130" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D130" s="43"/>
-      <c r="E130" s="43"/>
-      <c r="F130" s="43"/>
-      <c r="G130" s="43"/>
-      <c r="H130" s="43"/>
-    </row>
-    <row r="131" spans="3:9">
-      <c r="C131" s="42" t="s">
-        <v>187</v>
-      </c>
-      <c r="D131" s="42" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="132" spans="3:9" ht="15" thickBot="1">
-      <c r="C132" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="D132" s="44" t="s">
-        <v>190</v>
-      </c>
-      <c r="E132" s="46"/>
-      <c r="F132" s="46"/>
-      <c r="G132" s="46"/>
-      <c r="H132" s="46"/>
-    </row>
-    <row r="134" spans="3:9">
-      <c r="G134" s="15"/>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-    </row>
-    <row r="135" spans="3:9" ht="15" thickBot="1">
-      <c r="C135" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="D135" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="E135" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="F135" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="G135" s="15"/>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-    </row>
-    <row r="136" spans="3:9">
-      <c r="C136" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="D136" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="E136" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="F136" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="G136" s="15"/>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-    </row>
-    <row r="137" spans="3:9">
-      <c r="C137" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="D137" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="E137" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="F137" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="G137" s="15"/>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-    </row>
-    <row r="138" spans="3:9" ht="15" thickBot="1">
-      <c r="C138" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="D138" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="E138" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="F138" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="G138" s="15"/>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-    </row>
-    <row r="139" spans="3:9">
-      <c r="G139" s="15"/>
-      <c r="H139" s="15"/>
-    </row>
-    <row r="140" spans="3:9">
-      <c r="G140" s="15"/>
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
-    </row>
-    <row r="141" spans="3:9" ht="15.6">
-      <c r="C141" s="49" t="s">
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+    </row>
+    <row r="123" spans="3:9">
+      <c r="G123" s="15"/>
+      <c r="H123" s="15"/>
+    </row>
+    <row r="124" spans="3:9">
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+    </row>
+    <row r="125" spans="3:9" ht="15.6">
+      <c r="C125" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="D141" s="49"/>
-    </row>
-    <row r="142" spans="3:9" ht="15" thickBot="1">
-      <c r="C142" s="48" t="s">
+      <c r="D125" s="49"/>
+    </row>
+    <row r="126" spans="3:9" ht="15" thickBot="1">
+      <c r="C126" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="D142" s="48" t="s">
+      <c r="D126" s="48" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="143" spans="3:9">
-      <c r="C143" s="15" t="s">
+    <row r="127" spans="3:9">
+      <c r="C127" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="D143" s="15" t="s">
+      <c r="D127" s="15" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="144" spans="3:9">
-      <c r="C144" s="15"/>
-      <c r="D144" s="15" t="s">
+    <row r="128" spans="3:9">
+      <c r="C128" s="15"/>
+      <c r="D128" s="15" t="s">
         <v>207</v>
       </c>
     </row>
+    <row r="129" spans="1:29">
+      <c r="C129" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D129" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29">
+      <c r="C130" s="15"/>
+      <c r="D130" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29">
+      <c r="C131" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D131" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29">
+      <c r="C132" s="15"/>
+      <c r="D132" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29">
+      <c r="C133" s="15"/>
+      <c r="D133" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29" ht="15" thickBot="1">
+      <c r="C134" s="46"/>
+      <c r="D134" s="46" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29">
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
+    </row>
+    <row r="136" spans="1:29">
+      <c r="C136" s="15"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+    </row>
+    <row r="137" spans="1:29" ht="18.600000000000001" thickBot="1">
+      <c r="A137" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="B137" s="59"/>
+      <c r="C137" s="59"/>
+      <c r="D137" s="59"/>
+      <c r="E137" s="59"/>
+    </row>
+    <row r="138" spans="1:29" s="15" customFormat="1"/>
+    <row r="139" spans="1:29" ht="15.6">
+      <c r="A139" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="B139" s="50"/>
+      <c r="C139" s="50"/>
+      <c r="D139" s="51"/>
+      <c r="E139" s="51"/>
+      <c r="F139" s="51"/>
+      <c r="G139" s="51"/>
+      <c r="H139" s="51"/>
+      <c r="I139" s="51"/>
+      <c r="J139" s="51"/>
+      <c r="K139" s="51"/>
+      <c r="L139" s="51"/>
+      <c r="M139" s="51"/>
+      <c r="N139" s="51"/>
+      <c r="O139" s="51"/>
+      <c r="P139" s="51"/>
+      <c r="Q139" s="51"/>
+      <c r="R139" s="51"/>
+      <c r="S139" s="51"/>
+      <c r="T139" s="51"/>
+      <c r="U139" s="51"/>
+      <c r="V139" s="51"/>
+      <c r="W139" s="51"/>
+      <c r="X139" s="51"/>
+      <c r="Y139" s="51"/>
+      <c r="Z139" s="51"/>
+      <c r="AA139" s="51"/>
+      <c r="AB139" s="51"/>
+      <c r="AC139" s="51"/>
+    </row>
+    <row r="140" spans="1:29">
+      <c r="A140" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="B140" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="C140" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D140" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="E140" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="F140" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="G140" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="H140" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="I140" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="J140" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="K140" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="L140" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="M140" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="N140" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="O140" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="P140" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q140" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="R140" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="S140" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="T140" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="U140" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="V140" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="W140" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="X140" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y140" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z140" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA140" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB140" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC140" s="53" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29">
+      <c r="A141" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="B141" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="C141" s="54">
+        <v>0.32377983784854231</v>
+      </c>
+      <c r="D141" s="54">
+        <v>0.29539615700051852</v>
+      </c>
+      <c r="E141" s="54">
+        <v>0.34966256439645477</v>
+      </c>
+      <c r="F141" s="54">
+        <v>0.31311359703458036</v>
+      </c>
+      <c r="G141" s="54">
+        <v>0.30099430857485032</v>
+      </c>
+      <c r="H141" s="54">
+        <v>0.32585784427063491</v>
+      </c>
+      <c r="I141" s="54">
+        <v>0.31296089693181006</v>
+      </c>
+      <c r="J141" s="54">
+        <v>0.34414959934244926</v>
+      </c>
+      <c r="K141" s="54">
+        <v>0.31640567871855385</v>
+      </c>
+      <c r="L141" s="54">
+        <v>0.30551897544605799</v>
+      </c>
+      <c r="M141" s="54">
+        <v>0.30690900126975923</v>
+      </c>
+      <c r="N141" s="54">
+        <v>0.29742024558167873</v>
+      </c>
+      <c r="O141" s="54">
+        <v>0.31985079986061538</v>
+      </c>
+      <c r="P141" s="54">
+        <v>0.30317740338092081</v>
+      </c>
+      <c r="Q141" s="54">
+        <v>0.32755819451934742</v>
+      </c>
+      <c r="R141" s="54">
+        <v>0.29108733491927802</v>
+      </c>
+      <c r="S141" s="54">
+        <v>0.32210907481657336</v>
+      </c>
+      <c r="T141" s="54">
+        <v>0.28924149649685427</v>
+      </c>
+      <c r="U141" s="54">
+        <v>0.31716332192128543</v>
+      </c>
+      <c r="V141" s="54">
+        <v>0.31520515014132622</v>
+      </c>
+      <c r="W141" s="54">
+        <v>0.30543827437637427</v>
+      </c>
+      <c r="X141" s="54">
+        <v>0.29765342162432462</v>
+      </c>
+      <c r="Y141" s="54">
+        <v>0.28141024531167946</v>
+      </c>
+      <c r="Z141" s="54">
+        <v>0.32408712009988533</v>
+      </c>
+      <c r="AA141" s="54">
+        <v>0.33773511822059504</v>
+      </c>
+      <c r="AB141" s="54">
+        <v>0.36384480991771728</v>
+      </c>
+      <c r="AC141" s="54">
+        <v>0.29253128431407999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29">
+      <c r="A142" s="51"/>
+      <c r="B142" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="C142" s="54">
+        <v>5.3963306308090382E-2</v>
+      </c>
+      <c r="D142" s="54">
+        <v>4.9232692833419758E-2</v>
+      </c>
+      <c r="E142" s="54">
+        <v>5.8277094066075792E-2</v>
+      </c>
+      <c r="F142" s="54">
+        <v>5.2185599505763403E-2</v>
+      </c>
+      <c r="G142" s="54">
+        <v>5.016571809580838E-2</v>
+      </c>
+      <c r="H142" s="54">
+        <v>5.4309640711772487E-2</v>
+      </c>
+      <c r="I142" s="54">
+        <v>5.216014948863501E-2</v>
+      </c>
+      <c r="J142" s="54">
+        <v>5.7358266557074891E-2</v>
+      </c>
+      <c r="K142" s="54">
+        <v>5.2734279786425649E-2</v>
+      </c>
+      <c r="L142" s="54">
+        <v>5.0919829241009663E-2</v>
+      </c>
+      <c r="M142" s="54">
+        <v>5.1151500211626538E-2</v>
+      </c>
+      <c r="N142" s="54">
+        <v>4.95700409302798E-2</v>
+      </c>
+      <c r="O142" s="54">
+        <v>5.3308466643435894E-2</v>
+      </c>
+      <c r="P142" s="54">
+        <v>5.052956723015347E-2</v>
+      </c>
+      <c r="Q142" s="54">
+        <v>5.459303241989124E-2</v>
+      </c>
+      <c r="R142" s="54">
+        <v>4.8514555819879672E-2</v>
+      </c>
+      <c r="S142" s="54">
+        <v>5.3684845802762227E-2</v>
+      </c>
+      <c r="T142" s="54">
+        <v>4.8206916082809047E-2</v>
+      </c>
+      <c r="U142" s="54">
+        <v>5.2860553653547575E-2</v>
+      </c>
+      <c r="V142" s="54">
+        <v>5.2534191690221041E-2</v>
+      </c>
+      <c r="W142" s="54">
+        <v>5.0906379062729046E-2</v>
+      </c>
+      <c r="X142" s="54">
+        <v>4.9608903604054101E-2</v>
+      </c>
+      <c r="Y142" s="54">
+        <v>4.690170755194658E-2</v>
+      </c>
+      <c r="Z142" s="54">
+        <v>5.4014520016647569E-2</v>
+      </c>
+      <c r="AA142" s="54">
+        <v>5.6289186370099165E-2</v>
+      </c>
+      <c r="AB142" s="54">
+        <v>6.064080165295288E-2</v>
+      </c>
+      <c r="AC142" s="54">
+        <v>4.8755214052346667E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29">
+      <c r="A143" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="B143" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="C143" s="55">
+        <v>1.2024577456126329E-3</v>
+      </c>
+      <c r="D143" s="54">
+        <v>8.4181954391599476E-4</v>
+      </c>
+      <c r="E143" s="54">
+        <v>1.4736843073167786E-3</v>
+      </c>
+      <c r="F143" s="54">
+        <v>1.3698908311171865E-3</v>
+      </c>
+      <c r="G143" s="54">
+        <v>9.8425388735709995E-4</v>
+      </c>
+      <c r="H143" s="54">
+        <v>6.2421004942624992E-4</v>
+      </c>
+      <c r="I143" s="54">
+        <v>1.2422933671109623E-3</v>
+      </c>
+      <c r="J143" s="54">
+        <v>8.6646068484003841E-4</v>
+      </c>
+      <c r="K143" s="54">
+        <v>1.3159890714686659E-3</v>
+      </c>
+      <c r="L143" s="54">
+        <v>1.2716318220191991E-3</v>
+      </c>
+      <c r="M143" s="54">
+        <v>1.1218737998245681E-3</v>
+      </c>
+      <c r="N143" s="54">
+        <v>1.2891857705150252E-3</v>
+      </c>
+      <c r="O143" s="54">
+        <v>1.4574437703184118E-3</v>
+      </c>
+      <c r="P143" s="54">
+        <v>1.2419671387040388E-3</v>
+      </c>
+      <c r="Q143" s="54">
+        <v>1.4684396048311016E-3</v>
+      </c>
+      <c r="R143" s="54">
+        <v>9.5921086863546602E-4</v>
+      </c>
+      <c r="S143" s="54">
+        <v>1.0725657999581929E-3</v>
+      </c>
+      <c r="T143" s="54">
+        <v>1.1764845294377178E-3</v>
+      </c>
+      <c r="U143" s="54">
+        <v>1.3287962602263445E-3</v>
+      </c>
+      <c r="V143" s="54">
+        <v>7.9269582890742734E-4</v>
+      </c>
+      <c r="W143" s="54">
+        <v>0</v>
+      </c>
+      <c r="X143" s="54">
+        <v>7.4007830335184128E-4</v>
+      </c>
+      <c r="Y143" s="54">
+        <v>7.0738302217035411E-4</v>
+      </c>
+      <c r="Z143" s="54">
+        <v>8.0234115950314402E-4</v>
+      </c>
+      <c r="AA143" s="54">
+        <v>7.1933080869381386E-4</v>
+      </c>
+      <c r="AB143" s="54">
+        <v>7.4164409782466955E-4</v>
+      </c>
+      <c r="AC143" s="54">
+        <v>7.7316749378532367E-4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29">
+      <c r="A144" s="51"/>
+      <c r="B144" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="C144" s="54">
+        <v>0.51421690231633799</v>
+      </c>
+      <c r="D144" s="54">
+        <v>0.57696936147650701</v>
+      </c>
+      <c r="E144" s="54">
+        <v>0.41519891685215071</v>
+      </c>
+      <c r="F144" s="54">
+        <v>0.53837411623785481</v>
+      </c>
+      <c r="G144" s="54">
+        <v>0.5273035898540861</v>
+      </c>
+      <c r="H144" s="54">
+        <v>0.54428190464659498</v>
+      </c>
+      <c r="I144" s="54">
+        <v>0.54724418926165252</v>
+      </c>
+      <c r="J144" s="54">
+        <v>0.50629481396736598</v>
+      </c>
+      <c r="K144" s="54">
+        <v>0.54969956239724382</v>
+      </c>
+      <c r="L144" s="54">
+        <v>0.54286879912927866</v>
+      </c>
+      <c r="M144" s="54">
+        <v>0.57050800443626981</v>
+      </c>
+      <c r="N144" s="54">
+        <v>0.57834017325166753</v>
+      </c>
+      <c r="O144" s="54">
+        <v>0.54807767476728875</v>
+      </c>
+      <c r="P144" s="54">
+        <v>0.57445550608131724</v>
+      </c>
+      <c r="Q144" s="54">
+        <v>0.54514159019281827</v>
+      </c>
+      <c r="R144" s="54">
+        <v>0.52942173322971142</v>
+      </c>
+      <c r="S144" s="54">
+        <v>0.54890743812317566</v>
+      </c>
+      <c r="T144" s="54">
+        <v>0.57655830557717536</v>
+      </c>
+      <c r="U144" s="54">
+        <v>0.56469028513375741</v>
+      </c>
+      <c r="V144" s="54">
+        <v>0.5314898835087899</v>
+      </c>
+      <c r="W144" s="54">
+        <v>0.5710449216561202</v>
+      </c>
+      <c r="X144" s="54">
+        <v>0.54463316447281129</v>
+      </c>
+      <c r="Y144" s="54">
+        <v>0.60580683229929833</v>
+      </c>
+      <c r="Z144" s="54">
+        <v>0.54575340066281097</v>
+      </c>
+      <c r="AA144" s="54">
+        <v>0.57130392959697351</v>
+      </c>
+      <c r="AB144" s="54">
+        <v>0.56067924597798535</v>
+      </c>
+      <c r="AC144" s="54">
+        <v>0.49285227418620653</v>
+      </c>
+    </row>
     <row r="145" spans="1:29">
-      <c r="C145" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="D145" s="15" t="s">
-        <v>209</v>
+      <c r="A145" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="B145" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="C145" s="54">
+        <v>1.6399604421517593E-2</v>
+      </c>
+      <c r="D145" s="54">
+        <v>7.4490307781118984E-3</v>
+      </c>
+      <c r="E145" s="54">
+        <v>3.2041705931306341E-2</v>
+      </c>
+      <c r="F145" s="54">
+        <v>1.4142087272297982E-2</v>
+      </c>
+      <c r="G145" s="54">
+        <v>7.8384539751406128E-3</v>
+      </c>
+      <c r="H145" s="54">
+        <v>9.942235039347571E-3</v>
+      </c>
+      <c r="I145" s="54">
+        <v>8.7941712391293846E-3</v>
+      </c>
+      <c r="J145" s="54">
+        <v>1.9167683727598969E-2</v>
+      </c>
+      <c r="K145" s="54">
+        <v>1.9563309645198885E-2</v>
+      </c>
+      <c r="L145" s="54">
+        <v>6.7513932047123726E-3</v>
+      </c>
+      <c r="M145" s="54">
+        <v>1.1912585101328303E-2</v>
+      </c>
+      <c r="N145" s="54">
+        <v>6.2742086519266488E-3</v>
+      </c>
+      <c r="O145" s="54">
+        <v>9.0275647633180547E-3</v>
+      </c>
+      <c r="P145" s="54">
+        <v>1.0257172186811273E-2</v>
+      </c>
+      <c r="Q145" s="54">
+        <v>1.2127565539618518E-2</v>
+      </c>
+      <c r="R145" s="54">
+        <v>1.0185353383353699E-2</v>
+      </c>
+      <c r="S145" s="54">
+        <v>1.2812635692286438E-2</v>
+      </c>
+      <c r="T145" s="54">
+        <v>5.2051948265462115E-3</v>
+      </c>
+      <c r="U145" s="54">
+        <v>8.6226466174633056E-3</v>
+      </c>
+      <c r="V145" s="54">
+        <v>1.3327262086971724E-2</v>
+      </c>
+      <c r="W145" s="54">
+        <v>8.2106842864435349E-3</v>
+      </c>
+      <c r="X145" s="54">
+        <v>7.2036254203120672E-3</v>
+      </c>
+      <c r="Y145" s="54">
+        <v>6.2594387860714779E-3</v>
+      </c>
+      <c r="Z145" s="54">
+        <v>8.5196368293601697E-3</v>
+      </c>
+      <c r="AA145" s="54">
+        <v>8.9112260712667282E-3</v>
+      </c>
+      <c r="AB145" s="54">
+        <v>9.8439085033626087E-3</v>
+      </c>
+      <c r="AC145" s="54">
+        <v>4.1049285439853662E-3</v>
       </c>
     </row>
     <row r="146" spans="1:29">
-      <c r="C146" s="15"/>
-      <c r="D146" s="15" t="s">
-        <v>210</v>
+      <c r="A146" s="51"/>
+      <c r="B146" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="C146" s="54">
+        <v>8.2740995898888392E-2</v>
+      </c>
+      <c r="D146" s="54">
+        <v>7.0110938367526743E-2</v>
+      </c>
+      <c r="E146" s="54">
+        <v>0.1139689510378053</v>
+      </c>
+      <c r="F146" s="54">
+        <v>8.0814709118386313E-2</v>
+      </c>
+      <c r="G146" s="54">
+        <v>0.11271367561275741</v>
+      </c>
+      <c r="H146" s="54">
+        <v>6.4984165282223824E-2</v>
+      </c>
+      <c r="I146" s="54">
+        <v>7.7598299711661989E-2</v>
+      </c>
+      <c r="J146" s="54">
+        <v>7.216317572067088E-2</v>
+      </c>
+      <c r="K146" s="54">
+        <v>6.0281180381109148E-2</v>
+      </c>
+      <c r="L146" s="54">
+        <v>9.2669371156921962E-2</v>
+      </c>
+      <c r="M146" s="54">
+        <v>5.839703518119168E-2</v>
+      </c>
+      <c r="N146" s="54">
+        <v>6.7106145813932178E-2</v>
+      </c>
+      <c r="O146" s="54">
+        <v>6.8278050195023532E-2</v>
+      </c>
+      <c r="P146" s="54">
+        <v>6.0338383982093263E-2</v>
+      </c>
+      <c r="Q146" s="54">
+        <v>5.9111177723493433E-2</v>
+      </c>
+      <c r="R146" s="54">
+        <v>0.11983181177914175</v>
+      </c>
+      <c r="S146" s="54">
+        <v>6.1413439765244195E-2</v>
+      </c>
+      <c r="T146" s="54">
+        <v>7.9611602487177441E-2</v>
+      </c>
+      <c r="U146" s="54">
+        <v>5.5334396413720018E-2</v>
+      </c>
+      <c r="V146" s="54">
+        <v>8.6650816743783748E-2</v>
+      </c>
+      <c r="W146" s="54">
+        <v>6.4399740618333048E-2</v>
+      </c>
+      <c r="X146" s="54">
+        <v>0.10016080657514609</v>
+      </c>
+      <c r="Y146" s="54">
+        <v>5.8914393028833764E-2</v>
+      </c>
+      <c r="Z146" s="54">
+        <v>6.6822981231792783E-2</v>
+      </c>
+      <c r="AA146" s="54">
+        <v>2.5041208932371696E-2</v>
+      </c>
+      <c r="AB146" s="54">
+        <v>4.2495898501573662E-3</v>
+      </c>
+      <c r="AC146" s="54">
+        <v>0.16098313140959611</v>
       </c>
     </row>
     <row r="147" spans="1:29">
-      <c r="C147" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="D147" s="15" t="s">
-        <v>212</v>
+      <c r="A147" s="51"/>
+      <c r="B147" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C147" s="54">
+        <v>7.6968954610109105E-3</v>
+      </c>
+      <c r="D147" s="54">
+        <v>0</v>
+      </c>
+      <c r="E147" s="54">
+        <v>2.9377083408890298E-2</v>
+      </c>
+      <c r="F147" s="54">
+        <v>0</v>
+      </c>
+      <c r="G147" s="54">
+        <v>0</v>
+      </c>
+      <c r="H147" s="54">
+        <v>0</v>
+      </c>
+      <c r="I147" s="54">
+        <v>0</v>
+      </c>
+      <c r="J147" s="54">
+        <v>0</v>
+      </c>
+      <c r="K147" s="54">
+        <v>0</v>
+      </c>
+      <c r="L147" s="54">
+        <v>0</v>
+      </c>
+      <c r="M147" s="54">
+        <v>0</v>
+      </c>
+      <c r="N147" s="54">
+        <v>0</v>
+      </c>
+      <c r="O147" s="54">
+        <v>0</v>
+      </c>
+      <c r="P147" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q147" s="54">
+        <v>0</v>
+      </c>
+      <c r="R147" s="54">
+        <v>0</v>
+      </c>
+      <c r="S147" s="54">
+        <v>0</v>
+      </c>
+      <c r="T147" s="54">
+        <v>0</v>
+      </c>
+      <c r="U147" s="54">
+        <v>0</v>
+      </c>
+      <c r="V147" s="54">
+        <v>0</v>
+      </c>
+      <c r="W147" s="54">
+        <v>0</v>
+      </c>
+      <c r="X147" s="54">
+        <v>0</v>
+      </c>
+      <c r="Y147" s="54">
+        <v>0</v>
+      </c>
+      <c r="Z147" s="54">
+        <v>0</v>
+      </c>
+      <c r="AA147" s="54">
+        <v>0</v>
+      </c>
+      <c r="AB147" s="54">
+        <v>0</v>
+      </c>
+      <c r="AC147" s="54">
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:29">
-      <c r="C148" s="15"/>
-      <c r="D148" s="15" t="s">
-        <v>213</v>
+      <c r="A148" s="51"/>
+      <c r="B148" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="C148" s="54">
+        <v>0</v>
+      </c>
+      <c r="D148" s="54">
+        <v>0</v>
+      </c>
+      <c r="E148" s="54">
+        <v>0</v>
+      </c>
+      <c r="F148" s="54">
+        <v>0</v>
+      </c>
+      <c r="G148" s="54">
+        <v>0</v>
+      </c>
+      <c r="H148" s="54">
+        <v>0</v>
+      </c>
+      <c r="I148" s="54">
+        <v>0</v>
+      </c>
+      <c r="J148" s="54">
+        <v>0</v>
+      </c>
+      <c r="K148" s="54">
+        <v>0</v>
+      </c>
+      <c r="L148" s="54">
+        <v>0</v>
+      </c>
+      <c r="M148" s="54">
+        <v>0</v>
+      </c>
+      <c r="N148" s="54">
+        <v>0</v>
+      </c>
+      <c r="O148" s="54">
+        <v>0</v>
+      </c>
+      <c r="P148" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q148" s="54">
+        <v>0</v>
+      </c>
+      <c r="R148" s="54">
+        <v>0</v>
+      </c>
+      <c r="S148" s="54">
+        <v>0</v>
+      </c>
+      <c r="T148" s="54">
+        <v>0</v>
+      </c>
+      <c r="U148" s="54">
+        <v>0</v>
+      </c>
+      <c r="V148" s="54">
+        <v>0</v>
+      </c>
+      <c r="W148" s="54">
+        <v>0</v>
+      </c>
+      <c r="X148" s="54">
+        <v>0</v>
+      </c>
+      <c r="Y148" s="54">
+        <v>0</v>
+      </c>
+      <c r="Z148" s="54">
+        <v>0</v>
+      </c>
+      <c r="AA148" s="54">
+        <v>0</v>
+      </c>
+      <c r="AB148" s="54">
+        <v>0</v>
+      </c>
+      <c r="AC148" s="54">
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:29">
-      <c r="C149" s="15"/>
-      <c r="D149" s="15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="150" spans="1:29" ht="15" thickBot="1">
-      <c r="C150" s="46"/>
-      <c r="D150" s="46" t="s">
-        <v>215</v>
-      </c>
+      <c r="A149" s="56"/>
+      <c r="B149" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="C149" s="58">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="D149" s="58">
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="E149" s="58">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F149" s="58">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="G149" s="58">
+        <v>1</v>
+      </c>
+      <c r="H149" s="58">
+        <v>1</v>
+      </c>
+      <c r="I149" s="58">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="J149" s="58">
+        <v>1</v>
+      </c>
+      <c r="K149" s="58">
+        <v>1</v>
+      </c>
+      <c r="L149" s="58">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="M149" s="58">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="N149" s="58">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="O149" s="58">
+        <v>1</v>
+      </c>
+      <c r="P149" s="58">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="Q149" s="58">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="R149" s="58">
+        <v>1</v>
+      </c>
+      <c r="S149" s="58">
+        <v>1</v>
+      </c>
+      <c r="T149" s="58">
+        <v>1</v>
+      </c>
+      <c r="U149" s="58">
+        <v>1</v>
+      </c>
+      <c r="V149" s="58">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="W149" s="58">
+        <v>1</v>
+      </c>
+      <c r="X149" s="58">
+        <v>1</v>
+      </c>
+      <c r="Y149" s="58">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="Z149" s="58">
+        <v>1</v>
+      </c>
+      <c r="AA149" s="58">
+        <v>1</v>
+      </c>
+      <c r="AB149" s="58">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="AC149" s="58">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29">
+      <c r="A150" s="51"/>
+      <c r="B150" s="51"/>
+      <c r="C150" s="51"/>
+      <c r="D150" s="51"/>
+      <c r="E150" s="51"/>
+      <c r="F150" s="51"/>
+      <c r="G150" s="51"/>
+      <c r="H150" s="51"/>
+      <c r="I150" s="51"/>
+      <c r="J150" s="51"/>
+      <c r="K150" s="51"/>
+      <c r="L150" s="51"/>
+      <c r="M150" s="51"/>
+      <c r="N150" s="51"/>
+      <c r="O150" s="51"/>
+      <c r="P150" s="51"/>
+      <c r="Q150" s="51"/>
+      <c r="R150" s="51"/>
+      <c r="S150" s="51"/>
+      <c r="T150" s="51"/>
+      <c r="U150" s="51"/>
+      <c r="V150" s="51"/>
+      <c r="W150" s="51"/>
+      <c r="X150" s="51"/>
+      <c r="Y150" s="51"/>
+      <c r="Z150" s="51"/>
+      <c r="AA150" s="51"/>
+      <c r="AB150" s="51"/>
+      <c r="AC150" s="51"/>
     </row>
     <row r="151" spans="1:29">
-      <c r="C151" s="15"/>
-      <c r="D151" s="15"/>
-      <c r="E151" s="15"/>
-      <c r="F151" s="15"/>
+      <c r="A151" s="51"/>
+      <c r="B151" s="51"/>
+      <c r="C151" s="51"/>
+      <c r="D151" s="51"/>
+      <c r="E151" s="51"/>
+      <c r="F151" s="51"/>
+      <c r="G151" s="51"/>
+      <c r="H151" s="51"/>
+      <c r="I151" s="51"/>
+      <c r="J151" s="51"/>
+      <c r="K151" s="51"/>
+      <c r="L151" s="51"/>
+      <c r="M151" s="51"/>
+      <c r="N151" s="51"/>
+      <c r="O151" s="51"/>
+      <c r="P151" s="51"/>
+      <c r="Q151" s="51"/>
+      <c r="R151" s="51"/>
+      <c r="S151" s="51"/>
+      <c r="T151" s="51"/>
+      <c r="U151" s="51"/>
+      <c r="V151" s="51"/>
+      <c r="W151" s="51"/>
+      <c r="X151" s="51"/>
+      <c r="Y151" s="51"/>
+      <c r="Z151" s="51"/>
+      <c r="AA151" s="51"/>
+      <c r="AB151" s="51"/>
+      <c r="AC151" s="51"/>
     </row>
     <row r="152" spans="1:29">
-      <c r="C152" s="15"/>
-      <c r="D152" s="15"/>
-      <c r="E152" s="15"/>
-      <c r="F152" s="15"/>
-    </row>
-    <row r="153" spans="1:29" ht="18.600000000000001" thickBot="1">
-      <c r="A153" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="B153" s="59"/>
-      <c r="C153" s="59"/>
-      <c r="D153" s="59"/>
-      <c r="E153" s="59"/>
-    </row>
-    <row r="154" spans="1:29" s="15" customFormat="1"/>
-    <row r="155" spans="1:29" ht="15.6">
-      <c r="A155" s="50" t="s">
-        <v>202</v>
-      </c>
-      <c r="B155" s="50"/>
-      <c r="C155" s="50"/>
-      <c r="D155" s="51"/>
-      <c r="E155" s="51"/>
-      <c r="F155" s="51"/>
-      <c r="G155" s="51"/>
-      <c r="H155" s="51"/>
-      <c r="I155" s="51"/>
-      <c r="J155" s="51"/>
-      <c r="K155" s="51"/>
-      <c r="L155" s="51"/>
-      <c r="M155" s="51"/>
-      <c r="N155" s="51"/>
-      <c r="O155" s="51"/>
-      <c r="P155" s="51"/>
-      <c r="Q155" s="51"/>
-      <c r="R155" s="51"/>
-      <c r="S155" s="51"/>
-      <c r="T155" s="51"/>
-      <c r="U155" s="51"/>
-      <c r="V155" s="51"/>
-      <c r="W155" s="51"/>
-      <c r="X155" s="51"/>
-      <c r="Y155" s="51"/>
-      <c r="Z155" s="51"/>
-      <c r="AA155" s="51"/>
-      <c r="AB155" s="51"/>
-      <c r="AC155" s="51"/>
+      <c r="A152" s="51"/>
+      <c r="B152" s="51"/>
+      <c r="C152" s="51"/>
+      <c r="D152" s="51"/>
+      <c r="E152" s="51"/>
+      <c r="F152" s="51"/>
+      <c r="G152" s="51"/>
+      <c r="H152" s="51"/>
+      <c r="I152" s="51"/>
+      <c r="J152" s="51"/>
+      <c r="K152" s="51"/>
+      <c r="L152" s="51"/>
+      <c r="M152" s="51"/>
+      <c r="N152" s="51"/>
+      <c r="O152" s="51"/>
+      <c r="P152" s="51"/>
+      <c r="Q152" s="51"/>
+      <c r="R152" s="51"/>
+      <c r="S152" s="51"/>
+      <c r="T152" s="51"/>
+      <c r="U152" s="51"/>
+      <c r="V152" s="51"/>
+      <c r="W152" s="51"/>
+      <c r="X152" s="51"/>
+      <c r="Y152" s="51"/>
+      <c r="Z152" s="51"/>
+      <c r="AA152" s="51"/>
+      <c r="AB152" s="51"/>
+      <c r="AC152" s="51"/>
+    </row>
+    <row r="153" spans="1:29" ht="15.6">
+      <c r="A153" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="B153" s="50"/>
+      <c r="C153" s="50"/>
+      <c r="D153" s="51"/>
+      <c r="E153" s="51"/>
+      <c r="F153" s="51"/>
+      <c r="G153" s="51"/>
+      <c r="H153" s="51"/>
+      <c r="I153" s="51"/>
+      <c r="J153" s="51"/>
+      <c r="K153" s="51"/>
+      <c r="L153" s="51"/>
+      <c r="M153" s="51"/>
+      <c r="N153" s="51"/>
+      <c r="O153" s="51"/>
+      <c r="P153" s="51"/>
+      <c r="Q153" s="51"/>
+      <c r="R153" s="51"/>
+      <c r="S153" s="51"/>
+      <c r="T153" s="51"/>
+      <c r="U153" s="51"/>
+      <c r="V153" s="51"/>
+      <c r="W153" s="51"/>
+      <c r="X153" s="51"/>
+      <c r="Y153" s="51"/>
+      <c r="Z153" s="51"/>
+      <c r="AA153" s="51"/>
+      <c r="AB153" s="51"/>
+      <c r="AC153" s="51"/>
+    </row>
+    <row r="154" spans="1:29">
+      <c r="A154" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="B154" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="C154" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D154" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="E154" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="F154" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="G154" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="H154" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="I154" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="J154" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="K154" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="L154" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="M154" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="N154" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="O154" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="P154" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q154" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="R154" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="S154" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="T154" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="U154" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="V154" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="W154" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="X154" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y154" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z154" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA154" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB154" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC154" s="53" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29">
+      <c r="A155" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="B155" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="C155" s="54">
+        <v>0</v>
+      </c>
+      <c r="D155" s="54">
+        <v>0</v>
+      </c>
+      <c r="E155" s="54">
+        <v>0</v>
+      </c>
+      <c r="F155" s="54">
+        <v>0</v>
+      </c>
+      <c r="G155" s="54">
+        <v>0</v>
+      </c>
+      <c r="H155" s="54">
+        <v>0</v>
+      </c>
+      <c r="I155" s="54">
+        <v>0</v>
+      </c>
+      <c r="J155" s="54">
+        <v>0</v>
+      </c>
+      <c r="K155" s="54">
+        <v>0</v>
+      </c>
+      <c r="L155" s="54">
+        <v>0</v>
+      </c>
+      <c r="M155" s="54">
+        <v>0</v>
+      </c>
+      <c r="N155" s="54">
+        <v>0</v>
+      </c>
+      <c r="O155" s="54">
+        <v>0</v>
+      </c>
+      <c r="P155" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q155" s="54">
+        <v>0</v>
+      </c>
+      <c r="R155" s="54">
+        <v>0</v>
+      </c>
+      <c r="S155" s="54">
+        <v>0</v>
+      </c>
+      <c r="T155" s="54">
+        <v>0</v>
+      </c>
+      <c r="U155" s="54">
+        <v>0</v>
+      </c>
+      <c r="V155" s="54">
+        <v>0</v>
+      </c>
+      <c r="W155" s="54">
+        <v>0</v>
+      </c>
+      <c r="X155" s="54">
+        <v>0</v>
+      </c>
+      <c r="Y155" s="54">
+        <v>0</v>
+      </c>
+      <c r="Z155" s="54">
+        <v>0</v>
+      </c>
+      <c r="AA155" s="54">
+        <v>0</v>
+      </c>
+      <c r="AB155" s="54">
+        <v>0</v>
+      </c>
+      <c r="AC155" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="156" spans="1:29">
-      <c r="A156" s="52" t="s">
-        <v>203</v>
-      </c>
-      <c r="B156" s="52" t="s">
-        <v>204</v>
-      </c>
-      <c r="C156" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="D156" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="E156" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="F156" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="G156" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="H156" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="I156" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="J156" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="K156" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="L156" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="M156" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="N156" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="O156" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="P156" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q156" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="R156" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="S156" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="T156" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="U156" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="V156" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="W156" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="X156" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y156" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z156" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA156" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB156" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC156" s="53" t="s">
-        <v>107</v>
+      <c r="A156" s="51"/>
+      <c r="B156" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="C156" s="54">
+        <v>0</v>
+      </c>
+      <c r="D156" s="54">
+        <v>0</v>
+      </c>
+      <c r="E156" s="54">
+        <v>0</v>
+      </c>
+      <c r="F156" s="54">
+        <v>0</v>
+      </c>
+      <c r="G156" s="54">
+        <v>0</v>
+      </c>
+      <c r="H156" s="54">
+        <v>0</v>
+      </c>
+      <c r="I156" s="54">
+        <v>0</v>
+      </c>
+      <c r="J156" s="54">
+        <v>0</v>
+      </c>
+      <c r="K156" s="54">
+        <v>0</v>
+      </c>
+      <c r="L156" s="54">
+        <v>0</v>
+      </c>
+      <c r="M156" s="54">
+        <v>0</v>
+      </c>
+      <c r="N156" s="54">
+        <v>0</v>
+      </c>
+      <c r="O156" s="54">
+        <v>0</v>
+      </c>
+      <c r="P156" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q156" s="54">
+        <v>0</v>
+      </c>
+      <c r="R156" s="54">
+        <v>0</v>
+      </c>
+      <c r="S156" s="54">
+        <v>0</v>
+      </c>
+      <c r="T156" s="54">
+        <v>0</v>
+      </c>
+      <c r="U156" s="54">
+        <v>0</v>
+      </c>
+      <c r="V156" s="54">
+        <v>0</v>
+      </c>
+      <c r="W156" s="54">
+        <v>0</v>
+      </c>
+      <c r="X156" s="54">
+        <v>0</v>
+      </c>
+      <c r="Y156" s="54">
+        <v>0</v>
+      </c>
+      <c r="Z156" s="54">
+        <v>0</v>
+      </c>
+      <c r="AA156" s="54">
+        <v>0</v>
+      </c>
+      <c r="AB156" s="54">
+        <v>0</v>
+      </c>
+      <c r="AC156" s="54">
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:29">
       <c r="A157" s="51" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B157" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="C157" s="54">
-        <v>0.32377983784854231</v>
+        <v>209</v>
+      </c>
+      <c r="C157" s="55">
+        <v>3.2739468688573266E-3</v>
       </c>
       <c r="D157" s="54">
-        <v>0.29539615700051852</v>
+        <v>2.1586268841599747E-3</v>
       </c>
       <c r="E157" s="54">
-        <v>0.34966256439645477</v>
+        <v>4.3137182635283444E-3</v>
       </c>
       <c r="F157" s="54">
-        <v>0.31311359703458036</v>
+        <v>3.6319751739066989E-3</v>
       </c>
       <c r="G157" s="54">
-        <v>0.30099430857485032</v>
+        <v>2.5491869155235955E-3</v>
       </c>
       <c r="H157" s="54">
-        <v>0.32585784427063491</v>
+        <v>1.6941154698507114E-3</v>
       </c>
       <c r="I157" s="54">
-        <v>0.31296089693181006</v>
+        <v>3.2883004760979389E-3</v>
       </c>
       <c r="J157" s="54">
-        <v>0.34414959934244926</v>
+        <v>2.4416088687366478E-3</v>
       </c>
       <c r="K157" s="54">
-        <v>0.31640567871855385</v>
+        <v>3.5159102982178412E-3</v>
       </c>
       <c r="L157" s="54">
-        <v>0.30551897544605799</v>
+        <v>3.3185344885490013E-3</v>
       </c>
       <c r="M157" s="54">
-        <v>0.30690900126975923</v>
+        <v>2.939754742265497E-3</v>
       </c>
       <c r="N157" s="54">
-        <v>0.29742024558167873</v>
+        <v>3.3151523856669103E-3</v>
       </c>
       <c r="O157" s="54">
-        <v>0.31985079986061538</v>
+        <v>3.906666915379246E-3</v>
       </c>
       <c r="P157" s="54">
-        <v>0.30317740338092081</v>
+        <v>3.2306073901205486E-3</v>
       </c>
       <c r="Q157" s="54">
-        <v>0.32755819451934742</v>
+        <v>3.9969766503394092E-3</v>
       </c>
       <c r="R157" s="54">
-        <v>0.29108733491927802</v>
+        <v>2.4423953155841079E-3</v>
       </c>
       <c r="S157" s="54">
-        <v>0.32210907481657336</v>
+        <v>2.8914591982090753E-3</v>
       </c>
       <c r="T157" s="54">
-        <v>0.28924149649685427</v>
+        <v>2.9812499263931389E-3</v>
       </c>
       <c r="U157" s="54">
-        <v>0.31716332192128543</v>
+        <v>3.5441732524901714E-3</v>
       </c>
       <c r="V157" s="54">
-        <v>0.31520515014132622</v>
+        <v>2.1106258862285242E-3</v>
       </c>
       <c r="W157" s="54">
-        <v>0.30543827437637427</v>
+        <v>0</v>
       </c>
       <c r="X157" s="54">
-        <v>0.29765342162432462</v>
+        <v>1.9054783663146626E-3</v>
       </c>
       <c r="Y157" s="54">
-        <v>0.28141024531167946</v>
+        <v>1.7694736792673005E-3</v>
       </c>
       <c r="Z157" s="54">
-        <v>0.32408712009988533</v>
+        <v>2.1690169741061518E-3</v>
       </c>
       <c r="AA157" s="54">
-        <v>0.33773511822059504</v>
+        <v>1.996201699404686E-3</v>
       </c>
       <c r="AB157" s="54">
-        <v>0.36384480991771728</v>
+        <v>2.1678265957034699E-3</v>
       </c>
       <c r="AC157" s="54">
-        <v>0.29253128431407999</v>
+        <v>1.9708873200458749E-3</v>
       </c>
     </row>
     <row r="158" spans="1:29">
       <c r="A158" s="51"/>
       <c r="B158" s="51" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C158" s="54">
-        <v>5.3963306308090382E-2</v>
+        <v>0.83405572391255312</v>
       </c>
       <c r="D158" s="54">
-        <v>4.9232692833419758E-2</v>
+        <v>0.88136996225712338</v>
       </c>
       <c r="E158" s="54">
-        <v>5.8277094066075792E-2</v>
+        <v>0.7240198055510555</v>
       </c>
       <c r="F158" s="54">
-        <v>5.2185599505763403E-2</v>
+        <v>0.85033097733510543</v>
       </c>
       <c r="G158" s="54">
-        <v>5.016571809580838E-2</v>
+        <v>0.81358360125192186</v>
       </c>
       <c r="H158" s="54">
-        <v>5.4309640711772487E-2</v>
+        <v>0.88000079438796519</v>
       </c>
       <c r="I158" s="54">
-        <v>5.216014948863501E-2</v>
+        <v>0.86292967512561713</v>
       </c>
       <c r="J158" s="54">
-        <v>5.7358266557074891E-2</v>
+        <v>0.84991917486050839</v>
       </c>
       <c r="K158" s="54">
-        <v>5.2734279786425649E-2</v>
+        <v>0.87489878054676506</v>
       </c>
       <c r="L158" s="54">
-        <v>5.0919829241009663E-2</v>
+        <v>0.84396948853578213</v>
       </c>
       <c r="M158" s="54">
-        <v>5.1151500211626538E-2</v>
+        <v>0.89058577172865516</v>
       </c>
       <c r="N158" s="54">
-        <v>4.95700409302798E-2</v>
+        <v>0.88596847722847849</v>
       </c>
       <c r="O158" s="54">
-        <v>5.3308466643435894E-2</v>
+        <v>0.87519253516054751</v>
       </c>
       <c r="P158" s="54">
-        <v>5.052956723015347E-2</v>
+        <v>0.89017909286971042</v>
       </c>
       <c r="Q158" s="54">
-        <v>5.459303241989124E-2</v>
+        <v>0.88395825319439558</v>
       </c>
       <c r="R158" s="54">
-        <v>4.8514555819879672E-2</v>
+        <v>0.80306472393989703</v>
       </c>
       <c r="S158" s="54">
-        <v>5.3684845802762227E-2</v>
+        <v>0.88153417928289457</v>
       </c>
       <c r="T158" s="54">
-        <v>4.8206916082809047E-2</v>
+        <v>0.87036679499941227</v>
       </c>
       <c r="U158" s="54">
-        <v>5.2860553653547575E-2</v>
+        <v>0.89725064481847272</v>
       </c>
       <c r="V158" s="54">
-        <v>5.2534191690221041E-2</v>
+        <v>0.84303694258501916</v>
       </c>
       <c r="W158" s="54">
-        <v>5.0906379062729046E-2</v>
+        <v>0.88919219682824724</v>
       </c>
       <c r="X158" s="54">
-        <v>4.9608903604054101E-2</v>
+        <v>0.83536706688667051</v>
       </c>
       <c r="Y158" s="54">
-        <v>4.690170755194658E-2</v>
+        <v>0.90275636290048633</v>
       </c>
       <c r="Z158" s="54">
-        <v>5.4014520016647569E-2</v>
+        <v>0.87891574758893642</v>
       </c>
       <c r="AA158" s="54">
-        <v>5.6289186370099165E-2</v>
+        <v>0.9444737396739924</v>
       </c>
       <c r="AB158" s="54">
-        <v>6.064080165295288E-2</v>
+        <v>0.97631596747347482</v>
       </c>
       <c r="AC158" s="54">
-        <v>4.8755214052346667E-2</v>
+        <v>0.7484312106638259</v>
       </c>
     </row>
     <row r="159" spans="1:29">
       <c r="A159" s="51" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B159" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="C159" s="55">
-        <v>1.2024577456126329E-3</v>
+        <v>212</v>
+      </c>
+      <c r="C159" s="54">
+        <v>2.1905905312439161E-2</v>
       </c>
       <c r="D159" s="54">
-        <v>8.4181954391599476E-4</v>
+        <v>9.3709663140288998E-3</v>
       </c>
       <c r="E159" s="54">
-        <v>1.4736843073167786E-3</v>
+        <v>4.6013893098741668E-2</v>
       </c>
       <c r="F159" s="54">
-        <v>1.3698908311171865E-3</v>
+        <v>1.8394858695029128E-2</v>
       </c>
       <c r="G159" s="54">
-        <v>9.8425388735709995E-4</v>
+        <v>9.9598084318994508E-3</v>
       </c>
       <c r="H159" s="54">
-        <v>6.2421004942624992E-4</v>
+        <v>1.3237997918849932E-2</v>
       </c>
       <c r="I159" s="54">
-        <v>1.2422933671109623E-3</v>
+        <v>1.1420057155050359E-2</v>
       </c>
       <c r="J159" s="54">
-        <v>8.6646068484003841E-4</v>
+        <v>2.6498598054231513E-2</v>
       </c>
       <c r="K159" s="54">
-        <v>1.3159890714686659E-3</v>
+        <v>2.5642116158186581E-2</v>
       </c>
       <c r="L159" s="54">
-        <v>1.2716318220191991E-3</v>
+        <v>8.6437934593511252E-3</v>
       </c>
       <c r="M159" s="54">
-        <v>1.1218737998245681E-3</v>
+        <v>1.5314370184172183E-2</v>
       </c>
       <c r="N159" s="54">
-        <v>1.2891857705150252E-3</v>
+        <v>7.9154020817384443E-3</v>
       </c>
       <c r="O159" s="54">
-        <v>1.4574437703184118E-3</v>
+        <v>1.1871653704006174E-2</v>
       </c>
       <c r="P159" s="54">
-        <v>1.2419671387040388E-3</v>
+        <v>1.3089641552029165E-2</v>
       </c>
       <c r="Q159" s="54">
-        <v>1.4684396048311016E-3</v>
+        <v>1.6194784858342321E-2</v>
       </c>
       <c r="R159" s="54">
-        <v>9.5921086863546602E-4</v>
+        <v>1.272342398540301E-2</v>
       </c>
       <c r="S159" s="54">
-        <v>1.0725657999581929E-3</v>
+        <v>1.6945626580446856E-2</v>
       </c>
       <c r="T159" s="54">
-        <v>1.1764845294377178E-3</v>
+        <v>6.4710564013944778E-3</v>
       </c>
       <c r="U159" s="54">
-        <v>1.3287962602263445E-3</v>
+        <v>1.1282963024401618E-2</v>
       </c>
       <c r="V159" s="54">
-        <v>7.9269582890742734E-4</v>
+        <v>1.7408913059663488E-2</v>
       </c>
       <c r="W159" s="54">
-        <v>0</v>
+        <v>1.0528920260910977E-2</v>
       </c>
       <c r="X159" s="54">
-        <v>7.4007830335184128E-4</v>
+        <v>9.0992061135074936E-3</v>
       </c>
       <c r="Y159" s="54">
-        <v>7.0738302217035411E-4</v>
+        <v>7.6815860877352945E-3</v>
       </c>
       <c r="Z159" s="54">
-        <v>8.0234115950314402E-4</v>
+        <v>1.129928575321087E-2</v>
       </c>
       <c r="AA159" s="54">
-        <v>7.1933080869381386E-4</v>
+        <v>1.2132191360051241E-2</v>
       </c>
       <c r="AB159" s="54">
-        <v>7.4164409782466955E-4</v>
+        <v>1.4116355738962196E-2</v>
       </c>
       <c r="AC159" s="54">
-        <v>7.7316749378532367E-4</v>
+        <v>5.1335741680296381E-3</v>
       </c>
     </row>
     <row r="160" spans="1:29">
       <c r="A160" s="51"/>
       <c r="B160" s="51" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C160" s="54">
-        <v>0.51421690231633799</v>
+        <v>0.13420523697456904</v>
       </c>
       <c r="D160" s="54">
-        <v>0.57696936147650701</v>
+        <v>0.10710044454468777</v>
       </c>
       <c r="E160" s="54">
-        <v>0.41519891685215071</v>
+        <v>0.19873794082808949</v>
       </c>
       <c r="F160" s="54">
-        <v>0.53837411623785481</v>
+        <v>0.12764218879595873</v>
       </c>
       <c r="G160" s="54">
-        <v>0.5273035898540861</v>
+        <v>0.17390740340065505</v>
       </c>
       <c r="H160" s="54">
-        <v>0.54428190464659498</v>
+        <v>0.10506709222333424</v>
       </c>
       <c r="I160" s="54">
-        <v>0.54724418926165252</v>
+        <v>0.12236196724323453</v>
       </c>
       <c r="J160" s="54">
-        <v>0.50629481396736598</v>
+        <v>0.12114061821652349</v>
       </c>
       <c r="K160" s="54">
-        <v>0.54969956239724382</v>
+        <v>9.5943192996830379E-2</v>
       </c>
       <c r="L160" s="54">
-        <v>0.54286879912927866</v>
+        <v>0.14406818351631784</v>
       </c>
       <c r="M160" s="54">
-        <v>0.57050800443626981</v>
+        <v>9.1160103344907026E-2</v>
       </c>
       <c r="N160" s="54">
-        <v>0.57834017325166753</v>
+        <v>0.10280096830411618</v>
       </c>
       <c r="O160" s="54">
-        <v>0.54807767476728875</v>
+        <v>0.1090291442200671</v>
       </c>
       <c r="P160" s="54">
-        <v>0.57445550608131724</v>
+        <v>9.3500658188139713E-2</v>
       </c>
       <c r="Q160" s="54">
-        <v>0.54514159019281827</v>
+        <v>9.5849985296922749E-2</v>
       </c>
       <c r="R160" s="54">
-        <v>0.52942173322971142</v>
+        <v>0.18176945675911579</v>
       </c>
       <c r="S160" s="54">
-        <v>0.54890743812317566</v>
+        <v>9.8628734938449439E-2</v>
       </c>
       <c r="T160" s="54">
-        <v>0.57655830557717536</v>
+        <v>0.1201808986728002</v>
       </c>
       <c r="U160" s="54">
-        <v>0.56469028513375741</v>
+        <v>8.7922218904635543E-2</v>
       </c>
       <c r="V160" s="54">
-        <v>0.5314898835087899</v>
+        <v>0.13744351846908884</v>
       </c>
       <c r="W160" s="54">
-        <v>0.5710449216561202</v>
+        <v>0.10027888291084175</v>
       </c>
       <c r="X160" s="54">
-        <v>0.54463316447281129</v>
+        <v>0.15362824863350735</v>
       </c>
       <c r="Y160" s="54">
-        <v>0.60580683229929833</v>
+        <v>8.779257733251114E-2</v>
       </c>
       <c r="Z160" s="54">
-        <v>0.54575340066281097</v>
+        <v>0.10761594968374652</v>
       </c>
       <c r="AA160" s="54">
-        <v>0.57130392959697351</v>
+        <v>4.1397867266551647E-2</v>
       </c>
       <c r="AB160" s="54">
-        <v>0.56067924597798535</v>
+        <v>7.3998501918595234E-3</v>
       </c>
       <c r="AC160" s="54">
-        <v>0.49285227418620653</v>
+        <v>0.24446432784809863</v>
       </c>
     </row>
     <row r="161" spans="1:29">
-      <c r="A161" s="51" t="s">
-        <v>211</v>
-      </c>
+      <c r="A161" s="51"/>
       <c r="B161" s="51" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C161" s="54">
-        <v>1.6399604421517593E-2</v>
+        <v>6.559186931581344E-3</v>
       </c>
       <c r="D161" s="54">
-        <v>7.4490307781118984E-3</v>
+        <v>0</v>
       </c>
       <c r="E161" s="54">
-        <v>3.2041705931306341E-2</v>
+        <v>2.6914642258584892E-2</v>
       </c>
       <c r="F161" s="54">
-        <v>1.4142087272297982E-2</v>
+        <v>0</v>
       </c>
       <c r="G161" s="54">
-        <v>7.8384539751406128E-3</v>
+        <v>0</v>
       </c>
       <c r="H161" s="54">
-        <v>9.942235039347571E-3</v>
+        <v>0</v>
       </c>
       <c r="I161" s="54">
-        <v>8.7941712391293846E-3</v>
+        <v>0</v>
       </c>
       <c r="J161" s="54">
-        <v>1.9167683727598969E-2</v>
+        <v>0</v>
       </c>
       <c r="K161" s="54">
-        <v>1.9563309645198885E-2</v>
+        <v>0</v>
       </c>
       <c r="L161" s="54">
-        <v>6.7513932047123726E-3</v>
+        <v>0</v>
       </c>
       <c r="M161" s="54">
-        <v>1.1912585101328303E-2</v>
+        <v>0</v>
       </c>
       <c r="N161" s="54">
-        <v>6.2742086519266488E-3</v>
+        <v>0</v>
       </c>
       <c r="O161" s="54">
-        <v>9.0275647633180547E-3</v>
+        <v>0</v>
       </c>
       <c r="P161" s="54">
-        <v>1.0257172186811273E-2</v>
+        <v>0</v>
       </c>
       <c r="Q161" s="54">
-        <v>1.2127565539618518E-2</v>
+        <v>0</v>
       </c>
       <c r="R161" s="54">
-        <v>1.0185353383353699E-2</v>
+        <v>0</v>
       </c>
       <c r="S161" s="54">
-        <v>1.2812635692286438E-2</v>
+        <v>0</v>
       </c>
       <c r="T161" s="54">
-        <v>5.2051948265462115E-3</v>
+        <v>0</v>
       </c>
       <c r="U161" s="54">
-        <v>8.6226466174633056E-3</v>
+        <v>0</v>
       </c>
       <c r="V161" s="54">
-        <v>1.3327262086971724E-2</v>
+        <v>0</v>
       </c>
       <c r="W161" s="54">
-        <v>8.2106842864435349E-3</v>
+        <v>0</v>
       </c>
       <c r="X161" s="54">
-        <v>7.2036254203120672E-3</v>
+        <v>0</v>
       </c>
       <c r="Y161" s="54">
-        <v>6.2594387860714779E-3</v>
+        <v>0</v>
       </c>
       <c r="Z161" s="54">
-        <v>8.5196368293601697E-3</v>
+        <v>0</v>
       </c>
       <c r="AA161" s="54">
-        <v>8.9112260712667282E-3</v>
+        <v>0</v>
       </c>
       <c r="AB161" s="54">
-        <v>9.8439085033626087E-3</v>
+        <v>0</v>
       </c>
       <c r="AC161" s="54">
-        <v>4.1049285439853662E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:29">
       <c r="A162" s="51"/>
       <c r="B162" s="51" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C162" s="54">
-        <v>8.2740995898888392E-2</v>
+        <v>0</v>
       </c>
       <c r="D162" s="54">
-        <v>7.0110938367526743E-2</v>
+        <v>0</v>
       </c>
       <c r="E162" s="54">
-        <v>0.1139689510378053</v>
+        <v>0</v>
       </c>
       <c r="F162" s="54">
-        <v>8.0814709118386313E-2</v>
+        <v>0</v>
       </c>
       <c r="G162" s="54">
-        <v>0.11271367561275741</v>
+        <v>0</v>
       </c>
       <c r="H162" s="54">
-        <v>6.4984165282223824E-2</v>
+        <v>0</v>
       </c>
       <c r="I162" s="54">
-        <v>7.7598299711661989E-2</v>
+        <v>0</v>
       </c>
       <c r="J162" s="54">
-        <v>7.216317572067088E-2</v>
+        <v>0</v>
       </c>
       <c r="K162" s="54">
-        <v>6.0281180381109148E-2</v>
+        <v>0</v>
       </c>
       <c r="L162" s="54">
-        <v>9.2669371156921962E-2</v>
+        <v>0</v>
       </c>
       <c r="M162" s="54">
-        <v>5.839703518119168E-2</v>
+        <v>0</v>
       </c>
       <c r="N162" s="54">
-        <v>6.7106145813932178E-2</v>
+        <v>0</v>
       </c>
       <c r="O162" s="54">
-        <v>6.8278050195023532E-2</v>
+        <v>0</v>
       </c>
       <c r="P162" s="54">
-        <v>6.0338383982093263E-2</v>
+        <v>0</v>
       </c>
       <c r="Q162" s="54">
-        <v>5.9111177723493433E-2</v>
+        <v>0</v>
       </c>
       <c r="R162" s="54">
-        <v>0.11983181177914175</v>
+        <v>0</v>
       </c>
       <c r="S162" s="54">
-        <v>6.1413439765244195E-2</v>
+        <v>0</v>
       </c>
       <c r="T162" s="54">
-        <v>7.9611602487177441E-2</v>
+        <v>0</v>
       </c>
       <c r="U162" s="54">
-        <v>5.5334396413720018E-2</v>
+        <v>0</v>
       </c>
       <c r="V162" s="54">
-        <v>8.6650816743783748E-2</v>
+        <v>0</v>
       </c>
       <c r="W162" s="54">
-        <v>6.4399740618333048E-2</v>
+        <v>0</v>
       </c>
       <c r="X162" s="54">
-        <v>0.10016080657514609</v>
+        <v>0</v>
       </c>
       <c r="Y162" s="54">
-        <v>5.8914393028833764E-2</v>
+        <v>0</v>
       </c>
       <c r="Z162" s="54">
-        <v>6.6822981231792783E-2</v>
+        <v>0</v>
       </c>
       <c r="AA162" s="54">
-        <v>2.5041208932371696E-2</v>
+        <v>0</v>
       </c>
       <c r="AB162" s="54">
-        <v>4.2495898501573662E-3</v>
+        <v>0</v>
       </c>
       <c r="AC162" s="54">
-        <v>0.16098313140959611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:29">
-      <c r="A163" s="51"/>
-      <c r="B163" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="C163" s="54">
-        <v>7.6968954610109105E-3</v>
-      </c>
-      <c r="D163" s="54">
-        <v>0</v>
-      </c>
-      <c r="E163" s="54">
-        <v>2.9377083408890298E-2</v>
-      </c>
-      <c r="F163" s="54">
-        <v>0</v>
-      </c>
-      <c r="G163" s="54">
-        <v>0</v>
-      </c>
-      <c r="H163" s="54">
-        <v>0</v>
-      </c>
-      <c r="I163" s="54">
-        <v>0</v>
-      </c>
-      <c r="J163" s="54">
-        <v>0</v>
-      </c>
-      <c r="K163" s="54">
-        <v>0</v>
-      </c>
-      <c r="L163" s="54">
-        <v>0</v>
-      </c>
-      <c r="M163" s="54">
-        <v>0</v>
-      </c>
-      <c r="N163" s="54">
-        <v>0</v>
-      </c>
-      <c r="O163" s="54">
-        <v>0</v>
-      </c>
-      <c r="P163" s="54">
-        <v>0</v>
-      </c>
-      <c r="Q163" s="54">
-        <v>0</v>
-      </c>
-      <c r="R163" s="54">
-        <v>0</v>
-      </c>
-      <c r="S163" s="54">
-        <v>0</v>
-      </c>
-      <c r="T163" s="54">
-        <v>0</v>
-      </c>
-      <c r="U163" s="54">
-        <v>0</v>
-      </c>
-      <c r="V163" s="54">
-        <v>0</v>
-      </c>
-      <c r="W163" s="54">
-        <v>0</v>
-      </c>
-      <c r="X163" s="54">
-        <v>0</v>
-      </c>
-      <c r="Y163" s="54">
-        <v>0</v>
-      </c>
-      <c r="Z163" s="54">
-        <v>0</v>
-      </c>
-      <c r="AA163" s="54">
-        <v>0</v>
-      </c>
-      <c r="AB163" s="54">
-        <v>0</v>
-      </c>
-      <c r="AC163" s="54">
-        <v>0</v>
+      <c r="A163" s="56"/>
+      <c r="B163" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="C163" s="58">
+        <v>1</v>
+      </c>
+      <c r="D163" s="58">
+        <v>1</v>
+      </c>
+      <c r="E163" s="58">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F163" s="58">
+        <v>1</v>
+      </c>
+      <c r="G163" s="58">
+        <v>1</v>
+      </c>
+      <c r="H163" s="58">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="I163" s="58">
+        <v>1</v>
+      </c>
+      <c r="J163" s="58">
+        <v>1</v>
+      </c>
+      <c r="K163" s="58">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="L163" s="58">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="M163" s="58">
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="N163" s="58">
+        <v>1</v>
+      </c>
+      <c r="O163" s="58">
+        <v>1</v>
+      </c>
+      <c r="P163" s="58">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="Q163" s="58">
+        <v>1</v>
+      </c>
+      <c r="R163" s="58">
+        <v>1</v>
+      </c>
+      <c r="S163" s="58">
+        <v>1</v>
+      </c>
+      <c r="T163" s="58">
+        <v>1</v>
+      </c>
+      <c r="U163" s="58">
+        <v>1</v>
+      </c>
+      <c r="V163" s="58">
+        <v>1</v>
+      </c>
+      <c r="W163" s="58">
+        <v>1</v>
+      </c>
+      <c r="X163" s="58">
+        <v>1</v>
+      </c>
+      <c r="Y163" s="58">
+        <v>1</v>
+      </c>
+      <c r="Z163" s="58">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AA163" s="58">
+        <v>1</v>
+      </c>
+      <c r="AB163" s="58">
+        <v>1</v>
+      </c>
+      <c r="AC163" s="58">
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
       <c r="A164" s="51"/>
-      <c r="B164" s="51" t="s">
-        <v>215</v>
-      </c>
-      <c r="C164" s="54">
-        <v>0</v>
-      </c>
-      <c r="D164" s="54">
-        <v>0</v>
-      </c>
-      <c r="E164" s="54">
-        <v>0</v>
-      </c>
-      <c r="F164" s="54">
-        <v>0</v>
-      </c>
-      <c r="G164" s="54">
-        <v>0</v>
-      </c>
-      <c r="H164" s="54">
-        <v>0</v>
-      </c>
-      <c r="I164" s="54">
-        <v>0</v>
-      </c>
-      <c r="J164" s="54">
-        <v>0</v>
-      </c>
-      <c r="K164" s="54">
-        <v>0</v>
-      </c>
-      <c r="L164" s="54">
-        <v>0</v>
-      </c>
-      <c r="M164" s="54">
-        <v>0</v>
-      </c>
-      <c r="N164" s="54">
-        <v>0</v>
-      </c>
-      <c r="O164" s="54">
-        <v>0</v>
-      </c>
-      <c r="P164" s="54">
-        <v>0</v>
-      </c>
-      <c r="Q164" s="54">
-        <v>0</v>
-      </c>
-      <c r="R164" s="54">
-        <v>0</v>
-      </c>
-      <c r="S164" s="54">
-        <v>0</v>
-      </c>
-      <c r="T164" s="54">
-        <v>0</v>
-      </c>
-      <c r="U164" s="54">
-        <v>0</v>
-      </c>
-      <c r="V164" s="54">
-        <v>0</v>
-      </c>
-      <c r="W164" s="54">
-        <v>0</v>
-      </c>
-      <c r="X164" s="54">
-        <v>0</v>
-      </c>
-      <c r="Y164" s="54">
-        <v>0</v>
-      </c>
-      <c r="Z164" s="54">
-        <v>0</v>
-      </c>
-      <c r="AA164" s="54">
-        <v>0</v>
-      </c>
-      <c r="AB164" s="54">
-        <v>0</v>
-      </c>
-      <c r="AC164" s="54">
-        <v>0</v>
-      </c>
+      <c r="B164" s="51"/>
+      <c r="C164" s="51"/>
+      <c r="D164" s="51"/>
+      <c r="E164" s="51"/>
+      <c r="F164" s="51"/>
+      <c r="G164" s="51"/>
+      <c r="H164" s="51"/>
+      <c r="I164" s="51"/>
+      <c r="J164" s="51"/>
+      <c r="K164" s="51"/>
+      <c r="L164" s="51"/>
+      <c r="M164" s="51"/>
+      <c r="N164" s="51"/>
+      <c r="O164" s="51"/>
+      <c r="P164" s="51"/>
+      <c r="Q164" s="51"/>
+      <c r="R164" s="51"/>
+      <c r="S164" s="51"/>
+      <c r="T164" s="51"/>
+      <c r="U164" s="51"/>
+      <c r="V164" s="51"/>
+      <c r="W164" s="51"/>
+      <c r="X164" s="51"/>
+      <c r="Y164" s="51"/>
+      <c r="Z164" s="51"/>
+      <c r="AA164" s="51"/>
+      <c r="AB164" s="51"/>
+      <c r="AC164" s="51"/>
     </row>
     <row r="165" spans="1:29">
-      <c r="A165" s="56"/>
-      <c r="B165" s="57" t="s">
-        <v>216</v>
-      </c>
-      <c r="C165" s="58">
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="D165" s="58">
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="E165" s="58">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="F165" s="58">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="G165" s="58">
-        <v>1</v>
-      </c>
-      <c r="H165" s="58">
-        <v>1</v>
-      </c>
-      <c r="I165" s="58">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="J165" s="58">
-        <v>1</v>
-      </c>
-      <c r="K165" s="58">
-        <v>1</v>
-      </c>
-      <c r="L165" s="58">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="M165" s="58">
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="N165" s="58">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="O165" s="58">
-        <v>1</v>
-      </c>
-      <c r="P165" s="58">
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="Q165" s="58">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="R165" s="58">
-        <v>1</v>
-      </c>
-      <c r="S165" s="58">
-        <v>1</v>
-      </c>
-      <c r="T165" s="58">
-        <v>1</v>
-      </c>
-      <c r="U165" s="58">
-        <v>1</v>
-      </c>
-      <c r="V165" s="58">
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="W165" s="58">
-        <v>1</v>
-      </c>
-      <c r="X165" s="58">
-        <v>1</v>
-      </c>
-      <c r="Y165" s="58">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="Z165" s="58">
-        <v>1</v>
-      </c>
-      <c r="AA165" s="58">
-        <v>1</v>
-      </c>
-      <c r="AB165" s="58">
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="AC165" s="58">
-        <v>0.99999999999999989</v>
-      </c>
+      <c r="A165" s="51"/>
+      <c r="B165" s="51"/>
+      <c r="C165" s="51"/>
+      <c r="D165" s="51"/>
+      <c r="E165" s="51"/>
+      <c r="F165" s="51"/>
+      <c r="G165" s="51"/>
+      <c r="H165" s="51"/>
+      <c r="I165" s="51"/>
+      <c r="J165" s="51"/>
+      <c r="K165" s="51"/>
+      <c r="L165" s="51"/>
+      <c r="M165" s="51"/>
+      <c r="N165" s="51"/>
+      <c r="O165" s="51"/>
+      <c r="P165" s="51"/>
+      <c r="Q165" s="51"/>
+      <c r="R165" s="51"/>
+      <c r="S165" s="51"/>
+      <c r="T165" s="51"/>
+      <c r="U165" s="51"/>
+      <c r="V165" s="51"/>
+      <c r="W165" s="51"/>
+      <c r="X165" s="51"/>
+      <c r="Y165" s="51"/>
+      <c r="Z165" s="51"/>
+      <c r="AA165" s="51"/>
+      <c r="AB165" s="51"/>
+      <c r="AC165" s="51"/>
     </row>
     <row r="166" spans="1:29">
       <c r="A166" s="51"/>
@@ -11266,10 +11051,12 @@
       <c r="AB166" s="51"/>
       <c r="AC166" s="51"/>
     </row>
-    <row r="167" spans="1:29">
-      <c r="A167" s="51"/>
-      <c r="B167" s="51"/>
-      <c r="C167" s="51"/>
+    <row r="167" spans="1:29" ht="15.6">
+      <c r="A167" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="B167" s="50"/>
+      <c r="C167" s="50"/>
       <c r="D167" s="51"/>
       <c r="E167" s="51"/>
       <c r="F167" s="51"/>
@@ -11298,164 +11085,276 @@
       <c r="AC167" s="51"/>
     </row>
     <row r="168" spans="1:29">
-      <c r="A168" s="51"/>
-      <c r="B168" s="51"/>
-      <c r="C168" s="51"/>
-      <c r="D168" s="51"/>
-      <c r="E168" s="51"/>
-      <c r="F168" s="51"/>
-      <c r="G168" s="51"/>
-      <c r="H168" s="51"/>
-      <c r="I168" s="51"/>
-      <c r="J168" s="51"/>
-      <c r="K168" s="51"/>
-      <c r="L168" s="51"/>
-      <c r="M168" s="51"/>
-      <c r="N168" s="51"/>
-      <c r="O168" s="51"/>
-      <c r="P168" s="51"/>
-      <c r="Q168" s="51"/>
-      <c r="R168" s="51"/>
-      <c r="S168" s="51"/>
-      <c r="T168" s="51"/>
-      <c r="U168" s="51"/>
-      <c r="V168" s="51"/>
-      <c r="W168" s="51"/>
-      <c r="X168" s="51"/>
-      <c r="Y168" s="51"/>
-      <c r="Z168" s="51"/>
-      <c r="AA168" s="51"/>
-      <c r="AB168" s="51"/>
-      <c r="AC168" s="51"/>
-    </row>
-    <row r="169" spans="1:29" ht="15.6">
-      <c r="A169" s="50" t="s">
-        <v>217</v>
-      </c>
-      <c r="B169" s="50"/>
-      <c r="C169" s="50"/>
-      <c r="D169" s="51"/>
-      <c r="E169" s="51"/>
-      <c r="F169" s="51"/>
-      <c r="G169" s="51"/>
-      <c r="H169" s="51"/>
-      <c r="I169" s="51"/>
-      <c r="J169" s="51"/>
-      <c r="K169" s="51"/>
-      <c r="L169" s="51"/>
-      <c r="M169" s="51"/>
-      <c r="N169" s="51"/>
-      <c r="O169" s="51"/>
-      <c r="P169" s="51"/>
-      <c r="Q169" s="51"/>
-      <c r="R169" s="51"/>
-      <c r="S169" s="51"/>
-      <c r="T169" s="51"/>
-      <c r="U169" s="51"/>
-      <c r="V169" s="51"/>
-      <c r="W169" s="51"/>
-      <c r="X169" s="51"/>
-      <c r="Y169" s="51"/>
-      <c r="Z169" s="51"/>
-      <c r="AA169" s="51"/>
-      <c r="AB169" s="51"/>
-      <c r="AC169" s="51"/>
+      <c r="A168" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="B168" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="C168" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D168" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="E168" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="F168" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="G168" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="H168" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="I168" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="J168" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="K168" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="L168" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="M168" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="N168" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="O168" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="P168" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q168" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="R168" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="S168" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="T168" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="U168" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="V168" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="W168" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="X168" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y168" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z168" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA168" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB168" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC168" s="53" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="169" spans="1:29">
+      <c r="A169" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="B169" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="C169" s="54">
+        <v>0</v>
+      </c>
+      <c r="D169" s="54">
+        <v>0</v>
+      </c>
+      <c r="E169" s="54">
+        <v>0</v>
+      </c>
+      <c r="F169" s="54">
+        <v>0</v>
+      </c>
+      <c r="G169" s="54">
+        <v>0</v>
+      </c>
+      <c r="H169" s="54">
+        <v>0</v>
+      </c>
+      <c r="I169" s="54">
+        <v>0</v>
+      </c>
+      <c r="J169" s="54">
+        <v>0</v>
+      </c>
+      <c r="K169" s="54">
+        <v>0</v>
+      </c>
+      <c r="L169" s="54">
+        <v>0</v>
+      </c>
+      <c r="M169" s="54">
+        <v>0</v>
+      </c>
+      <c r="N169" s="54">
+        <v>0</v>
+      </c>
+      <c r="O169" s="54">
+        <v>0</v>
+      </c>
+      <c r="P169" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q169" s="54">
+        <v>0</v>
+      </c>
+      <c r="R169" s="54">
+        <v>0</v>
+      </c>
+      <c r="S169" s="54">
+        <v>0</v>
+      </c>
+      <c r="T169" s="54">
+        <v>0</v>
+      </c>
+      <c r="U169" s="54">
+        <v>0</v>
+      </c>
+      <c r="V169" s="54">
+        <v>0</v>
+      </c>
+      <c r="W169" s="54">
+        <v>0</v>
+      </c>
+      <c r="X169" s="54">
+        <v>0</v>
+      </c>
+      <c r="Y169" s="54">
+        <v>0</v>
+      </c>
+      <c r="Z169" s="54">
+        <v>0</v>
+      </c>
+      <c r="AA169" s="54">
+        <v>0</v>
+      </c>
+      <c r="AB169" s="54">
+        <v>0</v>
+      </c>
+      <c r="AC169" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="170" spans="1:29">
-      <c r="A170" s="52" t="s">
-        <v>203</v>
-      </c>
-      <c r="B170" s="52" t="s">
-        <v>204</v>
-      </c>
-      <c r="C170" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="D170" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="E170" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="F170" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="G170" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="H170" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="I170" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="J170" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="K170" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="L170" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="M170" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="N170" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="O170" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="P170" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q170" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="R170" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="S170" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="T170" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="U170" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="V170" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="W170" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="X170" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y170" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z170" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA170" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB170" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC170" s="53" t="s">
-        <v>107</v>
+      <c r="A170" s="51"/>
+      <c r="B170" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="C170" s="54">
+        <v>0</v>
+      </c>
+      <c r="D170" s="54">
+        <v>0</v>
+      </c>
+      <c r="E170" s="54">
+        <v>0</v>
+      </c>
+      <c r="F170" s="54">
+        <v>0</v>
+      </c>
+      <c r="G170" s="54">
+        <v>0</v>
+      </c>
+      <c r="H170" s="54">
+        <v>0</v>
+      </c>
+      <c r="I170" s="54">
+        <v>0</v>
+      </c>
+      <c r="J170" s="54">
+        <v>0</v>
+      </c>
+      <c r="K170" s="54">
+        <v>0</v>
+      </c>
+      <c r="L170" s="54">
+        <v>0</v>
+      </c>
+      <c r="M170" s="54">
+        <v>0</v>
+      </c>
+      <c r="N170" s="54">
+        <v>0</v>
+      </c>
+      <c r="O170" s="54">
+        <v>0</v>
+      </c>
+      <c r="P170" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q170" s="54">
+        <v>0</v>
+      </c>
+      <c r="R170" s="54">
+        <v>0</v>
+      </c>
+      <c r="S170" s="54">
+        <v>0</v>
+      </c>
+      <c r="T170" s="54">
+        <v>0</v>
+      </c>
+      <c r="U170" s="54">
+        <v>0</v>
+      </c>
+      <c r="V170" s="54">
+        <v>0</v>
+      </c>
+      <c r="W170" s="54">
+        <v>0</v>
+      </c>
+      <c r="X170" s="54">
+        <v>0</v>
+      </c>
+      <c r="Y170" s="54">
+        <v>0</v>
+      </c>
+      <c r="Z170" s="54">
+        <v>0</v>
+      </c>
+      <c r="AA170" s="54">
+        <v>0</v>
+      </c>
+      <c r="AB170" s="54">
+        <v>0</v>
+      </c>
+      <c r="AC170" s="54">
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:29">
       <c r="A171" s="51" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B171" s="51" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C171" s="54">
         <v>0</v>
@@ -11542,2995 +11441,525 @@
     <row r="172" spans="1:29">
       <c r="A172" s="51"/>
       <c r="B172" s="51" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C172" s="54">
-        <v>0</v>
+        <v>0.74108639947108168</v>
       </c>
       <c r="D172" s="54">
-        <v>0</v>
+        <v>0.79071880912169545</v>
       </c>
       <c r="E172" s="54">
-        <v>0</v>
+        <v>0.6386131571238467</v>
       </c>
       <c r="F172" s="54">
-        <v>0</v>
+        <v>0.75580744416441215</v>
       </c>
       <c r="G172" s="54">
-        <v>0</v>
+        <v>0.71320246300225565</v>
       </c>
       <c r="H172" s="54">
-        <v>0</v>
+        <v>0.78115676031065473</v>
       </c>
       <c r="I172" s="54">
-        <v>0</v>
+        <v>0.76642349622098382</v>
       </c>
       <c r="J172" s="54">
-        <v>0</v>
+        <v>0.74828496387185417</v>
       </c>
       <c r="K172" s="54">
-        <v>0</v>
+        <v>0.78640329755658556</v>
       </c>
       <c r="L172" s="54">
-        <v>0</v>
+        <v>0.74588309703681677</v>
       </c>
       <c r="M172" s="54">
-        <v>0</v>
+        <v>0.80172469534468704</v>
       </c>
       <c r="N172" s="54">
-        <v>0</v>
+        <v>0.79583426304303684</v>
       </c>
       <c r="O172" s="54">
-        <v>0</v>
+        <v>0.77907090765006382</v>
       </c>
       <c r="P172" s="54">
-        <v>0</v>
+        <v>0.80155723993574601</v>
       </c>
       <c r="Q172" s="54">
-        <v>0</v>
+        <v>0.78887154985237196</v>
       </c>
       <c r="R172" s="54">
-        <v>0</v>
+        <v>0.70533422841274862</v>
       </c>
       <c r="S172" s="54">
-        <v>0</v>
+        <v>0.78717070970762593</v>
       </c>
       <c r="T172" s="54">
-        <v>0</v>
+        <v>0.77916775606401434</v>
       </c>
       <c r="U172" s="54">
-        <v>0</v>
+        <v>0.80467495581567261</v>
       </c>
       <c r="V172" s="54">
-        <v>0</v>
+        <v>0.74505854970828844</v>
       </c>
       <c r="W172" s="54">
-        <v>0</v>
+        <v>0.79514890678426453</v>
       </c>
       <c r="X172" s="54">
-        <v>0</v>
+        <v>0.73736495113760858</v>
       </c>
       <c r="Y172" s="54">
-        <v>0</v>
+        <v>0.81853938082108479</v>
       </c>
       <c r="Z172" s="54">
-        <v>0</v>
+        <v>0.77998817627338324</v>
       </c>
       <c r="AA172" s="54">
-        <v>0</v>
+        <v>0.85154985463859412</v>
       </c>
       <c r="AB172" s="54">
-        <v>0</v>
+        <v>0.88006272796227247</v>
       </c>
       <c r="AC172" s="54">
-        <v>0</v>
+        <v>0.64231184378282558</v>
       </c>
     </row>
     <row r="173" spans="1:29">
       <c r="A173" s="51" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B173" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="C173" s="55">
-        <v>3.2739468688573266E-3</v>
+        <v>212</v>
+      </c>
+      <c r="C173" s="54">
+        <v>1.214216695359136E-2</v>
       </c>
       <c r="D173" s="54">
-        <v>2.1586268841599747E-3</v>
+        <v>5.244564356444866E-3</v>
       </c>
       <c r="E173" s="54">
-        <v>4.3137182635283444E-3</v>
+        <v>2.5318479036608464E-2</v>
       </c>
       <c r="F173" s="54">
-        <v>3.6319751739066989E-3</v>
+        <v>1.0199545943263343E-2</v>
       </c>
       <c r="G173" s="54">
-        <v>2.5491869155235955E-3</v>
+        <v>5.4465670112681473E-3</v>
       </c>
       <c r="H173" s="54">
-        <v>1.6941154698507114E-3</v>
+        <v>7.3305854058422536E-3</v>
       </c>
       <c r="I173" s="54">
-        <v>3.2883004760979389E-3</v>
+        <v>6.327365203104513E-3</v>
       </c>
       <c r="J173" s="54">
-        <v>2.4416088687366478E-3</v>
+        <v>1.4553702960433654E-2</v>
       </c>
       <c r="K173" s="54">
-        <v>3.5159102982178412E-3</v>
+        <v>1.4378136289327563E-2</v>
       </c>
       <c r="L173" s="54">
-        <v>3.3185344885490013E-3</v>
+        <v>4.7655125577413509E-3</v>
       </c>
       <c r="M173" s="54">
-        <v>2.939754742265497E-3</v>
+        <v>8.6002260738130814E-3</v>
       </c>
       <c r="N173" s="54">
-        <v>3.3151523856669103E-3</v>
+        <v>4.4354589246647135E-3</v>
       </c>
       <c r="O173" s="54">
-        <v>3.906666915379246E-3</v>
+        <v>6.592434448494537E-3</v>
       </c>
       <c r="P173" s="54">
-        <v>3.2306073901205486E-3</v>
+        <v>7.3526877521562662E-3</v>
       </c>
       <c r="Q173" s="54">
-        <v>3.9969766503394092E-3</v>
+        <v>9.0159384819168999E-3</v>
       </c>
       <c r="R173" s="54">
-        <v>2.4423953155841079E-3</v>
+        <v>6.9712334769449829E-3</v>
       </c>
       <c r="S173" s="54">
-        <v>2.8914591982090753E-3</v>
+        <v>9.4394919428535985E-3</v>
       </c>
       <c r="T173" s="54">
-        <v>2.9812499263931389E-3</v>
+        <v>3.6138078846859318E-3</v>
       </c>
       <c r="U173" s="54">
-        <v>3.5441732524901714E-3</v>
+        <v>6.3123502546919919E-3</v>
       </c>
       <c r="V173" s="54">
-        <v>2.1106258862285242E-3</v>
+        <v>9.5979099500525071E-3</v>
       </c>
       <c r="W173" s="54">
-        <v>0</v>
+        <v>5.8735122381989901E-3</v>
       </c>
       <c r="X173" s="54">
-        <v>1.9054783663146626E-3</v>
+        <v>5.0103707288089395E-3</v>
       </c>
       <c r="Y173" s="54">
-        <v>1.7694736792673005E-3</v>
+        <v>4.3449135578945168E-3</v>
       </c>
       <c r="Z173" s="54">
-        <v>2.1690169741061518E-3</v>
+        <v>6.2553697184935773E-3</v>
       </c>
       <c r="AA173" s="54">
-        <v>1.996201699404686E-3</v>
+        <v>6.8237115745591239E-3</v>
       </c>
       <c r="AB173" s="54">
-        <v>2.1678265957034699E-3</v>
+        <v>7.9379260453763534E-3</v>
       </c>
       <c r="AC173" s="54">
-        <v>1.9708873200458749E-3</v>
+        <v>2.7483693665086213E-3</v>
       </c>
     </row>
     <row r="174" spans="1:29">
       <c r="A174" s="51"/>
       <c r="B174" s="51" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C174" s="54">
-        <v>0.83405572391255312</v>
+        <v>0.1626965950818042</v>
       </c>
       <c r="D174" s="54">
-        <v>0.88136996225712338</v>
+        <v>0.13109626623170204</v>
       </c>
       <c r="E174" s="54">
-        <v>0.7240198055510555</v>
+        <v>0.23916819504950479</v>
       </c>
       <c r="F174" s="54">
-        <v>0.85033097733510543</v>
+        <v>0.15479346868381608</v>
       </c>
       <c r="G174" s="54">
-        <v>0.81358360125192186</v>
+        <v>0.20800029152740038</v>
       </c>
       <c r="H174" s="54">
-        <v>0.88000079438796519</v>
+        <v>0.12724978858051844</v>
       </c>
       <c r="I174" s="54">
-        <v>0.86292967512561713</v>
+        <v>0.14827744084788594</v>
       </c>
       <c r="J174" s="54">
-        <v>0.84991917486050839</v>
+        <v>0.14551722418000443</v>
       </c>
       <c r="K174" s="54">
-        <v>0.87489878054676506</v>
+        <v>0.11766218454461841</v>
       </c>
       <c r="L174" s="54">
-        <v>0.84396948853578213</v>
+        <v>0.17371900154534914</v>
       </c>
       <c r="M174" s="54">
-        <v>0.89058577172865516</v>
+        <v>0.11196687123703571</v>
       </c>
       <c r="N174" s="54">
-        <v>0.88596847722847849</v>
+        <v>0.12599020808803368</v>
       </c>
       <c r="O174" s="54">
-        <v>0.87519253516054751</v>
+        <v>0.13241927644257739</v>
       </c>
       <c r="P174" s="54">
-        <v>0.89017909286971042</v>
+        <v>0.11487011188674058</v>
       </c>
       <c r="Q174" s="54">
-        <v>0.88395825319439558</v>
+        <v>0.11670831913312733</v>
       </c>
       <c r="R174" s="54">
-        <v>0.80306472393989703</v>
+        <v>0.2178213998684824</v>
       </c>
       <c r="S174" s="54">
-        <v>0.88153417928289457</v>
+        <v>0.12016236232976817</v>
       </c>
       <c r="T174" s="54">
-        <v>0.87036679499941227</v>
+        <v>0.14679096653005977</v>
       </c>
       <c r="U174" s="54">
-        <v>0.89725064481847272</v>
+        <v>0.10758223700696061</v>
       </c>
       <c r="V174" s="54">
-        <v>0.84303694258501916</v>
+        <v>0.1657308225029282</v>
       </c>
       <c r="W174" s="54">
-        <v>0.88919219682824724</v>
+        <v>0.12234818626194599</v>
       </c>
       <c r="X174" s="54">
-        <v>0.83536706688667051</v>
+        <v>0.18501691930313938</v>
       </c>
       <c r="Y174" s="54">
-        <v>0.90275636290048633</v>
+        <v>0.10860805699514527</v>
       </c>
       <c r="Z174" s="54">
-        <v>0.87891574758893642</v>
+        <v>0.13030246782805119</v>
       </c>
       <c r="AA174" s="54">
-        <v>0.9444737396739924</v>
+        <v>5.0925275195199252E-2</v>
       </c>
       <c r="AB174" s="54">
-        <v>0.97631596747347482</v>
+        <v>9.1008381034736394E-3</v>
       </c>
       <c r="AC174" s="54">
-        <v>0.7484312106638259</v>
+        <v>0.28624951607603277</v>
       </c>
     </row>
     <row r="175" spans="1:29">
-      <c r="A175" s="51" t="s">
-        <v>211</v>
-      </c>
+      <c r="A175" s="51"/>
       <c r="B175" s="51" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C175" s="54">
-        <v>2.1905905312439161E-2</v>
+        <v>0</v>
       </c>
       <c r="D175" s="54">
-        <v>9.3709663140288998E-3</v>
+        <v>0</v>
       </c>
       <c r="E175" s="54">
-        <v>4.6013893098741668E-2</v>
+        <v>0</v>
       </c>
       <c r="F175" s="54">
-        <v>1.8394858695029128E-2</v>
+        <v>0</v>
       </c>
       <c r="G175" s="54">
-        <v>9.9598084318994508E-3</v>
+        <v>0</v>
       </c>
       <c r="H175" s="54">
-        <v>1.3237997918849932E-2</v>
+        <v>0</v>
       </c>
       <c r="I175" s="54">
-        <v>1.1420057155050359E-2</v>
+        <v>0</v>
       </c>
       <c r="J175" s="54">
-        <v>2.6498598054231513E-2</v>
+        <v>0</v>
       </c>
       <c r="K175" s="54">
-        <v>2.5642116158186581E-2</v>
+        <v>0</v>
       </c>
       <c r="L175" s="54">
-        <v>8.6437934593511252E-3</v>
+        <v>0</v>
       </c>
       <c r="M175" s="54">
-        <v>1.5314370184172183E-2</v>
+        <v>0</v>
       </c>
       <c r="N175" s="54">
-        <v>7.9154020817384443E-3</v>
+        <v>0</v>
       </c>
       <c r="O175" s="54">
-        <v>1.1871653704006174E-2</v>
+        <v>0</v>
       </c>
       <c r="P175" s="54">
-        <v>1.3089641552029165E-2</v>
+        <v>0</v>
       </c>
       <c r="Q175" s="54">
-        <v>1.6194784858342321E-2</v>
+        <v>0</v>
       </c>
       <c r="R175" s="54">
-        <v>1.272342398540301E-2</v>
+        <v>0</v>
       </c>
       <c r="S175" s="54">
-        <v>1.6945626580446856E-2</v>
+        <v>0</v>
       </c>
       <c r="T175" s="54">
-        <v>6.4710564013944778E-3</v>
+        <v>0</v>
       </c>
       <c r="U175" s="54">
-        <v>1.1282963024401618E-2</v>
+        <v>0</v>
       </c>
       <c r="V175" s="54">
-        <v>1.7408913059663488E-2</v>
+        <v>0</v>
       </c>
       <c r="W175" s="54">
-        <v>1.0528920260910977E-2</v>
+        <v>0</v>
       </c>
       <c r="X175" s="54">
-        <v>9.0992061135074936E-3</v>
+        <v>0</v>
       </c>
       <c r="Y175" s="54">
-        <v>7.6815860877352945E-3</v>
+        <v>0</v>
       </c>
       <c r="Z175" s="54">
-        <v>1.129928575321087E-2</v>
+        <v>0</v>
       </c>
       <c r="AA175" s="54">
-        <v>1.2132191360051241E-2</v>
+        <v>0</v>
       </c>
       <c r="AB175" s="54">
-        <v>1.4116355738962196E-2</v>
+        <v>0</v>
       </c>
       <c r="AC175" s="54">
-        <v>5.1335741680296381E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:29">
       <c r="A176" s="51"/>
       <c r="B176" s="51" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C176" s="54">
-        <v>0.13420523697456904</v>
+        <v>8.4074838493522847E-2</v>
       </c>
       <c r="D176" s="54">
-        <v>0.10710044454468777</v>
+        <v>7.2940360290157685E-2</v>
       </c>
       <c r="E176" s="54">
-        <v>0.19873794082808949</v>
+        <v>9.6900168790040125E-2</v>
       </c>
       <c r="F176" s="54">
-        <v>0.12764218879595873</v>
+        <v>7.91995412085085E-2</v>
       </c>
       <c r="G176" s="54">
-        <v>0.17390740340065505</v>
+        <v>7.3350678459075919E-2</v>
       </c>
       <c r="H176" s="54">
-        <v>0.10506709222333424</v>
+        <v>8.426286570298451E-2</v>
       </c>
       <c r="I176" s="54">
-        <v>0.12236196724323453</v>
+        <v>7.8971697728025606E-2</v>
       </c>
       <c r="J176" s="54">
-        <v>0.12114061821652349</v>
+        <v>9.1644108987707917E-2</v>
       </c>
       <c r="K176" s="54">
-        <v>9.5943192996830379E-2</v>
+        <v>8.1556381609468237E-2</v>
       </c>
       <c r="L176" s="54">
-        <v>0.14406818351631784</v>
+        <v>7.5632388860092645E-2</v>
       </c>
       <c r="M176" s="54">
-        <v>9.1160103344907026E-2</v>
+        <v>7.7708207344464181E-2</v>
       </c>
       <c r="N176" s="54">
-        <v>0.10280096830411618</v>
+        <v>7.3740069944264783E-2</v>
       </c>
       <c r="O176" s="54">
-        <v>0.1090291442200671</v>
+        <v>8.1917381458864319E-2</v>
       </c>
       <c r="P176" s="54">
-        <v>9.3500658188139713E-2</v>
+        <v>7.6219960425357156E-2</v>
       </c>
       <c r="Q176" s="54">
-        <v>9.5849985296922749E-2</v>
+        <v>8.5404192532583911E-2</v>
       </c>
       <c r="R176" s="54">
-        <v>0.18176945675911579</v>
+        <v>6.987313824182402E-2</v>
       </c>
       <c r="S176" s="54">
-        <v>9.8628734938449439E-2</v>
+        <v>8.3227436019752521E-2</v>
       </c>
       <c r="T176" s="54">
-        <v>0.1201808986728002</v>
+        <v>7.0427469521239974E-2</v>
       </c>
       <c r="U176" s="54">
-        <v>8.7922218904635543E-2</v>
+        <v>8.1430456922674907E-2</v>
       </c>
       <c r="V176" s="54">
-        <v>0.13744351846908884</v>
+        <v>7.9612717838730945E-2</v>
       </c>
       <c r="W176" s="54">
-        <v>0.10027888291084175</v>
+        <v>7.6629394715590618E-2</v>
       </c>
       <c r="X176" s="54">
-        <v>0.15362824863350735</v>
+        <v>7.2607758830443E-2</v>
       </c>
       <c r="Y176" s="54">
-        <v>8.779257733251114E-2</v>
+        <v>6.8507648625875522E-2</v>
       </c>
       <c r="Z176" s="54">
-        <v>0.10761594968374652</v>
+        <v>8.3453986180072076E-2</v>
       </c>
       <c r="AA176" s="54">
-        <v>4.1397867266551647E-2</v>
+        <v>9.070115859164736E-2</v>
       </c>
       <c r="AB176" s="54">
-        <v>7.3998501918595234E-3</v>
+        <v>0.10289850788887757</v>
       </c>
       <c r="AC176" s="54">
-        <v>0.24446432784809863</v>
+        <v>6.8690270774633036E-2</v>
       </c>
     </row>
     <row r="177" spans="1:29">
-      <c r="A177" s="51"/>
-      <c r="B177" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="C177" s="54">
-        <v>6.559186931581344E-3</v>
-      </c>
-      <c r="D177" s="54">
-        <v>0</v>
-      </c>
-      <c r="E177" s="54">
-        <v>2.6914642258584892E-2</v>
-      </c>
-      <c r="F177" s="54">
-        <v>0</v>
-      </c>
-      <c r="G177" s="54">
-        <v>0</v>
-      </c>
-      <c r="H177" s="54">
-        <v>0</v>
-      </c>
-      <c r="I177" s="54">
-        <v>0</v>
-      </c>
-      <c r="J177" s="54">
-        <v>0</v>
-      </c>
-      <c r="K177" s="54">
-        <v>0</v>
-      </c>
-      <c r="L177" s="54">
-        <v>0</v>
-      </c>
-      <c r="M177" s="54">
-        <v>0</v>
-      </c>
-      <c r="N177" s="54">
-        <v>0</v>
-      </c>
-      <c r="O177" s="54">
-        <v>0</v>
-      </c>
-      <c r="P177" s="54">
-        <v>0</v>
-      </c>
-      <c r="Q177" s="54">
-        <v>0</v>
-      </c>
-      <c r="R177" s="54">
-        <v>0</v>
-      </c>
-      <c r="S177" s="54">
-        <v>0</v>
-      </c>
-      <c r="T177" s="54">
-        <v>0</v>
-      </c>
-      <c r="U177" s="54">
-        <v>0</v>
-      </c>
-      <c r="V177" s="54">
-        <v>0</v>
-      </c>
-      <c r="W177" s="54">
-        <v>0</v>
-      </c>
-      <c r="X177" s="54">
-        <v>0</v>
-      </c>
-      <c r="Y177" s="54">
-        <v>0</v>
-      </c>
-      <c r="Z177" s="54">
-        <v>0</v>
-      </c>
-      <c r="AA177" s="54">
-        <v>0</v>
-      </c>
-      <c r="AB177" s="54">
-        <v>0</v>
-      </c>
-      <c r="AC177" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:29">
-      <c r="A178" s="51"/>
-      <c r="B178" s="51" t="s">
-        <v>215</v>
-      </c>
-      <c r="C178" s="54">
-        <v>0</v>
-      </c>
-      <c r="D178" s="54">
-        <v>0</v>
-      </c>
-      <c r="E178" s="54">
-        <v>0</v>
-      </c>
-      <c r="F178" s="54">
-        <v>0</v>
-      </c>
-      <c r="G178" s="54">
-        <v>0</v>
-      </c>
-      <c r="H178" s="54">
-        <v>0</v>
-      </c>
-      <c r="I178" s="54">
-        <v>0</v>
-      </c>
-      <c r="J178" s="54">
-        <v>0</v>
-      </c>
-      <c r="K178" s="54">
-        <v>0</v>
-      </c>
-      <c r="L178" s="54">
-        <v>0</v>
-      </c>
-      <c r="M178" s="54">
-        <v>0</v>
-      </c>
-      <c r="N178" s="54">
-        <v>0</v>
-      </c>
-      <c r="O178" s="54">
-        <v>0</v>
-      </c>
-      <c r="P178" s="54">
-        <v>0</v>
-      </c>
-      <c r="Q178" s="54">
-        <v>0</v>
-      </c>
-      <c r="R178" s="54">
-        <v>0</v>
-      </c>
-      <c r="S178" s="54">
-        <v>0</v>
-      </c>
-      <c r="T178" s="54">
-        <v>0</v>
-      </c>
-      <c r="U178" s="54">
-        <v>0</v>
-      </c>
-      <c r="V178" s="54">
-        <v>0</v>
-      </c>
-      <c r="W178" s="54">
-        <v>0</v>
-      </c>
-      <c r="X178" s="54">
-        <v>0</v>
-      </c>
-      <c r="Y178" s="54">
-        <v>0</v>
-      </c>
-      <c r="Z178" s="54">
-        <v>0</v>
-      </c>
-      <c r="AA178" s="54">
-        <v>0</v>
-      </c>
-      <c r="AB178" s="54">
-        <v>0</v>
-      </c>
-      <c r="AC178" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:29">
-      <c r="A179" s="56"/>
-      <c r="B179" s="57" t="s">
+      <c r="A177" s="56"/>
+      <c r="B177" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="C179" s="58">
+      <c r="C177" s="58">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="D177" s="58">
         <v>1</v>
       </c>
-      <c r="D179" s="58">
+      <c r="E177" s="58">
         <v>1</v>
       </c>
-      <c r="E179" s="58">
+      <c r="F177" s="58">
+        <v>1</v>
+      </c>
+      <c r="G177" s="58">
+        <v>1</v>
+      </c>
+      <c r="H177" s="58">
+        <v>1</v>
+      </c>
+      <c r="I177" s="58">
         <v>0.99999999999999989</v>
       </c>
-      <c r="F179" s="58">
+      <c r="J177" s="58">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="K177" s="58">
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="L177" s="58">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="M177" s="58">
         <v>1</v>
       </c>
-      <c r="G179" s="58">
+      <c r="N177" s="58">
         <v>1</v>
       </c>
-      <c r="H179" s="58">
+      <c r="O177" s="58">
+        <v>1</v>
+      </c>
+      <c r="P177" s="58">
+        <v>1</v>
+      </c>
+      <c r="Q177" s="58">
+        <v>1</v>
+      </c>
+      <c r="R177" s="58">
+        <v>1</v>
+      </c>
+      <c r="S177" s="58">
         <v>1.0000000000000002</v>
       </c>
-      <c r="I179" s="58">
+      <c r="T177" s="58">
         <v>1</v>
       </c>
-      <c r="J179" s="58">
+      <c r="U177" s="58">
         <v>1</v>
       </c>
-      <c r="K179" s="58">
+      <c r="V177" s="58">
+        <v>1</v>
+      </c>
+      <c r="W177" s="58">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="X177" s="58">
         <v>0.99999999999999989</v>
       </c>
-      <c r="L179" s="58">
+      <c r="Y177" s="58">
         <v>1.0000000000000002</v>
       </c>
-      <c r="M179" s="58">
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="N179" s="58">
+      <c r="Z177" s="58">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="AA177" s="58">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AB177" s="58">
         <v>1</v>
       </c>
-      <c r="O179" s="58">
+      <c r="AC177" s="58">
         <v>1</v>
-      </c>
-      <c r="P179" s="58">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="Q179" s="58">
-        <v>1</v>
-      </c>
-      <c r="R179" s="58">
-        <v>1</v>
-      </c>
-      <c r="S179" s="58">
-        <v>1</v>
-      </c>
-      <c r="T179" s="58">
-        <v>1</v>
-      </c>
-      <c r="U179" s="58">
-        <v>1</v>
-      </c>
-      <c r="V179" s="58">
-        <v>1</v>
-      </c>
-      <c r="W179" s="58">
-        <v>1</v>
-      </c>
-      <c r="X179" s="58">
-        <v>1</v>
-      </c>
-      <c r="Y179" s="58">
-        <v>1</v>
-      </c>
-      <c r="Z179" s="58">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="AA179" s="58">
-        <v>1</v>
-      </c>
-      <c r="AB179" s="58">
-        <v>1</v>
-      </c>
-      <c r="AC179" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:29">
-      <c r="A180" s="51"/>
-      <c r="B180" s="51"/>
-      <c r="C180" s="51"/>
-      <c r="D180" s="51"/>
-      <c r="E180" s="51"/>
-      <c r="F180" s="51"/>
-      <c r="G180" s="51"/>
-      <c r="H180" s="51"/>
-      <c r="I180" s="51"/>
-      <c r="J180" s="51"/>
-      <c r="K180" s="51"/>
-      <c r="L180" s="51"/>
-      <c r="M180" s="51"/>
-      <c r="N180" s="51"/>
-      <c r="O180" s="51"/>
-      <c r="P180" s="51"/>
-      <c r="Q180" s="51"/>
-      <c r="R180" s="51"/>
-      <c r="S180" s="51"/>
-      <c r="T180" s="51"/>
-      <c r="U180" s="51"/>
-      <c r="V180" s="51"/>
-      <c r="W180" s="51"/>
-      <c r="X180" s="51"/>
-      <c r="Y180" s="51"/>
-      <c r="Z180" s="51"/>
-      <c r="AA180" s="51"/>
-      <c r="AB180" s="51"/>
-      <c r="AC180" s="51"/>
-    </row>
-    <row r="181" spans="1:29">
-      <c r="A181" s="51"/>
-      <c r="B181" s="51"/>
-      <c r="C181" s="51"/>
-      <c r="D181" s="51"/>
-      <c r="E181" s="51"/>
-      <c r="F181" s="51"/>
-      <c r="G181" s="51"/>
-      <c r="H181" s="51"/>
-      <c r="I181" s="51"/>
-      <c r="J181" s="51"/>
-      <c r="K181" s="51"/>
-      <c r="L181" s="51"/>
-      <c r="M181" s="51"/>
-      <c r="N181" s="51"/>
-      <c r="O181" s="51"/>
-      <c r="P181" s="51"/>
-      <c r="Q181" s="51"/>
-      <c r="R181" s="51"/>
-      <c r="S181" s="51"/>
-      <c r="T181" s="51"/>
-      <c r="U181" s="51"/>
-      <c r="V181" s="51"/>
-      <c r="W181" s="51"/>
-      <c r="X181" s="51"/>
-      <c r="Y181" s="51"/>
-      <c r="Z181" s="51"/>
-      <c r="AA181" s="51"/>
-      <c r="AB181" s="51"/>
-      <c r="AC181" s="51"/>
-    </row>
-    <row r="182" spans="1:29">
-      <c r="A182" s="51"/>
-      <c r="B182" s="51"/>
-      <c r="C182" s="51"/>
-      <c r="D182" s="51"/>
-      <c r="E182" s="51"/>
-      <c r="F182" s="51"/>
-      <c r="G182" s="51"/>
-      <c r="H182" s="51"/>
-      <c r="I182" s="51"/>
-      <c r="J182" s="51"/>
-      <c r="K182" s="51"/>
-      <c r="L182" s="51"/>
-      <c r="M182" s="51"/>
-      <c r="N182" s="51"/>
-      <c r="O182" s="51"/>
-      <c r="P182" s="51"/>
-      <c r="Q182" s="51"/>
-      <c r="R182" s="51"/>
-      <c r="S182" s="51"/>
-      <c r="T182" s="51"/>
-      <c r="U182" s="51"/>
-      <c r="V182" s="51"/>
-      <c r="W182" s="51"/>
-      <c r="X182" s="51"/>
-      <c r="Y182" s="51"/>
-      <c r="Z182" s="51"/>
-      <c r="AA182" s="51"/>
-      <c r="AB182" s="51"/>
-      <c r="AC182" s="51"/>
-    </row>
-    <row r="183" spans="1:29" ht="15.6">
-      <c r="A183" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="B183" s="50"/>
-      <c r="C183" s="50"/>
-      <c r="D183" s="51"/>
-      <c r="E183" s="51"/>
-      <c r="F183" s="51"/>
-      <c r="G183" s="51"/>
-      <c r="H183" s="51"/>
-      <c r="I183" s="51"/>
-      <c r="J183" s="51"/>
-      <c r="K183" s="51"/>
-      <c r="L183" s="51"/>
-      <c r="M183" s="51"/>
-      <c r="N183" s="51"/>
-      <c r="O183" s="51"/>
-      <c r="P183" s="51"/>
-      <c r="Q183" s="51"/>
-      <c r="R183" s="51"/>
-      <c r="S183" s="51"/>
-      <c r="T183" s="51"/>
-      <c r="U183" s="51"/>
-      <c r="V183" s="51"/>
-      <c r="W183" s="51"/>
-      <c r="X183" s="51"/>
-      <c r="Y183" s="51"/>
-      <c r="Z183" s="51"/>
-      <c r="AA183" s="51"/>
-      <c r="AB183" s="51"/>
-      <c r="AC183" s="51"/>
-    </row>
-    <row r="184" spans="1:29">
-      <c r="A184" s="52" t="s">
-        <v>203</v>
-      </c>
-      <c r="B184" s="52" t="s">
-        <v>204</v>
-      </c>
-      <c r="C184" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="D184" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="E184" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="F184" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="G184" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="H184" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="I184" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="J184" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="K184" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="L184" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="M184" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="N184" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="O184" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="P184" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q184" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="R184" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="S184" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="T184" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="U184" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="V184" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="W184" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="X184" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y184" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z184" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA184" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB184" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC184" s="53" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="185" spans="1:29">
-      <c r="A185" s="51" t="s">
-        <v>205</v>
-      </c>
-      <c r="B185" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="C185" s="54">
-        <v>0</v>
-      </c>
-      <c r="D185" s="54">
-        <v>0</v>
-      </c>
-      <c r="E185" s="54">
-        <v>0</v>
-      </c>
-      <c r="F185" s="54">
-        <v>0</v>
-      </c>
-      <c r="G185" s="54">
-        <v>0</v>
-      </c>
-      <c r="H185" s="54">
-        <v>0</v>
-      </c>
-      <c r="I185" s="54">
-        <v>0</v>
-      </c>
-      <c r="J185" s="54">
-        <v>0</v>
-      </c>
-      <c r="K185" s="54">
-        <v>0</v>
-      </c>
-      <c r="L185" s="54">
-        <v>0</v>
-      </c>
-      <c r="M185" s="54">
-        <v>0</v>
-      </c>
-      <c r="N185" s="54">
-        <v>0</v>
-      </c>
-      <c r="O185" s="54">
-        <v>0</v>
-      </c>
-      <c r="P185" s="54">
-        <v>0</v>
-      </c>
-      <c r="Q185" s="54">
-        <v>0</v>
-      </c>
-      <c r="R185" s="54">
-        <v>0</v>
-      </c>
-      <c r="S185" s="54">
-        <v>0</v>
-      </c>
-      <c r="T185" s="54">
-        <v>0</v>
-      </c>
-      <c r="U185" s="54">
-        <v>0</v>
-      </c>
-      <c r="V185" s="54">
-        <v>0</v>
-      </c>
-      <c r="W185" s="54">
-        <v>0</v>
-      </c>
-      <c r="X185" s="54">
-        <v>0</v>
-      </c>
-      <c r="Y185" s="54">
-        <v>0</v>
-      </c>
-      <c r="Z185" s="54">
-        <v>0</v>
-      </c>
-      <c r="AA185" s="54">
-        <v>0</v>
-      </c>
-      <c r="AB185" s="54">
-        <v>0</v>
-      </c>
-      <c r="AC185" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:29">
-      <c r="A186" s="51"/>
-      <c r="B186" s="51" t="s">
-        <v>207</v>
-      </c>
-      <c r="C186" s="54">
-        <v>0</v>
-      </c>
-      <c r="D186" s="54">
-        <v>0</v>
-      </c>
-      <c r="E186" s="54">
-        <v>0</v>
-      </c>
-      <c r="F186" s="54">
-        <v>0</v>
-      </c>
-      <c r="G186" s="54">
-        <v>0</v>
-      </c>
-      <c r="H186" s="54">
-        <v>0</v>
-      </c>
-      <c r="I186" s="54">
-        <v>0</v>
-      </c>
-      <c r="J186" s="54">
-        <v>0</v>
-      </c>
-      <c r="K186" s="54">
-        <v>0</v>
-      </c>
-      <c r="L186" s="54">
-        <v>0</v>
-      </c>
-      <c r="M186" s="54">
-        <v>0</v>
-      </c>
-      <c r="N186" s="54">
-        <v>0</v>
-      </c>
-      <c r="O186" s="54">
-        <v>0</v>
-      </c>
-      <c r="P186" s="54">
-        <v>0</v>
-      </c>
-      <c r="Q186" s="54">
-        <v>0</v>
-      </c>
-      <c r="R186" s="54">
-        <v>0</v>
-      </c>
-      <c r="S186" s="54">
-        <v>0</v>
-      </c>
-      <c r="T186" s="54">
-        <v>0</v>
-      </c>
-      <c r="U186" s="54">
-        <v>0</v>
-      </c>
-      <c r="V186" s="54">
-        <v>0</v>
-      </c>
-      <c r="W186" s="54">
-        <v>0</v>
-      </c>
-      <c r="X186" s="54">
-        <v>0</v>
-      </c>
-      <c r="Y186" s="54">
-        <v>0</v>
-      </c>
-      <c r="Z186" s="54">
-        <v>0</v>
-      </c>
-      <c r="AA186" s="54">
-        <v>0</v>
-      </c>
-      <c r="AB186" s="54">
-        <v>0</v>
-      </c>
-      <c r="AC186" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:29">
-      <c r="A187" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="B187" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="C187" s="54">
-        <v>0</v>
-      </c>
-      <c r="D187" s="54">
-        <v>0</v>
-      </c>
-      <c r="E187" s="54">
-        <v>0</v>
-      </c>
-      <c r="F187" s="54">
-        <v>0</v>
-      </c>
-      <c r="G187" s="54">
-        <v>0</v>
-      </c>
-      <c r="H187" s="54">
-        <v>0</v>
-      </c>
-      <c r="I187" s="54">
-        <v>0</v>
-      </c>
-      <c r="J187" s="54">
-        <v>0</v>
-      </c>
-      <c r="K187" s="54">
-        <v>0</v>
-      </c>
-      <c r="L187" s="54">
-        <v>0</v>
-      </c>
-      <c r="M187" s="54">
-        <v>0</v>
-      </c>
-      <c r="N187" s="54">
-        <v>0</v>
-      </c>
-      <c r="O187" s="54">
-        <v>0</v>
-      </c>
-      <c r="P187" s="54">
-        <v>0</v>
-      </c>
-      <c r="Q187" s="54">
-        <v>0</v>
-      </c>
-      <c r="R187" s="54">
-        <v>0</v>
-      </c>
-      <c r="S187" s="54">
-        <v>0</v>
-      </c>
-      <c r="T187" s="54">
-        <v>0</v>
-      </c>
-      <c r="U187" s="54">
-        <v>0</v>
-      </c>
-      <c r="V187" s="54">
-        <v>0</v>
-      </c>
-      <c r="W187" s="54">
-        <v>0</v>
-      </c>
-      <c r="X187" s="54">
-        <v>0</v>
-      </c>
-      <c r="Y187" s="54">
-        <v>0</v>
-      </c>
-      <c r="Z187" s="54">
-        <v>0</v>
-      </c>
-      <c r="AA187" s="54">
-        <v>0</v>
-      </c>
-      <c r="AB187" s="54">
-        <v>0</v>
-      </c>
-      <c r="AC187" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:29">
-      <c r="A188" s="51"/>
-      <c r="B188" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="C188" s="54">
-        <v>0.74108639947108168</v>
-      </c>
-      <c r="D188" s="54">
-        <v>0.79071880912169545</v>
-      </c>
-      <c r="E188" s="54">
-        <v>0.6386131571238467</v>
-      </c>
-      <c r="F188" s="54">
-        <v>0.75580744416441215</v>
-      </c>
-      <c r="G188" s="54">
-        <v>0.71320246300225565</v>
-      </c>
-      <c r="H188" s="54">
-        <v>0.78115676031065473</v>
-      </c>
-      <c r="I188" s="54">
-        <v>0.76642349622098382</v>
-      </c>
-      <c r="J188" s="54">
-        <v>0.74828496387185417</v>
-      </c>
-      <c r="K188" s="54">
-        <v>0.78640329755658556</v>
-      </c>
-      <c r="L188" s="54">
-        <v>0.74588309703681677</v>
-      </c>
-      <c r="M188" s="54">
-        <v>0.80172469534468704</v>
-      </c>
-      <c r="N188" s="54">
-        <v>0.79583426304303684</v>
-      </c>
-      <c r="O188" s="54">
-        <v>0.77907090765006382</v>
-      </c>
-      <c r="P188" s="54">
-        <v>0.80155723993574601</v>
-      </c>
-      <c r="Q188" s="54">
-        <v>0.78887154985237196</v>
-      </c>
-      <c r="R188" s="54">
-        <v>0.70533422841274862</v>
-      </c>
-      <c r="S188" s="54">
-        <v>0.78717070970762593</v>
-      </c>
-      <c r="T188" s="54">
-        <v>0.77916775606401434</v>
-      </c>
-      <c r="U188" s="54">
-        <v>0.80467495581567261</v>
-      </c>
-      <c r="V188" s="54">
-        <v>0.74505854970828844</v>
-      </c>
-      <c r="W188" s="54">
-        <v>0.79514890678426453</v>
-      </c>
-      <c r="X188" s="54">
-        <v>0.73736495113760858</v>
-      </c>
-      <c r="Y188" s="54">
-        <v>0.81853938082108479</v>
-      </c>
-      <c r="Z188" s="54">
-        <v>0.77998817627338324</v>
-      </c>
-      <c r="AA188" s="54">
-        <v>0.85154985463859412</v>
-      </c>
-      <c r="AB188" s="54">
-        <v>0.88006272796227247</v>
-      </c>
-      <c r="AC188" s="54">
-        <v>0.64231184378282558</v>
-      </c>
-    </row>
-    <row r="189" spans="1:29">
-      <c r="A189" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="B189" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="C189" s="54">
-        <v>1.214216695359136E-2</v>
-      </c>
-      <c r="D189" s="54">
-        <v>5.244564356444866E-3</v>
-      </c>
-      <c r="E189" s="54">
-        <v>2.5318479036608464E-2</v>
-      </c>
-      <c r="F189" s="54">
-        <v>1.0199545943263343E-2</v>
-      </c>
-      <c r="G189" s="54">
-        <v>5.4465670112681473E-3</v>
-      </c>
-      <c r="H189" s="54">
-        <v>7.3305854058422536E-3</v>
-      </c>
-      <c r="I189" s="54">
-        <v>6.327365203104513E-3</v>
-      </c>
-      <c r="J189" s="54">
-        <v>1.4553702960433654E-2</v>
-      </c>
-      <c r="K189" s="54">
-        <v>1.4378136289327563E-2</v>
-      </c>
-      <c r="L189" s="54">
-        <v>4.7655125577413509E-3</v>
-      </c>
-      <c r="M189" s="54">
-        <v>8.6002260738130814E-3</v>
-      </c>
-      <c r="N189" s="54">
-        <v>4.4354589246647135E-3</v>
-      </c>
-      <c r="O189" s="54">
-        <v>6.592434448494537E-3</v>
-      </c>
-      <c r="P189" s="54">
-        <v>7.3526877521562662E-3</v>
-      </c>
-      <c r="Q189" s="54">
-        <v>9.0159384819168999E-3</v>
-      </c>
-      <c r="R189" s="54">
-        <v>6.9712334769449829E-3</v>
-      </c>
-      <c r="S189" s="54">
-        <v>9.4394919428535985E-3</v>
-      </c>
-      <c r="T189" s="54">
-        <v>3.6138078846859318E-3</v>
-      </c>
-      <c r="U189" s="54">
-        <v>6.3123502546919919E-3</v>
-      </c>
-      <c r="V189" s="54">
-        <v>9.5979099500525071E-3</v>
-      </c>
-      <c r="W189" s="54">
-        <v>5.8735122381989901E-3</v>
-      </c>
-      <c r="X189" s="54">
-        <v>5.0103707288089395E-3</v>
-      </c>
-      <c r="Y189" s="54">
-        <v>4.3449135578945168E-3</v>
-      </c>
-      <c r="Z189" s="54">
-        <v>6.2553697184935773E-3</v>
-      </c>
-      <c r="AA189" s="54">
-        <v>6.8237115745591239E-3</v>
-      </c>
-      <c r="AB189" s="54">
-        <v>7.9379260453763534E-3</v>
-      </c>
-      <c r="AC189" s="54">
-        <v>2.7483693665086213E-3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:29">
-      <c r="A190" s="51"/>
-      <c r="B190" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="C190" s="54">
-        <v>0.1626965950818042</v>
-      </c>
-      <c r="D190" s="54">
-        <v>0.13109626623170204</v>
-      </c>
-      <c r="E190" s="54">
-        <v>0.23916819504950479</v>
-      </c>
-      <c r="F190" s="54">
-        <v>0.15479346868381608</v>
-      </c>
-      <c r="G190" s="54">
-        <v>0.20800029152740038</v>
-      </c>
-      <c r="H190" s="54">
-        <v>0.12724978858051844</v>
-      </c>
-      <c r="I190" s="54">
-        <v>0.14827744084788594</v>
-      </c>
-      <c r="J190" s="54">
-        <v>0.14551722418000443</v>
-      </c>
-      <c r="K190" s="54">
-        <v>0.11766218454461841</v>
-      </c>
-      <c r="L190" s="54">
-        <v>0.17371900154534914</v>
-      </c>
-      <c r="M190" s="54">
-        <v>0.11196687123703571</v>
-      </c>
-      <c r="N190" s="54">
-        <v>0.12599020808803368</v>
-      </c>
-      <c r="O190" s="54">
-        <v>0.13241927644257739</v>
-      </c>
-      <c r="P190" s="54">
-        <v>0.11487011188674058</v>
-      </c>
-      <c r="Q190" s="54">
-        <v>0.11670831913312733</v>
-      </c>
-      <c r="R190" s="54">
-        <v>0.2178213998684824</v>
-      </c>
-      <c r="S190" s="54">
-        <v>0.12016236232976817</v>
-      </c>
-      <c r="T190" s="54">
-        <v>0.14679096653005977</v>
-      </c>
-      <c r="U190" s="54">
-        <v>0.10758223700696061</v>
-      </c>
-      <c r="V190" s="54">
-        <v>0.1657308225029282</v>
-      </c>
-      <c r="W190" s="54">
-        <v>0.12234818626194599</v>
-      </c>
-      <c r="X190" s="54">
-        <v>0.18501691930313938</v>
-      </c>
-      <c r="Y190" s="54">
-        <v>0.10860805699514527</v>
-      </c>
-      <c r="Z190" s="54">
-        <v>0.13030246782805119</v>
-      </c>
-      <c r="AA190" s="54">
-        <v>5.0925275195199252E-2</v>
-      </c>
-      <c r="AB190" s="54">
-        <v>9.1008381034736394E-3</v>
-      </c>
-      <c r="AC190" s="54">
-        <v>0.28624951607603277</v>
-      </c>
-    </row>
-    <row r="191" spans="1:29">
-      <c r="A191" s="51"/>
-      <c r="B191" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="C191" s="54">
-        <v>0</v>
-      </c>
-      <c r="D191" s="54">
-        <v>0</v>
-      </c>
-      <c r="E191" s="54">
-        <v>0</v>
-      </c>
-      <c r="F191" s="54">
-        <v>0</v>
-      </c>
-      <c r="G191" s="54">
-        <v>0</v>
-      </c>
-      <c r="H191" s="54">
-        <v>0</v>
-      </c>
-      <c r="I191" s="54">
-        <v>0</v>
-      </c>
-      <c r="J191" s="54">
-        <v>0</v>
-      </c>
-      <c r="K191" s="54">
-        <v>0</v>
-      </c>
-      <c r="L191" s="54">
-        <v>0</v>
-      </c>
-      <c r="M191" s="54">
-        <v>0</v>
-      </c>
-      <c r="N191" s="54">
-        <v>0</v>
-      </c>
-      <c r="O191" s="54">
-        <v>0</v>
-      </c>
-      <c r="P191" s="54">
-        <v>0</v>
-      </c>
-      <c r="Q191" s="54">
-        <v>0</v>
-      </c>
-      <c r="R191" s="54">
-        <v>0</v>
-      </c>
-      <c r="S191" s="54">
-        <v>0</v>
-      </c>
-      <c r="T191" s="54">
-        <v>0</v>
-      </c>
-      <c r="U191" s="54">
-        <v>0</v>
-      </c>
-      <c r="V191" s="54">
-        <v>0</v>
-      </c>
-      <c r="W191" s="54">
-        <v>0</v>
-      </c>
-      <c r="X191" s="54">
-        <v>0</v>
-      </c>
-      <c r="Y191" s="54">
-        <v>0</v>
-      </c>
-      <c r="Z191" s="54">
-        <v>0</v>
-      </c>
-      <c r="AA191" s="54">
-        <v>0</v>
-      </c>
-      <c r="AB191" s="54">
-        <v>0</v>
-      </c>
-      <c r="AC191" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:29">
-      <c r="A192" s="51"/>
-      <c r="B192" s="51" t="s">
-        <v>215</v>
-      </c>
-      <c r="C192" s="54">
-        <v>8.4074838493522847E-2</v>
-      </c>
-      <c r="D192" s="54">
-        <v>7.2940360290157685E-2</v>
-      </c>
-      <c r="E192" s="54">
-        <v>9.6900168790040125E-2</v>
-      </c>
-      <c r="F192" s="54">
-        <v>7.91995412085085E-2</v>
-      </c>
-      <c r="G192" s="54">
-        <v>7.3350678459075919E-2</v>
-      </c>
-      <c r="H192" s="54">
-        <v>8.426286570298451E-2</v>
-      </c>
-      <c r="I192" s="54">
-        <v>7.8971697728025606E-2</v>
-      </c>
-      <c r="J192" s="54">
-        <v>9.1644108987707917E-2</v>
-      </c>
-      <c r="K192" s="54">
-        <v>8.1556381609468237E-2</v>
-      </c>
-      <c r="L192" s="54">
-        <v>7.5632388860092645E-2</v>
-      </c>
-      <c r="M192" s="54">
-        <v>7.7708207344464181E-2</v>
-      </c>
-      <c r="N192" s="54">
-        <v>7.3740069944264783E-2</v>
-      </c>
-      <c r="O192" s="54">
-        <v>8.1917381458864319E-2</v>
-      </c>
-      <c r="P192" s="54">
-        <v>7.6219960425357156E-2</v>
-      </c>
-      <c r="Q192" s="54">
-        <v>8.5404192532583911E-2</v>
-      </c>
-      <c r="R192" s="54">
-        <v>6.987313824182402E-2</v>
-      </c>
-      <c r="S192" s="54">
-        <v>8.3227436019752521E-2</v>
-      </c>
-      <c r="T192" s="54">
-        <v>7.0427469521239974E-2</v>
-      </c>
-      <c r="U192" s="54">
-        <v>8.1430456922674907E-2</v>
-      </c>
-      <c r="V192" s="54">
-        <v>7.9612717838730945E-2</v>
-      </c>
-      <c r="W192" s="54">
-        <v>7.6629394715590618E-2</v>
-      </c>
-      <c r="X192" s="54">
-        <v>7.2607758830443E-2</v>
-      </c>
-      <c r="Y192" s="54">
-        <v>6.8507648625875522E-2</v>
-      </c>
-      <c r="Z192" s="54">
-        <v>8.3453986180072076E-2</v>
-      </c>
-      <c r="AA192" s="54">
-        <v>9.070115859164736E-2</v>
-      </c>
-      <c r="AB192" s="54">
-        <v>0.10289850788887757</v>
-      </c>
-      <c r="AC192" s="54">
-        <v>6.8690270774633036E-2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:29">
-      <c r="A193" s="56"/>
-      <c r="B193" s="57" t="s">
-        <v>216</v>
-      </c>
-      <c r="C193" s="58">
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="D193" s="58">
-        <v>1</v>
-      </c>
-      <c r="E193" s="58">
-        <v>1</v>
-      </c>
-      <c r="F193" s="58">
-        <v>1</v>
-      </c>
-      <c r="G193" s="58">
-        <v>1</v>
-      </c>
-      <c r="H193" s="58">
-        <v>1</v>
-      </c>
-      <c r="I193" s="58">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="J193" s="58">
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="K193" s="58">
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="L193" s="58">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="M193" s="58">
-        <v>1</v>
-      </c>
-      <c r="N193" s="58">
-        <v>1</v>
-      </c>
-      <c r="O193" s="58">
-        <v>1</v>
-      </c>
-      <c r="P193" s="58">
-        <v>1</v>
-      </c>
-      <c r="Q193" s="58">
-        <v>1</v>
-      </c>
-      <c r="R193" s="58">
-        <v>1</v>
-      </c>
-      <c r="S193" s="58">
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="T193" s="58">
-        <v>1</v>
-      </c>
-      <c r="U193" s="58">
-        <v>1</v>
-      </c>
-      <c r="V193" s="58">
-        <v>1</v>
-      </c>
-      <c r="W193" s="58">
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="X193" s="58">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="Y193" s="58">
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="Z193" s="58">
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="AA193" s="58">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="AB193" s="58">
-        <v>1</v>
-      </c>
-      <c r="AC193" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:29" ht="15.6">
-      <c r="A199" s="50" t="s">
-        <v>228</v>
-      </c>
-      <c r="B199" s="51"/>
-      <c r="C199" s="51"/>
-      <c r="D199" s="51"/>
-      <c r="E199" s="51"/>
-      <c r="F199" s="51"/>
-      <c r="G199" s="51"/>
-      <c r="H199" s="51"/>
-      <c r="I199" s="51"/>
-      <c r="J199" s="51"/>
-      <c r="K199" s="51"/>
-      <c r="L199" s="51"/>
-      <c r="M199" s="51"/>
-      <c r="N199" s="51"/>
-      <c r="O199" s="51"/>
-      <c r="P199" s="51"/>
-      <c r="Q199" s="51"/>
-      <c r="R199" s="51"/>
-      <c r="S199" s="51"/>
-      <c r="T199" s="51"/>
-      <c r="U199" s="51"/>
-      <c r="V199" s="51"/>
-      <c r="W199" s="51"/>
-      <c r="X199" s="51"/>
-      <c r="Y199" s="51"/>
-      <c r="Z199" s="51"/>
-      <c r="AA199" s="51"/>
-      <c r="AB199" s="51"/>
-      <c r="AC199" s="51"/>
-    </row>
-    <row r="200" spans="1:29">
-      <c r="A200" s="52" t="s">
-        <v>229</v>
-      </c>
-      <c r="B200" s="52" t="s">
-        <v>230</v>
-      </c>
-      <c r="C200" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="D200" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="E200" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="F200" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="G200" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="H200" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="I200" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="J200" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="K200" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="L200" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="M200" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="N200" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="O200" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="P200" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q200" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="R200" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="S200" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="T200" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="U200" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="V200" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="W200" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="X200" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y200" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z200" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA200" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB200" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC200" s="52" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="201" spans="1:29">
-      <c r="A201" s="63" t="s">
-        <v>231</v>
-      </c>
-      <c r="B201" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="C201" s="51">
-        <v>292</v>
-      </c>
-      <c r="D201" s="64">
-        <v>4.5036639360040285</v>
-      </c>
-      <c r="E201" s="64">
-        <v>66.545424955208503</v>
-      </c>
-      <c r="F201" s="64">
-        <v>12.206547657003652</v>
-      </c>
-      <c r="G201" s="64">
-        <v>7.8498485859894576</v>
-      </c>
-      <c r="H201" s="64">
-        <v>5.5910693087846983</v>
-      </c>
-      <c r="I201" s="64">
-        <v>2.6981330608871263</v>
-      </c>
-      <c r="J201" s="64">
-        <v>7.0705636223405346</v>
-      </c>
-      <c r="K201" s="64">
-        <v>10.700094745319726</v>
-      </c>
-      <c r="L201" s="64">
-        <v>5.146408425117345</v>
-      </c>
-      <c r="M201" s="64">
-        <v>5.8599386346720381</v>
-      </c>
-      <c r="N201" s="64">
-        <v>11.843911540546534</v>
-      </c>
-      <c r="O201" s="64">
-        <v>7.8134215566854737</v>
-      </c>
-      <c r="P201" s="64">
-        <v>7.688817017013525</v>
-      </c>
-      <c r="Q201" s="64">
-        <v>41.139368114561577</v>
-      </c>
-      <c r="R201" s="64">
-        <v>11.193462584085903</v>
-      </c>
-      <c r="S201" s="64">
-        <v>12.61219141872728</v>
-      </c>
-      <c r="T201" s="64">
-        <v>10.324901499916336</v>
-      </c>
-      <c r="U201" s="64">
-        <v>9.1902209904658907</v>
-      </c>
-      <c r="V201" s="64">
-        <v>15.314016005661671</v>
-      </c>
-      <c r="W201" s="64">
-        <v>2.0423414488510581</v>
-      </c>
-      <c r="X201" s="64">
-        <v>7.7447174156619347</v>
-      </c>
-      <c r="Y201" s="64">
-        <v>3.830254629073413</v>
-      </c>
-      <c r="Z201" s="64">
-        <v>4.1769082152806787</v>
-      </c>
-      <c r="AA201" s="64">
-        <v>4.8551180316963602</v>
-      </c>
-      <c r="AB201" s="64">
-        <v>10.146187115388139</v>
-      </c>
-      <c r="AC201" s="64">
-        <v>3.9124694850571404</v>
-      </c>
-    </row>
-    <row r="202" spans="1:29">
-      <c r="A202" s="63" t="s">
-        <v>233</v>
-      </c>
-      <c r="B202" s="51" t="s">
-        <v>234</v>
-      </c>
-      <c r="C202" s="65">
-        <v>1140</v>
-      </c>
-      <c r="D202" s="64">
-        <v>17.58279755837189</v>
-      </c>
-      <c r="E202" s="64">
-        <v>259.80063167444416</v>
-      </c>
-      <c r="F202" s="64">
-        <v>47.65569975679508</v>
-      </c>
-      <c r="G202" s="64">
-        <v>30.646669137082128</v>
-      </c>
-      <c r="H202" s="64">
-        <v>21.828147301419712</v>
-      </c>
-      <c r="I202" s="64">
-        <v>10.533807155518234</v>
-      </c>
-      <c r="J202" s="64">
-        <v>27.604255237904827</v>
-      </c>
-      <c r="K202" s="64">
-        <v>41.774342498850984</v>
-      </c>
-      <c r="L202" s="64">
-        <v>20.09214248162251</v>
-      </c>
-      <c r="M202" s="64">
-        <v>22.877842614815492</v>
-      </c>
-      <c r="N202" s="64">
-        <v>46.239928617202224</v>
-      </c>
-      <c r="O202" s="64">
-        <v>30.504454022676164</v>
-      </c>
-      <c r="P202" s="64">
-        <v>30.017984244504856</v>
-      </c>
-      <c r="Q202" s="64">
-        <v>160.61260154315136</v>
-      </c>
-      <c r="R202" s="64">
-        <v>43.700504609102502</v>
-      </c>
-      <c r="S202" s="64">
-        <v>49.239377456675001</v>
-      </c>
-      <c r="T202" s="64">
-        <v>40.309546951728159</v>
-      </c>
-      <c r="U202" s="64">
-        <v>35.879629894284641</v>
-      </c>
-      <c r="V202" s="64">
-        <v>59.787596734432547</v>
-      </c>
-      <c r="W202" s="64">
-        <v>7.9735248345555005</v>
-      </c>
-      <c r="X202" s="64">
-        <v>30.236225526899336</v>
-      </c>
-      <c r="Y202" s="64">
-        <v>14.953733825834558</v>
-      </c>
-      <c r="Z202" s="64">
-        <v>16.307107415821825</v>
-      </c>
-      <c r="AA202" s="64">
-        <v>18.954912863472092</v>
-      </c>
-      <c r="AB202" s="64">
-        <v>39.611826409392052</v>
-      </c>
-      <c r="AC202" s="64">
-        <v>15.27470963344226</v>
-      </c>
-    </row>
-    <row r="203" spans="1:29">
-      <c r="A203" s="63" t="s">
-        <v>235</v>
-      </c>
-      <c r="B203" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="C203" s="51">
-        <v>10106</v>
-      </c>
-      <c r="D203" s="64">
-        <v>155.86995800430381</v>
-      </c>
-      <c r="E203" s="64">
-        <v>2303.1098102648534</v>
-      </c>
-      <c r="F203" s="64">
-        <v>422.46359801944828</v>
-      </c>
-      <c r="G203" s="64">
-        <v>271.68003359592279</v>
-      </c>
-      <c r="H203" s="64">
-        <v>193.50461107732247</v>
-      </c>
-      <c r="I203" s="64">
-        <v>93.381276415497609</v>
-      </c>
-      <c r="J203" s="64">
-        <v>244.70930125812822</v>
-      </c>
-      <c r="K203" s="64">
-        <v>370.32588183630531</v>
-      </c>
-      <c r="L203" s="64">
-        <v>178.11508063094482</v>
-      </c>
-      <c r="M203" s="64">
-        <v>202.81006795203979</v>
-      </c>
-      <c r="N203" s="64">
-        <v>409.91291105740851</v>
-      </c>
-      <c r="O203" s="64">
-        <v>270.41930908172395</v>
-      </c>
-      <c r="P203" s="64">
-        <v>266.10679717102289</v>
-      </c>
-      <c r="Q203" s="64">
-        <v>1423.8166238553399</v>
-      </c>
-      <c r="R203" s="64">
-        <v>387.40113998209637</v>
-      </c>
-      <c r="S203" s="64">
-        <v>436.5027619097873</v>
-      </c>
-      <c r="T203" s="64">
-        <v>357.34059780189892</v>
-      </c>
-      <c r="U203" s="64">
-        <v>318.06977167687774</v>
-      </c>
-      <c r="V203" s="64">
-        <v>530.01180052471523</v>
-      </c>
-      <c r="W203" s="64">
-        <v>70.684598226331474</v>
-      </c>
-      <c r="X203" s="64">
-        <v>268.04148699547778</v>
-      </c>
-      <c r="Y203" s="64">
-        <v>132.563538634986</v>
-      </c>
-      <c r="Z203" s="64">
-        <v>144.56107679324157</v>
-      </c>
-      <c r="AA203" s="64">
-        <v>168.03363982302542</v>
-      </c>
-      <c r="AB203" s="64">
-        <v>351.15536639764571</v>
-      </c>
-      <c r="AC203" s="64">
-        <v>135.4089610136557</v>
-      </c>
-    </row>
-    <row r="204" spans="1:29">
-      <c r="A204" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="B204" s="51"/>
-      <c r="C204" s="76">
-        <v>88.551000000000002</v>
-      </c>
-      <c r="D204" s="76">
-        <v>0</v>
-      </c>
-      <c r="E204" s="76">
-        <v>28.462821428571431</v>
-      </c>
-      <c r="F204" s="76">
-        <v>0</v>
-      </c>
-      <c r="G204" s="76">
-        <v>0</v>
-      </c>
-      <c r="H204" s="76">
-        <v>0</v>
-      </c>
-      <c r="I204" s="76">
-        <v>0</v>
-      </c>
-      <c r="J204" s="76">
-        <v>0</v>
-      </c>
-      <c r="K204" s="76">
-        <v>9.4876071428571436</v>
-      </c>
-      <c r="L204" s="76">
-        <v>0</v>
-      </c>
-      <c r="M204" s="76">
-        <v>0</v>
-      </c>
-      <c r="N204" s="76">
-        <v>0</v>
-      </c>
-      <c r="O204" s="76">
-        <v>0</v>
-      </c>
-      <c r="P204" s="76">
-        <v>0</v>
-      </c>
-      <c r="Q204" s="76">
-        <v>0</v>
-      </c>
-      <c r="R204" s="76">
-        <v>0</v>
-      </c>
-      <c r="S204" s="76">
-        <v>0</v>
-      </c>
-      <c r="T204" s="76">
-        <v>0</v>
-      </c>
-      <c r="U204" s="76">
-        <v>15.812678571428572</v>
-      </c>
-      <c r="V204" s="76">
-        <v>0</v>
-      </c>
-      <c r="W204" s="76">
-        <v>0</v>
-      </c>
-      <c r="X204" s="76">
-        <v>34.787892857142857</v>
-      </c>
-      <c r="Y204" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z204" s="76">
-        <v>0</v>
-      </c>
-      <c r="AA204" s="76">
-        <v>0</v>
-      </c>
-      <c r="AB204" s="76">
-        <v>0</v>
-      </c>
-      <c r="AC204" s="76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:29">
-      <c r="A205" s="57"/>
-      <c r="B205" s="57" t="s">
-        <v>216</v>
-      </c>
-      <c r="C205" s="66">
-        <f>SUM(C201:C204)</f>
-        <v>11626.550999999999</v>
-      </c>
-      <c r="D205" s="66">
-        <f t="shared" ref="D205:AC205" si="32">SUM(D201:D204)</f>
-        <v>177.95641949867974</v>
-      </c>
-      <c r="E205" s="66">
-        <f t="shared" si="32"/>
-        <v>2657.9186883230773</v>
-      </c>
-      <c r="F205" s="66">
-        <f t="shared" si="32"/>
-        <v>482.32584543324703</v>
-      </c>
-      <c r="G205" s="66">
-        <f t="shared" si="32"/>
-        <v>310.17655131899437</v>
-      </c>
-      <c r="H205" s="66">
-        <f t="shared" si="32"/>
-        <v>220.92382768752688</v>
-      </c>
-      <c r="I205" s="66">
-        <f t="shared" si="32"/>
-        <v>106.61321663190297</v>
-      </c>
-      <c r="J205" s="66">
-        <f t="shared" si="32"/>
-        <v>279.38412011837357</v>
-      </c>
-      <c r="K205" s="66">
-        <f t="shared" si="32"/>
-        <v>432.28792622333316</v>
-      </c>
-      <c r="L205" s="66">
-        <f t="shared" si="32"/>
-        <v>203.35363153768466</v>
-      </c>
-      <c r="M205" s="66">
-        <f t="shared" si="32"/>
-        <v>231.54784920152733</v>
-      </c>
-      <c r="N205" s="66">
-        <f t="shared" si="32"/>
-        <v>467.99675121515725</v>
-      </c>
-      <c r="O205" s="66">
-        <f t="shared" si="32"/>
-        <v>308.73718466108562</v>
-      </c>
-      <c r="P205" s="66">
-        <f t="shared" si="32"/>
-        <v>303.81359843254126</v>
-      </c>
-      <c r="Q205" s="66">
-        <f t="shared" si="32"/>
-        <v>1625.5685935130527</v>
-      </c>
-      <c r="R205" s="66">
-        <f t="shared" si="32"/>
-        <v>442.29510717528478</v>
-      </c>
-      <c r="S205" s="66">
-        <f t="shared" si="32"/>
-        <v>498.35433078518957</v>
-      </c>
-      <c r="T205" s="66">
-        <f t="shared" si="32"/>
-        <v>407.97504625354344</v>
-      </c>
-      <c r="U205" s="66">
-        <f t="shared" si="32"/>
-        <v>378.95230113305684</v>
-      </c>
-      <c r="V205" s="66">
-        <f t="shared" si="32"/>
-        <v>605.11341326480942</v>
-      </c>
-      <c r="W205" s="66">
-        <f t="shared" si="32"/>
-        <v>80.700464509738026</v>
-      </c>
-      <c r="X205" s="66">
-        <f t="shared" si="32"/>
-        <v>340.81032279518195</v>
-      </c>
-      <c r="Y205" s="66">
-        <f t="shared" si="32"/>
-        <v>151.34752708989396</v>
-      </c>
-      <c r="Z205" s="66">
-        <f t="shared" si="32"/>
-        <v>165.04509242434406</v>
-      </c>
-      <c r="AA205" s="66">
-        <f t="shared" si="32"/>
-        <v>191.84367071819389</v>
-      </c>
-      <c r="AB205" s="66">
-        <f t="shared" si="32"/>
-        <v>400.91337992242592</v>
-      </c>
-      <c r="AC205" s="66">
-        <f t="shared" si="32"/>
-        <v>154.59614013215509</v>
-      </c>
-    </row>
-    <row r="218" spans="1:29" ht="15.6">
-      <c r="A218" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="B218" s="15"/>
-      <c r="C218" s="15"/>
-      <c r="D218" s="15"/>
-      <c r="E218" s="15"/>
-      <c r="F218" s="15"/>
-      <c r="G218" s="15"/>
-      <c r="H218" s="15"/>
-      <c r="I218" s="15"/>
-      <c r="J218" s="15"/>
-      <c r="K218" s="15"/>
-      <c r="L218" s="15"/>
-      <c r="M218" s="15"/>
-      <c r="N218" s="15"/>
-      <c r="O218" s="15"/>
-      <c r="P218" s="15"/>
-      <c r="Q218" s="15"/>
-      <c r="R218" s="15"/>
-      <c r="S218" s="15"/>
-      <c r="T218" s="15"/>
-      <c r="U218" s="15"/>
-      <c r="V218" s="15"/>
-      <c r="W218" s="15"/>
-      <c r="X218" s="15"/>
-      <c r="Y218" s="15"/>
-      <c r="Z218" s="15"/>
-      <c r="AA218" s="15"/>
-      <c r="AB218" s="15"/>
-      <c r="AC218" s="15"/>
-    </row>
-    <row r="219" spans="1:29" ht="17.399999999999999">
-      <c r="A219" s="70" t="s">
-        <v>229</v>
-      </c>
-      <c r="B219" s="70" t="s">
-        <v>248</v>
-      </c>
-      <c r="C219" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="D219" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="E219" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="F219" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="G219" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="H219" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="I219" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="J219" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="K219" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="L219" s="71" t="s">
-        <v>108</v>
-      </c>
-      <c r="M219" s="71" t="s">
-        <v>113</v>
-      </c>
-      <c r="N219" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="O219" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="P219" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q219" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="R219" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="S219" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="T219" s="71" t="s">
-        <v>111</v>
-      </c>
-      <c r="U219" s="71" t="s">
-        <v>112</v>
-      </c>
-      <c r="V219" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="W219" s="71" t="s">
-        <v>101</v>
-      </c>
-      <c r="X219" s="71" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y219" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z219" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA219" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB219" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC219" s="71" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="220" spans="1:29">
-      <c r="A220" s="75" t="s">
-        <v>231</v>
-      </c>
-      <c r="B220" s="69" t="s">
-        <v>232</v>
-      </c>
-      <c r="C220" s="72">
-        <f>C201/C205</f>
-        <v>2.5114928752301521E-2</v>
-      </c>
-      <c r="D220" s="72">
-        <f t="shared" ref="D220:AC220" si="33">D201/D205</f>
-        <v>2.5307678973825617E-2</v>
-      </c>
-      <c r="E220" s="72">
-        <f t="shared" si="33"/>
-        <v>2.5036666940775776E-2</v>
-      </c>
-      <c r="F220" s="72">
-        <f t="shared" si="33"/>
-        <v>2.5307678973825621E-2</v>
-      </c>
-      <c r="G220" s="72">
-        <f t="shared" si="33"/>
-        <v>2.5307678973825621E-2</v>
-      </c>
-      <c r="H220" s="72">
-        <f t="shared" si="33"/>
-        <v>2.5307678973825621E-2</v>
-      </c>
-      <c r="I220" s="72">
-        <f t="shared" si="33"/>
-        <v>2.5307678973825617E-2</v>
-      </c>
-      <c r="J220" s="72">
-        <f t="shared" si="33"/>
-        <v>2.5307678973825621E-2</v>
-      </c>
-      <c r="K220" s="72">
-        <f t="shared" si="33"/>
-        <v>2.475224056984587E-2</v>
-      </c>
-      <c r="L220" s="72">
-        <f t="shared" si="33"/>
-        <v>2.5307678973825621E-2</v>
-      </c>
-      <c r="M220" s="72">
-        <f t="shared" si="33"/>
-        <v>2.5307678973825617E-2</v>
-      </c>
-      <c r="N220" s="72">
-        <f t="shared" si="33"/>
-        <v>2.5307678973825617E-2</v>
-      </c>
-      <c r="O220" s="72">
-        <f t="shared" si="33"/>
-        <v>2.5307678973825617E-2</v>
-      </c>
-      <c r="P220" s="72">
-        <f t="shared" si="33"/>
-        <v>2.5307678973825621E-2</v>
-      </c>
-      <c r="Q220" s="72">
-        <f t="shared" si="33"/>
-        <v>2.5307678973825624E-2</v>
-      </c>
-      <c r="R220" s="72">
-        <f t="shared" si="33"/>
-        <v>2.5307678973825617E-2</v>
-      </c>
-      <c r="S220" s="72">
-        <f t="shared" si="33"/>
-        <v>2.5307678973825617E-2</v>
-      </c>
-      <c r="T220" s="72">
-        <f t="shared" si="33"/>
-        <v>2.5307678973825621E-2</v>
-      </c>
-      <c r="U220" s="72">
-        <f t="shared" si="33"/>
-        <v>2.4251656377299691E-2</v>
-      </c>
-      <c r="V220" s="72">
-        <f t="shared" si="33"/>
-        <v>2.5307678973825621E-2</v>
-      </c>
-      <c r="W220" s="72">
-        <f t="shared" si="33"/>
-        <v>2.5307678973825624E-2</v>
-      </c>
-      <c r="X220" s="72">
-        <f t="shared" si="33"/>
-        <v>2.2724421467469183E-2</v>
-      </c>
-      <c r="Y220" s="72">
-        <f t="shared" si="33"/>
-        <v>2.5307678973825621E-2</v>
-      </c>
-      <c r="Z220" s="72">
-        <f t="shared" si="33"/>
-        <v>2.5307678973825621E-2</v>
-      </c>
-      <c r="AA220" s="72">
-        <f t="shared" si="33"/>
-        <v>2.5307678973825614E-2</v>
-      </c>
-      <c r="AB220" s="72">
-        <f t="shared" si="33"/>
-        <v>2.5307678973825617E-2</v>
-      </c>
-      <c r="AC220" s="72">
-        <f t="shared" si="33"/>
-        <v>2.5307678973825621E-2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:29">
-      <c r="A221" s="75" t="s">
-        <v>233</v>
-      </c>
-      <c r="B221" s="69" t="s">
-        <v>234</v>
-      </c>
-      <c r="C221" s="72">
-        <f>C202/C205</f>
-        <v>9.8051434169944301E-2</v>
-      </c>
-      <c r="D221" s="72">
-        <f t="shared" ref="D221:AC221" si="34">D202/D205</f>
-        <v>9.8803952158086308E-2</v>
-      </c>
-      <c r="E221" s="72">
-        <f t="shared" si="34"/>
-        <v>9.7745891481110916E-2</v>
-      </c>
-      <c r="F221" s="72">
-        <f t="shared" si="34"/>
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="G221" s="72">
-        <f t="shared" si="34"/>
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="H221" s="72">
-        <f t="shared" si="34"/>
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="I221" s="72">
-        <f t="shared" si="34"/>
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="J221" s="72">
-        <f t="shared" si="34"/>
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="K221" s="72">
-        <f t="shared" si="34"/>
-        <v>9.663545975898731E-2</v>
-      </c>
-      <c r="L221" s="72">
-        <f t="shared" si="34"/>
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="M221" s="72">
-        <f t="shared" si="34"/>
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="N221" s="72">
-        <f t="shared" si="34"/>
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="O221" s="72">
-        <f t="shared" si="34"/>
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="P221" s="72">
-        <f t="shared" si="34"/>
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="Q221" s="72">
-        <f t="shared" si="34"/>
-        <v>9.8803952158086336E-2</v>
-      </c>
-      <c r="R221" s="72">
-        <f t="shared" si="34"/>
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="S221" s="72">
-        <f t="shared" si="34"/>
-        <v>9.8803952158086336E-2</v>
-      </c>
-      <c r="T221" s="72">
-        <f t="shared" si="34"/>
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="U221" s="72">
-        <f t="shared" si="34"/>
-        <v>9.4681124212745368E-2</v>
-      </c>
-      <c r="V221" s="72">
-        <f t="shared" si="34"/>
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="W221" s="72">
-        <f t="shared" si="34"/>
-        <v>9.8803952158086336E-2</v>
-      </c>
-      <c r="X221" s="72">
-        <f t="shared" si="34"/>
-        <v>8.8718631756557781E-2</v>
-      </c>
-      <c r="Y221" s="72">
-        <f t="shared" si="34"/>
-        <v>9.8803952158086336E-2</v>
-      </c>
-      <c r="Z221" s="72">
-        <f t="shared" si="34"/>
-        <v>9.8803952158086322E-2</v>
-      </c>
-      <c r="AA221" s="72">
-        <f t="shared" si="34"/>
-        <v>9.8803952158086308E-2</v>
-      </c>
-      <c r="AB221" s="72">
-        <f t="shared" si="34"/>
-        <v>9.8803952158086308E-2</v>
-      </c>
-      <c r="AC221" s="72">
-        <f t="shared" si="34"/>
-        <v>9.8803952158086322E-2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:29">
-      <c r="A222" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="B222" s="69" t="s">
-        <v>236</v>
-      </c>
-      <c r="C222" s="72">
-        <f>C203/C205</f>
-        <v>0.86921736291355889</v>
-      </c>
-      <c r="D222" s="72">
-        <f t="shared" ref="D222:AC222" si="35">D203/D205</f>
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="E222" s="72">
-        <f t="shared" si="35"/>
-        <v>0.86650875377904113</v>
-      </c>
-      <c r="F222" s="72">
-        <f t="shared" si="35"/>
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="G222" s="72">
-        <f t="shared" si="35"/>
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="H222" s="72">
-        <f t="shared" si="35"/>
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="I222" s="72">
-        <f t="shared" si="35"/>
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="J222" s="72">
-        <f>J203/J205</f>
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="K222" s="72">
-        <f t="shared" si="35"/>
-        <v>0.85666487396870683</v>
-      </c>
-      <c r="L222" s="72">
-        <f t="shared" si="35"/>
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="M222" s="72">
-        <f t="shared" si="35"/>
-        <v>0.87588836886808796</v>
-      </c>
-      <c r="N222" s="72">
-        <f t="shared" si="35"/>
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="O222" s="72">
-        <f t="shared" si="35"/>
-        <v>0.87588836886808796</v>
-      </c>
-      <c r="P222" s="72">
-        <f t="shared" si="35"/>
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="Q222" s="72">
-        <f t="shared" si="35"/>
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="R222" s="72">
-        <f t="shared" si="35"/>
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="S222" s="72">
-        <f t="shared" si="35"/>
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="T222" s="72">
-        <f t="shared" si="35"/>
-        <v>0.87588836886808796</v>
-      </c>
-      <c r="U222" s="72">
-        <f t="shared" si="35"/>
-        <v>0.83933986078421474</v>
-      </c>
-      <c r="V222" s="72">
-        <f t="shared" si="35"/>
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="W222" s="72">
-        <f t="shared" si="35"/>
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="X222" s="72">
-        <f t="shared" si="35"/>
-        <v>0.78648288818576562</v>
-      </c>
-      <c r="Y222" s="72">
-        <f t="shared" si="35"/>
-        <v>0.87588836886808819</v>
-      </c>
-      <c r="Z222" s="72">
-        <f t="shared" si="35"/>
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="AA222" s="72">
-        <f t="shared" si="35"/>
-        <v>0.87588836886808796</v>
-      </c>
-      <c r="AB222" s="72">
-        <f t="shared" si="35"/>
-        <v>0.87588836886808807</v>
-      </c>
-      <c r="AC222" s="72">
-        <f t="shared" si="35"/>
-        <v>0.87588836886808819</v>
-      </c>
-    </row>
-    <row r="223" spans="1:29">
-      <c r="A223" s="75" t="s">
-        <v>164</v>
-      </c>
-      <c r="B223" s="69" t="s">
-        <v>249</v>
-      </c>
-      <c r="C223" s="77">
-        <f>C204/C205</f>
-        <v>7.616274164195384E-3</v>
-      </c>
-      <c r="D223" s="72">
-        <f t="shared" ref="D223:AC223" si="36">D204/D205</f>
-        <v>0</v>
-      </c>
-      <c r="E223" s="72">
-        <f t="shared" si="36"/>
-        <v>1.070868779907224E-2</v>
-      </c>
-      <c r="F223" s="72">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="G223" s="72">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="H223" s="72">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="I223" s="72">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="J223" s="72">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="K223" s="72">
-        <f t="shared" si="36"/>
-        <v>2.1947425702460069E-2</v>
-      </c>
-      <c r="L223" s="72">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="M223" s="72">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="N223" s="72">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="O223" s="72">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="P223" s="72">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="Q223" s="72">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="R223" s="72">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="S223" s="72">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="T223" s="72">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="U223" s="72">
-        <f t="shared" si="36"/>
-        <v>4.1727358625740237E-2</v>
-      </c>
-      <c r="V223" s="72">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="W223" s="72">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="X223" s="72">
-        <f t="shared" si="36"/>
-        <v>0.10207405859020728</v>
-      </c>
-      <c r="Y223" s="72">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="Z223" s="72">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="AA223" s="72">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="AB223" s="72">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="AC223" s="72">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:29">
-      <c r="A224" s="73"/>
-      <c r="B224" s="73" t="s">
-        <v>216</v>
-      </c>
-      <c r="C224" s="74">
-        <f>SUM(C220:C223)</f>
-        <v>1</v>
-      </c>
-      <c r="D224" s="74">
-        <f t="shared" ref="D224:AC224" si="37">SUM(D220:D223)</f>
-        <v>1</v>
-      </c>
-      <c r="E224" s="74">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="F224" s="74">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="G224" s="74">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="H224" s="74">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="I224" s="74">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="J224" s="74">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="K224" s="74">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="L224" s="74">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="M224" s="74">
-        <f t="shared" si="37"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="N224" s="74">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="O224" s="74">
-        <f t="shared" si="37"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="P224" s="74">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="Q224" s="74">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="R224" s="74">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="S224" s="74">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="T224" s="74">
-        <f t="shared" si="37"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="U224" s="74">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="V224" s="74">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="W224" s="74">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="X224" s="74">
-        <f t="shared" si="37"/>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="Y224" s="74">
-        <f t="shared" si="37"/>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="Z224" s="74">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="AA224" s="74">
-        <f t="shared" si="37"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="AB224" s="74">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="AC224" s="74">
-        <f t="shared" si="37"/>
-        <v>1.0000000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -14541,7 +11970,7 @@
     <mergeCell ref="H4:Q4"/>
     <mergeCell ref="H3:Q3"/>
   </mergeCells>
-  <phoneticPr fontId="26" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/SuppXLS/Scen_TRA_ActiveModes.xlsx
+++ b/SuppXLS/Scen_TRA_ActiveModes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5B0396-CD0B-4C84-A5FA-EE50F27655F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AD136C-73CB-44B5-B909-85B3F25ECA98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -737,7 +737,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
@@ -745,6 +745,7 @@
     <numFmt numFmtId="168" formatCode="0.0000"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
     <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1093,7 +1094,7 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1195,6 +1196,7 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="171" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="20% - Accent5 2" xfId="9" xr:uid="{7F8DC7F5-A9E6-4E53-9FB8-C5D57F662307}"/>
@@ -2383,8 +2385,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:AQ177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S38" sqref="S38"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2941,7 +2943,7 @@
       </c>
       <c r="AH12" s="52">
         <f t="shared" si="0"/>
-        <v>0.30599999999999999</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="AI12" s="52">
         <f t="shared" si="0"/>
@@ -3080,7 +3082,7 @@
       </c>
       <c r="AH13" s="10">
         <f t="shared" si="1"/>
-        <v>0.497989762973442</v>
+        <v>0.496362345447385</v>
       </c>
       <c r="AI13" s="10">
         <f t="shared" si="1"/>
@@ -3601,7 +3603,7 @@
       </c>
       <c r="AH18" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="AI18" s="10">
         <f t="shared" si="4"/>
@@ -3740,7 +3742,7 @@
       </c>
       <c r="AH19" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="AI19" s="10">
         <f t="shared" si="5"/>
@@ -3931,7 +3933,7 @@
       </c>
       <c r="AH21" s="52">
         <f t="shared" si="6"/>
-        <v>0.57199999999999995</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="AI21" s="52">
         <f t="shared" si="6"/>
@@ -4070,7 +4072,7 @@
       </c>
       <c r="AH22" s="10">
         <f t="shared" si="7"/>
-        <v>0.28599999999999998</v>
+        <v>0.28549999999999998</v>
       </c>
       <c r="AI22" s="10">
         <f t="shared" si="7"/>
@@ -5279,7 +5281,7 @@
       </c>
       <c r="AH34" s="50">
         <f t="shared" si="14"/>
-        <v>1.0029999999999999</v>
+        <v>1.0025999999999999</v>
       </c>
       <c r="AI34" s="50">
         <f t="shared" si="14"/>
@@ -5405,7 +5407,7 @@
       </c>
       <c r="AH35" s="50">
         <f t="shared" si="14"/>
-        <v>0.95998976297344196</v>
+        <v>0.95946234544738496</v>
       </c>
       <c r="AI35" s="50">
         <f t="shared" si="14"/>
@@ -5709,7 +5711,7 @@
       </c>
       <c r="P41" s="50">
         <f t="shared" si="16"/>
-        <v>4.4000000000000003E-3</v>
+        <v>4.2000000000000006E-3</v>
       </c>
       <c r="Q41" s="50">
         <f t="shared" si="16"/>
@@ -5781,7 +5783,7 @@
       </c>
       <c r="AH41" s="50">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="AI41" s="50">
         <f t="shared" si="16"/>
@@ -5956,7 +5958,7 @@
       </c>
       <c r="AH43" s="52">
         <f t="shared" si="17"/>
-        <v>0.89</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="AI43" s="52">
         <f t="shared" si="17"/>
@@ -6306,7 +6308,7 @@
       </c>
       <c r="AH47" s="10">
         <f t="shared" si="19"/>
-        <v>0.11</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="AI47" s="10">
         <f t="shared" si="19"/>
@@ -6576,7 +6578,7 @@
       </c>
       <c r="P52" s="50">
         <f t="shared" si="21"/>
-        <v>1.0064</v>
+        <v>1.0062</v>
       </c>
       <c r="Q52" s="50">
         <f t="shared" si="21"/>
@@ -6648,7 +6650,7 @@
       </c>
       <c r="AH52" s="50">
         <f t="shared" si="21"/>
-        <v>1.0110000000000001</v>
+        <v>1.0011000000000001</v>
       </c>
       <c r="AI52" s="50">
         <f t="shared" si="21"/>
@@ -8486,7 +8488,7 @@
         <v>0.29539615700051852</v>
       </c>
       <c r="E141" s="44">
-        <v>0.34966256439645477</v>
+        <v>0.34967728765163869</v>
       </c>
       <c r="F141" s="44">
         <v>0.31311359703458036</v>
@@ -8540,7 +8542,7 @@
         <v>0.31520515014132622</v>
       </c>
       <c r="W141" s="44">
-        <v>0.30543827437637427</v>
+        <v>0.30496664626628506</v>
       </c>
       <c r="X141" s="44">
         <v>0.29765342162432462</v>
@@ -8566,14 +8568,14 @@
       <c r="B142" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="C142" s="44">
+      <c r="C142" s="57">
         <v>5.3963306308090382E-2</v>
       </c>
       <c r="D142" s="44">
         <v>4.9232692833419758E-2</v>
       </c>
       <c r="E142" s="44">
-        <v>5.8277094066075792E-2</v>
+        <v>5.8279547941939784E-2</v>
       </c>
       <c r="F142" s="44">
         <v>5.2185599505763403E-2</v>
@@ -8627,7 +8629,7 @@
         <v>5.2534191690221041E-2</v>
       </c>
       <c r="W142" s="44">
-        <v>5.0906379062729046E-2</v>
+        <v>5.0827774377714179E-2</v>
       </c>
       <c r="X142" s="44">
         <v>4.9608903604054101E-2</v>
@@ -8662,7 +8664,7 @@
         <v>8.4181954391599476E-4</v>
       </c>
       <c r="E143" s="44">
-        <v>1.4736843073167786E-3</v>
+        <v>1.4316393209477573E-3</v>
       </c>
       <c r="F143" s="44">
         <v>1.3698908311171865E-3</v>
@@ -8716,7 +8718,7 @@
         <v>7.9269582890742734E-4</v>
       </c>
       <c r="W143" s="44">
-        <v>0</v>
+        <v>1.544102850410962E-3</v>
       </c>
       <c r="X143" s="44">
         <v>7.4007830335184128E-4</v>
@@ -8749,7 +8751,7 @@
         <v>0.57696936147650701</v>
       </c>
       <c r="E144" s="44">
-        <v>0.41519891685215071</v>
+        <v>0.4152163996490737</v>
       </c>
       <c r="F144" s="44">
         <v>0.53837411623785481</v>
@@ -8803,7 +8805,7 @@
         <v>0.5314898835087899</v>
       </c>
       <c r="W144" s="44">
-        <v>0.5710449216561202</v>
+        <v>0.57016316956487822</v>
       </c>
       <c r="X144" s="44">
         <v>0.54463316447281129</v>
@@ -8838,7 +8840,7 @@
         <v>7.4490307781118984E-3</v>
       </c>
       <c r="E145" s="44">
-        <v>3.2041705931306341E-2</v>
+        <v>3.2043055112662859E-2</v>
       </c>
       <c r="F145" s="44">
         <v>1.4142087272297982E-2</v>
@@ -8892,7 +8894,7 @@
         <v>1.3327262086971724E-2</v>
       </c>
       <c r="W145" s="44">
-        <v>8.2106842864435349E-3</v>
+        <v>8.1980061454330136E-3</v>
       </c>
       <c r="X145" s="44">
         <v>7.2036254203120672E-3</v>
@@ -8925,7 +8927,7 @@
         <v>7.0110938367526743E-2</v>
       </c>
       <c r="E146" s="44">
-        <v>0.1139689510378053</v>
+        <v>0.11397374993285452</v>
       </c>
       <c r="F146" s="44">
         <v>8.0814709118386313E-2</v>
@@ -8979,7 +8981,7 @@
         <v>8.6650816743783748E-2</v>
       </c>
       <c r="W146" s="44">
-        <v>6.4399740618333048E-2</v>
+        <v>6.4300300795278542E-2</v>
       </c>
       <c r="X146" s="44">
         <v>0.10016080657514609</v>
@@ -9012,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="E147" s="44">
-        <v>2.9377083408890298E-2</v>
+        <v>2.9378320390882739E-2</v>
       </c>
       <c r="F147" s="44">
         <v>0</v>
@@ -9666,7 +9668,7 @@
         <v>2.1586268841599747E-3</v>
       </c>
       <c r="E157" s="44">
-        <v>4.3137182635283444E-3</v>
+        <v>4.1909857054726746E-3</v>
       </c>
       <c r="F157" s="44">
         <v>3.6319751739066989E-3</v>
@@ -9720,7 +9722,7 @@
         <v>2.1106258862285242E-3</v>
       </c>
       <c r="W157" s="44">
-        <v>0</v>
+        <v>4.0260002016890241E-3</v>
       </c>
       <c r="X157" s="44">
         <v>1.9054783663146626E-3</v>
@@ -9753,7 +9755,7 @@
         <v>0.88136996225712338</v>
       </c>
       <c r="E158" s="44">
-        <v>0.7240198055510555</v>
+        <v>0.72410905133504211</v>
       </c>
       <c r="F158" s="44">
         <v>0.85033097733510543</v>
@@ -9807,7 +9809,7 @@
         <v>0.84303694258501916</v>
       </c>
       <c r="W158" s="44">
-        <v>0.88919219682824724</v>
+        <v>0.88561230886447639</v>
       </c>
       <c r="X158" s="44">
         <v>0.83536706688667051</v>
@@ -9842,7 +9844,7 @@
         <v>9.3709663140288998E-3</v>
       </c>
       <c r="E159" s="44">
-        <v>4.6013893098741668E-2</v>
+        <v>4.6019564968395495E-2</v>
       </c>
       <c r="F159" s="44">
         <v>1.8394858695029128E-2</v>
@@ -9896,7 +9898,7 @@
         <v>1.7408913059663488E-2</v>
       </c>
       <c r="W159" s="44">
-        <v>1.0528920260910977E-2</v>
+        <v>1.0486530825816983E-2</v>
       </c>
       <c r="X159" s="44">
         <v>9.0992061135074936E-3</v>
@@ -9929,7 +9931,7 @@
         <v>0.10710044454468777</v>
       </c>
       <c r="E160" s="44">
-        <v>0.19873794082808949</v>
+        <v>0.19876243811835848</v>
       </c>
       <c r="F160" s="44">
         <v>0.12764218879595873</v>
@@ -9983,7 +9985,7 @@
         <v>0.13744351846908884</v>
       </c>
       <c r="W160" s="44">
-        <v>0.10027888291084175</v>
+        <v>9.9875160108017558E-2</v>
       </c>
       <c r="X160" s="44">
         <v>0.15362824863350735</v>
@@ -10016,7 +10018,7 @@
         <v>0</v>
       </c>
       <c r="E161" s="44">
-        <v>2.6914642258584892E-2</v>
+        <v>2.6917959872731177E-2</v>
       </c>
       <c r="F161" s="44">
         <v>0</v>
@@ -10190,7 +10192,7 @@
         <v>1</v>
       </c>
       <c r="E163" s="48">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="F163" s="48">
         <v>1</v>
@@ -10244,7 +10246,7 @@
         <v>1</v>
       </c>
       <c r="W163" s="48">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="X163" s="48">
         <v>1</v>
